--- a/NameFile.xlsx
+++ b/NameFile.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S31"/>
+  <dimension ref="A1:S62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -527,16 +527,16 @@
         <v>44805</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1432.04</v>
       </c>
       <c r="D2" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>1432.04</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -580,16 +580,16 @@
         <v>44806</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1679.06</v>
       </c>
       <c r="D3" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>1679.06</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>2</v>
@@ -633,16 +633,16 @@
         <v>44807</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1471.74</v>
       </c>
       <c r="D4" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>1471.74</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>2</v>
@@ -686,16 +686,16 @@
         <v>44808</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1473</v>
       </c>
       <c r="D5" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>1473</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -739,16 +739,16 @@
         <v>44809</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1496</v>
       </c>
       <c r="D6" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>1496</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>2</v>
@@ -792,16 +792,16 @@
         <v>44810</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1401</v>
       </c>
       <c r="D7" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>1401</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>2</v>
@@ -845,16 +845,16 @@
         <v>44811</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1401</v>
       </c>
       <c r="D8" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>1401</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>2</v>
@@ -898,16 +898,16 @@
         <v>44812</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1358.88</v>
       </c>
       <c r="D9" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>1358.88</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>2</v>
@@ -951,16 +951,16 @@
         <v>44813</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1230.93</v>
       </c>
       <c r="D10" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>1230.93</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>1</v>
@@ -1004,16 +1004,16 @@
         <v>44814</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1071.84</v>
       </c>
       <c r="D11" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>1071.84</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>2</v>
@@ -1057,16 +1057,16 @@
         <v>44815</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1727.74</v>
       </c>
       <c r="D12" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>1727.74</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -1110,16 +1110,16 @@
         <v>44816</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1371.19</v>
       </c>
       <c r="D13" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>1371.19</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1163,16 +1163,16 @@
         <v>44817</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1318</v>
       </c>
       <c r="D14" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>1318</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1216,16 +1216,16 @@
         <v>44818</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1388</v>
       </c>
       <c r="D15" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>1388</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -1269,16 +1269,16 @@
         <v>44819</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1386.52</v>
       </c>
       <c r="D16" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>1386.52</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1322,16 +1322,16 @@
         <v>44820</v>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1471.57</v>
       </c>
       <c r="D17" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>1471.57</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>1</v>
@@ -1375,16 +1375,16 @@
         <v>44821</v>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>1252.17</v>
       </c>
       <c r="D18" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>1252.17</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>2</v>
@@ -1428,16 +1428,16 @@
         <v>44822</v>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1320.83</v>
       </c>
       <c r="D19" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>1320.83</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -1481,16 +1481,16 @@
         <v>44823</v>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1360.5</v>
       </c>
       <c r="D20" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>1360.5</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -1534,16 +1534,16 @@
         <v>44824</v>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>1202.25</v>
       </c>
       <c r="D21" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>1202.25</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -1587,16 +1587,16 @@
         <v>44825</v>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>1145.99</v>
       </c>
       <c r="D22" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>1145.99</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -1640,16 +1640,16 @@
         <v>44826</v>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>1146</v>
       </c>
       <c r="D23" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>1146</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -1693,16 +1693,16 @@
         <v>44827</v>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>1139.38</v>
       </c>
       <c r="D24" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>1139.38</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -1746,16 +1746,16 @@
         <v>44828</v>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>1199.33</v>
       </c>
       <c r="D25" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>1199.33</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -1799,16 +1799,16 @@
         <v>44829</v>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>1130.83</v>
       </c>
       <c r="D26" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>1130.83</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -1852,16 +1852,16 @@
         <v>44830</v>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>1242.48</v>
       </c>
       <c r="D27" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>1242.48</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>1</v>
@@ -1905,16 +1905,16 @@
         <v>44831</v>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>1228.03</v>
       </c>
       <c r="D28" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>1228.03</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>1</v>
@@ -1958,16 +1958,16 @@
         <v>44832</v>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>1164.58</v>
       </c>
       <c r="D29" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>1164.58</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -2011,16 +2011,16 @@
         <v>44833</v>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>1059.03</v>
       </c>
       <c r="D30" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>1059.03</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -2064,16 +2064,16 @@
         <v>44834</v>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>1059</v>
       </c>
       <c r="D31" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>1059</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2109,6 +2109,1649 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>44835</v>
+      </c>
+      <c r="B32" t="n">
+        <v>22</v>
+      </c>
+      <c r="C32" t="n">
+        <v>1825</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>1</v>
+      </c>
+      <c r="G32" t="n">
+        <v>1838</v>
+      </c>
+      <c r="H32" t="n">
+        <v>11</v>
+      </c>
+      <c r="I32" t="n">
+        <v>1357.68</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>37</v>
+      </c>
+      <c r="O32" t="n">
+        <v>2213.04</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>44836</v>
+      </c>
+      <c r="B33" t="n">
+        <v>8</v>
+      </c>
+      <c r="C33" t="n">
+        <v>1920.35</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>1</v>
+      </c>
+      <c r="G33" t="n">
+        <v>1866</v>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+      <c r="I33" t="n">
+        <v>1343.48</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>57</v>
+      </c>
+      <c r="O33" t="n">
+        <v>1583.56</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>44837</v>
+      </c>
+      <c r="B34" t="n">
+        <v>8</v>
+      </c>
+      <c r="C34" t="n">
+        <v>1920.35</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>1</v>
+      </c>
+      <c r="G34" t="n">
+        <v>1938</v>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+      <c r="I34" t="n">
+        <v>1343.48</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>57</v>
+      </c>
+      <c r="O34" t="n">
+        <v>1583.56</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>44838</v>
+      </c>
+      <c r="B35" t="n">
+        <v>19</v>
+      </c>
+      <c r="C35" t="n">
+        <v>1920.35</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>2</v>
+      </c>
+      <c r="G35" t="n">
+        <v>1938</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>5</v>
+      </c>
+      <c r="K35" t="n">
+        <v>1274</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>20</v>
+      </c>
+      <c r="O35" t="n">
+        <v>419.03</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>44839</v>
+      </c>
+      <c r="B36" t="n">
+        <v>22</v>
+      </c>
+      <c r="C36" t="n">
+        <v>1825</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>2</v>
+      </c>
+      <c r="G36" t="n">
+        <v>1477</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>12</v>
+      </c>
+      <c r="K36" t="n">
+        <v>1818</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>20</v>
+      </c>
+      <c r="O36" t="n">
+        <v>419.03</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>44840</v>
+      </c>
+      <c r="B37" t="n">
+        <v>19</v>
+      </c>
+      <c r="C37" t="n">
+        <v>1825</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>2</v>
+      </c>
+      <c r="G37" t="n">
+        <v>1477.3</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>11</v>
+      </c>
+      <c r="K37" t="n">
+        <v>1818</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>20</v>
+      </c>
+      <c r="O37" t="n">
+        <v>419.03</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>44841</v>
+      </c>
+      <c r="B38" t="n">
+        <v>25</v>
+      </c>
+      <c r="C38" t="n">
+        <v>1914</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>2</v>
+      </c>
+      <c r="G38" t="n">
+        <v>1504.78</v>
+      </c>
+      <c r="H38" t="n">
+        <v>11</v>
+      </c>
+      <c r="I38" t="n">
+        <v>1343.48</v>
+      </c>
+      <c r="J38" t="n">
+        <v>12</v>
+      </c>
+      <c r="K38" t="n">
+        <v>1538.59</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>20</v>
+      </c>
+      <c r="O38" t="n">
+        <v>419.03</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>44842</v>
+      </c>
+      <c r="B39" t="n">
+        <v>32</v>
+      </c>
+      <c r="C39" t="n">
+        <v>1914</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>11</v>
+      </c>
+      <c r="I39" t="n">
+        <v>1343.48</v>
+      </c>
+      <c r="J39" t="n">
+        <v>15</v>
+      </c>
+      <c r="K39" t="n">
+        <v>1566.07</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>20</v>
+      </c>
+      <c r="O39" t="n">
+        <v>419.03</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>44843</v>
+      </c>
+      <c r="B40" t="n">
+        <v>24</v>
+      </c>
+      <c r="C40" t="n">
+        <v>1362.33</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>11</v>
+      </c>
+      <c r="I40" t="n">
+        <v>1343.48</v>
+      </c>
+      <c r="J40" t="n">
+        <v>18</v>
+      </c>
+      <c r="K40" t="n">
+        <v>1530</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>44844</v>
+      </c>
+      <c r="B41" t="n">
+        <v>16</v>
+      </c>
+      <c r="C41" t="n">
+        <v>1825</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>11</v>
+      </c>
+      <c r="I41" t="n">
+        <v>1343.48</v>
+      </c>
+      <c r="J41" t="n">
+        <v>16</v>
+      </c>
+      <c r="K41" t="n">
+        <v>1647.71</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>15</v>
+      </c>
+      <c r="O41" t="n">
+        <v>1824</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>44845</v>
+      </c>
+      <c r="B42" t="n">
+        <v>20</v>
+      </c>
+      <c r="C42" t="n">
+        <v>1825</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="n">
+        <v>1</v>
+      </c>
+      <c r="G42" t="n">
+        <v>1477.3</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>1826.09</v>
+      </c>
+      <c r="J42" t="n">
+        <v>16</v>
+      </c>
+      <c r="K42" t="n">
+        <v>1212</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>15</v>
+      </c>
+      <c r="O42" t="n">
+        <v>1824</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>44846</v>
+      </c>
+      <c r="B43" t="n">
+        <v>19</v>
+      </c>
+      <c r="C43" t="n">
+        <v>1823</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
+        <v>1</v>
+      </c>
+      <c r="G43" t="n">
+        <v>1504.78</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>1826.09</v>
+      </c>
+      <c r="J43" t="n">
+        <v>16</v>
+      </c>
+      <c r="K43" t="n">
+        <v>1212.46</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>44847</v>
+      </c>
+      <c r="B44" t="n">
+        <v>16</v>
+      </c>
+      <c r="C44" t="n">
+        <v>1865</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>1</v>
+      </c>
+      <c r="G44" t="n">
+        <v>1477</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>16</v>
+      </c>
+      <c r="K44" t="n">
+        <v>1274</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>44848</v>
+      </c>
+      <c r="B45" t="n">
+        <v>31</v>
+      </c>
+      <c r="C45" t="n">
+        <v>1825</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
+        <v>1</v>
+      </c>
+      <c r="G45" t="n">
+        <v>1477</v>
+      </c>
+      <c r="H45" t="n">
+        <v>11</v>
+      </c>
+      <c r="I45" t="n">
+        <v>1343.48</v>
+      </c>
+      <c r="J45" t="n">
+        <v>14</v>
+      </c>
+      <c r="K45" t="n">
+        <v>1625</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44849</v>
+      </c>
+      <c r="B46" t="n">
+        <v>38</v>
+      </c>
+      <c r="C46" t="n">
+        <v>1725</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>1</v>
+      </c>
+      <c r="G46" t="n">
+        <v>1938.17</v>
+      </c>
+      <c r="H46" t="n">
+        <v>11</v>
+      </c>
+      <c r="I46" t="n">
+        <v>1343.48</v>
+      </c>
+      <c r="J46" t="n">
+        <v>17</v>
+      </c>
+      <c r="K46" t="n">
+        <v>1274</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>44850</v>
+      </c>
+      <c r="B47" t="n">
+        <v>19</v>
+      </c>
+      <c r="C47" t="n">
+        <v>1825</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="n">
+        <v>1</v>
+      </c>
+      <c r="G47" t="n">
+        <v>1965.65</v>
+      </c>
+      <c r="H47" t="n">
+        <v>11</v>
+      </c>
+      <c r="I47" t="n">
+        <v>1343.48</v>
+      </c>
+      <c r="J47" t="n">
+        <v>12</v>
+      </c>
+      <c r="K47" t="n">
+        <v>1275</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0</v>
+      </c>
+      <c r="O47" t="n">
+        <v>0</v>
+      </c>
+      <c r="P47" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>44851</v>
+      </c>
+      <c r="B48" t="n">
+        <v>25</v>
+      </c>
+      <c r="C48" t="n">
+        <v>1857</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" t="n">
+        <v>11</v>
+      </c>
+      <c r="I48" t="n">
+        <v>1343.48</v>
+      </c>
+      <c r="J48" t="n">
+        <v>17</v>
+      </c>
+      <c r="K48" t="n">
+        <v>1552</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" t="n">
+        <v>15</v>
+      </c>
+      <c r="O48" t="n">
+        <v>1824</v>
+      </c>
+      <c r="P48" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>44852</v>
+      </c>
+      <c r="B49" t="n">
+        <v>27</v>
+      </c>
+      <c r="C49" t="n">
+        <v>1768</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" t="n">
+        <v>1</v>
+      </c>
+      <c r="G49" t="n">
+        <v>1938.17</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>24</v>
+      </c>
+      <c r="K49" t="n">
+        <v>1505</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0</v>
+      </c>
+      <c r="N49" t="n">
+        <v>15</v>
+      </c>
+      <c r="O49" t="n">
+        <v>1824</v>
+      </c>
+      <c r="P49" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>44853</v>
+      </c>
+      <c r="B50" t="n">
+        <v>27</v>
+      </c>
+      <c r="C50" t="n">
+        <v>1768</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" t="n">
+        <v>1</v>
+      </c>
+      <c r="G50" t="n">
+        <v>1965.65</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" t="n">
+        <v>21</v>
+      </c>
+      <c r="K50" t="n">
+        <v>1404</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0</v>
+      </c>
+      <c r="O50" t="n">
+        <v>0</v>
+      </c>
+      <c r="P50" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>44854</v>
+      </c>
+      <c r="B51" t="n">
+        <v>25</v>
+      </c>
+      <c r="C51" t="n">
+        <v>1825</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="n">
+        <v>1</v>
+      </c>
+      <c r="G51" t="n">
+        <v>1966</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>20</v>
+      </c>
+      <c r="K51" t="n">
+        <v>1404</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0</v>
+      </c>
+      <c r="O51" t="n">
+        <v>0</v>
+      </c>
+      <c r="P51" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>44855</v>
+      </c>
+      <c r="B52" t="n">
+        <v>29</v>
+      </c>
+      <c r="C52" t="n">
+        <v>1725</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0</v>
+      </c>
+      <c r="F52" t="n">
+        <v>1</v>
+      </c>
+      <c r="G52" t="n">
+        <v>1966</v>
+      </c>
+      <c r="H52" t="n">
+        <v>11</v>
+      </c>
+      <c r="I52" t="n">
+        <v>1343.48</v>
+      </c>
+      <c r="J52" t="n">
+        <v>11</v>
+      </c>
+      <c r="K52" t="n">
+        <v>1274.7</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0</v>
+      </c>
+      <c r="O52" t="n">
+        <v>0</v>
+      </c>
+      <c r="P52" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>44856</v>
+      </c>
+      <c r="B53" t="n">
+        <v>32</v>
+      </c>
+      <c r="C53" t="n">
+        <v>1893</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F53" t="n">
+        <v>1</v>
+      </c>
+      <c r="G53" t="n">
+        <v>1982.96</v>
+      </c>
+      <c r="H53" t="n">
+        <v>22</v>
+      </c>
+      <c r="I53" t="n">
+        <v>1654.28</v>
+      </c>
+      <c r="J53" t="n">
+        <v>5</v>
+      </c>
+      <c r="K53" t="n">
+        <v>1509</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0</v>
+      </c>
+      <c r="O53" t="n">
+        <v>0</v>
+      </c>
+      <c r="P53" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>44857</v>
+      </c>
+      <c r="B54" t="n">
+        <v>25</v>
+      </c>
+      <c r="C54" t="n">
+        <v>1825</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0</v>
+      </c>
+      <c r="H54" t="n">
+        <v>22</v>
+      </c>
+      <c r="I54" t="n">
+        <v>1760.3</v>
+      </c>
+      <c r="J54" t="n">
+        <v>5</v>
+      </c>
+      <c r="K54" t="n">
+        <v>1403.61</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0</v>
+      </c>
+      <c r="O54" t="n">
+        <v>0</v>
+      </c>
+      <c r="P54" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>44858</v>
+      </c>
+      <c r="B55" t="n">
+        <v>24</v>
+      </c>
+      <c r="C55" t="n">
+        <v>1902.61</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" t="n">
+        <v>12</v>
+      </c>
+      <c r="I55" t="n">
+        <v>1689.13</v>
+      </c>
+      <c r="J55" t="n">
+        <v>12</v>
+      </c>
+      <c r="K55" t="n">
+        <v>1419.35</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0</v>
+      </c>
+      <c r="N55" t="n">
+        <v>10</v>
+      </c>
+      <c r="O55" t="n">
+        <v>1824</v>
+      </c>
+      <c r="P55" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>44859</v>
+      </c>
+      <c r="B56" t="n">
+        <v>28</v>
+      </c>
+      <c r="C56" t="n">
+        <v>1825</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>12</v>
+      </c>
+      <c r="K56" t="n">
+        <v>1527</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0</v>
+      </c>
+      <c r="N56" t="n">
+        <v>10</v>
+      </c>
+      <c r="O56" t="n">
+        <v>1824</v>
+      </c>
+      <c r="P56" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>44860</v>
+      </c>
+      <c r="B57" t="n">
+        <v>26</v>
+      </c>
+      <c r="C57" t="n">
+        <v>1775.64</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0</v>
+      </c>
+      <c r="H57" t="n">
+        <v>12</v>
+      </c>
+      <c r="I57" t="n">
+        <v>1804.04</v>
+      </c>
+      <c r="J57" t="n">
+        <v>12</v>
+      </c>
+      <c r="K57" t="n">
+        <v>1509.04</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0</v>
+      </c>
+      <c r="O57" t="n">
+        <v>0</v>
+      </c>
+      <c r="P57" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>44861</v>
+      </c>
+      <c r="B58" t="n">
+        <v>23</v>
+      </c>
+      <c r="C58" t="n">
+        <v>1854</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0</v>
+      </c>
+      <c r="H58" t="n">
+        <v>12</v>
+      </c>
+      <c r="I58" t="n">
+        <v>1804.04</v>
+      </c>
+      <c r="J58" t="n">
+        <v>12</v>
+      </c>
+      <c r="K58" t="n">
+        <v>1480.4</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0</v>
+      </c>
+      <c r="O58" t="n">
+        <v>0</v>
+      </c>
+      <c r="P58" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>44862</v>
+      </c>
+      <c r="B59" t="n">
+        <v>30</v>
+      </c>
+      <c r="C59" t="n">
+        <v>1854</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0</v>
+      </c>
+      <c r="H59" t="n">
+        <v>11</v>
+      </c>
+      <c r="I59" t="n">
+        <v>1343.48</v>
+      </c>
+      <c r="J59" t="n">
+        <v>12</v>
+      </c>
+      <c r="K59" t="n">
+        <v>1395.65</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0</v>
+      </c>
+      <c r="O59" t="n">
+        <v>0</v>
+      </c>
+      <c r="P59" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>44863</v>
+      </c>
+      <c r="B60" t="n">
+        <v>32</v>
+      </c>
+      <c r="C60" t="n">
+        <v>1854</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0</v>
+      </c>
+      <c r="H60" t="n">
+        <v>11</v>
+      </c>
+      <c r="I60" t="n">
+        <v>1343.48</v>
+      </c>
+      <c r="J60" t="n">
+        <v>13</v>
+      </c>
+      <c r="K60" t="n">
+        <v>1425</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0</v>
+      </c>
+      <c r="O60" t="n">
+        <v>0</v>
+      </c>
+      <c r="P60" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>44864</v>
+      </c>
+      <c r="B61" t="n">
+        <v>27</v>
+      </c>
+      <c r="C61" t="n">
+        <v>1803</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0</v>
+      </c>
+      <c r="F61" t="n">
+        <v>1</v>
+      </c>
+      <c r="G61" t="n">
+        <v>1477</v>
+      </c>
+      <c r="H61" t="n">
+        <v>11</v>
+      </c>
+      <c r="I61" t="n">
+        <v>1343.48</v>
+      </c>
+      <c r="J61" t="n">
+        <v>15</v>
+      </c>
+      <c r="K61" t="n">
+        <v>1405.06</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0</v>
+      </c>
+      <c r="O61" t="n">
+        <v>0</v>
+      </c>
+      <c r="P61" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>44865</v>
+      </c>
+      <c r="B62" t="n">
+        <v>27</v>
+      </c>
+      <c r="C62" t="n">
+        <v>1803.09</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0</v>
+      </c>
+      <c r="H62" t="n">
+        <v>11</v>
+      </c>
+      <c r="I62" t="n">
+        <v>1343.48</v>
+      </c>
+      <c r="J62" t="n">
+        <v>13</v>
+      </c>
+      <c r="K62" t="n">
+        <v>1395.65</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0</v>
+      </c>
+      <c r="N62" t="n">
+        <v>0</v>
+      </c>
+      <c r="O62" t="n">
+        <v>0</v>
+      </c>
+      <c r="P62" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q62" t="n">
         <v>0</v>
       </c>
     </row>

--- a/NameFile.xlsx
+++ b/NameFile.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S62"/>
+  <dimension ref="A1:S31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2112,1649 +2112,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>44835</v>
-      </c>
-      <c r="B32" t="n">
-        <v>22</v>
-      </c>
-      <c r="C32" t="n">
-        <v>1825</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
-        <v>1</v>
-      </c>
-      <c r="G32" t="n">
-        <v>1838</v>
-      </c>
-      <c r="H32" t="n">
-        <v>11</v>
-      </c>
-      <c r="I32" t="n">
-        <v>1357.68</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>37</v>
-      </c>
-      <c r="O32" t="n">
-        <v>2213.04</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>44836</v>
-      </c>
-      <c r="B33" t="n">
-        <v>8</v>
-      </c>
-      <c r="C33" t="n">
-        <v>1920.35</v>
-      </c>
-      <c r="D33" t="n">
-        <v>0</v>
-      </c>
-      <c r="E33" t="n">
-        <v>0</v>
-      </c>
-      <c r="F33" t="n">
-        <v>1</v>
-      </c>
-      <c r="G33" t="n">
-        <v>1866</v>
-      </c>
-      <c r="H33" t="n">
-        <v>10</v>
-      </c>
-      <c r="I33" t="n">
-        <v>1343.48</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0</v>
-      </c>
-      <c r="L33" t="n">
-        <v>0</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="n">
-        <v>57</v>
-      </c>
-      <c r="O33" t="n">
-        <v>1583.56</v>
-      </c>
-      <c r="P33" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>44837</v>
-      </c>
-      <c r="B34" t="n">
-        <v>8</v>
-      </c>
-      <c r="C34" t="n">
-        <v>1920.35</v>
-      </c>
-      <c r="D34" t="n">
-        <v>0</v>
-      </c>
-      <c r="E34" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" t="n">
-        <v>1</v>
-      </c>
-      <c r="G34" t="n">
-        <v>1938</v>
-      </c>
-      <c r="H34" t="n">
-        <v>10</v>
-      </c>
-      <c r="I34" t="n">
-        <v>1343.48</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>57</v>
-      </c>
-      <c r="O34" t="n">
-        <v>1583.56</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>44838</v>
-      </c>
-      <c r="B35" t="n">
-        <v>19</v>
-      </c>
-      <c r="C35" t="n">
-        <v>1920.35</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
-        <v>2</v>
-      </c>
-      <c r="G35" t="n">
-        <v>1938</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>5</v>
-      </c>
-      <c r="K35" t="n">
-        <v>1274</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>20</v>
-      </c>
-      <c r="O35" t="n">
-        <v>419.03</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>44839</v>
-      </c>
-      <c r="B36" t="n">
-        <v>22</v>
-      </c>
-      <c r="C36" t="n">
-        <v>1825</v>
-      </c>
-      <c r="D36" t="n">
-        <v>0</v>
-      </c>
-      <c r="E36" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" t="n">
-        <v>2</v>
-      </c>
-      <c r="G36" t="n">
-        <v>1477</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="n">
-        <v>12</v>
-      </c>
-      <c r="K36" t="n">
-        <v>1818</v>
-      </c>
-      <c r="L36" t="n">
-        <v>0</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="n">
-        <v>20</v>
-      </c>
-      <c r="O36" t="n">
-        <v>419.03</v>
-      </c>
-      <c r="P36" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>44840</v>
-      </c>
-      <c r="B37" t="n">
-        <v>19</v>
-      </c>
-      <c r="C37" t="n">
-        <v>1825</v>
-      </c>
-      <c r="D37" t="n">
-        <v>0</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" t="n">
-        <v>2</v>
-      </c>
-      <c r="G37" t="n">
-        <v>1477.3</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>11</v>
-      </c>
-      <c r="K37" t="n">
-        <v>1818</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>20</v>
-      </c>
-      <c r="O37" t="n">
-        <v>419.03</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>44841</v>
-      </c>
-      <c r="B38" t="n">
-        <v>25</v>
-      </c>
-      <c r="C38" t="n">
-        <v>1914</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
-        <v>2</v>
-      </c>
-      <c r="G38" t="n">
-        <v>1504.78</v>
-      </c>
-      <c r="H38" t="n">
-        <v>11</v>
-      </c>
-      <c r="I38" t="n">
-        <v>1343.48</v>
-      </c>
-      <c r="J38" t="n">
-        <v>12</v>
-      </c>
-      <c r="K38" t="n">
-        <v>1538.59</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>20</v>
-      </c>
-      <c r="O38" t="n">
-        <v>419.03</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>44842</v>
-      </c>
-      <c r="B39" t="n">
-        <v>32</v>
-      </c>
-      <c r="C39" t="n">
-        <v>1914</v>
-      </c>
-      <c r="D39" t="n">
-        <v>0</v>
-      </c>
-      <c r="E39" t="n">
-        <v>0</v>
-      </c>
-      <c r="F39" t="n">
-        <v>0</v>
-      </c>
-      <c r="G39" t="n">
-        <v>0</v>
-      </c>
-      <c r="H39" t="n">
-        <v>11</v>
-      </c>
-      <c r="I39" t="n">
-        <v>1343.48</v>
-      </c>
-      <c r="J39" t="n">
-        <v>15</v>
-      </c>
-      <c r="K39" t="n">
-        <v>1566.07</v>
-      </c>
-      <c r="L39" t="n">
-        <v>0</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="n">
-        <v>20</v>
-      </c>
-      <c r="O39" t="n">
-        <v>419.03</v>
-      </c>
-      <c r="P39" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>44843</v>
-      </c>
-      <c r="B40" t="n">
-        <v>24</v>
-      </c>
-      <c r="C40" t="n">
-        <v>1362.33</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>11</v>
-      </c>
-      <c r="I40" t="n">
-        <v>1343.48</v>
-      </c>
-      <c r="J40" t="n">
-        <v>18</v>
-      </c>
-      <c r="K40" t="n">
-        <v>1530</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>44844</v>
-      </c>
-      <c r="B41" t="n">
-        <v>16</v>
-      </c>
-      <c r="C41" t="n">
-        <v>1825</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>11</v>
-      </c>
-      <c r="I41" t="n">
-        <v>1343.48</v>
-      </c>
-      <c r="J41" t="n">
-        <v>16</v>
-      </c>
-      <c r="K41" t="n">
-        <v>1647.71</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>15</v>
-      </c>
-      <c r="O41" t="n">
-        <v>1824</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>44845</v>
-      </c>
-      <c r="B42" t="n">
-        <v>20</v>
-      </c>
-      <c r="C42" t="n">
-        <v>1825</v>
-      </c>
-      <c r="D42" t="n">
-        <v>0</v>
-      </c>
-      <c r="E42" t="n">
-        <v>0</v>
-      </c>
-      <c r="F42" t="n">
-        <v>1</v>
-      </c>
-      <c r="G42" t="n">
-        <v>1477.3</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>1826.09</v>
-      </c>
-      <c r="J42" t="n">
-        <v>16</v>
-      </c>
-      <c r="K42" t="n">
-        <v>1212</v>
-      </c>
-      <c r="L42" t="n">
-        <v>0</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" t="n">
-        <v>15</v>
-      </c>
-      <c r="O42" t="n">
-        <v>1824</v>
-      </c>
-      <c r="P42" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>44846</v>
-      </c>
-      <c r="B43" t="n">
-        <v>19</v>
-      </c>
-      <c r="C43" t="n">
-        <v>1823</v>
-      </c>
-      <c r="D43" t="n">
-        <v>0</v>
-      </c>
-      <c r="E43" t="n">
-        <v>0</v>
-      </c>
-      <c r="F43" t="n">
-        <v>1</v>
-      </c>
-      <c r="G43" t="n">
-        <v>1504.78</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>1826.09</v>
-      </c>
-      <c r="J43" t="n">
-        <v>16</v>
-      </c>
-      <c r="K43" t="n">
-        <v>1212.46</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>44847</v>
-      </c>
-      <c r="B44" t="n">
-        <v>16</v>
-      </c>
-      <c r="C44" t="n">
-        <v>1865</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
-        <v>1</v>
-      </c>
-      <c r="G44" t="n">
-        <v>1477</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>16</v>
-      </c>
-      <c r="K44" t="n">
-        <v>1274</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>44848</v>
-      </c>
-      <c r="B45" t="n">
-        <v>31</v>
-      </c>
-      <c r="C45" t="n">
-        <v>1825</v>
-      </c>
-      <c r="D45" t="n">
-        <v>0</v>
-      </c>
-      <c r="E45" t="n">
-        <v>0</v>
-      </c>
-      <c r="F45" t="n">
-        <v>1</v>
-      </c>
-      <c r="G45" t="n">
-        <v>1477</v>
-      </c>
-      <c r="H45" t="n">
-        <v>11</v>
-      </c>
-      <c r="I45" t="n">
-        <v>1343.48</v>
-      </c>
-      <c r="J45" t="n">
-        <v>14</v>
-      </c>
-      <c r="K45" t="n">
-        <v>1625</v>
-      </c>
-      <c r="L45" t="n">
-        <v>0</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="n">
-        <v>0</v>
-      </c>
-      <c r="O45" t="n">
-        <v>0</v>
-      </c>
-      <c r="P45" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44849</v>
-      </c>
-      <c r="B46" t="n">
-        <v>38</v>
-      </c>
-      <c r="C46" t="n">
-        <v>1725</v>
-      </c>
-      <c r="D46" t="n">
-        <v>0</v>
-      </c>
-      <c r="E46" t="n">
-        <v>0</v>
-      </c>
-      <c r="F46" t="n">
-        <v>1</v>
-      </c>
-      <c r="G46" t="n">
-        <v>1938.17</v>
-      </c>
-      <c r="H46" t="n">
-        <v>11</v>
-      </c>
-      <c r="I46" t="n">
-        <v>1343.48</v>
-      </c>
-      <c r="J46" t="n">
-        <v>17</v>
-      </c>
-      <c r="K46" t="n">
-        <v>1274</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>44850</v>
-      </c>
-      <c r="B47" t="n">
-        <v>19</v>
-      </c>
-      <c r="C47" t="n">
-        <v>1825</v>
-      </c>
-      <c r="D47" t="n">
-        <v>0</v>
-      </c>
-      <c r="E47" t="n">
-        <v>0</v>
-      </c>
-      <c r="F47" t="n">
-        <v>1</v>
-      </c>
-      <c r="G47" t="n">
-        <v>1965.65</v>
-      </c>
-      <c r="H47" t="n">
-        <v>11</v>
-      </c>
-      <c r="I47" t="n">
-        <v>1343.48</v>
-      </c>
-      <c r="J47" t="n">
-        <v>12</v>
-      </c>
-      <c r="K47" t="n">
-        <v>1275</v>
-      </c>
-      <c r="L47" t="n">
-        <v>0</v>
-      </c>
-      <c r="M47" t="n">
-        <v>0</v>
-      </c>
-      <c r="N47" t="n">
-        <v>0</v>
-      </c>
-      <c r="O47" t="n">
-        <v>0</v>
-      </c>
-      <c r="P47" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q47" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>44851</v>
-      </c>
-      <c r="B48" t="n">
-        <v>25</v>
-      </c>
-      <c r="C48" t="n">
-        <v>1857</v>
-      </c>
-      <c r="D48" t="n">
-        <v>0</v>
-      </c>
-      <c r="E48" t="n">
-        <v>0</v>
-      </c>
-      <c r="F48" t="n">
-        <v>0</v>
-      </c>
-      <c r="G48" t="n">
-        <v>0</v>
-      </c>
-      <c r="H48" t="n">
-        <v>11</v>
-      </c>
-      <c r="I48" t="n">
-        <v>1343.48</v>
-      </c>
-      <c r="J48" t="n">
-        <v>17</v>
-      </c>
-      <c r="K48" t="n">
-        <v>1552</v>
-      </c>
-      <c r="L48" t="n">
-        <v>0</v>
-      </c>
-      <c r="M48" t="n">
-        <v>0</v>
-      </c>
-      <c r="N48" t="n">
-        <v>15</v>
-      </c>
-      <c r="O48" t="n">
-        <v>1824</v>
-      </c>
-      <c r="P48" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q48" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>44852</v>
-      </c>
-      <c r="B49" t="n">
-        <v>27</v>
-      </c>
-      <c r="C49" t="n">
-        <v>1768</v>
-      </c>
-      <c r="D49" t="n">
-        <v>0</v>
-      </c>
-      <c r="E49" t="n">
-        <v>0</v>
-      </c>
-      <c r="F49" t="n">
-        <v>1</v>
-      </c>
-      <c r="G49" t="n">
-        <v>1938.17</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>24</v>
-      </c>
-      <c r="K49" t="n">
-        <v>1505</v>
-      </c>
-      <c r="L49" t="n">
-        <v>0</v>
-      </c>
-      <c r="M49" t="n">
-        <v>0</v>
-      </c>
-      <c r="N49" t="n">
-        <v>15</v>
-      </c>
-      <c r="O49" t="n">
-        <v>1824</v>
-      </c>
-      <c r="P49" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q49" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>44853</v>
-      </c>
-      <c r="B50" t="n">
-        <v>27</v>
-      </c>
-      <c r="C50" t="n">
-        <v>1768</v>
-      </c>
-      <c r="D50" t="n">
-        <v>0</v>
-      </c>
-      <c r="E50" t="n">
-        <v>0</v>
-      </c>
-      <c r="F50" t="n">
-        <v>1</v>
-      </c>
-      <c r="G50" t="n">
-        <v>1965.65</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="n">
-        <v>21</v>
-      </c>
-      <c r="K50" t="n">
-        <v>1404</v>
-      </c>
-      <c r="L50" t="n">
-        <v>0</v>
-      </c>
-      <c r="M50" t="n">
-        <v>0</v>
-      </c>
-      <c r="N50" t="n">
-        <v>0</v>
-      </c>
-      <c r="O50" t="n">
-        <v>0</v>
-      </c>
-      <c r="P50" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q50" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>44854</v>
-      </c>
-      <c r="B51" t="n">
-        <v>25</v>
-      </c>
-      <c r="C51" t="n">
-        <v>1825</v>
-      </c>
-      <c r="D51" t="n">
-        <v>0</v>
-      </c>
-      <c r="E51" t="n">
-        <v>0</v>
-      </c>
-      <c r="F51" t="n">
-        <v>1</v>
-      </c>
-      <c r="G51" t="n">
-        <v>1966</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>20</v>
-      </c>
-      <c r="K51" t="n">
-        <v>1404</v>
-      </c>
-      <c r="L51" t="n">
-        <v>0</v>
-      </c>
-      <c r="M51" t="n">
-        <v>0</v>
-      </c>
-      <c r="N51" t="n">
-        <v>0</v>
-      </c>
-      <c r="O51" t="n">
-        <v>0</v>
-      </c>
-      <c r="P51" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q51" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>44855</v>
-      </c>
-      <c r="B52" t="n">
-        <v>29</v>
-      </c>
-      <c r="C52" t="n">
-        <v>1725</v>
-      </c>
-      <c r="D52" t="n">
-        <v>0</v>
-      </c>
-      <c r="E52" t="n">
-        <v>0</v>
-      </c>
-      <c r="F52" t="n">
-        <v>1</v>
-      </c>
-      <c r="G52" t="n">
-        <v>1966</v>
-      </c>
-      <c r="H52" t="n">
-        <v>11</v>
-      </c>
-      <c r="I52" t="n">
-        <v>1343.48</v>
-      </c>
-      <c r="J52" t="n">
-        <v>11</v>
-      </c>
-      <c r="K52" t="n">
-        <v>1274.7</v>
-      </c>
-      <c r="L52" t="n">
-        <v>0</v>
-      </c>
-      <c r="M52" t="n">
-        <v>0</v>
-      </c>
-      <c r="N52" t="n">
-        <v>0</v>
-      </c>
-      <c r="O52" t="n">
-        <v>0</v>
-      </c>
-      <c r="P52" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q52" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>44856</v>
-      </c>
-      <c r="B53" t="n">
-        <v>32</v>
-      </c>
-      <c r="C53" t="n">
-        <v>1893</v>
-      </c>
-      <c r="D53" t="n">
-        <v>0</v>
-      </c>
-      <c r="E53" t="n">
-        <v>0</v>
-      </c>
-      <c r="F53" t="n">
-        <v>1</v>
-      </c>
-      <c r="G53" t="n">
-        <v>1982.96</v>
-      </c>
-      <c r="H53" t="n">
-        <v>22</v>
-      </c>
-      <c r="I53" t="n">
-        <v>1654.28</v>
-      </c>
-      <c r="J53" t="n">
-        <v>5</v>
-      </c>
-      <c r="K53" t="n">
-        <v>1509</v>
-      </c>
-      <c r="L53" t="n">
-        <v>0</v>
-      </c>
-      <c r="M53" t="n">
-        <v>0</v>
-      </c>
-      <c r="N53" t="n">
-        <v>0</v>
-      </c>
-      <c r="O53" t="n">
-        <v>0</v>
-      </c>
-      <c r="P53" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q53" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>44857</v>
-      </c>
-      <c r="B54" t="n">
-        <v>25</v>
-      </c>
-      <c r="C54" t="n">
-        <v>1825</v>
-      </c>
-      <c r="D54" t="n">
-        <v>0</v>
-      </c>
-      <c r="E54" t="n">
-        <v>0</v>
-      </c>
-      <c r="F54" t="n">
-        <v>0</v>
-      </c>
-      <c r="G54" t="n">
-        <v>0</v>
-      </c>
-      <c r="H54" t="n">
-        <v>22</v>
-      </c>
-      <c r="I54" t="n">
-        <v>1760.3</v>
-      </c>
-      <c r="J54" t="n">
-        <v>5</v>
-      </c>
-      <c r="K54" t="n">
-        <v>1403.61</v>
-      </c>
-      <c r="L54" t="n">
-        <v>0</v>
-      </c>
-      <c r="M54" t="n">
-        <v>0</v>
-      </c>
-      <c r="N54" t="n">
-        <v>0</v>
-      </c>
-      <c r="O54" t="n">
-        <v>0</v>
-      </c>
-      <c r="P54" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q54" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>44858</v>
-      </c>
-      <c r="B55" t="n">
-        <v>24</v>
-      </c>
-      <c r="C55" t="n">
-        <v>1902.61</v>
-      </c>
-      <c r="D55" t="n">
-        <v>0</v>
-      </c>
-      <c r="E55" t="n">
-        <v>0</v>
-      </c>
-      <c r="F55" t="n">
-        <v>0</v>
-      </c>
-      <c r="G55" t="n">
-        <v>0</v>
-      </c>
-      <c r="H55" t="n">
-        <v>12</v>
-      </c>
-      <c r="I55" t="n">
-        <v>1689.13</v>
-      </c>
-      <c r="J55" t="n">
-        <v>12</v>
-      </c>
-      <c r="K55" t="n">
-        <v>1419.35</v>
-      </c>
-      <c r="L55" t="n">
-        <v>0</v>
-      </c>
-      <c r="M55" t="n">
-        <v>0</v>
-      </c>
-      <c r="N55" t="n">
-        <v>10</v>
-      </c>
-      <c r="O55" t="n">
-        <v>1824</v>
-      </c>
-      <c r="P55" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q55" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>44859</v>
-      </c>
-      <c r="B56" t="n">
-        <v>28</v>
-      </c>
-      <c r="C56" t="n">
-        <v>1825</v>
-      </c>
-      <c r="D56" t="n">
-        <v>0</v>
-      </c>
-      <c r="E56" t="n">
-        <v>0</v>
-      </c>
-      <c r="F56" t="n">
-        <v>0</v>
-      </c>
-      <c r="G56" t="n">
-        <v>0</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>12</v>
-      </c>
-      <c r="K56" t="n">
-        <v>1527</v>
-      </c>
-      <c r="L56" t="n">
-        <v>0</v>
-      </c>
-      <c r="M56" t="n">
-        <v>0</v>
-      </c>
-      <c r="N56" t="n">
-        <v>10</v>
-      </c>
-      <c r="O56" t="n">
-        <v>1824</v>
-      </c>
-      <c r="P56" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q56" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>44860</v>
-      </c>
-      <c r="B57" t="n">
-        <v>26</v>
-      </c>
-      <c r="C57" t="n">
-        <v>1775.64</v>
-      </c>
-      <c r="D57" t="n">
-        <v>0</v>
-      </c>
-      <c r="E57" t="n">
-        <v>0</v>
-      </c>
-      <c r="F57" t="n">
-        <v>0</v>
-      </c>
-      <c r="G57" t="n">
-        <v>0</v>
-      </c>
-      <c r="H57" t="n">
-        <v>12</v>
-      </c>
-      <c r="I57" t="n">
-        <v>1804.04</v>
-      </c>
-      <c r="J57" t="n">
-        <v>12</v>
-      </c>
-      <c r="K57" t="n">
-        <v>1509.04</v>
-      </c>
-      <c r="L57" t="n">
-        <v>0</v>
-      </c>
-      <c r="M57" t="n">
-        <v>0</v>
-      </c>
-      <c r="N57" t="n">
-        <v>0</v>
-      </c>
-      <c r="O57" t="n">
-        <v>0</v>
-      </c>
-      <c r="P57" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q57" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>44861</v>
-      </c>
-      <c r="B58" t="n">
-        <v>23</v>
-      </c>
-      <c r="C58" t="n">
-        <v>1854</v>
-      </c>
-      <c r="D58" t="n">
-        <v>0</v>
-      </c>
-      <c r="E58" t="n">
-        <v>0</v>
-      </c>
-      <c r="F58" t="n">
-        <v>0</v>
-      </c>
-      <c r="G58" t="n">
-        <v>0</v>
-      </c>
-      <c r="H58" t="n">
-        <v>12</v>
-      </c>
-      <c r="I58" t="n">
-        <v>1804.04</v>
-      </c>
-      <c r="J58" t="n">
-        <v>12</v>
-      </c>
-      <c r="K58" t="n">
-        <v>1480.4</v>
-      </c>
-      <c r="L58" t="n">
-        <v>0</v>
-      </c>
-      <c r="M58" t="n">
-        <v>0</v>
-      </c>
-      <c r="N58" t="n">
-        <v>0</v>
-      </c>
-      <c r="O58" t="n">
-        <v>0</v>
-      </c>
-      <c r="P58" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q58" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>44862</v>
-      </c>
-      <c r="B59" t="n">
-        <v>30</v>
-      </c>
-      <c r="C59" t="n">
-        <v>1854</v>
-      </c>
-      <c r="D59" t="n">
-        <v>0</v>
-      </c>
-      <c r="E59" t="n">
-        <v>0</v>
-      </c>
-      <c r="F59" t="n">
-        <v>0</v>
-      </c>
-      <c r="G59" t="n">
-        <v>0</v>
-      </c>
-      <c r="H59" t="n">
-        <v>11</v>
-      </c>
-      <c r="I59" t="n">
-        <v>1343.48</v>
-      </c>
-      <c r="J59" t="n">
-        <v>12</v>
-      </c>
-      <c r="K59" t="n">
-        <v>1395.65</v>
-      </c>
-      <c r="L59" t="n">
-        <v>0</v>
-      </c>
-      <c r="M59" t="n">
-        <v>0</v>
-      </c>
-      <c r="N59" t="n">
-        <v>0</v>
-      </c>
-      <c r="O59" t="n">
-        <v>0</v>
-      </c>
-      <c r="P59" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q59" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>44863</v>
-      </c>
-      <c r="B60" t="n">
-        <v>32</v>
-      </c>
-      <c r="C60" t="n">
-        <v>1854</v>
-      </c>
-      <c r="D60" t="n">
-        <v>0</v>
-      </c>
-      <c r="E60" t="n">
-        <v>0</v>
-      </c>
-      <c r="F60" t="n">
-        <v>0</v>
-      </c>
-      <c r="G60" t="n">
-        <v>0</v>
-      </c>
-      <c r="H60" t="n">
-        <v>11</v>
-      </c>
-      <c r="I60" t="n">
-        <v>1343.48</v>
-      </c>
-      <c r="J60" t="n">
-        <v>13</v>
-      </c>
-      <c r="K60" t="n">
-        <v>1425</v>
-      </c>
-      <c r="L60" t="n">
-        <v>0</v>
-      </c>
-      <c r="M60" t="n">
-        <v>0</v>
-      </c>
-      <c r="N60" t="n">
-        <v>0</v>
-      </c>
-      <c r="O60" t="n">
-        <v>0</v>
-      </c>
-      <c r="P60" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q60" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>44864</v>
-      </c>
-      <c r="B61" t="n">
-        <v>27</v>
-      </c>
-      <c r="C61" t="n">
-        <v>1803</v>
-      </c>
-      <c r="D61" t="n">
-        <v>0</v>
-      </c>
-      <c r="E61" t="n">
-        <v>0</v>
-      </c>
-      <c r="F61" t="n">
-        <v>1</v>
-      </c>
-      <c r="G61" t="n">
-        <v>1477</v>
-      </c>
-      <c r="H61" t="n">
-        <v>11</v>
-      </c>
-      <c r="I61" t="n">
-        <v>1343.48</v>
-      </c>
-      <c r="J61" t="n">
-        <v>15</v>
-      </c>
-      <c r="K61" t="n">
-        <v>1405.06</v>
-      </c>
-      <c r="L61" t="n">
-        <v>0</v>
-      </c>
-      <c r="M61" t="n">
-        <v>0</v>
-      </c>
-      <c r="N61" t="n">
-        <v>0</v>
-      </c>
-      <c r="O61" t="n">
-        <v>0</v>
-      </c>
-      <c r="P61" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q61" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>44865</v>
-      </c>
-      <c r="B62" t="n">
-        <v>27</v>
-      </c>
-      <c r="C62" t="n">
-        <v>1803.09</v>
-      </c>
-      <c r="D62" t="n">
-        <v>0</v>
-      </c>
-      <c r="E62" t="n">
-        <v>0</v>
-      </c>
-      <c r="F62" t="n">
-        <v>0</v>
-      </c>
-      <c r="G62" t="n">
-        <v>0</v>
-      </c>
-      <c r="H62" t="n">
-        <v>11</v>
-      </c>
-      <c r="I62" t="n">
-        <v>1343.48</v>
-      </c>
-      <c r="J62" t="n">
-        <v>13</v>
-      </c>
-      <c r="K62" t="n">
-        <v>1395.65</v>
-      </c>
-      <c r="L62" t="n">
-        <v>0</v>
-      </c>
-      <c r="M62" t="n">
-        <v>0</v>
-      </c>
-      <c r="N62" t="n">
-        <v>0</v>
-      </c>
-      <c r="O62" t="n">
-        <v>0</v>
-      </c>
-      <c r="P62" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q62" t="n">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/NameFile.xlsx
+++ b/NameFile.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S31"/>
+  <dimension ref="A1:S62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -527,16 +527,16 @@
         <v>44805</v>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
         <v>17</v>
       </c>
-      <c r="C2" t="n">
+      <c r="E2" t="n">
         <v>1432.04</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -580,16 +580,16 @@
         <v>44806</v>
       </c>
       <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
         <v>27</v>
       </c>
-      <c r="C3" t="n">
+      <c r="E3" t="n">
         <v>1679.06</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>2</v>
@@ -633,16 +633,16 @@
         <v>44807</v>
       </c>
       <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
         <v>38</v>
       </c>
-      <c r="C4" t="n">
+      <c r="E4" t="n">
         <v>1471.74</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>2</v>
@@ -686,16 +686,16 @@
         <v>44808</v>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
         <v>17</v>
       </c>
-      <c r="C5" t="n">
+      <c r="E5" t="n">
         <v>1473</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -739,16 +739,16 @@
         <v>44809</v>
       </c>
       <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
         <v>18</v>
       </c>
-      <c r="C6" t="n">
+      <c r="E6" t="n">
         <v>1496</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>2</v>
@@ -792,16 +792,16 @@
         <v>44810</v>
       </c>
       <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
         <v>18</v>
       </c>
-      <c r="C7" t="n">
+      <c r="E7" t="n">
         <v>1401</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>2</v>
@@ -845,16 +845,16 @@
         <v>44811</v>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
         <v>19</v>
       </c>
-      <c r="C8" t="n">
+      <c r="E8" t="n">
         <v>1401</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>2</v>
@@ -898,16 +898,16 @@
         <v>44812</v>
       </c>
       <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
         <v>17</v>
       </c>
-      <c r="C9" t="n">
+      <c r="E9" t="n">
         <v>1358.88</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>2</v>
@@ -951,16 +951,16 @@
         <v>44813</v>
       </c>
       <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
         <v>25</v>
       </c>
-      <c r="C10" t="n">
+      <c r="E10" t="n">
         <v>1230.93</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>1</v>
@@ -1004,16 +1004,16 @@
         <v>44814</v>
       </c>
       <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
         <v>36</v>
       </c>
-      <c r="C11" t="n">
+      <c r="E11" t="n">
         <v>1071.84</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>2</v>
@@ -1057,16 +1057,16 @@
         <v>44815</v>
       </c>
       <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
         <v>19</v>
       </c>
-      <c r="C12" t="n">
+      <c r="E12" t="n">
         <v>1727.74</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -1110,16 +1110,16 @@
         <v>44816</v>
       </c>
       <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
         <v>29</v>
       </c>
-      <c r="C13" t="n">
+      <c r="E13" t="n">
         <v>1371.19</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1163,16 +1163,16 @@
         <v>44817</v>
       </c>
       <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
         <v>22</v>
       </c>
-      <c r="C14" t="n">
+      <c r="E14" t="n">
         <v>1318</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1216,16 +1216,16 @@
         <v>44818</v>
       </c>
       <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
         <v>23</v>
       </c>
-      <c r="C15" t="n">
+      <c r="E15" t="n">
         <v>1388</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -1269,16 +1269,16 @@
         <v>44819</v>
       </c>
       <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
         <v>20</v>
       </c>
-      <c r="C16" t="n">
+      <c r="E16" t="n">
         <v>1386.52</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1322,16 +1322,16 @@
         <v>44820</v>
       </c>
       <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
         <v>31</v>
       </c>
-      <c r="C17" t="n">
+      <c r="E17" t="n">
         <v>1471.57</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>1</v>
@@ -1375,16 +1375,16 @@
         <v>44821</v>
       </c>
       <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
         <v>35</v>
       </c>
-      <c r="C18" t="n">
+      <c r="E18" t="n">
         <v>1252.17</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>2</v>
@@ -1428,16 +1428,16 @@
         <v>44822</v>
       </c>
       <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
         <v>27</v>
       </c>
-      <c r="C19" t="n">
+      <c r="E19" t="n">
         <v>1320.83</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -1481,16 +1481,16 @@
         <v>44823</v>
       </c>
       <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
         <v>27</v>
       </c>
-      <c r="C20" t="n">
+      <c r="E20" t="n">
         <v>1360.5</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -1534,16 +1534,16 @@
         <v>44824</v>
       </c>
       <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
         <v>27</v>
       </c>
-      <c r="C21" t="n">
+      <c r="E21" t="n">
         <v>1202.25</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -1587,16 +1587,16 @@
         <v>44825</v>
       </c>
       <c r="B22" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
         <v>28</v>
       </c>
-      <c r="C22" t="n">
+      <c r="E22" t="n">
         <v>1145.99</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -1640,16 +1640,16 @@
         <v>44826</v>
       </c>
       <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
         <v>25</v>
       </c>
-      <c r="C23" t="n">
+      <c r="E23" t="n">
         <v>1146</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -1693,16 +1693,16 @@
         <v>44827</v>
       </c>
       <c r="B24" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
         <v>25</v>
       </c>
-      <c r="C24" t="n">
+      <c r="E24" t="n">
         <v>1139.38</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -1746,16 +1746,16 @@
         <v>44828</v>
       </c>
       <c r="B25" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
         <v>19</v>
       </c>
-      <c r="C25" t="n">
+      <c r="E25" t="n">
         <v>1199.33</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -1799,16 +1799,16 @@
         <v>44829</v>
       </c>
       <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
         <v>27</v>
       </c>
-      <c r="C26" t="n">
+      <c r="E26" t="n">
         <v>1130.83</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -1852,16 +1852,16 @@
         <v>44830</v>
       </c>
       <c r="B27" t="n">
+        <v>0</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="n">
         <v>30</v>
       </c>
-      <c r="C27" t="n">
+      <c r="E27" t="n">
         <v>1242.48</v>
-      </c>
-      <c r="D27" t="n">
-        <v>0</v>
-      </c>
-      <c r="E27" t="n">
-        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>1</v>
@@ -1905,16 +1905,16 @@
         <v>44831</v>
       </c>
       <c r="B28" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
         <v>29</v>
       </c>
-      <c r="C28" t="n">
+      <c r="E28" t="n">
         <v>1228.03</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>1</v>
@@ -1958,16 +1958,16 @@
         <v>44832</v>
       </c>
       <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="C29" t="n">
+      <c r="E29" t="n">
         <v>1164.58</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -2011,16 +2011,16 @@
         <v>44833</v>
       </c>
       <c r="B30" t="n">
+        <v>0</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" t="n">
         <v>27</v>
       </c>
-      <c r="C30" t="n">
+      <c r="E30" t="n">
         <v>1059.03</v>
-      </c>
-      <c r="D30" t="n">
-        <v>0</v>
-      </c>
-      <c r="E30" t="n">
-        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -2064,16 +2064,16 @@
         <v>44834</v>
       </c>
       <c r="B31" t="n">
+        <v>0</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" t="n">
         <v>27</v>
       </c>
-      <c r="C31" t="n">
+      <c r="E31" t="n">
         <v>1059</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2109,6 +2109,1649 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>44835</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>22</v>
+      </c>
+      <c r="E32" t="n">
+        <v>1825</v>
+      </c>
+      <c r="F32" t="n">
+        <v>1</v>
+      </c>
+      <c r="G32" t="n">
+        <v>1838</v>
+      </c>
+      <c r="H32" t="n">
+        <v>11</v>
+      </c>
+      <c r="I32" t="n">
+        <v>1357.68</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>37</v>
+      </c>
+      <c r="O32" t="n">
+        <v>2213.04</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>44836</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>8</v>
+      </c>
+      <c r="E33" t="n">
+        <v>1920.35</v>
+      </c>
+      <c r="F33" t="n">
+        <v>1</v>
+      </c>
+      <c r="G33" t="n">
+        <v>1866</v>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+      <c r="I33" t="n">
+        <v>1343.48</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>57</v>
+      </c>
+      <c r="O33" t="n">
+        <v>1583.56</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>44837</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>8</v>
+      </c>
+      <c r="E34" t="n">
+        <v>1920.35</v>
+      </c>
+      <c r="F34" t="n">
+        <v>1</v>
+      </c>
+      <c r="G34" t="n">
+        <v>1938</v>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+      <c r="I34" t="n">
+        <v>1343.48</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>57</v>
+      </c>
+      <c r="O34" t="n">
+        <v>1583.56</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>44838</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>19</v>
+      </c>
+      <c r="E35" t="n">
+        <v>1920.35</v>
+      </c>
+      <c r="F35" t="n">
+        <v>2</v>
+      </c>
+      <c r="G35" t="n">
+        <v>1938</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>5</v>
+      </c>
+      <c r="K35" t="n">
+        <v>1274</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>20</v>
+      </c>
+      <c r="O35" t="n">
+        <v>419.03</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>44839</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>22</v>
+      </c>
+      <c r="E36" t="n">
+        <v>1825</v>
+      </c>
+      <c r="F36" t="n">
+        <v>2</v>
+      </c>
+      <c r="G36" t="n">
+        <v>1477</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>12</v>
+      </c>
+      <c r="K36" t="n">
+        <v>1818</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>20</v>
+      </c>
+      <c r="O36" t="n">
+        <v>419.03</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>44840</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>19</v>
+      </c>
+      <c r="E37" t="n">
+        <v>1825</v>
+      </c>
+      <c r="F37" t="n">
+        <v>2</v>
+      </c>
+      <c r="G37" t="n">
+        <v>1477.3</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>11</v>
+      </c>
+      <c r="K37" t="n">
+        <v>1818</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>20</v>
+      </c>
+      <c r="O37" t="n">
+        <v>419.03</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>44841</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>25</v>
+      </c>
+      <c r="E38" t="n">
+        <v>1914</v>
+      </c>
+      <c r="F38" t="n">
+        <v>2</v>
+      </c>
+      <c r="G38" t="n">
+        <v>1504.78</v>
+      </c>
+      <c r="H38" t="n">
+        <v>11</v>
+      </c>
+      <c r="I38" t="n">
+        <v>1343.48</v>
+      </c>
+      <c r="J38" t="n">
+        <v>12</v>
+      </c>
+      <c r="K38" t="n">
+        <v>1538.59</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>20</v>
+      </c>
+      <c r="O38" t="n">
+        <v>419.03</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>44842</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0</v>
+      </c>
+      <c r="D39" t="n">
+        <v>32</v>
+      </c>
+      <c r="E39" t="n">
+        <v>1914</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>11</v>
+      </c>
+      <c r="I39" t="n">
+        <v>1343.48</v>
+      </c>
+      <c r="J39" t="n">
+        <v>15</v>
+      </c>
+      <c r="K39" t="n">
+        <v>1566.07</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>20</v>
+      </c>
+      <c r="O39" t="n">
+        <v>419.03</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>44843</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>24</v>
+      </c>
+      <c r="E40" t="n">
+        <v>1362.33</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>11</v>
+      </c>
+      <c r="I40" t="n">
+        <v>1343.48</v>
+      </c>
+      <c r="J40" t="n">
+        <v>18</v>
+      </c>
+      <c r="K40" t="n">
+        <v>1530</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>44844</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>16</v>
+      </c>
+      <c r="E41" t="n">
+        <v>1825</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>11</v>
+      </c>
+      <c r="I41" t="n">
+        <v>1343.48</v>
+      </c>
+      <c r="J41" t="n">
+        <v>16</v>
+      </c>
+      <c r="K41" t="n">
+        <v>1647.71</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>15</v>
+      </c>
+      <c r="O41" t="n">
+        <v>1824</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>44845</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0</v>
+      </c>
+      <c r="D42" t="n">
+        <v>20</v>
+      </c>
+      <c r="E42" t="n">
+        <v>1825</v>
+      </c>
+      <c r="F42" t="n">
+        <v>1</v>
+      </c>
+      <c r="G42" t="n">
+        <v>1477.3</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>1826.09</v>
+      </c>
+      <c r="J42" t="n">
+        <v>16</v>
+      </c>
+      <c r="K42" t="n">
+        <v>1212</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>15</v>
+      </c>
+      <c r="O42" t="n">
+        <v>1824</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>44846</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D43" t="n">
+        <v>19</v>
+      </c>
+      <c r="E43" t="n">
+        <v>1823</v>
+      </c>
+      <c r="F43" t="n">
+        <v>1</v>
+      </c>
+      <c r="G43" t="n">
+        <v>1504.78</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>1826.09</v>
+      </c>
+      <c r="J43" t="n">
+        <v>16</v>
+      </c>
+      <c r="K43" t="n">
+        <v>1212.46</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>44847</v>
+      </c>
+      <c r="B44" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>16</v>
+      </c>
+      <c r="E44" t="n">
+        <v>1865</v>
+      </c>
+      <c r="F44" t="n">
+        <v>1</v>
+      </c>
+      <c r="G44" t="n">
+        <v>1477</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>16</v>
+      </c>
+      <c r="K44" t="n">
+        <v>1274</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>44848</v>
+      </c>
+      <c r="B45" t="n">
+        <v>0</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0</v>
+      </c>
+      <c r="D45" t="n">
+        <v>31</v>
+      </c>
+      <c r="E45" t="n">
+        <v>1825</v>
+      </c>
+      <c r="F45" t="n">
+        <v>1</v>
+      </c>
+      <c r="G45" t="n">
+        <v>1477</v>
+      </c>
+      <c r="H45" t="n">
+        <v>11</v>
+      </c>
+      <c r="I45" t="n">
+        <v>1343.48</v>
+      </c>
+      <c r="J45" t="n">
+        <v>14</v>
+      </c>
+      <c r="K45" t="n">
+        <v>1625</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44849</v>
+      </c>
+      <c r="B46" t="n">
+        <v>0</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" t="n">
+        <v>38</v>
+      </c>
+      <c r="E46" t="n">
+        <v>1725</v>
+      </c>
+      <c r="F46" t="n">
+        <v>1</v>
+      </c>
+      <c r="G46" t="n">
+        <v>1938.17</v>
+      </c>
+      <c r="H46" t="n">
+        <v>11</v>
+      </c>
+      <c r="I46" t="n">
+        <v>1343.48</v>
+      </c>
+      <c r="J46" t="n">
+        <v>17</v>
+      </c>
+      <c r="K46" t="n">
+        <v>1274</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>44850</v>
+      </c>
+      <c r="B47" t="n">
+        <v>0</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0</v>
+      </c>
+      <c r="D47" t="n">
+        <v>19</v>
+      </c>
+      <c r="E47" t="n">
+        <v>1825</v>
+      </c>
+      <c r="F47" t="n">
+        <v>1</v>
+      </c>
+      <c r="G47" t="n">
+        <v>1965.65</v>
+      </c>
+      <c r="H47" t="n">
+        <v>11</v>
+      </c>
+      <c r="I47" t="n">
+        <v>1343.48</v>
+      </c>
+      <c r="J47" t="n">
+        <v>12</v>
+      </c>
+      <c r="K47" t="n">
+        <v>1275</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0</v>
+      </c>
+      <c r="O47" t="n">
+        <v>0</v>
+      </c>
+      <c r="P47" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>44851</v>
+      </c>
+      <c r="B48" t="n">
+        <v>0</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0</v>
+      </c>
+      <c r="D48" t="n">
+        <v>25</v>
+      </c>
+      <c r="E48" t="n">
+        <v>1857</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" t="n">
+        <v>11</v>
+      </c>
+      <c r="I48" t="n">
+        <v>1343.48</v>
+      </c>
+      <c r="J48" t="n">
+        <v>17</v>
+      </c>
+      <c r="K48" t="n">
+        <v>1552</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" t="n">
+        <v>15</v>
+      </c>
+      <c r="O48" t="n">
+        <v>1824</v>
+      </c>
+      <c r="P48" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>44852</v>
+      </c>
+      <c r="B49" t="n">
+        <v>0</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0</v>
+      </c>
+      <c r="D49" t="n">
+        <v>27</v>
+      </c>
+      <c r="E49" t="n">
+        <v>1768</v>
+      </c>
+      <c r="F49" t="n">
+        <v>1</v>
+      </c>
+      <c r="G49" t="n">
+        <v>1938.17</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>24</v>
+      </c>
+      <c r="K49" t="n">
+        <v>1505</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0</v>
+      </c>
+      <c r="N49" t="n">
+        <v>15</v>
+      </c>
+      <c r="O49" t="n">
+        <v>1824</v>
+      </c>
+      <c r="P49" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>44853</v>
+      </c>
+      <c r="B50" t="n">
+        <v>0</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0</v>
+      </c>
+      <c r="D50" t="n">
+        <v>27</v>
+      </c>
+      <c r="E50" t="n">
+        <v>1768</v>
+      </c>
+      <c r="F50" t="n">
+        <v>1</v>
+      </c>
+      <c r="G50" t="n">
+        <v>1965.65</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" t="n">
+        <v>21</v>
+      </c>
+      <c r="K50" t="n">
+        <v>1404</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0</v>
+      </c>
+      <c r="O50" t="n">
+        <v>0</v>
+      </c>
+      <c r="P50" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>44854</v>
+      </c>
+      <c r="B51" t="n">
+        <v>0</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0</v>
+      </c>
+      <c r="D51" t="n">
+        <v>25</v>
+      </c>
+      <c r="E51" t="n">
+        <v>1825</v>
+      </c>
+      <c r="F51" t="n">
+        <v>1</v>
+      </c>
+      <c r="G51" t="n">
+        <v>1966</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>20</v>
+      </c>
+      <c r="K51" t="n">
+        <v>1404</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0</v>
+      </c>
+      <c r="O51" t="n">
+        <v>0</v>
+      </c>
+      <c r="P51" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>44855</v>
+      </c>
+      <c r="B52" t="n">
+        <v>0</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0</v>
+      </c>
+      <c r="D52" t="n">
+        <v>29</v>
+      </c>
+      <c r="E52" t="n">
+        <v>1725</v>
+      </c>
+      <c r="F52" t="n">
+        <v>1</v>
+      </c>
+      <c r="G52" t="n">
+        <v>1966</v>
+      </c>
+      <c r="H52" t="n">
+        <v>11</v>
+      </c>
+      <c r="I52" t="n">
+        <v>1343.48</v>
+      </c>
+      <c r="J52" t="n">
+        <v>11</v>
+      </c>
+      <c r="K52" t="n">
+        <v>1274.7</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0</v>
+      </c>
+      <c r="O52" t="n">
+        <v>0</v>
+      </c>
+      <c r="P52" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>44856</v>
+      </c>
+      <c r="B53" t="n">
+        <v>0</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0</v>
+      </c>
+      <c r="D53" t="n">
+        <v>32</v>
+      </c>
+      <c r="E53" t="n">
+        <v>1893</v>
+      </c>
+      <c r="F53" t="n">
+        <v>1</v>
+      </c>
+      <c r="G53" t="n">
+        <v>1982.96</v>
+      </c>
+      <c r="H53" t="n">
+        <v>22</v>
+      </c>
+      <c r="I53" t="n">
+        <v>1654.28</v>
+      </c>
+      <c r="J53" t="n">
+        <v>5</v>
+      </c>
+      <c r="K53" t="n">
+        <v>1509</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0</v>
+      </c>
+      <c r="O53" t="n">
+        <v>0</v>
+      </c>
+      <c r="P53" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>44857</v>
+      </c>
+      <c r="B54" t="n">
+        <v>0</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0</v>
+      </c>
+      <c r="D54" t="n">
+        <v>25</v>
+      </c>
+      <c r="E54" t="n">
+        <v>1825</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0</v>
+      </c>
+      <c r="H54" t="n">
+        <v>22</v>
+      </c>
+      <c r="I54" t="n">
+        <v>1760.3</v>
+      </c>
+      <c r="J54" t="n">
+        <v>5</v>
+      </c>
+      <c r="K54" t="n">
+        <v>1403.61</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0</v>
+      </c>
+      <c r="O54" t="n">
+        <v>0</v>
+      </c>
+      <c r="P54" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>44858</v>
+      </c>
+      <c r="B55" t="n">
+        <v>0</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0</v>
+      </c>
+      <c r="D55" t="n">
+        <v>24</v>
+      </c>
+      <c r="E55" t="n">
+        <v>1902.61</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" t="n">
+        <v>12</v>
+      </c>
+      <c r="I55" t="n">
+        <v>1689.13</v>
+      </c>
+      <c r="J55" t="n">
+        <v>12</v>
+      </c>
+      <c r="K55" t="n">
+        <v>1419.35</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0</v>
+      </c>
+      <c r="N55" t="n">
+        <v>10</v>
+      </c>
+      <c r="O55" t="n">
+        <v>1824</v>
+      </c>
+      <c r="P55" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>44859</v>
+      </c>
+      <c r="B56" t="n">
+        <v>0</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0</v>
+      </c>
+      <c r="D56" t="n">
+        <v>28</v>
+      </c>
+      <c r="E56" t="n">
+        <v>1825</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>12</v>
+      </c>
+      <c r="K56" t="n">
+        <v>1527</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0</v>
+      </c>
+      <c r="N56" t="n">
+        <v>10</v>
+      </c>
+      <c r="O56" t="n">
+        <v>1824</v>
+      </c>
+      <c r="P56" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>44860</v>
+      </c>
+      <c r="B57" t="n">
+        <v>0</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0</v>
+      </c>
+      <c r="D57" t="n">
+        <v>26</v>
+      </c>
+      <c r="E57" t="n">
+        <v>1775.64</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0</v>
+      </c>
+      <c r="H57" t="n">
+        <v>12</v>
+      </c>
+      <c r="I57" t="n">
+        <v>1804.04</v>
+      </c>
+      <c r="J57" t="n">
+        <v>12</v>
+      </c>
+      <c r="K57" t="n">
+        <v>1509.04</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0</v>
+      </c>
+      <c r="O57" t="n">
+        <v>0</v>
+      </c>
+      <c r="P57" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>44861</v>
+      </c>
+      <c r="B58" t="n">
+        <v>0</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0</v>
+      </c>
+      <c r="D58" t="n">
+        <v>23</v>
+      </c>
+      <c r="E58" t="n">
+        <v>1854</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0</v>
+      </c>
+      <c r="H58" t="n">
+        <v>12</v>
+      </c>
+      <c r="I58" t="n">
+        <v>1804.04</v>
+      </c>
+      <c r="J58" t="n">
+        <v>12</v>
+      </c>
+      <c r="K58" t="n">
+        <v>1480.4</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0</v>
+      </c>
+      <c r="O58" t="n">
+        <v>0</v>
+      </c>
+      <c r="P58" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>44862</v>
+      </c>
+      <c r="B59" t="n">
+        <v>0</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0</v>
+      </c>
+      <c r="D59" t="n">
+        <v>30</v>
+      </c>
+      <c r="E59" t="n">
+        <v>1854</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0</v>
+      </c>
+      <c r="H59" t="n">
+        <v>11</v>
+      </c>
+      <c r="I59" t="n">
+        <v>1343.48</v>
+      </c>
+      <c r="J59" t="n">
+        <v>12</v>
+      </c>
+      <c r="K59" t="n">
+        <v>1395.65</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0</v>
+      </c>
+      <c r="O59" t="n">
+        <v>0</v>
+      </c>
+      <c r="P59" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>44863</v>
+      </c>
+      <c r="B60" t="n">
+        <v>0</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0</v>
+      </c>
+      <c r="D60" t="n">
+        <v>32</v>
+      </c>
+      <c r="E60" t="n">
+        <v>1854</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0</v>
+      </c>
+      <c r="H60" t="n">
+        <v>11</v>
+      </c>
+      <c r="I60" t="n">
+        <v>1343.48</v>
+      </c>
+      <c r="J60" t="n">
+        <v>13</v>
+      </c>
+      <c r="K60" t="n">
+        <v>1425</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0</v>
+      </c>
+      <c r="O60" t="n">
+        <v>0</v>
+      </c>
+      <c r="P60" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>44864</v>
+      </c>
+      <c r="B61" t="n">
+        <v>0</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0</v>
+      </c>
+      <c r="D61" t="n">
+        <v>27</v>
+      </c>
+      <c r="E61" t="n">
+        <v>1803</v>
+      </c>
+      <c r="F61" t="n">
+        <v>1</v>
+      </c>
+      <c r="G61" t="n">
+        <v>1477</v>
+      </c>
+      <c r="H61" t="n">
+        <v>11</v>
+      </c>
+      <c r="I61" t="n">
+        <v>1343.48</v>
+      </c>
+      <c r="J61" t="n">
+        <v>15</v>
+      </c>
+      <c r="K61" t="n">
+        <v>1405.06</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0</v>
+      </c>
+      <c r="O61" t="n">
+        <v>0</v>
+      </c>
+      <c r="P61" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>44865</v>
+      </c>
+      <c r="B62" t="n">
+        <v>0</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0</v>
+      </c>
+      <c r="D62" t="n">
+        <v>27</v>
+      </c>
+      <c r="E62" t="n">
+        <v>1803.09</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0</v>
+      </c>
+      <c r="H62" t="n">
+        <v>11</v>
+      </c>
+      <c r="I62" t="n">
+        <v>1343.48</v>
+      </c>
+      <c r="J62" t="n">
+        <v>13</v>
+      </c>
+      <c r="K62" t="n">
+        <v>1395.65</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0</v>
+      </c>
+      <c r="N62" t="n">
+        <v>0</v>
+      </c>
+      <c r="O62" t="n">
+        <v>0</v>
+      </c>
+      <c r="P62" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q62" t="n">
         <v>0</v>
       </c>
     </row>

--- a/NameFile.xlsx
+++ b/NameFile.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S62"/>
+  <dimension ref="A1:AE62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,134 +433,194 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>INDIVIDUAL_DIRECT_RN</t>
+          <t>RETAIL_RN</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>INDIVIDUAL_DIRECT_REV</t>
+          <t>RETAIL_REV</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>INDIVIDUAL_PACKAGES_RN</t>
+          <t>PACKAGES_AND_PROMOTIONS_RN</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>INDIVIDUAL_PACKAGES_REV</t>
+          <t>PACKAGES_AND_PROMOTIONS_REV</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>GROUP_CORPRATE_RN</t>
+          <t>OTHER_DISCOUNTS_RN</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>GROUP_CORPRATE_REV</t>
+          <t>OTHER_DISCOUNTS_REV</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>INDIVIDUAL_STO_RN</t>
+          <t>STAFF_M_T_INTERNAL_DISCOUNT_RN</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>INDIVIDUAL_STO_REV</t>
+          <t>STAFF_M_T_INTERNAL_DISCOUNT_REV</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>GROUP_AFFLIATES_RN</t>
+          <t>FIT_WHOLESALE_RN</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>GROUP_AFFLIATES_REV</t>
+          <t>FIT_WHOLESALE_REV</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t>GROUP_LEISURE_RN</t>
+          <t>CORPORATE_FIXED_RN</t>
         </is>
       </c>
       <c r="M1" t="inlineStr">
         <is>
-          <t>GROUP_LEISURE_REV</t>
+          <t>CORPORATE_FIXED_REV</t>
         </is>
       </c>
       <c r="N1" t="inlineStr">
         <is>
-          <t>GROUP_STO_RN</t>
+          <t>CORPORATE_VARIABLE_RN</t>
         </is>
       </c>
       <c r="O1" t="inlineStr">
         <is>
-          <t>GROUP_STO_REV</t>
+          <t>CORPORATE_VARIABLE_REV</t>
         </is>
       </c>
       <c r="P1" t="inlineStr">
+        <is>
+          <t>CORPORATE GROUP_RN</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>CORPORATE GROUP_REV</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>CONVENTION_OFF_SITE_ASSOCIATION_RN</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>CONVENTION_OFF_SITE_ASSOCIATION_REV</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>MICE_GROUP_C_E_RN</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>MICE_GROUP_C_E_REV</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>GROUP_AND_TOUR_SERIES_RN</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>GROUP_AND_TOUR_SERIES_REV</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>LEISURE_GROUPS_AD_HOC_RN</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>LEISURE_GROUPS_AD_HOC_REV</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>CREW_RN</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>CREW_REV</t>
+        </is>
+      </c>
+      <c r="AB1" t="inlineStr">
         <is>
           <t>COMPLIMENTARY_RN</t>
         </is>
       </c>
-      <c r="Q1" t="inlineStr">
+      <c r="AC1" t="inlineStr">
         <is>
           <t>COMPLIMENTARY_REV</t>
         </is>
       </c>
-      <c r="R1" t="inlineStr">
+      <c r="AD1" t="inlineStr">
         <is>
-          <t>HOUSE_USE_RN</t>
+          <t>HOUSE USE_RN</t>
         </is>
       </c>
-      <c r="S1" t="inlineStr">
+      <c r="AE1" t="inlineStr">
         <is>
-          <t>HOUSE_USE_REV</t>
+          <t>HOUSE USE_REV</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>44805</v>
+        <v>44866</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>128.92</v>
       </c>
       <c r="D2" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="E2" t="n">
-        <v>1432.04</v>
+        <v>685.53</v>
       </c>
       <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
         <v>1</v>
       </c>
-      <c r="G2" t="n">
-        <v>1257</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>8</v>
-      </c>
-      <c r="K2" t="n">
-        <v>1187</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>108.33</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -569,15 +629,57 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>304.7</v>
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>44806</v>
+        <v>44867</v>
       </c>
       <c r="B3" t="n">
         <v>0</v>
@@ -586,16 +688,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="E3" t="n">
-        <v>1679.06</v>
+        <v>798.8700000000001</v>
       </c>
       <c r="F3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1257</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -604,16 +706,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>1194.26</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>108.33</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -622,15 +724,57 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>332.17</v>
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>44807</v>
+        <v>44868</v>
       </c>
       <c r="B4" t="n">
         <v>0</v>
@@ -639,16 +783,16 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>1471.74</v>
+        <v>297.17</v>
       </c>
       <c r="F4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1257</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -657,16 +801,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>1187</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>108.33</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -678,24 +822,66 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>44808</v>
+        <v>44869</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>619.66</v>
       </c>
       <c r="D5" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>1473</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -710,10 +896,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>946.4299999999999</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -731,30 +917,72 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>44809</v>
+        <v>44870</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1313.2</v>
       </c>
       <c r="D6" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="E6" t="n">
-        <v>1496</v>
+        <v>380.84</v>
       </c>
       <c r="F6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1257</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -763,10 +991,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>1194.26</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -784,12 +1012,54 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>44810</v>
+        <v>44871</v>
       </c>
       <c r="B7" t="n">
         <v>0</v>
@@ -798,16 +1068,16 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>1401</v>
+        <v>168.08</v>
       </c>
       <c r="F7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1257</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -816,10 +1086,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>961.65</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -828,39 +1098,81 @@
         <v>0</v>
       </c>
       <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
         <v>3</v>
       </c>
-      <c r="O7" t="n">
-        <v>1824.01</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
+      <c r="U7" t="n">
+        <v>589.62</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>44811</v>
+        <v>44872</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>228.58</v>
       </c>
       <c r="D8" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>1401</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1257</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -869,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>989.13</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -881,39 +1193,81 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>1824.01</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
       </c>
       <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>60</v>
+      </c>
+      <c r="U8" t="n">
+        <v>13276.2</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>44812</v>
+        <v>44873</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>198.58</v>
       </c>
       <c r="D9" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>1358.88</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1257</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -922,10 +1276,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>1188.17</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -934,39 +1288,81 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>1824.01</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>60</v>
+      </c>
+      <c r="U9" t="n">
+        <v>13276.2</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>44813</v>
+        <v>44874</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1648.43</v>
       </c>
       <c r="D10" t="n">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="E10" t="n">
-        <v>1230.93</v>
+        <v>729</v>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1257</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -975,10 +1371,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>1187</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -996,30 +1392,72 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE10" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>44814</v>
+        <v>44875</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>4854.48</v>
       </c>
       <c r="D11" t="n">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="E11" t="n">
-        <v>1071.84</v>
+        <v>1737.84</v>
       </c>
       <c r="F11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1257</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1028,10 +1466,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>1187</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -1049,24 +1487,66 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>44815</v>
+        <v>44876</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>11447.33</v>
       </c>
       <c r="D12" t="n">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="E12" t="n">
-        <v>1727.74</v>
+        <v>1592.84</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -1081,10 +1561,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>1187</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -1102,24 +1582,66 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE12" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>44816</v>
+        <v>44877</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>11340.12</v>
       </c>
       <c r="D13" t="n">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="E13" t="n">
-        <v>1371.19</v>
+        <v>985.74</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1134,10 +1656,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>946</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1146,33 +1668,75 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>1734</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
       </c>
       <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0</v>
+      </c>
+      <c r="X13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>44817</v>
+        <v>44878</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>2203.32</v>
       </c>
       <c r="D14" t="n">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E14" t="n">
-        <v>1318</v>
+        <v>2311.92</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1187,10 +1751,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>1398.43</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -1199,21 +1763,63 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>1734</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
       </c>
       <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE14" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>44818</v>
+        <v>44879</v>
       </c>
       <c r="B15" t="n">
         <v>0</v>
@@ -1222,10 +1828,10 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>1388</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -1234,16 +1840,16 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1573.64</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>1365.33</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -1261,12 +1867,54 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0</v>
+      </c>
+      <c r="X15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE15" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>44819</v>
+        <v>44880</v>
       </c>
       <c r="B16" t="n">
         <v>0</v>
@@ -1275,10 +1923,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>1386.52</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1287,16 +1935,16 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>1573.64</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>1421.14</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1314,12 +1962,54 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0</v>
+      </c>
+      <c r="X16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE16" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>44820</v>
+        <v>44881</v>
       </c>
       <c r="B17" t="n">
         <v>0</v>
@@ -1328,28 +2018,28 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>1471.57</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>1</v>
       </c>
       <c r="G17" t="n">
-        <v>1257</v>
+        <v>253.08</v>
       </c>
       <c r="H17" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1030.43</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>992.83</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -1367,12 +2057,54 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE17" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>44821</v>
+        <v>44882</v>
       </c>
       <c r="B18" t="n">
         <v>0</v>
@@ -1381,51 +2113,93 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="E18" t="n">
-        <v>1252.17</v>
+        <v>168.83</v>
       </c>
       <c r="F18" t="n">
+        <v>1</v>
+      </c>
+      <c r="G18" t="n">
+        <v>253.08</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0</v>
+      </c>
+      <c r="T18" t="n">
         <v>2</v>
       </c>
-      <c r="G18" t="n">
-        <v>1257</v>
-      </c>
-      <c r="H18" t="n">
-        <v>11</v>
-      </c>
-      <c r="I18" t="n">
-        <v>1030.43</v>
-      </c>
-      <c r="J18" t="n">
-        <v>13</v>
-      </c>
-      <c r="K18" t="n">
-        <v>1216.97</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="n">
+      <c r="U18" t="n">
+        <v>462.84</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0</v>
+      </c>
+      <c r="X18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE18" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>44822</v>
+        <v>44883</v>
       </c>
       <c r="B19" t="n">
         <v>0</v>
@@ -1434,10 +2208,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="E19" t="n">
-        <v>1320.83</v>
+        <v>201.33</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -1446,16 +2220,16 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>1030.43</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>1174.82</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -1473,24 +2247,66 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>7</v>
+      </c>
+      <c r="U19" t="n">
+        <v>1879.92</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE19" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>44823</v>
+        <v>44884</v>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1911.8</v>
       </c>
       <c r="D20" t="n">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="E20" t="n">
-        <v>1360.5</v>
+        <v>152.17</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -1499,16 +2315,16 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1030.43</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>963.37</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -1517,33 +2333,75 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>1734</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
       </c>
       <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE20" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>44824</v>
+        <v>44885</v>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>2172.06</v>
       </c>
       <c r="D21" t="n">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="E21" t="n">
-        <v>1202.25</v>
+        <v>255.5</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -1558,10 +2416,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>958.71</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -1570,33 +2428,75 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>1734</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
+        <v>0</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0</v>
+      </c>
+      <c r="X21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE21" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>44825</v>
+        <v>44886</v>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>2265.2</v>
       </c>
       <c r="D22" t="n">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="E22" t="n">
-        <v>1145.99</v>
+        <v>218</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -1611,10 +2511,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>966.74</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -1623,33 +2523,75 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>1734</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
       </c>
       <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0</v>
+      </c>
+      <c r="X22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE22" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>44826</v>
+        <v>44887</v>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>1979.1</v>
       </c>
       <c r="D23" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>1146</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -1664,16 +2606,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>957.12</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>1476</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -1685,12 +2627,54 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>11</v>
+      </c>
+      <c r="U23" t="n">
+        <v>1739.87</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE23" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>44827</v>
+        <v>44888</v>
       </c>
       <c r="B24" t="n">
         <v>0</v>
@@ -1699,10 +2683,10 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>1139.38</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -1711,22 +2695,22 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1030.43</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>1349.07</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>1476</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -1738,24 +2722,66 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
+        <v>0</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0</v>
+      </c>
+      <c r="T24" t="n">
+        <v>0</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="n">
+        <v>0</v>
+      </c>
+      <c r="X24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE24" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>44828</v>
+        <v>44889</v>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>185.58</v>
       </c>
       <c r="D25" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>1199.33</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -1764,22 +2790,22 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>1030.43</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>1415.59</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>1476</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -1791,24 +2817,66 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>60</v>
+      </c>
+      <c r="U25" t="n">
+        <v>15192.6</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0</v>
+      </c>
+      <c r="X25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE25" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>44829</v>
+        <v>44890</v>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>1586.55</v>
       </c>
       <c r="D26" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>1130.83</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -1817,16 +2885,16 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1030.43</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>1285.87</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -1844,42 +2912,84 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE26" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>44830</v>
+        <v>44891</v>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>512.84</v>
       </c>
       <c r="D27" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="E27" t="n">
-        <v>1242.48</v>
+        <v>300.5</v>
       </c>
       <c r="F27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1216.43</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1030.43</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>1187</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -1888,21 +2998,63 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>1734</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
+        <v>0</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="n">
+        <v>0</v>
+      </c>
+      <c r="X27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE27" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>44831</v>
+        <v>44892</v>
       </c>
       <c r="B28" t="n">
         <v>0</v>
@@ -1911,16 +3063,16 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="E28" t="n">
-        <v>1228.03</v>
+        <v>210.58</v>
       </c>
       <c r="F28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1243.91</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1929,10 +3081,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>1187</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -1941,21 +3093,63 @@
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>1734</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
       </c>
       <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="n">
+        <v>0</v>
+      </c>
+      <c r="X28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE28" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>44832</v>
+        <v>44893</v>
       </c>
       <c r="B29" t="n">
         <v>0</v>
@@ -1964,10 +3158,10 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>1164.58</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -1982,10 +3176,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>946.4299999999999</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -1994,21 +3188,63 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>1734</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
       <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0</v>
+      </c>
+      <c r="X29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE29" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>44833</v>
+        <v>44894</v>
       </c>
       <c r="B30" t="n">
         <v>0</v>
@@ -2017,10 +3253,10 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="E30" t="n">
-        <v>1059.03</v>
+        <v>543.9000000000001</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -2035,10 +3271,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>1187</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -2056,24 +3292,66 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
+        <v>0</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0</v>
+      </c>
+      <c r="T30" t="n">
+        <v>0</v>
+      </c>
+      <c r="U30" t="n">
+        <v>0</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="n">
+        <v>0</v>
+      </c>
+      <c r="X30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE30" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>44834</v>
+        <v>44895</v>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>858.6799999999999</v>
       </c>
       <c r="D31" t="n">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="E31" t="n">
-        <v>1059</v>
+        <v>343.78</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2082,16 +3360,16 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>1044.63</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>1187</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -2109,12 +3387,54 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="n">
+        <v>0</v>
+      </c>
+      <c r="X31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE31" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>44835</v>
+        <v>44896</v>
       </c>
       <c r="B32" t="n">
         <v>0</v>
@@ -2123,22 +3443,22 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>1825</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1838</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1357.68</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -2153,21 +3473,63 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>2213.04</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
       <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0</v>
+      </c>
+      <c r="X32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE32" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>44836</v>
+        <v>44897</v>
       </c>
       <c r="B33" t="n">
         <v>0</v>
@@ -2176,22 +3538,22 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>1920.35</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1866</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1343.48</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -2206,21 +3568,63 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>1583.56</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
+        <v>0</v>
+      </c>
+      <c r="R33" t="n">
+        <v>0</v>
+      </c>
+      <c r="S33" t="n">
+        <v>0</v>
+      </c>
+      <c r="T33" t="n">
+        <v>0</v>
+      </c>
+      <c r="U33" t="n">
+        <v>0</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="n">
+        <v>0</v>
+      </c>
+      <c r="X33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE33" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>44837</v>
+        <v>44898</v>
       </c>
       <c r="B34" t="n">
         <v>0</v>
@@ -2229,22 +3633,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>1920.35</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1938</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>1343.48</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -2259,21 +3663,63 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>1583.56</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
       </c>
       <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>13</v>
+      </c>
+      <c r="U34" t="n">
+        <v>2306.72</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="n">
+        <v>0</v>
+      </c>
+      <c r="X34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE34" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>44838</v>
+        <v>44899</v>
       </c>
       <c r="B35" t="n">
         <v>0</v>
@@ -2282,16 +3728,16 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>1920.35</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1938</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2300,10 +3746,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>1274</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -2312,21 +3758,63 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>419.03</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
       </c>
       <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE35" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>44839</v>
+        <v>44900</v>
       </c>
       <c r="B36" t="n">
         <v>0</v>
@@ -2335,16 +3823,16 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>1825</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1477</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2353,10 +3841,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>1818</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -2365,21 +3853,63 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>419.03</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
+        <v>0</v>
+      </c>
+      <c r="R36" t="n">
+        <v>0</v>
+      </c>
+      <c r="S36" t="n">
+        <v>0</v>
+      </c>
+      <c r="T36" t="n">
+        <v>0</v>
+      </c>
+      <c r="U36" t="n">
+        <v>0</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="n">
+        <v>0</v>
+      </c>
+      <c r="X36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE36" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>44840</v>
+        <v>44901</v>
       </c>
       <c r="B37" t="n">
         <v>0</v>
@@ -2388,16 +3918,16 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>1825</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1477.3</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2406,10 +3936,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>1818</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -2418,21 +3948,63 @@
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>419.03</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
       </c>
       <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="n">
+        <v>0</v>
+      </c>
+      <c r="X37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE37" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>44841</v>
+        <v>44902</v>
       </c>
       <c r="B38" t="n">
         <v>0</v>
@@ -2441,28 +4013,28 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>1914</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1504.78</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1343.48</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>1538.59</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -2471,21 +4043,63 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>419.03</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
       </c>
       <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0</v>
+      </c>
+      <c r="X38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE38" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>44842</v>
+        <v>44903</v>
       </c>
       <c r="B39" t="n">
         <v>0</v>
@@ -2494,10 +4108,10 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>1914</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -2506,16 +4120,16 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1343.48</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>1566.07</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -2524,33 +4138,75 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>419.03</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
+        <v>0</v>
+      </c>
+      <c r="R39" t="n">
+        <v>0</v>
+      </c>
+      <c r="S39" t="n">
+        <v>0</v>
+      </c>
+      <c r="T39" t="n">
+        <v>0</v>
+      </c>
+      <c r="U39" t="n">
+        <v>0</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="n">
+        <v>0</v>
+      </c>
+      <c r="X39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE39" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>44843</v>
+        <v>44904</v>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>224.62</v>
       </c>
       <c r="D40" t="n">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="E40" t="n">
-        <v>1362.33</v>
+        <v>576.62</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -2559,16 +4215,16 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>1343.48</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>1530</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -2586,24 +4242,66 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="n">
+        <v>0</v>
+      </c>
+      <c r="X40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE40" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>44844</v>
+        <v>44905</v>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>286.84</v>
       </c>
       <c r="D41" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="E41" t="n">
-        <v>1825</v>
+        <v>584.62</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -2612,16 +4310,16 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1343.48</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>1647.71</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -2630,21 +4328,63 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>1824</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
       </c>
       <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="n">
+        <v>0</v>
+      </c>
+      <c r="X41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE41" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>44845</v>
+        <v>44906</v>
       </c>
       <c r="B42" t="n">
         <v>0</v>
@@ -2653,28 +4393,28 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>1825</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1477.3</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1826.09</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>1212</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -2683,21 +4423,63 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>1824</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
+        <v>0</v>
+      </c>
+      <c r="R42" t="n">
+        <v>0</v>
+      </c>
+      <c r="S42" t="n">
+        <v>0</v>
+      </c>
+      <c r="T42" t="n">
+        <v>0</v>
+      </c>
+      <c r="U42" t="n">
+        <v>0</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="n">
+        <v>0</v>
+      </c>
+      <c r="X42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE42" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>44846</v>
+        <v>44907</v>
       </c>
       <c r="B43" t="n">
         <v>0</v>
@@ -2706,28 +4488,28 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>1823</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1504.78</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>1826.09</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>1212.46</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -2745,30 +4527,72 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="n">
+        <v>0</v>
+      </c>
+      <c r="X43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE43" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>44847</v>
+        <v>44908</v>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>223.14</v>
       </c>
       <c r="D44" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>1865</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1477</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2777,10 +4601,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>1274</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -2798,42 +4622,84 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="n">
+        <v>0</v>
+      </c>
+      <c r="X44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE44" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>44848</v>
+        <v>44909</v>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>223.14</v>
       </c>
       <c r="D45" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>1825</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1477</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1343.48</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>1625</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -2851,42 +4717,84 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
+        <v>0</v>
+      </c>
+      <c r="R45" t="n">
+        <v>0</v>
+      </c>
+      <c r="S45" t="n">
+        <v>0</v>
+      </c>
+      <c r="T45" t="n">
+        <v>0</v>
+      </c>
+      <c r="U45" t="n">
+        <v>0</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="n">
+        <v>0</v>
+      </c>
+      <c r="X45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE45" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>44849</v>
+        <v>44910</v>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>223.14</v>
       </c>
       <c r="D46" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>1725</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1938.17</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>1343.48</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>1274</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -2904,12 +4812,54 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0</v>
+      </c>
+      <c r="U46" t="n">
+        <v>0</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="n">
+        <v>0</v>
+      </c>
+      <c r="X46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE46" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>44850</v>
+        <v>44911</v>
       </c>
       <c r="B47" t="n">
         <v>0</v>
@@ -2918,28 +4868,28 @@
         <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="E47" t="n">
-        <v>1825</v>
+        <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>1965.65</v>
+        <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>1343.48</v>
+        <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="K47" t="n">
-        <v>1275</v>
+        <v>0</v>
       </c>
       <c r="L47" t="n">
         <v>0</v>
@@ -2957,12 +4907,54 @@
         <v>0</v>
       </c>
       <c r="Q47" t="n">
+        <v>0</v>
+      </c>
+      <c r="R47" t="n">
+        <v>0</v>
+      </c>
+      <c r="S47" t="n">
+        <v>0</v>
+      </c>
+      <c r="T47" t="n">
+        <v>0</v>
+      </c>
+      <c r="U47" t="n">
+        <v>0</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="n">
+        <v>0</v>
+      </c>
+      <c r="X47" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE47" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>44851</v>
+        <v>44912</v>
       </c>
       <c r="B48" t="n">
         <v>0</v>
@@ -2971,10 +4963,10 @@
         <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>1857</v>
+        <v>0</v>
       </c>
       <c r="F48" t="n">
         <v>0</v>
@@ -2983,16 +4975,16 @@
         <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>1343.48</v>
+        <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="K48" t="n">
-        <v>1552</v>
+        <v>0</v>
       </c>
       <c r="L48" t="n">
         <v>0</v>
@@ -3001,21 +4993,63 @@
         <v>0</v>
       </c>
       <c r="N48" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="O48" t="n">
-        <v>1824</v>
+        <v>0</v>
       </c>
       <c r="P48" t="n">
         <v>0</v>
       </c>
       <c r="Q48" t="n">
+        <v>0</v>
+      </c>
+      <c r="R48" t="n">
+        <v>0</v>
+      </c>
+      <c r="S48" t="n">
+        <v>0</v>
+      </c>
+      <c r="T48" t="n">
+        <v>0</v>
+      </c>
+      <c r="U48" t="n">
+        <v>0</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="n">
+        <v>0</v>
+      </c>
+      <c r="X48" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE48" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>44852</v>
+        <v>44913</v>
       </c>
       <c r="B49" t="n">
         <v>0</v>
@@ -3024,16 +5058,16 @@
         <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="E49" t="n">
-        <v>1768</v>
+        <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>1938.17</v>
+        <v>0</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3042,10 +5076,10 @@
         <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="K49" t="n">
-        <v>1505</v>
+        <v>0</v>
       </c>
       <c r="L49" t="n">
         <v>0</v>
@@ -3054,21 +5088,63 @@
         <v>0</v>
       </c>
       <c r="N49" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="O49" t="n">
-        <v>1824</v>
+        <v>0</v>
       </c>
       <c r="P49" t="n">
         <v>0</v>
       </c>
       <c r="Q49" t="n">
+        <v>0</v>
+      </c>
+      <c r="R49" t="n">
+        <v>0</v>
+      </c>
+      <c r="S49" t="n">
+        <v>0</v>
+      </c>
+      <c r="T49" t="n">
+        <v>0</v>
+      </c>
+      <c r="U49" t="n">
+        <v>0</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="n">
+        <v>0</v>
+      </c>
+      <c r="X49" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE49" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>44853</v>
+        <v>44914</v>
       </c>
       <c r="B50" t="n">
         <v>0</v>
@@ -3077,16 +5153,16 @@
         <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="E50" t="n">
-        <v>1768</v>
+        <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G50" t="n">
-        <v>1965.65</v>
+        <v>0</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3095,10 +5171,10 @@
         <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="K50" t="n">
-        <v>1404</v>
+        <v>0</v>
       </c>
       <c r="L50" t="n">
         <v>0</v>
@@ -3116,12 +5192,54 @@
         <v>0</v>
       </c>
       <c r="Q50" t="n">
+        <v>0</v>
+      </c>
+      <c r="R50" t="n">
+        <v>0</v>
+      </c>
+      <c r="S50" t="n">
+        <v>0</v>
+      </c>
+      <c r="T50" t="n">
+        <v>0</v>
+      </c>
+      <c r="U50" t="n">
+        <v>0</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="n">
+        <v>0</v>
+      </c>
+      <c r="X50" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE50" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>44854</v>
+        <v>44915</v>
       </c>
       <c r="B51" t="n">
         <v>0</v>
@@ -3130,16 +5248,16 @@
         <v>0</v>
       </c>
       <c r="D51" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="E51" t="n">
-        <v>1825</v>
+        <v>288</v>
       </c>
       <c r="F51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>1966</v>
+        <v>0</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3148,10 +5266,10 @@
         <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="K51" t="n">
-        <v>1404</v>
+        <v>0</v>
       </c>
       <c r="L51" t="n">
         <v>0</v>
@@ -3169,12 +5287,54 @@
         <v>0</v>
       </c>
       <c r="Q51" t="n">
+        <v>0</v>
+      </c>
+      <c r="R51" t="n">
+        <v>0</v>
+      </c>
+      <c r="S51" t="n">
+        <v>0</v>
+      </c>
+      <c r="T51" t="n">
+        <v>0</v>
+      </c>
+      <c r="U51" t="n">
+        <v>0</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="n">
+        <v>0</v>
+      </c>
+      <c r="X51" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE51" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>44855</v>
+        <v>44916</v>
       </c>
       <c r="B52" t="n">
         <v>0</v>
@@ -3183,28 +5343,28 @@
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="E52" t="n">
-        <v>1725</v>
+        <v>288</v>
       </c>
       <c r="F52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G52" t="n">
-        <v>1966</v>
+        <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>1343.48</v>
+        <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="K52" t="n">
-        <v>1274.7</v>
+        <v>0</v>
       </c>
       <c r="L52" t="n">
         <v>0</v>
@@ -3222,12 +5382,54 @@
         <v>0</v>
       </c>
       <c r="Q52" t="n">
+        <v>0</v>
+      </c>
+      <c r="R52" t="n">
+        <v>0</v>
+      </c>
+      <c r="S52" t="n">
+        <v>0</v>
+      </c>
+      <c r="T52" t="n">
+        <v>0</v>
+      </c>
+      <c r="U52" t="n">
+        <v>0</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="n">
+        <v>0</v>
+      </c>
+      <c r="X52" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE52" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>44856</v>
+        <v>44917</v>
       </c>
       <c r="B53" t="n">
         <v>0</v>
@@ -3236,28 +5438,28 @@
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="E53" t="n">
-        <v>1893</v>
+        <v>288</v>
       </c>
       <c r="F53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G53" t="n">
-        <v>1982.96</v>
+        <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>1654.28</v>
+        <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K53" t="n">
-        <v>1509</v>
+        <v>0</v>
       </c>
       <c r="L53" t="n">
         <v>0</v>
@@ -3275,12 +5477,54 @@
         <v>0</v>
       </c>
       <c r="Q53" t="n">
+        <v>0</v>
+      </c>
+      <c r="R53" t="n">
+        <v>0</v>
+      </c>
+      <c r="S53" t="n">
+        <v>0</v>
+      </c>
+      <c r="T53" t="n">
+        <v>0</v>
+      </c>
+      <c r="U53" t="n">
+        <v>0</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="n">
+        <v>0</v>
+      </c>
+      <c r="X53" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE53" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>44857</v>
+        <v>44918</v>
       </c>
       <c r="B54" t="n">
         <v>0</v>
@@ -3289,10 +5533,10 @@
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E54" t="n">
-        <v>1825</v>
+        <v>0</v>
       </c>
       <c r="F54" t="n">
         <v>0</v>
@@ -3301,16 +5545,16 @@
         <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>1760.3</v>
+        <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K54" t="n">
-        <v>1403.61</v>
+        <v>0</v>
       </c>
       <c r="L54" t="n">
         <v>0</v>
@@ -3328,12 +5572,54 @@
         <v>0</v>
       </c>
       <c r="Q54" t="n">
+        <v>0</v>
+      </c>
+      <c r="R54" t="n">
+        <v>0</v>
+      </c>
+      <c r="S54" t="n">
+        <v>0</v>
+      </c>
+      <c r="T54" t="n">
+        <v>0</v>
+      </c>
+      <c r="U54" t="n">
+        <v>0</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="n">
+        <v>0</v>
+      </c>
+      <c r="X54" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE54" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>44858</v>
+        <v>44919</v>
       </c>
       <c r="B55" t="n">
         <v>0</v>
@@ -3342,10 +5628,10 @@
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>1902.61</v>
+        <v>0</v>
       </c>
       <c r="F55" t="n">
         <v>0</v>
@@ -3354,16 +5640,16 @@
         <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>1689.13</v>
+        <v>0</v>
       </c>
       <c r="J55" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="K55" t="n">
-        <v>1419.35</v>
+        <v>0</v>
       </c>
       <c r="L55" t="n">
         <v>0</v>
@@ -3372,21 +5658,63 @@
         <v>0</v>
       </c>
       <c r="N55" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="O55" t="n">
-        <v>1824</v>
+        <v>0</v>
       </c>
       <c r="P55" t="n">
         <v>0</v>
       </c>
       <c r="Q55" t="n">
+        <v>0</v>
+      </c>
+      <c r="R55" t="n">
+        <v>0</v>
+      </c>
+      <c r="S55" t="n">
+        <v>0</v>
+      </c>
+      <c r="T55" t="n">
+        <v>0</v>
+      </c>
+      <c r="U55" t="n">
+        <v>0</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="n">
+        <v>0</v>
+      </c>
+      <c r="X55" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE55" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>44859</v>
+        <v>44920</v>
       </c>
       <c r="B56" t="n">
         <v>0</v>
@@ -3395,10 +5723,10 @@
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="E56" t="n">
-        <v>1825</v>
+        <v>0</v>
       </c>
       <c r="F56" t="n">
         <v>0</v>
@@ -3413,10 +5741,10 @@
         <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="K56" t="n">
-        <v>1527</v>
+        <v>0</v>
       </c>
       <c r="L56" t="n">
         <v>0</v>
@@ -3425,21 +5753,63 @@
         <v>0</v>
       </c>
       <c r="N56" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="O56" t="n">
-        <v>1824</v>
+        <v>0</v>
       </c>
       <c r="P56" t="n">
         <v>0</v>
       </c>
       <c r="Q56" t="n">
+        <v>0</v>
+      </c>
+      <c r="R56" t="n">
+        <v>0</v>
+      </c>
+      <c r="S56" t="n">
+        <v>0</v>
+      </c>
+      <c r="T56" t="n">
+        <v>0</v>
+      </c>
+      <c r="U56" t="n">
+        <v>0</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="n">
+        <v>0</v>
+      </c>
+      <c r="X56" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE56" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>44860</v>
+        <v>44921</v>
       </c>
       <c r="B57" t="n">
         <v>0</v>
@@ -3448,10 +5818,10 @@
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="E57" t="n">
-        <v>1775.64</v>
+        <v>0</v>
       </c>
       <c r="F57" t="n">
         <v>0</v>
@@ -3460,16 +5830,16 @@
         <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>1804.04</v>
+        <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="K57" t="n">
-        <v>1509.04</v>
+        <v>0</v>
       </c>
       <c r="L57" t="n">
         <v>0</v>
@@ -3487,12 +5857,54 @@
         <v>0</v>
       </c>
       <c r="Q57" t="n">
+        <v>0</v>
+      </c>
+      <c r="R57" t="n">
+        <v>0</v>
+      </c>
+      <c r="S57" t="n">
+        <v>0</v>
+      </c>
+      <c r="T57" t="n">
+        <v>0</v>
+      </c>
+      <c r="U57" t="n">
+        <v>0</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="n">
+        <v>0</v>
+      </c>
+      <c r="X57" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE57" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>44861</v>
+        <v>44922</v>
       </c>
       <c r="B58" t="n">
         <v>0</v>
@@ -3501,10 +5913,10 @@
         <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="E58" t="n">
-        <v>1854</v>
+        <v>0</v>
       </c>
       <c r="F58" t="n">
         <v>0</v>
@@ -3513,16 +5925,16 @@
         <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>1804.04</v>
+        <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="K58" t="n">
-        <v>1480.4</v>
+        <v>0</v>
       </c>
       <c r="L58" t="n">
         <v>0</v>
@@ -3540,12 +5952,54 @@
         <v>0</v>
       </c>
       <c r="Q58" t="n">
+        <v>0</v>
+      </c>
+      <c r="R58" t="n">
+        <v>0</v>
+      </c>
+      <c r="S58" t="n">
+        <v>0</v>
+      </c>
+      <c r="T58" t="n">
+        <v>0</v>
+      </c>
+      <c r="U58" t="n">
+        <v>0</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="n">
+        <v>0</v>
+      </c>
+      <c r="X58" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE58" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>44862</v>
+        <v>44923</v>
       </c>
       <c r="B59" t="n">
         <v>0</v>
@@ -3554,10 +6008,10 @@
         <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="E59" t="n">
-        <v>1854</v>
+        <v>0</v>
       </c>
       <c r="F59" t="n">
         <v>0</v>
@@ -3566,16 +6020,16 @@
         <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>1343.48</v>
+        <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="K59" t="n">
-        <v>1395.65</v>
+        <v>0</v>
       </c>
       <c r="L59" t="n">
         <v>0</v>
@@ -3593,12 +6047,54 @@
         <v>0</v>
       </c>
       <c r="Q59" t="n">
+        <v>0</v>
+      </c>
+      <c r="R59" t="n">
+        <v>0</v>
+      </c>
+      <c r="S59" t="n">
+        <v>0</v>
+      </c>
+      <c r="T59" t="n">
+        <v>0</v>
+      </c>
+      <c r="U59" t="n">
+        <v>0</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="n">
+        <v>0</v>
+      </c>
+      <c r="X59" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y59" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE59" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>44863</v>
+        <v>44924</v>
       </c>
       <c r="B60" t="n">
         <v>0</v>
@@ -3607,10 +6103,10 @@
         <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="E60" t="n">
-        <v>1854</v>
+        <v>0</v>
       </c>
       <c r="F60" t="n">
         <v>0</v>
@@ -3619,16 +6115,16 @@
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>1343.48</v>
+        <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="K60" t="n">
-        <v>1425</v>
+        <v>0</v>
       </c>
       <c r="L60" t="n">
         <v>0</v>
@@ -3646,12 +6142,54 @@
         <v>0</v>
       </c>
       <c r="Q60" t="n">
+        <v>0</v>
+      </c>
+      <c r="R60" t="n">
+        <v>0</v>
+      </c>
+      <c r="S60" t="n">
+        <v>0</v>
+      </c>
+      <c r="T60" t="n">
+        <v>0</v>
+      </c>
+      <c r="U60" t="n">
+        <v>0</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="n">
+        <v>0</v>
+      </c>
+      <c r="X60" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y60" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE60" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>44864</v>
+        <v>44925</v>
       </c>
       <c r="B61" t="n">
         <v>0</v>
@@ -3660,28 +6198,28 @@
         <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="E61" t="n">
-        <v>1803</v>
+        <v>0</v>
       </c>
       <c r="F61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G61" t="n">
-        <v>1477</v>
+        <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>1343.48</v>
+        <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="K61" t="n">
-        <v>1405.06</v>
+        <v>0</v>
       </c>
       <c r="L61" t="n">
         <v>0</v>
@@ -3699,12 +6237,54 @@
         <v>0</v>
       </c>
       <c r="Q61" t="n">
+        <v>0</v>
+      </c>
+      <c r="R61" t="n">
+        <v>0</v>
+      </c>
+      <c r="S61" t="n">
+        <v>0</v>
+      </c>
+      <c r="T61" t="n">
+        <v>0</v>
+      </c>
+      <c r="U61" t="n">
+        <v>0</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="n">
+        <v>0</v>
+      </c>
+      <c r="X61" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y61" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE61" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>44865</v>
+        <v>44926</v>
       </c>
       <c r="B62" t="n">
         <v>0</v>
@@ -3713,10 +6293,10 @@
         <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="E62" t="n">
-        <v>1803.09</v>
+        <v>0</v>
       </c>
       <c r="F62" t="n">
         <v>0</v>
@@ -3725,16 +6305,16 @@
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>1343.48</v>
+        <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="K62" t="n">
-        <v>1395.65</v>
+        <v>0</v>
       </c>
       <c r="L62" t="n">
         <v>0</v>
@@ -3752,6 +6332,48 @@
         <v>0</v>
       </c>
       <c r="Q62" t="n">
+        <v>0</v>
+      </c>
+      <c r="R62" t="n">
+        <v>0</v>
+      </c>
+      <c r="S62" t="n">
+        <v>0</v>
+      </c>
+      <c r="T62" t="n">
+        <v>0</v>
+      </c>
+      <c r="U62" t="n">
+        <v>0</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="n">
+        <v>0</v>
+      </c>
+      <c r="X62" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y62" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE62" t="n">
         <v>0</v>
       </c>
     </row>

--- a/NameFile.xlsx
+++ b/NameFile.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE62"/>
+  <dimension ref="A1:AE93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -584,25 +584,25 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>44866</v>
+        <v>44713</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="C2" t="n">
-        <v>128.92</v>
+        <v>2781.84</v>
       </c>
       <c r="D2" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="E2" t="n">
-        <v>685.53</v>
+        <v>1840.2</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>645.6799999999999</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -611,16 +611,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>257.19</v>
       </c>
       <c r="L2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>108.33</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -671,7 +671,7 @@
         <v>0</v>
       </c>
       <c r="AD2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE2" t="n">
         <v>0</v>
@@ -679,25 +679,25 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>44867</v>
+        <v>44714</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>5209.2</v>
       </c>
       <c r="D3" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="E3" t="n">
-        <v>798.8700000000001</v>
+        <v>1631.37</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1274.3</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -706,16 +706,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>336.46</v>
       </c>
       <c r="L3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>108.33</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -766,33 +766,33 @@
         <v>0</v>
       </c>
       <c r="AD3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE3" t="n">
-        <v>0</v>
+        <v>123.26</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>44868</v>
+        <v>44715</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>4744.5</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="E4" t="n">
-        <v>297.17</v>
+        <v>2426.58</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>1358.04</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -801,16 +801,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>422.52</v>
       </c>
       <c r="L4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>108.33</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -831,10 +831,10 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>235</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="AD4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AE4" t="n">
         <v>0</v>
@@ -869,25 +869,25 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>44869</v>
+        <v>44716</v>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C5" t="n">
-        <v>619.66</v>
+        <v>2628.6</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>677.9000000000001</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>702.36</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -896,10 +896,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>395.49</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -926,10 +926,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>1821.75</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -938,10 +938,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>3126.62</v>
       </c>
       <c r="Z5" t="n">
         <v>0</v>
@@ -956,7 +956,7 @@
         <v>0</v>
       </c>
       <c r="AD5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AE5" t="n">
         <v>0</v>
@@ -964,94 +964,94 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>44870</v>
+        <v>44717</v>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C6" t="n">
-        <v>1313.2</v>
+        <v>1026.09</v>
       </c>
       <c r="D6" t="n">
+        <v>3</v>
+      </c>
+      <c r="E6" t="n">
+        <v>261.03</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" t="n">
+        <v>180.9</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>4226.71</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD6" t="n">
         <v>2</v>
-      </c>
-      <c r="E6" t="n">
-        <v>380.84</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0</v>
-      </c>
-      <c r="X6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>0</v>
       </c>
       <c r="AE6" t="n">
         <v>0</v>
@@ -1059,25 +1059,25 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>44871</v>
+        <v>44718</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1139.82</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E7" t="n">
-        <v>168.08</v>
+        <v>584.4000000000001</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>186.09</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1086,10 +1086,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>387.48</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1116,10 +1116,10 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>589.62</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1140,39 +1140,39 @@
         <v>0</v>
       </c>
       <c r="AB7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC7" t="n">
         <v>0</v>
       </c>
       <c r="AD7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE7" t="n">
-        <v>0</v>
+        <v>-276.66</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>44872</v>
+        <v>44719</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>228.58</v>
+        <v>922.08</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>606.9</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>199.08</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>193.74</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -1193,10 +1193,10 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>417.5</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -1211,10 +1211,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="U8" t="n">
-        <v>13276.2</v>
+        <v>152.5</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1241,7 +1241,7 @@
         <v>0</v>
       </c>
       <c r="AD8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE8" t="n">
         <v>0</v>
@@ -1249,25 +1249,25 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>44873</v>
+        <v>44720</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C9" t="n">
-        <v>198.58</v>
+        <v>2070.54</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>793.6799999999999</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>492.3</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1276,22 +1276,22 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>375.6</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>135.84</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>337.16</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -1306,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="U9" t="n">
-        <v>13276.2</v>
+        <v>1038.57</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1318,10 +1318,10 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>260.01</v>
       </c>
       <c r="Z9" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="AD9" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AE9" t="n">
         <v>0</v>
@@ -1344,25 +1344,25 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>44874</v>
+        <v>44721</v>
       </c>
       <c r="B10" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C10" t="n">
-        <v>1648.43</v>
+        <v>1693.6</v>
       </c>
       <c r="D10" t="n">
         <v>3</v>
       </c>
       <c r="E10" t="n">
-        <v>729</v>
+        <v>246.84</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>613.8299999999999</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1371,10 +1371,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>177.82</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1401,10 +1401,10 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>1570.29</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1431,7 +1431,7 @@
         <v>0</v>
       </c>
       <c r="AD10" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AE10" t="n">
         <v>0</v>
@@ -1439,25 +1439,25 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>44875</v>
+        <v>44722</v>
       </c>
       <c r="B11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C11" t="n">
-        <v>4854.48</v>
+        <v>1742.52</v>
       </c>
       <c r="D11" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E11" t="n">
-        <v>1737.84</v>
+        <v>391.89</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>575.75</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1508,10 +1508,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>2979.08</v>
       </c>
       <c r="Z11" t="n">
         <v>0</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="AD11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE11" t="n">
         <v>0</v>
@@ -1534,25 +1534,25 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>44876</v>
+        <v>44723</v>
       </c>
       <c r="B12" t="n">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="C12" t="n">
-        <v>11447.33</v>
+        <v>1325.7</v>
       </c>
       <c r="D12" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E12" t="n">
-        <v>1592.84</v>
+        <v>1216.56</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>364.16</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1603,10 +1603,10 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>3770.26</v>
       </c>
       <c r="Z12" t="n">
         <v>0</v>
@@ -1621,33 +1621,33 @@
         <v>0</v>
       </c>
       <c r="AD12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE12" t="n">
-        <v>0</v>
+        <v>137.4</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>44877</v>
+        <v>44724</v>
       </c>
       <c r="B13" t="n">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>11340.12</v>
+        <v>567.84</v>
       </c>
       <c r="D13" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E13" t="n">
-        <v>985.74</v>
+        <v>710.5599999999999</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1668,10 +1668,10 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>60.08</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -1698,13 +1698,13 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>2388.21</v>
       </c>
       <c r="Z13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA13" t="n">
         <v>0</v>
@@ -1716,7 +1716,7 @@
         <v>0</v>
       </c>
       <c r="AD13" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AE13" t="n">
         <v>0</v>
@@ -1724,31 +1724,31 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>44878</v>
+        <v>44725</v>
       </c>
       <c r="B14" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C14" t="n">
-        <v>2203.32</v>
+        <v>1697.28</v>
       </c>
       <c r="D14" t="n">
         <v>8</v>
       </c>
       <c r="E14" t="n">
-        <v>2311.92</v>
+        <v>737.28</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>179.5</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>72.92</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1763,10 +1763,10 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>87.08</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -1793,25 +1793,25 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>357.28</v>
       </c>
       <c r="Z14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA14" t="n">
         <v>0</v>
       </c>
       <c r="AB14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC14" t="n">
         <v>0</v>
       </c>
       <c r="AD14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE14" t="n">
         <v>0</v>
@@ -1819,25 +1819,25 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>44879</v>
+        <v>44726</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>2539.44</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>1336.08</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>280.08</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1846,10 +1846,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>218.49</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -1858,10 +1858,10 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>100.58</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -1876,10 +1876,10 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>426.7</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -1888,25 +1888,25 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>1097.8</v>
       </c>
       <c r="Z15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA15" t="n">
         <v>0</v>
       </c>
       <c r="AB15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC15" t="n">
         <v>0</v>
       </c>
       <c r="AD15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE15" t="n">
         <v>0</v>
@@ -1914,25 +1914,25 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>44880</v>
+        <v>44727</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>2606.94</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>534.5999999999999</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>407.16</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1941,10 +1941,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>92.83</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1959,10 +1959,10 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>299.64</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -1971,10 +1971,10 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>801.12</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1983,13 +1983,13 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>2049.84</v>
       </c>
       <c r="Z16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA16" t="n">
         <v>0</v>
@@ -2001,7 +2001,7 @@
         <v>0</v>
       </c>
       <c r="AD16" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AE16" t="n">
         <v>0</v>
@@ -2009,25 +2009,25 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>44881</v>
+        <v>44728</v>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1639.5</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>454.36</v>
       </c>
       <c r="F17" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G17" t="n">
-        <v>253.08</v>
+        <v>648.16</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -2054,10 +2054,10 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>1897.72</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -2078,13 +2078,13 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>678.34</v>
       </c>
       <c r="Z17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA17" t="n">
         <v>0</v>
@@ -2096,7 +2096,7 @@
         <v>0</v>
       </c>
       <c r="AD17" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AE17" t="n">
         <v>0</v>
@@ -2104,25 +2104,25 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>44882</v>
+        <v>44729</v>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>1904.8</v>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E18" t="n">
-        <v>168.83</v>
+        <v>1080.45</v>
       </c>
       <c r="F18" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G18" t="n">
-        <v>253.08</v>
+        <v>660.5</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -2161,10 +2161,10 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>462.84</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -2173,13 +2173,13 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>5997.68</v>
       </c>
       <c r="Z18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA18" t="n">
         <v>0</v>
@@ -2191,7 +2191,7 @@
         <v>0</v>
       </c>
       <c r="AD18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE18" t="n">
         <v>0</v>
@@ -2199,25 +2199,25 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>44883</v>
+        <v>44730</v>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>3064.1</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="E19" t="n">
-        <v>201.33</v>
+        <v>2717.12</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>1304.37</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2256,10 +2256,10 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>1879.92</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2268,25 +2268,25 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>1387.53</v>
       </c>
       <c r="Z19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA19" t="n">
         <v>0</v>
       </c>
       <c r="AB19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC19" t="n">
         <v>0</v>
       </c>
       <c r="AD19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE19" t="n">
         <v>0</v>
@@ -2294,25 +2294,25 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>44884</v>
+        <v>44731</v>
       </c>
       <c r="B20" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C20" t="n">
-        <v>1911.8</v>
+        <v>1320.48</v>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E20" t="n">
-        <v>152.17</v>
+        <v>1090.1</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>332.32</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2363,10 +2363,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>2614.72</v>
       </c>
       <c r="Z20" t="n">
         <v>0</v>
@@ -2381,7 +2381,7 @@
         <v>0</v>
       </c>
       <c r="AD20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE20" t="n">
         <v>0</v>
@@ -2389,25 +2389,25 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>44885</v>
+        <v>44732</v>
       </c>
       <c r="B21" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C21" t="n">
-        <v>2172.06</v>
+        <v>858</v>
       </c>
       <c r="D21" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E21" t="n">
-        <v>255.5</v>
+        <v>725.4400000000001</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>252.16</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2434,10 +2434,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>169.16</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -2476,7 +2476,7 @@
         <v>0</v>
       </c>
       <c r="AD21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE21" t="n">
         <v>0</v>
@@ -2484,79 +2484,79 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>44886</v>
+        <v>44733</v>
       </c>
       <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D22" t="n">
+        <v>24</v>
+      </c>
+      <c r="E22" t="n">
+        <v>2630.4</v>
+      </c>
+      <c r="F22" t="n">
+        <v>3</v>
+      </c>
+      <c r="G22" t="n">
+        <v>422.97</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>2</v>
+      </c>
+      <c r="O22" t="n">
+        <v>225.26</v>
+      </c>
+      <c r="P22" t="n">
+        <v>13</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1099.54</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>3</v>
+      </c>
+      <c r="U22" t="n">
+        <v>133.74</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0</v>
+      </c>
+      <c r="X22" t="n">
         <v>7</v>
       </c>
-      <c r="C22" t="n">
-        <v>2265.2</v>
-      </c>
-      <c r="D22" t="n">
-        <v>1</v>
-      </c>
-      <c r="E22" t="n">
-        <v>218</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>0</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0</v>
-      </c>
-      <c r="W22" t="n">
-        <v>0</v>
-      </c>
-      <c r="X22" t="n">
-        <v>0</v>
-      </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>1475.6</v>
       </c>
       <c r="Z22" t="n">
         <v>0</v>
@@ -2571,7 +2571,7 @@
         <v>0</v>
       </c>
       <c r="AD22" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AE22" t="n">
         <v>0</v>
@@ -2579,67 +2579,67 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>44887</v>
+        <v>44734</v>
       </c>
       <c r="B23" t="n">
+        <v>29</v>
+      </c>
+      <c r="C23" t="n">
+        <v>4122.059999999999</v>
+      </c>
+      <c r="D23" t="n">
+        <v>18</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1995.12</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1</v>
+      </c>
+      <c r="G23" t="n">
+        <v>167.56</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>1</v>
+      </c>
+      <c r="O23" t="n">
+        <v>112.63</v>
+      </c>
+      <c r="P23" t="n">
+        <v>13</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1281.28</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
         <v>6</v>
       </c>
-      <c r="C23" t="n">
-        <v>1979.1</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>11</v>
-      </c>
       <c r="U23" t="n">
-        <v>1739.87</v>
+        <v>442.5</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2648,10 +2648,10 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>1076.64</v>
       </c>
       <c r="Z23" t="n">
         <v>0</v>
@@ -2660,39 +2660,39 @@
         <v>0</v>
       </c>
       <c r="AB23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC23" t="n">
         <v>0</v>
       </c>
       <c r="AD23" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AE23" t="n">
-        <v>0</v>
+        <v>193.4</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>44888</v>
+        <v>44735</v>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>1755.09</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>1588</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>729.3</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2713,16 +2713,16 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>436.33</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>597.0600000000001</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -2731,10 +2731,10 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>1293.75</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -2743,10 +2743,10 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>2012.58</v>
       </c>
       <c r="Z24" t="n">
         <v>0</v>
@@ -2761,33 +2761,33 @@
         <v>0</v>
       </c>
       <c r="AD24" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AE24" t="n">
-        <v>0</v>
+        <v>-33.33</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>44889</v>
+        <v>44736</v>
       </c>
       <c r="B25" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C25" t="n">
-        <v>185.58</v>
+        <v>1840.3</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>2524.14</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>1295.16</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2826,10 +2826,10 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>15192.6</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2838,10 +2838,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>506.86</v>
       </c>
       <c r="Z25" t="n">
         <v>0</v>
@@ -2856,7 +2856,7 @@
         <v>0</v>
       </c>
       <c r="AD25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE25" t="n">
         <v>0</v>
@@ -2864,25 +2864,25 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>44890</v>
+        <v>44737</v>
       </c>
       <c r="B26" t="n">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="C26" t="n">
-        <v>1586.55</v>
+        <v>4788.83</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>2280.3</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>1919.4</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2921,10 +2921,10 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>1268.3</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -2933,10 +2933,10 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>-42.5</v>
       </c>
       <c r="Z26" t="n">
         <v>0</v>
@@ -2951,33 +2951,33 @@
         <v>0</v>
       </c>
       <c r="AD26" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AE26" t="n">
-        <v>0</v>
+        <v>90.81</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>44891</v>
+        <v>44738</v>
       </c>
       <c r="B27" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C27" t="n">
-        <v>512.84</v>
+        <v>1458.8</v>
       </c>
       <c r="D27" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E27" t="n">
-        <v>300.5</v>
+        <v>589.8200000000001</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>313.05</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2998,10 +2998,10 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>80.33</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -3028,10 +3028,10 @@
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>1470.14</v>
       </c>
       <c r="Z27" t="n">
         <v>0</v>
@@ -3046,33 +3046,33 @@
         <v>0</v>
       </c>
       <c r="AD27" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AE27" t="n">
-        <v>0</v>
+        <v>-21.66</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>44892</v>
+        <v>44739</v>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>1426.88</v>
       </c>
       <c r="D28" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E28" t="n">
-        <v>210.58</v>
+        <v>665.63</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>234.32</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -3081,10 +3081,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>148.08</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -3093,10 +3093,10 @@
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>592.4</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
@@ -3111,10 +3111,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>3102.13</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -3141,45 +3141,45 @@
         <v>0</v>
       </c>
       <c r="AD28" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AE28" t="n">
-        <v>0</v>
+        <v>64.16</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>44893</v>
+        <v>44740</v>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>3321</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>818.08</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>396.16</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>56.25</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>452.06</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -3188,10 +3188,10 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>315.24</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -3236,45 +3236,45 @@
         <v>0</v>
       </c>
       <c r="AD29" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AE29" t="n">
-        <v>0</v>
+        <v>-42.51</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>44894</v>
+        <v>44741</v>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>2680.26</v>
       </c>
       <c r="D30" t="n">
+        <v>5</v>
+      </c>
+      <c r="E30" t="n">
+        <v>427.85</v>
+      </c>
+      <c r="F30" t="n">
+        <v>4</v>
+      </c>
+      <c r="G30" t="n">
+        <v>417.4</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
         <v>3</v>
       </c>
-      <c r="E30" t="n">
-        <v>543.9000000000001</v>
-      </c>
-      <c r="F30" t="n">
-        <v>0</v>
-      </c>
-      <c r="G30" t="n">
-        <v>0</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.57</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -3283,10 +3283,10 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>279.03</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -3301,10 +3301,10 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>1898.82</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -3325,39 +3325,39 @@
         <v>0</v>
       </c>
       <c r="AB30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC30" t="n">
         <v>0</v>
       </c>
       <c r="AD30" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AE30" t="n">
-        <v>0</v>
+        <v>57.40000000000001</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>44895</v>
+        <v>44742</v>
       </c>
       <c r="B31" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C31" t="n">
-        <v>858.6799999999999</v>
+        <v>1510.08</v>
       </c>
       <c r="D31" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E31" t="n">
-        <v>343.78</v>
+        <v>444.5</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>74.58</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3396,10 +3396,10 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>3236.71</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3408,10 +3408,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>2004.32</v>
       </c>
       <c r="Z31" t="n">
         <v>0</v>
@@ -3426,33 +3426,33 @@
         <v>0</v>
       </c>
       <c r="AD31" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AE31" t="n">
-        <v>0</v>
+        <v>422.56</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>44896</v>
+        <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>4677.77</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>2977.11</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>414.96</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3485,10 +3485,10 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>148.32</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3497,10 +3497,10 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>45.92</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3515,10 +3515,10 @@
         <v>0</v>
       </c>
       <c r="AB32" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AC32" t="n">
-        <v>0</v>
+        <v>1555.12</v>
       </c>
       <c r="AD32" t="n">
         <v>0</v>
@@ -3529,31 +3529,31 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>44897</v>
+        <v>44744</v>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>7127.490000000001</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>782.24</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>313.06</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>352.92</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3562,25 +3562,25 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>107.33</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>-12.5</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -3592,10 +3592,10 @@
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>4284.28</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -3610,10 +3610,10 @@
         <v>0</v>
       </c>
       <c r="AB33" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AC33" t="n">
-        <v>0</v>
+        <v>403.68</v>
       </c>
       <c r="AD33" t="n">
         <v>0</v>
@@ -3624,31 +3624,31 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>44898</v>
+        <v>44745</v>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>1407</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>2797.44</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>348.78</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>626.24</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3669,22 +3669,22 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>133.32</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>2306.72</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3705,10 +3705,10 @@
         <v>0</v>
       </c>
       <c r="AB34" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AC34" t="n">
-        <v>0</v>
+        <v>-364.2</v>
       </c>
       <c r="AD34" t="n">
         <v>0</v>
@@ -3719,25 +3719,25 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>44899</v>
+        <v>44746</v>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>2421.6</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>2725.6</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>294.74</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3758,22 +3758,22 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>83.33</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3782,10 +3782,10 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>2000.64</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3800,10 +3800,10 @@
         <v>0</v>
       </c>
       <c r="AB35" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AC35" t="n">
-        <v>0</v>
+        <v>3508</v>
       </c>
       <c r="AD35" t="n">
         <v>0</v>
@@ -3814,19 +3814,19 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>44900</v>
+        <v>44747</v>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>1196</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>1248.15</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -3847,10 +3847,10 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>136.26</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -3859,13 +3859,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -3877,10 +3877,10 @@
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>192.12</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -3895,10 +3895,10 @@
         <v>0</v>
       </c>
       <c r="AB36" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AC36" t="n">
-        <v>0</v>
+        <v>2634.06</v>
       </c>
       <c r="AD36" t="n">
         <v>0</v>
@@ -3909,31 +3909,31 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>44901</v>
+        <v>44748</v>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>1675.52</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>962.22</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>336.9</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3942,10 +3942,10 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>402.48</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -3954,13 +3954,13 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3972,10 +3972,10 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>301.12</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3990,10 +3990,10 @@
         <v>0</v>
       </c>
       <c r="AB37" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AC37" t="n">
-        <v>0</v>
+        <v>1012.92</v>
       </c>
       <c r="AD37" t="n">
         <v>0</v>
@@ -4004,31 +4004,31 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>44902</v>
+        <v>44749</v>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>1478.16</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>1538.74</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>635.34</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>110.5</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -4037,10 +4037,10 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>492.9</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -4049,16 +4049,16 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -4067,10 +4067,10 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>1727.4</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -4099,31 +4099,31 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>44903</v>
+        <v>44750</v>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>2331.2</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>2290.86</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>356.72</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>612.16</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -4132,10 +4132,10 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>386.84</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -4144,16 +4144,16 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>199.74</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -4162,10 +4162,10 @@
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>999.5700000000001</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -4194,31 +4194,31 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>44904</v>
+        <v>44751</v>
       </c>
       <c r="B40" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="C40" t="n">
-        <v>224.62</v>
+        <v>3768.6</v>
       </c>
       <c r="D40" t="n">
+        <v>17</v>
+      </c>
+      <c r="E40" t="n">
+        <v>1379.89</v>
+      </c>
+      <c r="F40" t="n">
+        <v>7</v>
+      </c>
+      <c r="G40" t="n">
+        <v>447.3</v>
+      </c>
+      <c r="H40" t="n">
         <v>2</v>
       </c>
-      <c r="E40" t="n">
-        <v>576.62</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>131.54</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -4239,13 +4239,13 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -4257,10 +4257,10 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>298.32</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -4269,10 +4269,10 @@
         <v>0</v>
       </c>
       <c r="Z40" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AA40" t="n">
-        <v>0</v>
+        <v>1115.82</v>
       </c>
       <c r="AB40" t="n">
         <v>0</v>
@@ -4289,73 +4289,73 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>44905</v>
+        <v>44752</v>
       </c>
       <c r="B41" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C41" t="n">
-        <v>286.84</v>
+        <v>1301.95</v>
       </c>
       <c r="D41" t="n">
+        <v>20</v>
+      </c>
+      <c r="E41" t="n">
+        <v>2227.2</v>
+      </c>
+      <c r="F41" t="n">
+        <v>6</v>
+      </c>
+      <c r="G41" t="n">
+        <v>551.4000000000001</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>1</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
         <v>2</v>
       </c>
-      <c r="E41" t="n">
-        <v>584.62</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" t="n">
-        <v>0</v>
-      </c>
-      <c r="U41" t="n">
-        <v>0</v>
-      </c>
-      <c r="V41" t="n">
-        <v>0</v>
-      </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>312.5</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -4364,16 +4364,16 @@
         <v>0</v>
       </c>
       <c r="Z41" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AA41" t="n">
-        <v>0</v>
+        <v>778.3200000000001</v>
       </c>
       <c r="AB41" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AC41" t="n">
-        <v>0</v>
+        <v>1146.48</v>
       </c>
       <c r="AD41" t="n">
         <v>0</v>
@@ -4384,25 +4384,25 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>44906</v>
+        <v>44753</v>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>2489.74</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>2890.85</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>135.67</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -4429,13 +4429,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -4447,10 +4447,10 @@
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>2327.04</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -4459,16 +4459,16 @@
         <v>0</v>
       </c>
       <c r="Z42" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AA42" t="n">
-        <v>0</v>
+        <v>1003.32</v>
       </c>
       <c r="AB42" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AC42" t="n">
-        <v>0</v>
+        <v>1505.1</v>
       </c>
       <c r="AD42" t="n">
         <v>0</v>
@@ -4479,19 +4479,19 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>44907</v>
+        <v>44754</v>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>3033.65</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>426.72</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -4524,13 +4524,13 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -4542,10 +4542,10 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>298.32</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -4560,10 +4560,10 @@
         <v>0</v>
       </c>
       <c r="AB43" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="AC43" t="n">
-        <v>0</v>
+        <v>5266.52</v>
       </c>
       <c r="AD43" t="n">
         <v>0</v>
@@ -4574,25 +4574,25 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>44908</v>
+        <v>44755</v>
       </c>
       <c r="B44" t="n">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="C44" t="n">
-        <v>223.14</v>
+        <v>4204.55</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>522.1500000000001</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>109.5</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4619,13 +4619,13 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4637,10 +4637,10 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>1742.11</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4669,25 +4669,25 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>44909</v>
+        <v>44756</v>
       </c>
       <c r="B45" t="n">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="C45" t="n">
-        <v>223.14</v>
+        <v>2492.36</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>830.97</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>264.9</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4714,13 +4714,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -4732,10 +4732,10 @@
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>298.32</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -4764,25 +4764,25 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>44910</v>
+        <v>44757</v>
       </c>
       <c r="B46" t="n">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="C46" t="n">
-        <v>223.14</v>
+        <v>4239.46</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>1032.02</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>415</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4809,13 +4809,13 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4827,10 +4827,10 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>1229.49</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4845,10 +4845,10 @@
         <v>0</v>
       </c>
       <c r="AB46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC46" t="n">
-        <v>0</v>
+        <v>187.5</v>
       </c>
       <c r="AD46" t="n">
         <v>0</v>
@@ -4859,25 +4859,25 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>44911</v>
+        <v>44758</v>
       </c>
       <c r="B47" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="C47" t="n">
-        <v>0</v>
+        <v>5670.4</v>
       </c>
       <c r="D47" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E47" t="n">
-        <v>0</v>
+        <v>774.8000000000001</v>
       </c>
       <c r="F47" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G47" t="n">
-        <v>0</v>
+        <v>397.08</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -4904,13 +4904,13 @@
         <v>0</v>
       </c>
       <c r="P47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q47" t="n">
         <v>0</v>
       </c>
       <c r="R47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S47" t="n">
         <v>0</v>
@@ -4922,10 +4922,10 @@
         <v>0</v>
       </c>
       <c r="V47" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="W47" t="n">
-        <v>0</v>
+        <v>1717</v>
       </c>
       <c r="X47" t="n">
         <v>0</v>
@@ -4954,25 +4954,25 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>44912</v>
+        <v>44759</v>
       </c>
       <c r="B48" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="C48" t="n">
-        <v>0</v>
+        <v>2186.01</v>
       </c>
       <c r="D48" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="E48" t="n">
-        <v>0</v>
+        <v>2394.53</v>
       </c>
       <c r="F48" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G48" t="n">
-        <v>0</v>
+        <v>716.0999999999999</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -4999,13 +4999,13 @@
         <v>0</v>
       </c>
       <c r="P48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q48" t="n">
         <v>0</v>
       </c>
       <c r="R48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S48" t="n">
         <v>0</v>
@@ -5017,10 +5017,10 @@
         <v>0</v>
       </c>
       <c r="V48" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="W48" t="n">
-        <v>0</v>
+        <v>1099.12</v>
       </c>
       <c r="X48" t="n">
         <v>0</v>
@@ -5035,10 +5035,10 @@
         <v>0</v>
       </c>
       <c r="AB48" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AC48" t="n">
-        <v>0</v>
+        <v>956.6799999999999</v>
       </c>
       <c r="AD48" t="n">
         <v>0</v>
@@ -5049,31 +5049,31 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>44913</v>
+        <v>44760</v>
       </c>
       <c r="B49" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C49" t="n">
-        <v>0</v>
+        <v>1220.34</v>
       </c>
       <c r="D49" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E49" t="n">
-        <v>0</v>
+        <v>2691.6</v>
       </c>
       <c r="F49" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G49" t="n">
-        <v>0</v>
+        <v>728.58</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>495</v>
       </c>
       <c r="J49" t="n">
         <v>0</v>
@@ -5088,19 +5088,19 @@
         <v>0</v>
       </c>
       <c r="N49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O49" t="n">
         <v>0</v>
       </c>
       <c r="P49" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q49" t="n">
-        <v>0</v>
+        <v>99.98999999999999</v>
       </c>
       <c r="R49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S49" t="n">
         <v>0</v>
@@ -5112,10 +5112,10 @@
         <v>0</v>
       </c>
       <c r="V49" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="W49" t="n">
-        <v>0</v>
+        <v>1857.12</v>
       </c>
       <c r="X49" t="n">
         <v>0</v>
@@ -5130,10 +5130,10 @@
         <v>0</v>
       </c>
       <c r="AB49" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AC49" t="n">
-        <v>0</v>
+        <v>1997.27</v>
       </c>
       <c r="AD49" t="n">
         <v>0</v>
@@ -5144,25 +5144,25 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>44914</v>
+        <v>44761</v>
       </c>
       <c r="B50" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C50" t="n">
-        <v>0</v>
+        <v>2278.48</v>
       </c>
       <c r="D50" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E50" t="n">
-        <v>0</v>
+        <v>176.91</v>
       </c>
       <c r="F50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G50" t="n">
-        <v>0</v>
+        <v>66.83</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -5189,13 +5189,13 @@
         <v>0</v>
       </c>
       <c r="P50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q50" t="n">
         <v>0</v>
       </c>
       <c r="R50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S50" t="n">
         <v>0</v>
@@ -5207,10 +5207,10 @@
         <v>0</v>
       </c>
       <c r="V50" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W50" t="n">
-        <v>0</v>
+        <v>298.32</v>
       </c>
       <c r="X50" t="n">
         <v>0</v>
@@ -5225,13 +5225,13 @@
         <v>0</v>
       </c>
       <c r="AB50" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AC50" t="n">
-        <v>0</v>
+        <v>1893.6</v>
       </c>
       <c r="AD50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE50" t="n">
         <v>0</v>
@@ -5239,25 +5239,25 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>44915</v>
+        <v>44762</v>
       </c>
       <c r="B51" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="C51" t="n">
-        <v>0</v>
+        <v>6652.799999999999</v>
       </c>
       <c r="D51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E51" t="n">
-        <v>288</v>
+        <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G51" t="n">
-        <v>0</v>
+        <v>4.17</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -5284,13 +5284,13 @@
         <v>0</v>
       </c>
       <c r="P51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q51" t="n">
         <v>0</v>
       </c>
       <c r="R51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S51" t="n">
         <v>0</v>
@@ -5302,10 +5302,10 @@
         <v>0</v>
       </c>
       <c r="V51" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="W51" t="n">
-        <v>0</v>
+        <v>569.16</v>
       </c>
       <c r="X51" t="n">
         <v>0</v>
@@ -5320,13 +5320,13 @@
         <v>0</v>
       </c>
       <c r="AB51" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AC51" t="n">
-        <v>0</v>
+        <v>3705.2</v>
       </c>
       <c r="AD51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE51" t="n">
         <v>0</v>
@@ -5334,19 +5334,19 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>44916</v>
+        <v>44763</v>
       </c>
       <c r="B52" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C52" t="n">
-        <v>0</v>
+        <v>3090</v>
       </c>
       <c r="D52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E52" t="n">
-        <v>288</v>
+        <v>0</v>
       </c>
       <c r="F52" t="n">
         <v>0</v>
@@ -5355,10 +5355,10 @@
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>110.17</v>
       </c>
       <c r="J52" t="n">
         <v>0</v>
@@ -5379,13 +5379,13 @@
         <v>0</v>
       </c>
       <c r="P52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q52" t="n">
         <v>0</v>
       </c>
       <c r="R52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S52" t="n">
         <v>0</v>
@@ -5397,10 +5397,10 @@
         <v>0</v>
       </c>
       <c r="V52" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="W52" t="n">
-        <v>0</v>
+        <v>6195.84</v>
       </c>
       <c r="X52" t="n">
         <v>0</v>
@@ -5415,13 +5415,13 @@
         <v>0</v>
       </c>
       <c r="AB52" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AC52" t="n">
-        <v>0</v>
+        <v>3557.6</v>
       </c>
       <c r="AD52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE52" t="n">
         <v>0</v>
@@ -5429,25 +5429,25 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>44917</v>
+        <v>44764</v>
       </c>
       <c r="B53" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C53" t="n">
-        <v>0</v>
+        <v>1196.9</v>
       </c>
       <c r="D53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E53" t="n">
-        <v>288</v>
+        <v>250.48</v>
       </c>
       <c r="F53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G53" t="n">
-        <v>0</v>
+        <v>93.79000000000001</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -5462,10 +5462,10 @@
         <v>0</v>
       </c>
       <c r="L53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M53" t="n">
-        <v>0</v>
+        <v>135.84</v>
       </c>
       <c r="N53" t="n">
         <v>0</v>
@@ -5474,13 +5474,13 @@
         <v>0</v>
       </c>
       <c r="P53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q53" t="n">
         <v>0</v>
       </c>
       <c r="R53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S53" t="n">
         <v>0</v>
@@ -5492,10 +5492,10 @@
         <v>0</v>
       </c>
       <c r="V53" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="W53" t="n">
-        <v>0</v>
+        <v>372.9</v>
       </c>
       <c r="X53" t="n">
         <v>0</v>
@@ -5510,13 +5510,13 @@
         <v>0</v>
       </c>
       <c r="AB53" t="n">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="AC53" t="n">
-        <v>0</v>
+        <v>3944.39</v>
       </c>
       <c r="AD53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE53" t="n">
         <v>0</v>
@@ -5524,25 +5524,25 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>44918</v>
+        <v>44765</v>
       </c>
       <c r="B54" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C54" t="n">
-        <v>0</v>
+        <v>915.04</v>
       </c>
       <c r="D54" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E54" t="n">
-        <v>0</v>
+        <v>886.8299999999999</v>
       </c>
       <c r="F54" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G54" t="n">
-        <v>0</v>
+        <v>251.94</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -5569,13 +5569,13 @@
         <v>0</v>
       </c>
       <c r="P54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q54" t="n">
         <v>0</v>
       </c>
       <c r="R54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S54" t="n">
         <v>0</v>
@@ -5605,13 +5605,13 @@
         <v>0</v>
       </c>
       <c r="AB54" t="n">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="AC54" t="n">
-        <v>0</v>
+        <v>5155.08</v>
       </c>
       <c r="AD54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE54" t="n">
         <v>0</v>
@@ -5619,31 +5619,31 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>44919</v>
+        <v>44766</v>
       </c>
       <c r="B55" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C55" t="n">
-        <v>0</v>
+        <v>349.17</v>
       </c>
       <c r="D55" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E55" t="n">
-        <v>0</v>
+        <v>1011.8</v>
       </c>
       <c r="F55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G55" t="n">
-        <v>0</v>
+        <v>198.46</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>160.83</v>
       </c>
       <c r="J55" t="n">
         <v>0</v>
@@ -5664,13 +5664,13 @@
         <v>0</v>
       </c>
       <c r="P55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q55" t="n">
         <v>0</v>
       </c>
       <c r="R55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S55" t="n">
         <v>0</v>
@@ -5682,10 +5682,10 @@
         <v>0</v>
       </c>
       <c r="V55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W55" t="n">
-        <v>0</v>
+        <v>204.16</v>
       </c>
       <c r="X55" t="n">
         <v>0</v>
@@ -5700,13 +5700,13 @@
         <v>0</v>
       </c>
       <c r="AB55" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AC55" t="n">
-        <v>0</v>
+        <v>955.6400000000001</v>
       </c>
       <c r="AD55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE55" t="n">
         <v>0</v>
@@ -5714,31 +5714,31 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>44920</v>
+        <v>44767</v>
       </c>
       <c r="B56" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="C56" t="n">
-        <v>0</v>
+        <v>1829.8</v>
       </c>
       <c r="D56" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E56" t="n">
-        <v>0</v>
+        <v>2066.68</v>
       </c>
       <c r="F56" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G56" t="n">
-        <v>0</v>
+        <v>535.3499999999999</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
+        <v>199.17</v>
       </c>
       <c r="J56" t="n">
         <v>0</v>
@@ -5759,13 +5759,13 @@
         <v>0</v>
       </c>
       <c r="P56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q56" t="n">
         <v>0</v>
       </c>
       <c r="R56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S56" t="n">
         <v>0</v>
@@ -5777,10 +5777,10 @@
         <v>0</v>
       </c>
       <c r="V56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W56" t="n">
-        <v>0</v>
+        <v>120.84</v>
       </c>
       <c r="X56" t="n">
         <v>0</v>
@@ -5795,13 +5795,13 @@
         <v>0</v>
       </c>
       <c r="AB56" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AC56" t="n">
-        <v>0</v>
+        <v>1180.62</v>
       </c>
       <c r="AD56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE56" t="n">
         <v>0</v>
@@ -5809,31 +5809,31 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>44921</v>
+        <v>44768</v>
       </c>
       <c r="B57" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="C57" t="n">
-        <v>0</v>
+        <v>4104</v>
       </c>
       <c r="D57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E57" t="n">
-        <v>0</v>
+        <v>66.55</v>
       </c>
       <c r="F57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G57" t="n">
-        <v>0</v>
+        <v>178.6</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>119.17</v>
       </c>
       <c r="J57" t="n">
         <v>0</v>
@@ -5860,7 +5860,7 @@
         <v>0</v>
       </c>
       <c r="R57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S57" t="n">
         <v>0</v>
@@ -5890,13 +5890,13 @@
         <v>0</v>
       </c>
       <c r="AB57" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AC57" t="n">
-        <v>0</v>
+        <v>3006</v>
       </c>
       <c r="AD57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE57" t="n">
         <v>0</v>
@@ -5904,19 +5904,19 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>44922</v>
+        <v>44769</v>
       </c>
       <c r="B58" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="C58" t="n">
-        <v>0</v>
+        <v>3442.24</v>
       </c>
       <c r="D58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E58" t="n">
-        <v>0</v>
+        <v>72.93000000000001</v>
       </c>
       <c r="F58" t="n">
         <v>0</v>
@@ -5955,7 +5955,7 @@
         <v>0</v>
       </c>
       <c r="R58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S58" t="n">
         <v>0</v>
@@ -5967,10 +5967,10 @@
         <v>0</v>
       </c>
       <c r="V58" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="W58" t="n">
-        <v>0</v>
+        <v>1169.63</v>
       </c>
       <c r="X58" t="n">
         <v>0</v>
@@ -5985,13 +5985,13 @@
         <v>0</v>
       </c>
       <c r="AB58" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AC58" t="n">
-        <v>0</v>
+        <v>795.8</v>
       </c>
       <c r="AD58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE58" t="n">
         <v>0</v>
@@ -5999,13 +5999,13 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>44923</v>
+        <v>44770</v>
       </c>
       <c r="B59" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="C59" t="n">
-        <v>0</v>
+        <v>6239.5</v>
       </c>
       <c r="D59" t="n">
         <v>0</v>
@@ -6026,10 +6026,10 @@
         <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K59" t="n">
-        <v>0</v>
+        <v>370.84</v>
       </c>
       <c r="L59" t="n">
         <v>0</v>
@@ -6044,13 +6044,13 @@
         <v>0</v>
       </c>
       <c r="P59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q59" t="n">
-        <v>0</v>
+        <v>-42.5</v>
       </c>
       <c r="R59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S59" t="n">
         <v>0</v>
@@ -6062,10 +6062,10 @@
         <v>0</v>
       </c>
       <c r="V59" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="W59" t="n">
-        <v>0</v>
+        <v>7718.9</v>
       </c>
       <c r="X59" t="n">
         <v>0</v>
@@ -6080,13 +6080,13 @@
         <v>0</v>
       </c>
       <c r="AB59" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AC59" t="n">
-        <v>0</v>
+        <v>795.8</v>
       </c>
       <c r="AD59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE59" t="n">
         <v>0</v>
@@ -6094,25 +6094,25 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>44924</v>
+        <v>44771</v>
       </c>
       <c r="B60" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="C60" t="n">
-        <v>0</v>
+        <v>7450.5</v>
       </c>
       <c r="D60" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E60" t="n">
-        <v>0</v>
+        <v>906.9299999999999</v>
       </c>
       <c r="F60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G60" t="n">
-        <v>0</v>
+        <v>135.66</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -6121,16 +6121,16 @@
         <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K60" t="n">
-        <v>0</v>
+        <v>62.5</v>
       </c>
       <c r="L60" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M60" t="n">
-        <v>0</v>
+        <v>456.32</v>
       </c>
       <c r="N60" t="n">
         <v>0</v>
@@ -6145,7 +6145,7 @@
         <v>0</v>
       </c>
       <c r="R60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S60" t="n">
         <v>0</v>
@@ -6157,10 +6157,10 @@
         <v>0</v>
       </c>
       <c r="V60" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="W60" t="n">
-        <v>0</v>
+        <v>6157.44</v>
       </c>
       <c r="X60" t="n">
         <v>0</v>
@@ -6181,7 +6181,7 @@
         <v>0</v>
       </c>
       <c r="AD60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE60" t="n">
         <v>0</v>
@@ -6189,37 +6189,37 @@
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>44925</v>
+        <v>44772</v>
       </c>
       <c r="B61" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="C61" t="n">
-        <v>0</v>
+        <v>6133.589999999999</v>
       </c>
       <c r="D61" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E61" t="n">
-        <v>0</v>
+        <v>595.98</v>
       </c>
       <c r="F61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G61" t="n">
-        <v>0</v>
+        <v>122.16</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
+        <v>136.83</v>
       </c>
       <c r="J61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K61" t="n">
-        <v>0</v>
+        <v>62.5</v>
       </c>
       <c r="L61" t="n">
         <v>0</v>
@@ -6240,7 +6240,7 @@
         <v>0</v>
       </c>
       <c r="R61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S61" t="n">
         <v>0</v>
@@ -6252,10 +6252,10 @@
         <v>0</v>
       </c>
       <c r="V61" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="W61" t="n">
-        <v>0</v>
+        <v>1489.56</v>
       </c>
       <c r="X61" t="n">
         <v>0</v>
@@ -6270,13 +6270,13 @@
         <v>0</v>
       </c>
       <c r="AB61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC61" t="n">
-        <v>0</v>
+        <v>214.8</v>
       </c>
       <c r="AD61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE61" t="n">
         <v>0</v>
@@ -6284,31 +6284,31 @@
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>44926</v>
+        <v>44773</v>
       </c>
       <c r="B62" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="C62" t="n">
-        <v>0</v>
+        <v>2351.79</v>
       </c>
       <c r="D62" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E62" t="n">
-        <v>0</v>
+        <v>312.75</v>
       </c>
       <c r="F62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G62" t="n">
-        <v>0</v>
+        <v>162.24</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
+        <v>155.5</v>
       </c>
       <c r="J62" t="n">
         <v>0</v>
@@ -6335,7 +6335,7 @@
         <v>0</v>
       </c>
       <c r="R62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S62" t="n">
         <v>0</v>
@@ -6347,10 +6347,10 @@
         <v>0</v>
       </c>
       <c r="V62" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="W62" t="n">
-        <v>0</v>
+        <v>510</v>
       </c>
       <c r="X62" t="n">
         <v>0</v>
@@ -6365,16 +6365,441 @@
         <v>0</v>
       </c>
       <c r="AB62" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AC62" t="n">
-        <v>0</v>
+        <v>1419.8</v>
       </c>
       <c r="AD62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE62" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>44774</v>
+      </c>
+      <c r="B63" t="n">
+        <v>28</v>
+      </c>
+      <c r="C63" t="n">
+        <v>2440.2</v>
+      </c>
+      <c r="D63" t="n">
+        <v>9</v>
+      </c>
+      <c r="E63" t="n">
+        <v>842.3100000000001</v>
+      </c>
+      <c r="F63" t="n">
+        <v>4</v>
+      </c>
+      <c r="G63" t="n">
+        <v>420</v>
+      </c>
+      <c r="H63" t="n">
+        <v>1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>64.58</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0</v>
+      </c>
+      <c r="L63" t="n">
+        <v>2</v>
+      </c>
+      <c r="M63" t="n">
+        <v>135.84</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0</v>
+      </c>
+      <c r="O63" t="n">
+        <v>0</v>
+      </c>
+      <c r="P63" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>156.24</v>
+      </c>
+      <c r="R63" t="n">
+        <v>1</v>
+      </c>
+      <c r="S63" t="n">
+        <v>0</v>
+      </c>
+      <c r="T63" t="n">
+        <v>0</v>
+      </c>
+      <c r="U63" t="n">
+        <v>0</v>
+      </c>
+      <c r="V63" t="n">
+        <v>19</v>
+      </c>
+      <c r="W63" t="n">
+        <v>1455.97</v>
+      </c>
+      <c r="X63" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y63" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB63" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC63" t="n">
+        <v>969.78</v>
+      </c>
+      <c r="AD63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE63" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>44775</v>
+      </c>
+      <c r="B64" t="n">
+        <v>7</v>
+      </c>
+      <c r="C64" t="n">
+        <v>855.4</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>44776</v>
+      </c>
+      <c r="B65" t="n">
+        <v>16</v>
+      </c>
+      <c r="C65" t="n">
+        <v>2177.76</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>44777</v>
+      </c>
+      <c r="B66" t="n">
+        <v>16</v>
+      </c>
+      <c r="C66" t="n">
+        <v>3007.52</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>44778</v>
+      </c>
+      <c r="B67" t="n">
+        <v>11</v>
+      </c>
+      <c r="C67" t="n">
+        <v>978.3399999999999</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>44779</v>
+      </c>
+      <c r="B68" t="n">
+        <v>11</v>
+      </c>
+      <c r="C68" t="n">
+        <v>1201.75</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>44780</v>
+      </c>
+      <c r="B69" t="n">
+        <v>9</v>
+      </c>
+      <c r="C69" t="n">
+        <v>1277.64</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>44781</v>
+      </c>
+      <c r="B70" t="n">
+        <v>9</v>
+      </c>
+      <c r="C70" t="n">
+        <v>1092.6</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>44782</v>
+      </c>
+      <c r="B71" t="n">
+        <v>8</v>
+      </c>
+      <c r="C71" t="n">
+        <v>647.52</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>44783</v>
+      </c>
+      <c r="B72" t="n">
+        <v>11</v>
+      </c>
+      <c r="C72" t="n">
+        <v>1506.12</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>44784</v>
+      </c>
+      <c r="B73" t="n">
+        <v>5</v>
+      </c>
+      <c r="C73" t="n">
+        <v>970.5500000000001</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>44785</v>
+      </c>
+      <c r="B74" t="n">
+        <v>6</v>
+      </c>
+      <c r="C74" t="n">
+        <v>639.1800000000001</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>44786</v>
+      </c>
+      <c r="B75" t="n">
+        <v>13</v>
+      </c>
+      <c r="C75" t="n">
+        <v>1440.27</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>44787</v>
+      </c>
+      <c r="B76" t="n">
+        <v>9</v>
+      </c>
+      <c r="C76" t="n">
+        <v>1057.68</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>44788</v>
+      </c>
+      <c r="B77" t="n">
+        <v>7</v>
+      </c>
+      <c r="C77" t="n">
+        <v>792.1900000000001</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>44789</v>
+      </c>
+      <c r="B78" t="n">
+        <v>5</v>
+      </c>
+      <c r="C78" t="n">
+        <v>446.2</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>44790</v>
+      </c>
+      <c r="B79" t="n">
+        <v>8</v>
+      </c>
+      <c r="C79" t="n">
+        <v>964.5599999999999</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>44791</v>
+      </c>
+      <c r="B80" t="n">
+        <v>1</v>
+      </c>
+      <c r="C80" t="n">
+        <v>152.5</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>44792</v>
+      </c>
+      <c r="B81" t="n">
+        <v>4</v>
+      </c>
+      <c r="C81" t="n">
+        <v>287.04</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>44793</v>
+      </c>
+      <c r="B82" t="n">
+        <v>5</v>
+      </c>
+      <c r="C82" t="n">
+        <v>500.6</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>44794</v>
+      </c>
+      <c r="B83" t="n">
+        <v>3</v>
+      </c>
+      <c r="C83" t="n">
+        <v>531.78</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>44795</v>
+      </c>
+      <c r="B84" t="n">
+        <v>14</v>
+      </c>
+      <c r="C84" t="n">
+        <v>2113.58</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>44796</v>
+      </c>
+      <c r="B85" t="n">
+        <v>10</v>
+      </c>
+      <c r="C85" t="n">
+        <v>1603.6</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>44797</v>
+      </c>
+      <c r="B86" t="n">
+        <v>15</v>
+      </c>
+      <c r="C86" t="n">
+        <v>2318.55</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>44798</v>
+      </c>
+      <c r="B87" t="n">
+        <v>11</v>
+      </c>
+      <c r="C87" t="n">
+        <v>1853.61</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>44799</v>
+      </c>
+      <c r="B88" t="n">
+        <v>6</v>
+      </c>
+      <c r="C88" t="n">
+        <v>597.42</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>44800</v>
+      </c>
+      <c r="B89" t="n">
+        <v>3</v>
+      </c>
+      <c r="C89" t="n">
+        <v>334.83</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>44801</v>
+      </c>
+      <c r="B90" t="n">
+        <v>2</v>
+      </c>
+      <c r="C90" t="n">
+        <v>243.44</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>44802</v>
+      </c>
+      <c r="B91" t="n">
+        <v>3</v>
+      </c>
+      <c r="C91" t="n">
+        <v>235.23</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>44803</v>
+      </c>
+      <c r="B92" t="n">
+        <v>4</v>
+      </c>
+      <c r="C92" t="n">
+        <v>333.08</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>44804</v>
+      </c>
+      <c r="B93" t="n">
+        <v>7</v>
+      </c>
+      <c r="C93" t="n">
+        <v>889.0700000000001</v>
       </c>
     </row>
   </sheetData>

--- a/NameFile.xlsx
+++ b/NameFile.xlsx
@@ -3485,46 +3485,46 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>1</v>
+      </c>
+      <c r="U32" t="n">
+        <v>45.92</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0</v>
+      </c>
+      <c r="X32" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>1555.12</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD32" t="n">
         <v>4</v>
       </c>
-      <c r="S32" t="n">
+      <c r="AE32" t="n">
         <v>148.32</v>
-      </c>
-      <c r="T32" t="n">
-        <v>0</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0</v>
-      </c>
-      <c r="V32" t="n">
-        <v>1</v>
-      </c>
-      <c r="W32" t="n">
-        <v>45.92</v>
-      </c>
-      <c r="X32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB32" t="n">
-        <v>14</v>
-      </c>
-      <c r="AC32" t="n">
-        <v>1555.12</v>
-      </c>
-      <c r="AD32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE32" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3550,58 +3550,58 @@
         <v>313.06</v>
       </c>
       <c r="H33" t="n">
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>-12.5</v>
+      </c>
+      <c r="J33" t="n">
         <v>2</v>
       </c>
-      <c r="I33" t="n">
+      <c r="K33" t="n">
         <v>352.92</v>
       </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0</v>
-      </c>
       <c r="L33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>1</v>
+      </c>
+      <c r="O33" t="n">
         <v>107.33</v>
       </c>
-      <c r="N33" t="n">
-        <v>1</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0</v>
-      </c>
       <c r="P33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>-12.5</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>4284.28</v>
       </c>
       <c r="V33" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>4284.28</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>403.68</v>
       </c>
       <c r="Z33" t="n">
         <v>0</v>
@@ -3610,13 +3610,13 @@
         <v>0</v>
       </c>
       <c r="AB33" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AC33" t="n">
-        <v>403.68</v>
+        <v>0</v>
       </c>
       <c r="AD33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE33" t="n">
         <v>0</v>
@@ -3645,17 +3645,17 @@
         <v>348.78</v>
       </c>
       <c r="H34" t="n">
+        <v>3</v>
+      </c>
+      <c r="I34" t="n">
+        <v>133.32</v>
+      </c>
+      <c r="J34" t="n">
         <v>4</v>
       </c>
-      <c r="I34" t="n">
+      <c r="K34" t="n">
         <v>626.24</v>
       </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
       <c r="L34" t="n">
         <v>0</v>
       </c>
@@ -3669,13 +3669,13 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>133.32</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3693,10 +3693,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>-364.2</v>
       </c>
       <c r="Z34" t="n">
         <v>0</v>
@@ -3705,13 +3705,13 @@
         <v>0</v>
       </c>
       <c r="AB34" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AC34" t="n">
-        <v>-364.2</v>
+        <v>0</v>
       </c>
       <c r="AD34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE34" t="n">
         <v>0</v>
@@ -3740,7 +3740,7 @@
         <v>294.74</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3758,58 +3758,58 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>12</v>
+      </c>
+      <c r="U35" t="n">
+        <v>2000.64</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" t="n">
+        <v>25</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>3508</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE35" t="n">
         <v>83.33</v>
-      </c>
-      <c r="T35" t="n">
-        <v>0</v>
-      </c>
-      <c r="U35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V35" t="n">
-        <v>12</v>
-      </c>
-      <c r="W35" t="n">
-        <v>2000.64</v>
-      </c>
-      <c r="X35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB35" t="n">
-        <v>25</v>
-      </c>
-      <c r="AC35" t="n">
-        <v>3508</v>
-      </c>
-      <c r="AD35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE35" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3835,7 +3835,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3847,46 +3847,46 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
         <v>2</v>
       </c>
-      <c r="M36" t="n">
+      <c r="O36" t="n">
         <v>136.26</v>
       </c>
-      <c r="N36" t="n">
-        <v>0</v>
-      </c>
-      <c r="O36" t="n">
-        <v>0</v>
-      </c>
       <c r="P36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>192.12</v>
       </c>
       <c r="V36" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>192.12</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>2634.06</v>
       </c>
       <c r="Z36" t="n">
         <v>0</v>
@@ -3895,13 +3895,13 @@
         <v>0</v>
       </c>
       <c r="AB36" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="AC36" t="n">
-        <v>2634.06</v>
+        <v>0</v>
       </c>
       <c r="AD36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE36" t="n">
         <v>0</v>
@@ -3930,58 +3930,58 @@
         <v>336.9</v>
       </c>
       <c r="H37" t="n">
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
         <v>2</v>
       </c>
-      <c r="I37" t="n">
+      <c r="K37" t="n">
         <v>170</v>
       </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
       <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
         <v>6</v>
       </c>
-      <c r="M37" t="n">
+      <c r="O37" t="n">
         <v>402.48</v>
       </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
       <c r="P37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>301.12</v>
       </c>
       <c r="V37" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>301.12</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>1012.92</v>
       </c>
       <c r="Z37" t="n">
         <v>0</v>
@@ -3990,13 +3990,13 @@
         <v>0</v>
       </c>
       <c r="AB37" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AC37" t="n">
-        <v>1012.92</v>
+        <v>0</v>
       </c>
       <c r="AD37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE37" t="n">
         <v>0</v>
@@ -4028,73 +4028,73 @@
         <v>1</v>
       </c>
       <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>1</v>
+      </c>
+      <c r="K38" t="n">
         <v>110.5</v>
       </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
       <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
         <v>5</v>
       </c>
-      <c r="M38" t="n">
+      <c r="O38" t="n">
         <v>492.9</v>
       </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
       <c r="P38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
       </c>
       <c r="R38" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0</v>
+      </c>
+      <c r="T38" t="n">
+        <v>20</v>
+      </c>
+      <c r="U38" t="n">
+        <v>1727.4</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0</v>
+      </c>
+      <c r="X38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD38" t="n">
         <v>2</v>
       </c>
-      <c r="S38" t="n">
+      <c r="AE38" t="n">
         <v>85</v>
-      </c>
-      <c r="T38" t="n">
-        <v>0</v>
-      </c>
-      <c r="U38" t="n">
-        <v>0</v>
-      </c>
-      <c r="V38" t="n">
-        <v>20</v>
-      </c>
-      <c r="W38" t="n">
-        <v>1727.4</v>
-      </c>
-      <c r="X38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE38" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -4120,76 +4120,76 @@
         <v>356.72</v>
       </c>
       <c r="H39" t="n">
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
         <v>8</v>
       </c>
-      <c r="I39" t="n">
+      <c r="K39" t="n">
         <v>612.16</v>
       </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0</v>
-      </c>
       <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
         <v>4</v>
       </c>
-      <c r="M39" t="n">
+      <c r="O39" t="n">
         <v>386.84</v>
       </c>
-      <c r="N39" t="n">
-        <v>0</v>
-      </c>
-      <c r="O39" t="n">
-        <v>0</v>
-      </c>
       <c r="P39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
+        <v>0</v>
+      </c>
+      <c r="S39" t="n">
+        <v>0</v>
+      </c>
+      <c r="T39" t="n">
+        <v>11</v>
+      </c>
+      <c r="U39" t="n">
+        <v>999.5700000000001</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="n">
+        <v>0</v>
+      </c>
+      <c r="X39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD39" t="n">
         <v>3</v>
       </c>
-      <c r="S39" t="n">
+      <c r="AE39" t="n">
         <v>199.74</v>
-      </c>
-      <c r="T39" t="n">
-        <v>0</v>
-      </c>
-      <c r="U39" t="n">
-        <v>0</v>
-      </c>
-      <c r="V39" t="n">
-        <v>11</v>
-      </c>
-      <c r="W39" t="n">
-        <v>999.5700000000001</v>
-      </c>
-      <c r="X39" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y39" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE39" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -4215,17 +4215,17 @@
         <v>447.3</v>
       </c>
       <c r="H40" t="n">
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
         <v>2</v>
       </c>
-      <c r="I40" t="n">
+      <c r="K40" t="n">
         <v>131.54</v>
       </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
       <c r="L40" t="n">
         <v>0</v>
       </c>
@@ -4239,28 +4239,28 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>298.32</v>
       </c>
       <c r="V40" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="W40" t="n">
-        <v>298.32</v>
+        <v>1115.82</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -4269,10 +4269,10 @@
         <v>0</v>
       </c>
       <c r="Z40" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AA40" t="n">
-        <v>1115.82</v>
+        <v>0</v>
       </c>
       <c r="AB40" t="n">
         <v>0</v>
@@ -4281,7 +4281,7 @@
         <v>0</v>
       </c>
       <c r="AD40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE40" t="n">
         <v>0</v>
@@ -4310,7 +4310,7 @@
         <v>551.4000000000001</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -4334,49 +4334,49 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>312.5</v>
       </c>
       <c r="V41" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="W41" t="n">
-        <v>312.5</v>
+        <v>778.3200000000001</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>1146.48</v>
       </c>
       <c r="Z41" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AA41" t="n">
-        <v>778.3200000000001</v>
+        <v>0</v>
       </c>
       <c r="AB41" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AC41" t="n">
-        <v>1146.48</v>
+        <v>0</v>
       </c>
       <c r="AD41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE41" t="n">
         <v>0</v>
@@ -4405,7 +4405,7 @@
         <v>135.67</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -4429,49 +4429,49 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>2327.04</v>
       </c>
       <c r="V42" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="W42" t="n">
-        <v>2327.04</v>
+        <v>1003.32</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>1505.1</v>
       </c>
       <c r="Z42" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AA42" t="n">
-        <v>1003.32</v>
+        <v>0</v>
       </c>
       <c r="AB42" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AC42" t="n">
-        <v>1505.1</v>
+        <v>0</v>
       </c>
       <c r="AD42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE42" t="n">
         <v>0</v>
@@ -4500,7 +4500,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -4524,34 +4524,34 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>298.32</v>
       </c>
       <c r="V43" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>298.32</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>5266.52</v>
       </c>
       <c r="Z43" t="n">
         <v>0</v>
@@ -4560,13 +4560,13 @@
         <v>0</v>
       </c>
       <c r="AB43" t="n">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="AC43" t="n">
-        <v>5266.52</v>
+        <v>0</v>
       </c>
       <c r="AD43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE43" t="n">
         <v>0</v>
@@ -4595,10 +4595,10 @@
         <v>109.5</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4619,28 +4619,28 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>1742.11</v>
       </c>
       <c r="V44" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>1742.11</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4661,7 +4661,7 @@
         <v>0</v>
       </c>
       <c r="AD44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE44" t="n">
         <v>0</v>
@@ -4690,7 +4690,7 @@
         <v>264.9</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4714,28 +4714,28 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>298.32</v>
       </c>
       <c r="V45" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>298.32</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -4756,7 +4756,7 @@
         <v>0</v>
       </c>
       <c r="AD45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE45" t="n">
         <v>0</v>
@@ -4785,7 +4785,7 @@
         <v>415</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4809,34 +4809,34 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>1229.49</v>
       </c>
       <c r="V46" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>1229.49</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>187.5</v>
       </c>
       <c r="Z46" t="n">
         <v>0</v>
@@ -4845,13 +4845,13 @@
         <v>0</v>
       </c>
       <c r="AB46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC46" t="n">
-        <v>187.5</v>
+        <v>0</v>
       </c>
       <c r="AD46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE46" t="n">
         <v>0</v>
@@ -4880,7 +4880,7 @@
         <v>397.08</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -4904,28 +4904,28 @@
         <v>0</v>
       </c>
       <c r="P47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q47" t="n">
         <v>0</v>
       </c>
       <c r="R47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S47" t="n">
         <v>0</v>
       </c>
       <c r="T47" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="U47" t="n">
-        <v>0</v>
+        <v>1717</v>
       </c>
       <c r="V47" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="W47" t="n">
-        <v>1717</v>
+        <v>0</v>
       </c>
       <c r="X47" t="n">
         <v>0</v>
@@ -4946,7 +4946,7 @@
         <v>0</v>
       </c>
       <c r="AD47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE47" t="n">
         <v>0</v>
@@ -4975,7 +4975,7 @@
         <v>716.0999999999999</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -4999,34 +4999,34 @@
         <v>0</v>
       </c>
       <c r="P48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q48" t="n">
         <v>0</v>
       </c>
       <c r="R48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S48" t="n">
         <v>0</v>
       </c>
       <c r="T48" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="U48" t="n">
-        <v>0</v>
+        <v>1099.12</v>
       </c>
       <c r="V48" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="W48" t="n">
-        <v>1099.12</v>
+        <v>0</v>
       </c>
       <c r="X48" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Y48" t="n">
-        <v>0</v>
+        <v>956.6799999999999</v>
       </c>
       <c r="Z48" t="n">
         <v>0</v>
@@ -5035,13 +5035,13 @@
         <v>0</v>
       </c>
       <c r="AB48" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AC48" t="n">
-        <v>956.6799999999999</v>
+        <v>0</v>
       </c>
       <c r="AD48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE48" t="n">
         <v>0</v>
@@ -5070,17 +5070,17 @@
         <v>728.58</v>
       </c>
       <c r="H49" t="n">
+        <v>3</v>
+      </c>
+      <c r="I49" t="n">
+        <v>99.98999999999999</v>
+      </c>
+      <c r="J49" t="n">
         <v>2</v>
       </c>
-      <c r="I49" t="n">
+      <c r="K49" t="n">
         <v>495</v>
       </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0</v>
-      </c>
       <c r="L49" t="n">
         <v>0</v>
       </c>
@@ -5088,40 +5088,40 @@
         <v>0</v>
       </c>
       <c r="N49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O49" t="n">
         <v>0</v>
       </c>
       <c r="P49" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q49" t="n">
-        <v>99.98999999999999</v>
+        <v>0</v>
       </c>
       <c r="R49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S49" t="n">
         <v>0</v>
       </c>
       <c r="T49" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="U49" t="n">
-        <v>0</v>
+        <v>1857.12</v>
       </c>
       <c r="V49" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="W49" t="n">
-        <v>1857.12</v>
+        <v>0</v>
       </c>
       <c r="X49" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Y49" t="n">
-        <v>0</v>
+        <v>1997.27</v>
       </c>
       <c r="Z49" t="n">
         <v>0</v>
@@ -5130,13 +5130,13 @@
         <v>0</v>
       </c>
       <c r="AB49" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="AC49" t="n">
-        <v>1997.27</v>
+        <v>0</v>
       </c>
       <c r="AD49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE49" t="n">
         <v>0</v>
@@ -5165,7 +5165,7 @@
         <v>66.83</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -5189,46 +5189,46 @@
         <v>0</v>
       </c>
       <c r="P50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q50" t="n">
         <v>0</v>
       </c>
       <c r="R50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S50" t="n">
         <v>0</v>
       </c>
       <c r="T50" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U50" t="n">
-        <v>0</v>
+        <v>298.32</v>
       </c>
       <c r="V50" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="W50" t="n">
-        <v>298.32</v>
+        <v>0</v>
       </c>
       <c r="X50" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="Y50" t="n">
-        <v>0</v>
+        <v>1893.6</v>
       </c>
       <c r="Z50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA50" t="n">
         <v>0</v>
       </c>
       <c r="AB50" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="AC50" t="n">
-        <v>1893.6</v>
+        <v>0</v>
       </c>
       <c r="AD50" t="n">
         <v>1</v>
@@ -5260,7 +5260,7 @@
         <v>4.17</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -5284,46 +5284,46 @@
         <v>0</v>
       </c>
       <c r="P51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q51" t="n">
         <v>0</v>
       </c>
       <c r="R51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S51" t="n">
         <v>0</v>
       </c>
       <c r="T51" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="U51" t="n">
-        <v>0</v>
+        <v>569.16</v>
       </c>
       <c r="V51" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="W51" t="n">
-        <v>569.16</v>
+        <v>0</v>
       </c>
       <c r="X51" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="Y51" t="n">
-        <v>0</v>
+        <v>3705.2</v>
       </c>
       <c r="Z51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA51" t="n">
         <v>0</v>
       </c>
       <c r="AB51" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AC51" t="n">
-        <v>3705.2</v>
+        <v>0</v>
       </c>
       <c r="AD51" t="n">
         <v>1</v>
@@ -5358,14 +5358,14 @@
         <v>1</v>
       </c>
       <c r="I52" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" t="n">
+        <v>1</v>
+      </c>
+      <c r="K52" t="n">
         <v>110.17</v>
       </c>
-      <c r="J52" t="n">
-        <v>0</v>
-      </c>
-      <c r="K52" t="n">
-        <v>0</v>
-      </c>
       <c r="L52" t="n">
         <v>0</v>
       </c>
@@ -5379,46 +5379,46 @@
         <v>0</v>
       </c>
       <c r="P52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q52" t="n">
         <v>0</v>
       </c>
       <c r="R52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S52" t="n">
         <v>0</v>
       </c>
       <c r="T52" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="U52" t="n">
-        <v>0</v>
+        <v>6195.84</v>
       </c>
       <c r="V52" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="W52" t="n">
-        <v>6195.84</v>
+        <v>0</v>
       </c>
       <c r="X52" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="Y52" t="n">
-        <v>0</v>
+        <v>3557.6</v>
       </c>
       <c r="Z52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA52" t="n">
         <v>0</v>
       </c>
       <c r="AB52" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AC52" t="n">
-        <v>3557.6</v>
+        <v>0</v>
       </c>
       <c r="AD52" t="n">
         <v>1</v>
@@ -5450,7 +5450,7 @@
         <v>93.79000000000001</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -5462,58 +5462,58 @@
         <v>0</v>
       </c>
       <c r="L53" t="n">
+        <v>0</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0</v>
+      </c>
+      <c r="N53" t="n">
         <v>2</v>
       </c>
-      <c r="M53" t="n">
+      <c r="O53" t="n">
         <v>135.84</v>
       </c>
-      <c r="N53" t="n">
-        <v>0</v>
-      </c>
-      <c r="O53" t="n">
-        <v>0</v>
-      </c>
       <c r="P53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q53" t="n">
         <v>0</v>
       </c>
       <c r="R53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S53" t="n">
         <v>0</v>
       </c>
       <c r="T53" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U53" t="n">
-        <v>0</v>
+        <v>372.9</v>
       </c>
       <c r="V53" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="W53" t="n">
-        <v>372.9</v>
+        <v>0</v>
       </c>
       <c r="X53" t="n">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="Y53" t="n">
-        <v>0</v>
+        <v>3944.39</v>
       </c>
       <c r="Z53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA53" t="n">
         <v>0</v>
       </c>
       <c r="AB53" t="n">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="AC53" t="n">
-        <v>3944.39</v>
+        <v>0</v>
       </c>
       <c r="AD53" t="n">
         <v>1</v>
@@ -5545,7 +5545,7 @@
         <v>251.94</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
@@ -5569,13 +5569,13 @@
         <v>0</v>
       </c>
       <c r="P54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q54" t="n">
         <v>0</v>
       </c>
       <c r="R54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S54" t="n">
         <v>0</v>
@@ -5593,22 +5593,22 @@
         <v>0</v>
       </c>
       <c r="X54" t="n">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="Y54" t="n">
-        <v>0</v>
+        <v>5155.08</v>
       </c>
       <c r="Z54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA54" t="n">
         <v>0</v>
       </c>
       <c r="AB54" t="n">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="AC54" t="n">
-        <v>5155.08</v>
+        <v>0</v>
       </c>
       <c r="AD54" t="n">
         <v>1</v>
@@ -5643,14 +5643,14 @@
         <v>1</v>
       </c>
       <c r="I55" t="n">
+        <v>0</v>
+      </c>
+      <c r="J55" t="n">
+        <v>1</v>
+      </c>
+      <c r="K55" t="n">
         <v>160.83</v>
       </c>
-      <c r="J55" t="n">
-        <v>0</v>
-      </c>
-      <c r="K55" t="n">
-        <v>0</v>
-      </c>
       <c r="L55" t="n">
         <v>0</v>
       </c>
@@ -5664,46 +5664,46 @@
         <v>0</v>
       </c>
       <c r="P55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q55" t="n">
         <v>0</v>
       </c>
       <c r="R55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S55" t="n">
         <v>0</v>
       </c>
       <c r="T55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U55" t="n">
-        <v>0</v>
+        <v>204.16</v>
       </c>
       <c r="V55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W55" t="n">
-        <v>204.16</v>
+        <v>0</v>
       </c>
       <c r="X55" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Y55" t="n">
-        <v>0</v>
+        <v>955.6400000000001</v>
       </c>
       <c r="Z55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA55" t="n">
         <v>0</v>
       </c>
       <c r="AB55" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AC55" t="n">
-        <v>955.6400000000001</v>
+        <v>0</v>
       </c>
       <c r="AD55" t="n">
         <v>1</v>
@@ -5738,14 +5738,14 @@
         <v>1</v>
       </c>
       <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>1</v>
+      </c>
+      <c r="K56" t="n">
         <v>199.17</v>
       </c>
-      <c r="J56" t="n">
-        <v>0</v>
-      </c>
-      <c r="K56" t="n">
-        <v>0</v>
-      </c>
       <c r="L56" t="n">
         <v>0</v>
       </c>
@@ -5759,46 +5759,46 @@
         <v>0</v>
       </c>
       <c r="P56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q56" t="n">
         <v>0</v>
       </c>
       <c r="R56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S56" t="n">
         <v>0</v>
       </c>
       <c r="T56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U56" t="n">
-        <v>0</v>
+        <v>120.84</v>
       </c>
       <c r="V56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W56" t="n">
-        <v>120.84</v>
+        <v>0</v>
       </c>
       <c r="X56" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Y56" t="n">
-        <v>0</v>
+        <v>1180.62</v>
       </c>
       <c r="Z56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA56" t="n">
         <v>0</v>
       </c>
       <c r="AB56" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AC56" t="n">
-        <v>1180.62</v>
+        <v>0</v>
       </c>
       <c r="AD56" t="n">
         <v>1</v>
@@ -5830,17 +5830,17 @@
         <v>178.6</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
+        <v>0</v>
+      </c>
+      <c r="J57" t="n">
+        <v>1</v>
+      </c>
+      <c r="K57" t="n">
         <v>119.17</v>
       </c>
-      <c r="J57" t="n">
-        <v>0</v>
-      </c>
-      <c r="K57" t="n">
-        <v>0</v>
-      </c>
       <c r="L57" t="n">
         <v>0</v>
       </c>
@@ -5860,7 +5860,7 @@
         <v>0</v>
       </c>
       <c r="R57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S57" t="n">
         <v>0</v>
@@ -5878,22 +5878,22 @@
         <v>0</v>
       </c>
       <c r="X57" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="Y57" t="n">
-        <v>0</v>
+        <v>3006</v>
       </c>
       <c r="Z57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA57" t="n">
         <v>0</v>
       </c>
       <c r="AB57" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="AC57" t="n">
-        <v>3006</v>
+        <v>0</v>
       </c>
       <c r="AD57" t="n">
         <v>1</v>
@@ -5955,40 +5955,40 @@
         <v>0</v>
       </c>
       <c r="R58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S58" t="n">
         <v>0</v>
       </c>
       <c r="T58" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="U58" t="n">
-        <v>0</v>
+        <v>1169.63</v>
       </c>
       <c r="V58" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="W58" t="n">
-        <v>1169.63</v>
+        <v>0</v>
       </c>
       <c r="X58" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Y58" t="n">
-        <v>0</v>
+        <v>795.8</v>
       </c>
       <c r="Z58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA58" t="n">
         <v>0</v>
       </c>
       <c r="AB58" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AC58" t="n">
-        <v>795.8</v>
+        <v>0</v>
       </c>
       <c r="AD58" t="n">
         <v>1</v>
@@ -6020,23 +6020,23 @@
         <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>-42.5</v>
       </c>
       <c r="J59" t="n">
+        <v>0</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0</v>
+      </c>
+      <c r="L59" t="n">
         <v>2</v>
       </c>
-      <c r="K59" t="n">
+      <c r="M59" t="n">
         <v>370.84</v>
       </c>
-      <c r="L59" t="n">
-        <v>0</v>
-      </c>
-      <c r="M59" t="n">
-        <v>0</v>
-      </c>
       <c r="N59" t="n">
         <v>0</v>
       </c>
@@ -6044,46 +6044,46 @@
         <v>0</v>
       </c>
       <c r="P59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q59" t="n">
-        <v>-42.5</v>
+        <v>0</v>
       </c>
       <c r="R59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S59" t="n">
         <v>0</v>
       </c>
       <c r="T59" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="U59" t="n">
-        <v>0</v>
+        <v>7718.9</v>
       </c>
       <c r="V59" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="W59" t="n">
-        <v>7718.9</v>
+        <v>0</v>
       </c>
       <c r="X59" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Y59" t="n">
-        <v>0</v>
+        <v>795.8</v>
       </c>
       <c r="Z59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA59" t="n">
         <v>0</v>
       </c>
       <c r="AB59" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AC59" t="n">
-        <v>795.8</v>
+        <v>0</v>
       </c>
       <c r="AD59" t="n">
         <v>1</v>
@@ -6121,23 +6121,23 @@
         <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K60" t="n">
+        <v>0</v>
+      </c>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="n">
         <v>62.5</v>
       </c>
-      <c r="L60" t="n">
+      <c r="N60" t="n">
         <v>4</v>
       </c>
-      <c r="M60" t="n">
+      <c r="O60" t="n">
         <v>456.32</v>
       </c>
-      <c r="N60" t="n">
-        <v>0</v>
-      </c>
-      <c r="O60" t="n">
-        <v>0</v>
-      </c>
       <c r="P60" t="n">
         <v>0</v>
       </c>
@@ -6145,22 +6145,22 @@
         <v>0</v>
       </c>
       <c r="R60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S60" t="n">
         <v>0</v>
       </c>
       <c r="T60" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="U60" t="n">
-        <v>0</v>
+        <v>6157.44</v>
       </c>
       <c r="V60" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="W60" t="n">
-        <v>6157.44</v>
+        <v>0</v>
       </c>
       <c r="X60" t="n">
         <v>0</v>
@@ -6169,7 +6169,7 @@
         <v>0</v>
       </c>
       <c r="Z60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA60" t="n">
         <v>0</v>
@@ -6210,23 +6210,23 @@
         <v>122.16</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>1</v>
+      </c>
+      <c r="K61" t="n">
         <v>136.83</v>
       </c>
-      <c r="J61" t="n">
-        <v>1</v>
-      </c>
-      <c r="K61" t="n">
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="n">
         <v>62.5</v>
       </c>
-      <c r="L61" t="n">
-        <v>0</v>
-      </c>
-      <c r="M61" t="n">
-        <v>0</v>
-      </c>
       <c r="N61" t="n">
         <v>0</v>
       </c>
@@ -6240,40 +6240,40 @@
         <v>0</v>
       </c>
       <c r="R61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S61" t="n">
         <v>0</v>
       </c>
       <c r="T61" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="U61" t="n">
-        <v>0</v>
+        <v>1489.56</v>
       </c>
       <c r="V61" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="W61" t="n">
-        <v>1489.56</v>
+        <v>0</v>
       </c>
       <c r="X61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y61" t="n">
-        <v>0</v>
+        <v>214.8</v>
       </c>
       <c r="Z61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA61" t="n">
         <v>0</v>
       </c>
       <c r="AB61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC61" t="n">
-        <v>214.8</v>
+        <v>0</v>
       </c>
       <c r="AD61" t="n">
         <v>1</v>
@@ -6305,17 +6305,17 @@
         <v>162.24</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>1</v>
+      </c>
+      <c r="K62" t="n">
         <v>155.5</v>
       </c>
-      <c r="J62" t="n">
-        <v>0</v>
-      </c>
-      <c r="K62" t="n">
-        <v>0</v>
-      </c>
       <c r="L62" t="n">
         <v>0</v>
       </c>
@@ -6335,40 +6335,40 @@
         <v>0</v>
       </c>
       <c r="R62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S62" t="n">
         <v>0</v>
       </c>
       <c r="T62" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U62" t="n">
-        <v>0</v>
+        <v>510</v>
       </c>
       <c r="V62" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="W62" t="n">
-        <v>510</v>
+        <v>0</v>
       </c>
       <c r="X62" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Y62" t="n">
-        <v>0</v>
+        <v>1419.8</v>
       </c>
       <c r="Z62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA62" t="n">
         <v>0</v>
       </c>
       <c r="AB62" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AC62" t="n">
-        <v>1419.8</v>
+        <v>0</v>
       </c>
       <c r="AD62" t="n">
         <v>1</v>
@@ -6400,58 +6400,58 @@
         <v>420</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I63" t="n">
+        <v>156.24</v>
+      </c>
+      <c r="J63" t="n">
+        <v>1</v>
+      </c>
+      <c r="K63" t="n">
         <v>64.58</v>
       </c>
-      <c r="J63" t="n">
-        <v>0</v>
-      </c>
-      <c r="K63" t="n">
-        <v>0</v>
-      </c>
       <c r="L63" t="n">
+        <v>0</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0</v>
+      </c>
+      <c r="N63" t="n">
         <v>2</v>
       </c>
-      <c r="M63" t="n">
+      <c r="O63" t="n">
         <v>135.84</v>
       </c>
-      <c r="N63" t="n">
-        <v>0</v>
-      </c>
-      <c r="O63" t="n">
-        <v>0</v>
-      </c>
       <c r="P63" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q63" t="n">
-        <v>156.24</v>
+        <v>0</v>
       </c>
       <c r="R63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S63" t="n">
         <v>0</v>
       </c>
       <c r="T63" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="U63" t="n">
-        <v>0</v>
+        <v>1455.97</v>
       </c>
       <c r="V63" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="W63" t="n">
-        <v>1455.97</v>
+        <v>0</v>
       </c>
       <c r="X63" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Y63" t="n">
-        <v>0</v>
+        <v>969.78</v>
       </c>
       <c r="Z63" t="n">
         <v>0</v>
@@ -6460,13 +6460,13 @@
         <v>0</v>
       </c>
       <c r="AB63" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AC63" t="n">
-        <v>969.78</v>
+        <v>0</v>
       </c>
       <c r="AD63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE63" t="n">
         <v>0</v>

--- a/NameFile.xlsx
+++ b/NameFile.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="test" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sheet0" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE93"/>
+  <dimension ref="A1:AE62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,120 +463,100 @@
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>STAFF_M_T_INTERNAL_DISCOUNT_RN</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>STAFF_M_T_INTERNAL_DISCOUNT_REV</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
           <t>FIT_WHOLESALE_RN</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>FIT_WHOLESALE_REV</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>CORPORATE_FIXED_RN</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>CORPORATE_FIXED_REV</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>CORPORATE_VARIABLE_RN</t>
         </is>
       </c>
-      <c r="O1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>CORPORATE_VARIABLE_REV</t>
         </is>
       </c>
-      <c r="P1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>CORPORATE GROUP_RN</t>
         </is>
       </c>
-      <c r="Q1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>CORPORATE GROUP_REV</t>
         </is>
       </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>CONVENTION_OFF_SITE_ASSOCIATION_RN</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>CONVENTION_OFF_SITE_ASSOCIATION_REV</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>MICE_GROUP_C_E_RN</t>
         </is>
       </c>
-      <c r="U1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>MICE_GROUP_C_E_REV</t>
         </is>
       </c>
-      <c r="V1" t="inlineStr">
+      <c r="R1" t="inlineStr">
         <is>
           <t>GROUP_AND_TOUR_SERIES_RN</t>
         </is>
       </c>
-      <c r="W1" t="inlineStr">
+      <c r="S1" t="inlineStr">
         <is>
           <t>GROUP_AND_TOUR_SERIES_REV</t>
         </is>
       </c>
-      <c r="X1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>LEISURE_GROUPS_AD_HOC_RN</t>
         </is>
       </c>
-      <c r="Y1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>LEISURE_GROUPS_AD_HOC_REV</t>
         </is>
       </c>
-      <c r="Z1" t="inlineStr">
+      <c r="V1" t="inlineStr">
         <is>
           <t>CREW_RN</t>
         </is>
       </c>
-      <c r="AA1" t="inlineStr">
+      <c r="W1" t="inlineStr">
         <is>
           <t>CREW_REV</t>
         </is>
       </c>
-      <c r="AB1" t="inlineStr">
+      <c r="X1" t="inlineStr">
         <is>
           <t>COMPLIMENTARY_RN</t>
         </is>
       </c>
-      <c r="AC1" t="inlineStr">
+      <c r="Y1" t="inlineStr">
         <is>
           <t>COMPLIMENTARY_REV</t>
         </is>
       </c>
-      <c r="AD1" t="inlineStr">
+      <c r="Z1" t="inlineStr">
         <is>
           <t>HOUSE USE_RN</t>
         </is>
       </c>
-      <c r="AE1" t="inlineStr">
+      <c r="AA1" t="inlineStr">
         <is>
           <t>HOUSE USE_REV</t>
         </is>
@@ -584,25 +564,25 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>44713</v>
+        <v>44866</v>
       </c>
       <c r="B2" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>2781.84</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>1840.2</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>645.6799999999999</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -611,10 +591,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>257.19</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -671,7 +651,7 @@
         <v>0</v>
       </c>
       <c r="AD2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE2" t="n">
         <v>0</v>
@@ -679,25 +659,25 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>44714</v>
+        <v>44867</v>
       </c>
       <c r="B3" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>5209.2</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>1631.37</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1274.3</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -706,10 +686,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>336.46</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -724,10 +704,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>1256.25</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -736,10 +716,10 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>1898.82</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -766,33 +746,33 @@
         <v>0</v>
       </c>
       <c r="AD3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE3" t="n">
-        <v>123.26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>44715</v>
+        <v>44868</v>
       </c>
       <c r="B4" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>4744.5</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>2426.58</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1358.04</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -801,10 +781,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>422.52</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -819,10 +799,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>2475</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -831,10 +811,10 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>235</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -861,7 +841,7 @@
         <v>0</v>
       </c>
       <c r="AD4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AE4" t="n">
         <v>0</v>
@@ -869,25 +849,25 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>44716</v>
+        <v>44869</v>
       </c>
       <c r="B5" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>2628.6</v>
+        <v>134.33</v>
       </c>
       <c r="D5" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>677.9000000000001</v>
+        <v>134.33</v>
       </c>
       <c r="F5" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>702.36</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -896,10 +876,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>395.49</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -914,10 +894,10 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>2475</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -926,10 +906,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>1821.75</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -938,10 +918,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="Y5" t="n">
-        <v>3126.62</v>
+        <v>117.92</v>
       </c>
       <c r="Z5" t="n">
         <v>0</v>
@@ -956,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="AD5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AE5" t="n">
         <v>0</v>
@@ -964,25 +944,25 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>44717</v>
+        <v>44870</v>
       </c>
       <c r="B6" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>1026.09</v>
+        <v>154.58</v>
       </c>
       <c r="D6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>261.03</v>
+        <v>154.58</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>180.9</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1033,10 +1013,10 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="Y6" t="n">
-        <v>4226.71</v>
+        <v>1102.97</v>
       </c>
       <c r="Z6" t="n">
         <v>0</v>
@@ -1051,7 +1031,7 @@
         <v>0</v>
       </c>
       <c r="AD6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE6" t="n">
         <v>0</v>
@@ -1059,25 +1039,25 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>44718</v>
+        <v>44871</v>
       </c>
       <c r="B7" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>1139.82</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>584.4000000000001</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>186.09</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1086,10 +1066,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>387.48</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1134,45 +1114,45 @@
         <v>0</v>
       </c>
       <c r="Z7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA7" t="n">
         <v>0</v>
       </c>
       <c r="AB7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC7" t="n">
         <v>0</v>
       </c>
       <c r="AD7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE7" t="n">
-        <v>-276.66</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>44719</v>
+        <v>44872</v>
       </c>
       <c r="B8" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>922.08</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>606.9</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>199.08</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1181,10 +1161,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>193.74</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -1193,10 +1173,10 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>417.5</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -1211,26 +1191,26 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z8" t="n">
         <v>2</v>
       </c>
-      <c r="U8" t="n">
-        <v>152.5</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>0</v>
-      </c>
       <c r="AA8" t="n">
         <v>0</v>
       </c>
@@ -1241,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="AD8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE8" t="n">
         <v>0</v>
@@ -1249,25 +1229,25 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>44720</v>
+        <v>44873</v>
       </c>
       <c r="B9" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>2070.54</v>
+        <v>119.25</v>
       </c>
       <c r="D9" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>793.6799999999999</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>492.3</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1276,56 +1256,56 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>375.6</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z9" t="n">
         <v>2</v>
       </c>
-      <c r="M9" t="n">
-        <v>135.84</v>
-      </c>
-      <c r="N9" t="n">
-        <v>4</v>
-      </c>
-      <c r="O9" t="n">
-        <v>337.16</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" t="n">
-        <v>13</v>
-      </c>
-      <c r="U9" t="n">
-        <v>1038.57</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0</v>
-      </c>
-      <c r="X9" t="n">
-        <v>3</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>260.01</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>0</v>
-      </c>
       <c r="AA9" t="n">
         <v>0</v>
       </c>
@@ -1336,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="AD9" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AE9" t="n">
         <v>0</v>
@@ -1344,25 +1324,25 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>44721</v>
+        <v>44874</v>
       </c>
       <c r="B10" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>1693.6</v>
+        <v>119.25</v>
       </c>
       <c r="D10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>246.84</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>613.8299999999999</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1371,56 +1351,56 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>20</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1808.4</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z10" t="n">
         <v>2</v>
       </c>
-      <c r="K10" t="n">
-        <v>177.82</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" t="n">
-        <v>17</v>
-      </c>
-      <c r="U10" t="n">
-        <v>1570.29</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0</v>
-      </c>
-      <c r="X10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>0</v>
-      </c>
       <c r="AA10" t="n">
         <v>0</v>
       </c>
@@ -1431,7 +1411,7 @@
         <v>0</v>
       </c>
       <c r="AD10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AE10" t="n">
         <v>0</v>
@@ -1439,25 +1419,25 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>44722</v>
+        <v>44875</v>
       </c>
       <c r="B11" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>1742.52</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>391.89</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>575.75</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1508,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>2979.08</v>
+        <v>0</v>
       </c>
       <c r="Z11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA11" t="n">
         <v>0</v>
@@ -1526,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="AD11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE11" t="n">
         <v>0</v>
@@ -1534,83 +1514,83 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>44723</v>
+        <v>44876</v>
       </c>
       <c r="B12" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>1325.7</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>1216.56</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" t="n">
+        <v>118.17</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z12" t="n">
         <v>2</v>
       </c>
-      <c r="G12" t="n">
-        <v>364.16</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>0</v>
-      </c>
-      <c r="R12" t="n">
-        <v>0</v>
-      </c>
-      <c r="S12" t="n">
-        <v>0</v>
-      </c>
-      <c r="T12" t="n">
-        <v>0</v>
-      </c>
-      <c r="U12" t="n">
-        <v>0</v>
-      </c>
-      <c r="V12" t="n">
-        <v>0</v>
-      </c>
-      <c r="W12" t="n">
-        <v>0</v>
-      </c>
-      <c r="X12" t="n">
-        <v>34</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>3770.26</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>0</v>
-      </c>
       <c r="AA12" t="n">
         <v>0</v>
       </c>
@@ -1621,33 +1601,33 @@
         <v>0</v>
       </c>
       <c r="AD12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE12" t="n">
-        <v>137.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>44724</v>
+        <v>44877</v>
       </c>
       <c r="B13" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>567.84</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>710.5599999999999</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>1</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5</v>
+        <v>135.67</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1668,10 +1648,10 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>60.08</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -1698,13 +1678,13 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>2388.21</v>
+        <v>0</v>
       </c>
       <c r="Z13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA13" t="n">
         <v>0</v>
@@ -1716,7 +1696,7 @@
         <v>0</v>
       </c>
       <c r="AD13" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AE13" t="n">
         <v>0</v>
@@ -1724,31 +1704,31 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>44725</v>
+        <v>44878</v>
       </c>
       <c r="B14" t="n">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="C14" t="n">
-        <v>1697.28</v>
+        <v>192.26</v>
       </c>
       <c r="D14" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>737.28</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>1</v>
       </c>
       <c r="G14" t="n">
-        <v>179.5</v>
+        <v>77.33</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>72.92</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1763,10 +1743,10 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>87.08</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -1793,25 +1773,25 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>357.28</v>
+        <v>0</v>
       </c>
       <c r="Z14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA14" t="n">
         <v>0</v>
       </c>
       <c r="AB14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC14" t="n">
         <v>0</v>
       </c>
       <c r="AD14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE14" t="n">
         <v>0</v>
@@ -1819,25 +1799,25 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>44726</v>
+        <v>44879</v>
       </c>
       <c r="B15" t="n">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="C15" t="n">
-        <v>2539.44</v>
+        <v>192.26</v>
       </c>
       <c r="D15" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>1336.08</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>280.08</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1846,10 +1826,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>218.49</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -1858,10 +1838,10 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>100.58</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -1876,10 +1856,10 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>426.7</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -1888,25 +1868,25 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>1097.8</v>
+        <v>0</v>
       </c>
       <c r="Z15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA15" t="n">
         <v>0</v>
       </c>
       <c r="AB15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC15" t="n">
         <v>0</v>
       </c>
       <c r="AD15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE15" t="n">
         <v>0</v>
@@ -1914,25 +1894,25 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>44727</v>
+        <v>44880</v>
       </c>
       <c r="B16" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="C16" t="n">
-        <v>2606.94</v>
+        <v>235</v>
       </c>
       <c r="D16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>534.5999999999999</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>407.16</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1941,10 +1921,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>92.83</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1959,10 +1939,10 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>299.64</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -1971,10 +1951,10 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>801.12</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1983,13 +1963,13 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>2049.84</v>
+        <v>0</v>
       </c>
       <c r="Z16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA16" t="n">
         <v>0</v>
@@ -2001,7 +1981,7 @@
         <v>0</v>
       </c>
       <c r="AD16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AE16" t="n">
         <v>0</v>
@@ -2009,25 +1989,25 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>44728</v>
+        <v>44881</v>
       </c>
       <c r="B17" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>1639.5</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>454.36</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>648.16</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -2054,10 +2034,10 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>1897.72</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -2078,13 +2058,13 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>678.34</v>
+        <v>0</v>
       </c>
       <c r="Z17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA17" t="n">
         <v>0</v>
@@ -2096,7 +2076,7 @@
         <v>0</v>
       </c>
       <c r="AD17" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AE17" t="n">
         <v>0</v>
@@ -2104,25 +2084,25 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>44729</v>
+        <v>44882</v>
       </c>
       <c r="B18" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>1904.8</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>1080.45</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>660.5</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -2173,13 +2153,13 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>5997.68</v>
+        <v>0</v>
       </c>
       <c r="Z18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA18" t="n">
         <v>0</v>
@@ -2191,7 +2171,7 @@
         <v>0</v>
       </c>
       <c r="AD18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE18" t="n">
         <v>0</v>
@@ -2199,25 +2179,25 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>44730</v>
+        <v>44883</v>
       </c>
       <c r="B19" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>3064.1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>2717.12</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1304.37</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2268,25 +2248,25 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>1387.53</v>
+        <v>0</v>
       </c>
       <c r="Z19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA19" t="n">
         <v>0</v>
       </c>
       <c r="AB19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC19" t="n">
         <v>0</v>
       </c>
       <c r="AD19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE19" t="n">
         <v>0</v>
@@ -2294,25 +2274,25 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>44731</v>
+        <v>44884</v>
       </c>
       <c r="B20" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>1320.48</v>
+        <v>274.34</v>
       </c>
       <c r="D20" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E20" t="n">
-        <v>1090.1</v>
+        <v>178</v>
       </c>
       <c r="F20" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>332.32</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2363,10 +2343,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>2614.72</v>
+        <v>0</v>
       </c>
       <c r="Z20" t="n">
         <v>0</v>
@@ -2381,7 +2361,7 @@
         <v>0</v>
       </c>
       <c r="AD20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE20" t="n">
         <v>0</v>
@@ -2389,25 +2369,25 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>44732</v>
+        <v>44885</v>
       </c>
       <c r="B21" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>858</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>725.4400000000001</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>252.16</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2434,10 +2414,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>169.16</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -2476,7 +2456,7 @@
         <v>0</v>
       </c>
       <c r="AD21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE21" t="n">
         <v>0</v>
@@ -2484,25 +2464,25 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>44733</v>
+        <v>44886</v>
       </c>
       <c r="B22" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>2013</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>2630.4</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>422.97</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2523,16 +2503,16 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>225.26</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>1099.54</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -2541,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="U22" t="n">
-        <v>133.74</v>
+        <v>1162.44</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2553,10 +2533,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>1475.6</v>
+        <v>0</v>
       </c>
       <c r="Z22" t="n">
         <v>0</v>
@@ -2571,7 +2551,7 @@
         <v>0</v>
       </c>
       <c r="AD22" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AE22" t="n">
         <v>0</v>
@@ -2579,25 +2559,25 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>44734</v>
+        <v>44887</v>
       </c>
       <c r="B23" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>4122.059999999999</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>1995.12</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>167.56</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2618,16 +2598,16 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>112.63</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>1281.28</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -2636,10 +2616,10 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>442.5</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2648,10 +2628,10 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>1076.64</v>
+        <v>0</v>
       </c>
       <c r="Z23" t="n">
         <v>0</v>
@@ -2660,39 +2640,39 @@
         <v>0</v>
       </c>
       <c r="AB23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC23" t="n">
         <v>0</v>
       </c>
       <c r="AD23" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AE23" t="n">
-        <v>193.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>44735</v>
+        <v>44888</v>
       </c>
       <c r="B24" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>1755.09</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>1588</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>729.3</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2713,16 +2693,16 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>436.33</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>597.0600000000001</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -2731,10 +2711,10 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>1293.75</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -2743,10 +2723,10 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>2012.58</v>
+        <v>0</v>
       </c>
       <c r="Z24" t="n">
         <v>0</v>
@@ -2761,33 +2741,33 @@
         <v>0</v>
       </c>
       <c r="AD24" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AE24" t="n">
-        <v>-33.33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>44736</v>
+        <v>44889</v>
       </c>
       <c r="B25" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>1840.3</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>2524.14</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1295.16</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2838,10 +2818,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>506.86</v>
+        <v>0</v>
       </c>
       <c r="Z25" t="n">
         <v>0</v>
@@ -2856,7 +2836,7 @@
         <v>0</v>
       </c>
       <c r="AD25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE25" t="n">
         <v>0</v>
@@ -2864,25 +2844,25 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>44737</v>
+        <v>44890</v>
       </c>
       <c r="B26" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>4788.83</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>2280.3</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1919.4</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2921,10 +2901,10 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>1268.3</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -2933,10 +2913,10 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>-42.5</v>
+        <v>0</v>
       </c>
       <c r="Z26" t="n">
         <v>0</v>
@@ -2951,33 +2931,33 @@
         <v>0</v>
       </c>
       <c r="AD26" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AE26" t="n">
-        <v>90.81</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>44738</v>
+        <v>44891</v>
       </c>
       <c r="B27" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>1458.8</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>589.8200000000001</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>313.05</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2998,10 +2978,10 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>80.33</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -3028,10 +3008,10 @@
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>1470.14</v>
+        <v>0</v>
       </c>
       <c r="Z27" t="n">
         <v>0</v>
@@ -3046,33 +3026,33 @@
         <v>0</v>
       </c>
       <c r="AD27" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AE27" t="n">
-        <v>-21.66</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>44739</v>
+        <v>44892</v>
       </c>
       <c r="B28" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>1426.88</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>665.63</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>234.32</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -3081,10 +3061,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>148.08</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -3093,10 +3073,10 @@
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>592.4</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
@@ -3111,10 +3091,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>3102.13</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -3129,7 +3109,7 @@
         <v>0</v>
       </c>
       <c r="Z28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA28" t="n">
         <v>0</v>
@@ -3141,91 +3121,91 @@
         <v>0</v>
       </c>
       <c r="AD28" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AE28" t="n">
-        <v>64.16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>44740</v>
+        <v>44893</v>
       </c>
       <c r="B29" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>3321</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>818.08</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>396.16</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0</v>
+      </c>
+      <c r="X29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z29" t="n">
         <v>1</v>
       </c>
-      <c r="I29" t="n">
-        <v>56.25</v>
-      </c>
-      <c r="J29" t="n">
-        <v>7</v>
-      </c>
-      <c r="K29" t="n">
-        <v>452.06</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>3</v>
-      </c>
-      <c r="O29" t="n">
-        <v>315.24</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
-      <c r="W29" t="n">
-        <v>0</v>
-      </c>
-      <c r="X29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z29" t="n">
-        <v>0</v>
-      </c>
       <c r="AA29" t="n">
         <v>0</v>
       </c>
@@ -3236,33 +3216,33 @@
         <v>0</v>
       </c>
       <c r="AD29" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AE29" t="n">
-        <v>-42.51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>44741</v>
+        <v>44894</v>
       </c>
       <c r="B30" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>2680.26</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>427.85</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>417.4</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -3271,10 +3251,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.57</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -3283,10 +3263,10 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>279.03</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -3301,10 +3281,10 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>1898.82</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -3319,103 +3299,103 @@
         <v>0</v>
       </c>
       <c r="Z30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA30" t="n">
         <v>0</v>
       </c>
       <c r="AB30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC30" t="n">
         <v>0</v>
       </c>
       <c r="AD30" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AE30" t="n">
-        <v>57.40000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>44742</v>
+        <v>44895</v>
       </c>
       <c r="B31" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>1510.08</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>444.5</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="n">
+        <v>0</v>
+      </c>
+      <c r="X31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z31" t="n">
         <v>1</v>
       </c>
-      <c r="G31" t="n">
-        <v>74.58</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" t="n">
-        <v>0</v>
-      </c>
-      <c r="P31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>0</v>
-      </c>
-      <c r="R31" t="n">
-        <v>0</v>
-      </c>
-      <c r="S31" t="n">
-        <v>0</v>
-      </c>
-      <c r="T31" t="n">
-        <v>31</v>
-      </c>
-      <c r="U31" t="n">
-        <v>3236.71</v>
-      </c>
-      <c r="V31" t="n">
-        <v>0</v>
-      </c>
-      <c r="W31" t="n">
-        <v>0</v>
-      </c>
-      <c r="X31" t="n">
-        <v>16</v>
-      </c>
-      <c r="Y31" t="n">
-        <v>2004.32</v>
-      </c>
-      <c r="Z31" t="n">
-        <v>0</v>
-      </c>
       <c r="AA31" t="n">
         <v>0</v>
       </c>
@@ -3426,33 +3406,33 @@
         <v>0</v>
       </c>
       <c r="AD31" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AE31" t="n">
-        <v>422.56</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>44743</v>
+        <v>44896</v>
       </c>
       <c r="B32" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>4677.77</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>2977.11</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>414.96</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3491,26 +3471,26 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0</v>
+      </c>
+      <c r="X32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z32" t="n">
         <v>1</v>
       </c>
-      <c r="U32" t="n">
-        <v>45.92</v>
-      </c>
-      <c r="V32" t="n">
-        <v>0</v>
-      </c>
-      <c r="W32" t="n">
-        <v>0</v>
-      </c>
-      <c r="X32" t="n">
-        <v>14</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>1555.12</v>
-      </c>
-      <c r="Z32" t="n">
-        <v>0</v>
-      </c>
       <c r="AA32" t="n">
         <v>0</v>
       </c>
@@ -3521,102 +3501,102 @@
         <v>0</v>
       </c>
       <c r="AD32" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AE32" t="n">
-        <v>148.32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>44744</v>
+        <v>44897</v>
       </c>
       <c r="B33" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>7127.490000000001</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>782.24</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>313.06</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0</v>
+      </c>
+      <c r="R33" t="n">
+        <v>0</v>
+      </c>
+      <c r="S33" t="n">
+        <v>0</v>
+      </c>
+      <c r="T33" t="n">
+        <v>0</v>
+      </c>
+      <c r="U33" t="n">
+        <v>0</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="n">
+        <v>0</v>
+      </c>
+      <c r="X33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z33" t="n">
         <v>1</v>
       </c>
-      <c r="I33" t="n">
-        <v>-12.5</v>
-      </c>
-      <c r="J33" t="n">
-        <v>2</v>
-      </c>
-      <c r="K33" t="n">
-        <v>352.92</v>
-      </c>
-      <c r="L33" t="n">
-        <v>0</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="n">
-        <v>1</v>
-      </c>
-      <c r="O33" t="n">
-        <v>107.33</v>
-      </c>
-      <c r="P33" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>0</v>
-      </c>
-      <c r="R33" t="n">
-        <v>0</v>
-      </c>
-      <c r="S33" t="n">
-        <v>0</v>
-      </c>
-      <c r="T33" t="n">
-        <v>52</v>
-      </c>
-      <c r="U33" t="n">
-        <v>4284.28</v>
-      </c>
-      <c r="V33" t="n">
-        <v>0</v>
-      </c>
-      <c r="W33" t="n">
-        <v>0</v>
-      </c>
-      <c r="X33" t="n">
-        <v>6</v>
-      </c>
-      <c r="Y33" t="n">
-        <v>403.68</v>
-      </c>
-      <c r="Z33" t="n">
-        <v>0</v>
-      </c>
       <c r="AA33" t="n">
         <v>0</v>
       </c>
       <c r="AB33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC33" t="n">
         <v>0</v>
       </c>
       <c r="AD33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE33" t="n">
         <v>0</v>
@@ -3624,37 +3604,37 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>44745</v>
+        <v>44898</v>
       </c>
       <c r="B34" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C34" t="n">
-        <v>1407</v>
+        <v>154.58</v>
       </c>
       <c r="D34" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>2797.44</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>348.78</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>133.32</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>626.24</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -3693,13 +3673,13 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>-364.2</v>
+        <v>0</v>
       </c>
       <c r="Z34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA34" t="n">
         <v>0</v>
@@ -3711,7 +3691,7 @@
         <v>0</v>
       </c>
       <c r="AD34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE34" t="n">
         <v>0</v>
@@ -3719,28 +3699,28 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>44746</v>
+        <v>44899</v>
       </c>
       <c r="B35" t="n">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="C35" t="n">
-        <v>2421.6</v>
+        <v>268.34</v>
       </c>
       <c r="D35" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>2725.6</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>294.74</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3776,10 +3756,10 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>2000.64</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3788,10 +3768,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>3508</v>
+        <v>0</v>
       </c>
       <c r="Z35" t="n">
         <v>0</v>
@@ -3800,33 +3780,33 @@
         <v>0</v>
       </c>
       <c r="AB35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC35" t="n">
         <v>0</v>
       </c>
       <c r="AD35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE35" t="n">
-        <v>83.33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>44747</v>
+        <v>44900</v>
       </c>
       <c r="B36" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>1196</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>1248.15</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -3835,7 +3815,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3853,10 +3833,10 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>136.26</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -3871,10 +3851,10 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>192.12</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -3883,10 +3863,10 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>2634.06</v>
+        <v>0</v>
       </c>
       <c r="Z36" t="n">
         <v>0</v>
@@ -3901,7 +3881,7 @@
         <v>0</v>
       </c>
       <c r="AD36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE36" t="n">
         <v>0</v>
@@ -3909,37 +3889,37 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>44748</v>
+        <v>44901</v>
       </c>
       <c r="B37" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>1675.52</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>962.22</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>336.9</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -3948,10 +3928,10 @@
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>402.48</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -3966,10 +3946,10 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="U37" t="n">
-        <v>301.12</v>
+        <v>1284.45</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3978,10 +3958,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>1012.92</v>
+        <v>0</v>
       </c>
       <c r="Z37" t="n">
         <v>0</v>
@@ -3996,7 +3976,7 @@
         <v>0</v>
       </c>
       <c r="AD37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE37" t="n">
         <v>0</v>
@@ -4004,37 +3984,37 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>44749</v>
+        <v>44902</v>
       </c>
       <c r="B38" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>1478.16</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>1538.74</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>635.34</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>110.5</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -4043,10 +4023,10 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>492.9</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -4061,10 +4041,10 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="U38" t="n">
-        <v>1727.4</v>
+        <v>1492.65</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -4091,45 +4071,45 @@
         <v>0</v>
       </c>
       <c r="AD38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE38" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>44750</v>
+        <v>44903</v>
       </c>
       <c r="B39" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>2331.2</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>2290.86</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>356.72</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>612.16</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -4138,10 +4118,10 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>386.84</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -4156,10 +4136,10 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>999.5700000000001</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -4186,45 +4166,45 @@
         <v>0</v>
       </c>
       <c r="AD39" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AE39" t="n">
-        <v>199.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>44751</v>
+        <v>44904</v>
       </c>
       <c r="B40" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>3768.6</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>1379.89</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>447.3</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>131.54</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -4251,16 +4231,16 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>298.32</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>1115.82</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -4281,7 +4261,7 @@
         <v>0</v>
       </c>
       <c r="AD40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE40" t="n">
         <v>0</v>
@@ -4289,28 +4269,28 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>44752</v>
+        <v>44905</v>
       </c>
       <c r="B41" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>1301.95</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>2227.2</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>551.4000000000001</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -4346,22 +4326,22 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>312.5</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>778.3200000000001</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>1146.48</v>
+        <v>0</v>
       </c>
       <c r="Z41" t="n">
         <v>0</v>
@@ -4376,7 +4356,7 @@
         <v>0</v>
       </c>
       <c r="AD41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE41" t="n">
         <v>0</v>
@@ -4384,28 +4364,28 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>44753</v>
+        <v>44906</v>
       </c>
       <c r="B42" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>2489.74</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>2890.85</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>135.67</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -4441,22 +4421,22 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>2327.04</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>1003.32</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>1505.1</v>
+        <v>0</v>
       </c>
       <c r="Z42" t="n">
         <v>0</v>
@@ -4471,7 +4451,7 @@
         <v>0</v>
       </c>
       <c r="AD42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE42" t="n">
         <v>0</v>
@@ -4479,19 +4459,19 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>44754</v>
+        <v>44907</v>
       </c>
       <c r="B43" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>3033.65</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>426.72</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -4500,7 +4480,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -4536,10 +4516,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>298.32</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -4548,10 +4528,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>5266.52</v>
+        <v>0</v>
       </c>
       <c r="Z43" t="n">
         <v>0</v>
@@ -4566,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="AD43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE43" t="n">
         <v>0</v>
@@ -4574,31 +4554,31 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>44755</v>
+        <v>44908</v>
       </c>
       <c r="B44" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>4204.55</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>522.1500000000001</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>109.5</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4631,10 +4611,10 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>1742.11</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4661,7 +4641,7 @@
         <v>0</v>
       </c>
       <c r="AD44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE44" t="n">
         <v>0</v>
@@ -4669,28 +4649,28 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>44756</v>
+        <v>44909</v>
       </c>
       <c r="B45" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>2492.36</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>830.97</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>264.9</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4726,10 +4706,10 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>298.32</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -4756,7 +4736,7 @@
         <v>0</v>
       </c>
       <c r="AD45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE45" t="n">
         <v>0</v>
@@ -4764,28 +4744,28 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>44757</v>
+        <v>44910</v>
       </c>
       <c r="B46" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>4239.46</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>1032.02</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>415</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4821,10 +4801,10 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>1229.49</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4833,10 +4813,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>187.5</v>
+        <v>0</v>
       </c>
       <c r="Z46" t="n">
         <v>0</v>
@@ -4851,7 +4831,7 @@
         <v>0</v>
       </c>
       <c r="AD46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE46" t="n">
         <v>0</v>
@@ -4859,28 +4839,28 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>44758</v>
+        <v>44911</v>
       </c>
       <c r="B47" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="C47" t="n">
-        <v>5670.4</v>
+        <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E47" t="n">
-        <v>774.8000000000001</v>
+        <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>397.08</v>
+        <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -4916,10 +4896,10 @@
         <v>0</v>
       </c>
       <c r="T47" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="U47" t="n">
-        <v>1717</v>
+        <v>0</v>
       </c>
       <c r="V47" t="n">
         <v>0</v>
@@ -4946,7 +4926,7 @@
         <v>0</v>
       </c>
       <c r="AD47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE47" t="n">
         <v>0</v>
@@ -4954,28 +4934,28 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>44759</v>
+        <v>44912</v>
       </c>
       <c r="B48" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="C48" t="n">
-        <v>2186.01</v>
+        <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>2394.53</v>
+        <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>716.0999999999999</v>
+        <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -5011,10 +4991,10 @@
         <v>0</v>
       </c>
       <c r="T48" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="U48" t="n">
-        <v>1099.12</v>
+        <v>0</v>
       </c>
       <c r="V48" t="n">
         <v>0</v>
@@ -5023,10 +5003,10 @@
         <v>0</v>
       </c>
       <c r="X48" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="Y48" t="n">
-        <v>956.6799999999999</v>
+        <v>900</v>
       </c>
       <c r="Z48" t="n">
         <v>0</v>
@@ -5041,7 +5021,7 @@
         <v>0</v>
       </c>
       <c r="AD48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE48" t="n">
         <v>0</v>
@@ -5049,37 +5029,37 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>44760</v>
+        <v>44913</v>
       </c>
       <c r="B49" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C49" t="n">
-        <v>1220.34</v>
+        <v>179.17</v>
       </c>
       <c r="D49" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E49" t="n">
-        <v>2691.6</v>
+        <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G49" t="n">
-        <v>728.58</v>
+        <v>106.5</v>
       </c>
       <c r="H49" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>99.98999999999999</v>
+        <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K49" t="n">
-        <v>495</v>
+        <v>0</v>
       </c>
       <c r="L49" t="n">
         <v>0</v>
@@ -5106,10 +5086,10 @@
         <v>0</v>
       </c>
       <c r="T49" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="U49" t="n">
-        <v>1857.12</v>
+        <v>0</v>
       </c>
       <c r="V49" t="n">
         <v>0</v>
@@ -5118,10 +5098,10 @@
         <v>0</v>
       </c>
       <c r="X49" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="Y49" t="n">
-        <v>1997.27</v>
+        <v>0</v>
       </c>
       <c r="Z49" t="n">
         <v>0</v>
@@ -5130,13 +5110,13 @@
         <v>0</v>
       </c>
       <c r="AB49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC49" t="n">
         <v>0</v>
       </c>
       <c r="AD49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE49" t="n">
         <v>0</v>
@@ -5144,28 +5124,28 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>44761</v>
+        <v>44914</v>
       </c>
       <c r="B50" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="C50" t="n">
-        <v>2278.48</v>
+        <v>179.17</v>
       </c>
       <c r="D50" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E50" t="n">
-        <v>176.91</v>
+        <v>0</v>
       </c>
       <c r="F50" t="n">
         <v>1</v>
       </c>
       <c r="G50" t="n">
-        <v>66.83</v>
+        <v>106.5</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -5201,10 +5181,10 @@
         <v>0</v>
       </c>
       <c r="T50" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U50" t="n">
-        <v>298.32</v>
+        <v>0</v>
       </c>
       <c r="V50" t="n">
         <v>0</v>
@@ -5213,13 +5193,13 @@
         <v>0</v>
       </c>
       <c r="X50" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="Y50" t="n">
-        <v>1893.6</v>
+        <v>0</v>
       </c>
       <c r="Z50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA50" t="n">
         <v>0</v>
@@ -5231,7 +5211,7 @@
         <v>0</v>
       </c>
       <c r="AD50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE50" t="n">
         <v>0</v>
@@ -5239,13 +5219,13 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>44762</v>
+        <v>44915</v>
       </c>
       <c r="B51" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="C51" t="n">
-        <v>6652.799999999999</v>
+        <v>0</v>
       </c>
       <c r="D51" t="n">
         <v>0</v>
@@ -5257,10 +5237,10 @@
         <v>1</v>
       </c>
       <c r="G51" t="n">
-        <v>4.17</v>
+        <v>118.17</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -5296,10 +5276,10 @@
         <v>0</v>
       </c>
       <c r="T51" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="U51" t="n">
-        <v>569.16</v>
+        <v>0</v>
       </c>
       <c r="V51" t="n">
         <v>0</v>
@@ -5308,13 +5288,13 @@
         <v>0</v>
       </c>
       <c r="X51" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="Y51" t="n">
-        <v>3705.2</v>
+        <v>0</v>
       </c>
       <c r="Z51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA51" t="n">
         <v>0</v>
@@ -5326,7 +5306,7 @@
         <v>0</v>
       </c>
       <c r="AD51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE51" t="n">
         <v>0</v>
@@ -5334,13 +5314,13 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>44763</v>
+        <v>44916</v>
       </c>
       <c r="B52" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C52" t="n">
-        <v>3090</v>
+        <v>0</v>
       </c>
       <c r="D52" t="n">
         <v>0</v>
@@ -5355,16 +5335,16 @@
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K52" t="n">
-        <v>110.17</v>
+        <v>0</v>
       </c>
       <c r="L52" t="n">
         <v>0</v>
@@ -5391,10 +5371,10 @@
         <v>0</v>
       </c>
       <c r="T52" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="U52" t="n">
-        <v>6195.84</v>
+        <v>0</v>
       </c>
       <c r="V52" t="n">
         <v>0</v>
@@ -5403,13 +5383,13 @@
         <v>0</v>
       </c>
       <c r="X52" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="Y52" t="n">
-        <v>3557.6</v>
+        <v>0</v>
       </c>
       <c r="Z52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA52" t="n">
         <v>0</v>
@@ -5421,7 +5401,7 @@
         <v>0</v>
       </c>
       <c r="AD52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE52" t="n">
         <v>0</v>
@@ -5429,28 +5409,28 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>44764</v>
+        <v>44917</v>
       </c>
       <c r="B53" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C53" t="n">
-        <v>1196.9</v>
+        <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E53" t="n">
-        <v>250.48</v>
+        <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G53" t="n">
-        <v>93.79000000000001</v>
+        <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -5468,10 +5448,10 @@
         <v>0</v>
       </c>
       <c r="N53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O53" t="n">
-        <v>135.84</v>
+        <v>0</v>
       </c>
       <c r="P53" t="n">
         <v>0</v>
@@ -5486,10 +5466,10 @@
         <v>0</v>
       </c>
       <c r="T53" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="U53" t="n">
-        <v>372.9</v>
+        <v>0</v>
       </c>
       <c r="V53" t="n">
         <v>0</v>
@@ -5498,13 +5478,13 @@
         <v>0</v>
       </c>
       <c r="X53" t="n">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="Y53" t="n">
-        <v>3944.39</v>
+        <v>0</v>
       </c>
       <c r="Z53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA53" t="n">
         <v>0</v>
@@ -5516,7 +5496,7 @@
         <v>0</v>
       </c>
       <c r="AD53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE53" t="n">
         <v>0</v>
@@ -5524,28 +5504,28 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>44765</v>
+        <v>44918</v>
       </c>
       <c r="B54" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C54" t="n">
-        <v>915.04</v>
+        <v>245.5</v>
       </c>
       <c r="D54" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E54" t="n">
-        <v>886.8299999999999</v>
+        <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>251.94</v>
+        <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
@@ -5593,13 +5573,13 @@
         <v>0</v>
       </c>
       <c r="X54" t="n">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="Y54" t="n">
-        <v>5155.08</v>
+        <v>0</v>
       </c>
       <c r="Z54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA54" t="n">
         <v>0</v>
@@ -5611,7 +5591,7 @@
         <v>0</v>
       </c>
       <c r="AD54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE54" t="n">
         <v>0</v>
@@ -5619,37 +5599,37 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>44766</v>
+        <v>44919</v>
       </c>
       <c r="B55" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C55" t="n">
-        <v>349.17</v>
+        <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>1011.8</v>
+        <v>0</v>
       </c>
       <c r="F55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G55" t="n">
-        <v>198.46</v>
+        <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
       <c r="J55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K55" t="n">
-        <v>160.83</v>
+        <v>0</v>
       </c>
       <c r="L55" t="n">
         <v>0</v>
@@ -5676,10 +5656,10 @@
         <v>0</v>
       </c>
       <c r="T55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U55" t="n">
-        <v>204.16</v>
+        <v>0</v>
       </c>
       <c r="V55" t="n">
         <v>0</v>
@@ -5688,13 +5668,13 @@
         <v>0</v>
       </c>
       <c r="X55" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="Y55" t="n">
-        <v>955.6400000000001</v>
+        <v>0</v>
       </c>
       <c r="Z55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA55" t="n">
         <v>0</v>
@@ -5706,7 +5686,7 @@
         <v>0</v>
       </c>
       <c r="AD55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE55" t="n">
         <v>0</v>
@@ -5714,37 +5694,37 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>44767</v>
+        <v>44920</v>
       </c>
       <c r="B56" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="C56" t="n">
-        <v>1829.8</v>
+        <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="E56" t="n">
-        <v>2066.68</v>
+        <v>0</v>
       </c>
       <c r="F56" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G56" t="n">
-        <v>535.3499999999999</v>
+        <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K56" t="n">
-        <v>199.17</v>
+        <v>0</v>
       </c>
       <c r="L56" t="n">
         <v>0</v>
@@ -5771,10 +5751,10 @@
         <v>0</v>
       </c>
       <c r="T56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U56" t="n">
-        <v>120.84</v>
+        <v>0</v>
       </c>
       <c r="V56" t="n">
         <v>0</v>
@@ -5783,10 +5763,10 @@
         <v>0</v>
       </c>
       <c r="X56" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="Y56" t="n">
-        <v>1180.62</v>
+        <v>0</v>
       </c>
       <c r="Z56" t="n">
         <v>1</v>
@@ -5801,7 +5781,7 @@
         <v>0</v>
       </c>
       <c r="AD56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE56" t="n">
         <v>0</v>
@@ -5809,25 +5789,25 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>44768</v>
+        <v>44921</v>
       </c>
       <c r="B57" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="C57" t="n">
-        <v>4104</v>
+        <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E57" t="n">
-        <v>66.55</v>
+        <v>0</v>
       </c>
       <c r="F57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G57" t="n">
-        <v>178.6</v>
+        <v>0</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -5836,10 +5816,10 @@
         <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K57" t="n">
-        <v>119.17</v>
+        <v>0</v>
       </c>
       <c r="L57" t="n">
         <v>0</v>
@@ -5878,10 +5858,10 @@
         <v>0</v>
       </c>
       <c r="X57" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="Y57" t="n">
-        <v>3006</v>
+        <v>0</v>
       </c>
       <c r="Z57" t="n">
         <v>1</v>
@@ -5896,7 +5876,7 @@
         <v>0</v>
       </c>
       <c r="AD57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE57" t="n">
         <v>0</v>
@@ -5904,19 +5884,19 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>44769</v>
+        <v>44922</v>
       </c>
       <c r="B58" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="C58" t="n">
-        <v>3442.24</v>
+        <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E58" t="n">
-        <v>72.93000000000001</v>
+        <v>0</v>
       </c>
       <c r="F58" t="n">
         <v>0</v>
@@ -5961,10 +5941,10 @@
         <v>0</v>
       </c>
       <c r="T58" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="U58" t="n">
-        <v>1169.63</v>
+        <v>0</v>
       </c>
       <c r="V58" t="n">
         <v>0</v>
@@ -5973,10 +5953,10 @@
         <v>0</v>
       </c>
       <c r="X58" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Y58" t="n">
-        <v>795.8</v>
+        <v>0</v>
       </c>
       <c r="Z58" t="n">
         <v>1</v>
@@ -5991,7 +5971,7 @@
         <v>0</v>
       </c>
       <c r="AD58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE58" t="n">
         <v>0</v>
@@ -5999,13 +5979,13 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>44770</v>
+        <v>44923</v>
       </c>
       <c r="B59" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="C59" t="n">
-        <v>6239.5</v>
+        <v>0</v>
       </c>
       <c r="D59" t="n">
         <v>0</v>
@@ -6020,10 +6000,10 @@
         <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>-42.5</v>
+        <v>0</v>
       </c>
       <c r="J59" t="n">
         <v>0</v>
@@ -6032,10 +6012,10 @@
         <v>0</v>
       </c>
       <c r="L59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M59" t="n">
-        <v>370.84</v>
+        <v>0</v>
       </c>
       <c r="N59" t="n">
         <v>0</v>
@@ -6056,10 +6036,10 @@
         <v>0</v>
       </c>
       <c r="T59" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="U59" t="n">
-        <v>7718.9</v>
+        <v>0</v>
       </c>
       <c r="V59" t="n">
         <v>0</v>
@@ -6068,10 +6048,10 @@
         <v>0</v>
       </c>
       <c r="X59" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Y59" t="n">
-        <v>795.8</v>
+        <v>0</v>
       </c>
       <c r="Z59" t="n">
         <v>1</v>
@@ -6086,7 +6066,7 @@
         <v>0</v>
       </c>
       <c r="AD59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE59" t="n">
         <v>0</v>
@@ -6094,25 +6074,25 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>44771</v>
+        <v>44924</v>
       </c>
       <c r="B60" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="C60" t="n">
-        <v>7450.5</v>
+        <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E60" t="n">
-        <v>906.9299999999999</v>
+        <v>0</v>
       </c>
       <c r="F60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G60" t="n">
-        <v>135.66</v>
+        <v>0</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -6127,16 +6107,16 @@
         <v>0</v>
       </c>
       <c r="L60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M60" t="n">
-        <v>62.5</v>
+        <v>0</v>
       </c>
       <c r="N60" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O60" t="n">
-        <v>456.32</v>
+        <v>0</v>
       </c>
       <c r="P60" t="n">
         <v>0</v>
@@ -6151,10 +6131,10 @@
         <v>0</v>
       </c>
       <c r="T60" t="n">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="U60" t="n">
-        <v>6157.44</v>
+        <v>6012.5</v>
       </c>
       <c r="V60" t="n">
         <v>0</v>
@@ -6181,7 +6161,7 @@
         <v>0</v>
       </c>
       <c r="AD60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE60" t="n">
         <v>0</v>
@@ -6189,25 +6169,25 @@
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>44772</v>
+        <v>44925</v>
       </c>
       <c r="B61" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="C61" t="n">
-        <v>6133.589999999999</v>
+        <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E61" t="n">
-        <v>595.98</v>
+        <v>0</v>
       </c>
       <c r="F61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G61" t="n">
-        <v>122.16</v>
+        <v>0</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -6216,16 +6196,16 @@
         <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K61" t="n">
-        <v>136.83</v>
+        <v>0</v>
       </c>
       <c r="L61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M61" t="n">
-        <v>62.5</v>
+        <v>0</v>
       </c>
       <c r="N61" t="n">
         <v>0</v>
@@ -6246,10 +6226,10 @@
         <v>0</v>
       </c>
       <c r="T61" t="n">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="U61" t="n">
-        <v>1489.56</v>
+        <v>6012.5</v>
       </c>
       <c r="V61" t="n">
         <v>0</v>
@@ -6258,10 +6238,10 @@
         <v>0</v>
       </c>
       <c r="X61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y61" t="n">
-        <v>214.8</v>
+        <v>0</v>
       </c>
       <c r="Z61" t="n">
         <v>1</v>
@@ -6276,7 +6256,7 @@
         <v>0</v>
       </c>
       <c r="AD61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE61" t="n">
         <v>0</v>
@@ -6284,83 +6264,83 @@
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>44773</v>
+        <v>44926</v>
       </c>
       <c r="B62" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="C62" t="n">
-        <v>2351.79</v>
+        <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E62" t="n">
-        <v>312.75</v>
+        <v>0</v>
       </c>
       <c r="F62" t="n">
+        <v>0</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0</v>
+      </c>
+      <c r="N62" t="n">
+        <v>0</v>
+      </c>
+      <c r="O62" t="n">
+        <v>0</v>
+      </c>
+      <c r="P62" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>0</v>
+      </c>
+      <c r="R62" t="n">
+        <v>0</v>
+      </c>
+      <c r="S62" t="n">
+        <v>0</v>
+      </c>
+      <c r="T62" t="n">
+        <v>0</v>
+      </c>
+      <c r="U62" t="n">
+        <v>0</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="n">
+        <v>0</v>
+      </c>
+      <c r="X62" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y62" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z62" t="n">
         <v>2</v>
       </c>
-      <c r="G62" t="n">
-        <v>162.24</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>1</v>
-      </c>
-      <c r="K62" t="n">
-        <v>155.5</v>
-      </c>
-      <c r="L62" t="n">
-        <v>0</v>
-      </c>
-      <c r="M62" t="n">
-        <v>0</v>
-      </c>
-      <c r="N62" t="n">
-        <v>0</v>
-      </c>
-      <c r="O62" t="n">
-        <v>0</v>
-      </c>
-      <c r="P62" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q62" t="n">
-        <v>0</v>
-      </c>
-      <c r="R62" t="n">
-        <v>0</v>
-      </c>
-      <c r="S62" t="n">
-        <v>0</v>
-      </c>
-      <c r="T62" t="n">
-        <v>5</v>
-      </c>
-      <c r="U62" t="n">
-        <v>510</v>
-      </c>
-      <c r="V62" t="n">
-        <v>0</v>
-      </c>
-      <c r="W62" t="n">
-        <v>0</v>
-      </c>
-      <c r="X62" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y62" t="n">
-        <v>1419.8</v>
-      </c>
-      <c r="Z62" t="n">
-        <v>1</v>
-      </c>
       <c r="AA62" t="n">
         <v>0</v>
       </c>
@@ -6371,435 +6351,10 @@
         <v>0</v>
       </c>
       <c r="AD62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE62" t="n">
         <v>0</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>44774</v>
-      </c>
-      <c r="B63" t="n">
-        <v>28</v>
-      </c>
-      <c r="C63" t="n">
-        <v>2440.2</v>
-      </c>
-      <c r="D63" t="n">
-        <v>9</v>
-      </c>
-      <c r="E63" t="n">
-        <v>842.3100000000001</v>
-      </c>
-      <c r="F63" t="n">
-        <v>4</v>
-      </c>
-      <c r="G63" t="n">
-        <v>420</v>
-      </c>
-      <c r="H63" t="n">
-        <v>4</v>
-      </c>
-      <c r="I63" t="n">
-        <v>156.24</v>
-      </c>
-      <c r="J63" t="n">
-        <v>1</v>
-      </c>
-      <c r="K63" t="n">
-        <v>64.58</v>
-      </c>
-      <c r="L63" t="n">
-        <v>0</v>
-      </c>
-      <c r="M63" t="n">
-        <v>0</v>
-      </c>
-      <c r="N63" t="n">
-        <v>2</v>
-      </c>
-      <c r="O63" t="n">
-        <v>135.84</v>
-      </c>
-      <c r="P63" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q63" t="n">
-        <v>0</v>
-      </c>
-      <c r="R63" t="n">
-        <v>0</v>
-      </c>
-      <c r="S63" t="n">
-        <v>0</v>
-      </c>
-      <c r="T63" t="n">
-        <v>19</v>
-      </c>
-      <c r="U63" t="n">
-        <v>1455.97</v>
-      </c>
-      <c r="V63" t="n">
-        <v>0</v>
-      </c>
-      <c r="W63" t="n">
-        <v>0</v>
-      </c>
-      <c r="X63" t="n">
-        <v>6</v>
-      </c>
-      <c r="Y63" t="n">
-        <v>969.78</v>
-      </c>
-      <c r="Z63" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA63" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB63" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC63" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD63" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE63" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>44775</v>
-      </c>
-      <c r="B64" t="n">
-        <v>7</v>
-      </c>
-      <c r="C64" t="n">
-        <v>855.4</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>44776</v>
-      </c>
-      <c r="B65" t="n">
-        <v>16</v>
-      </c>
-      <c r="C65" t="n">
-        <v>2177.76</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>44777</v>
-      </c>
-      <c r="B66" t="n">
-        <v>16</v>
-      </c>
-      <c r="C66" t="n">
-        <v>3007.52</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>44778</v>
-      </c>
-      <c r="B67" t="n">
-        <v>11</v>
-      </c>
-      <c r="C67" t="n">
-        <v>978.3399999999999</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>44779</v>
-      </c>
-      <c r="B68" t="n">
-        <v>11</v>
-      </c>
-      <c r="C68" t="n">
-        <v>1201.75</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>44780</v>
-      </c>
-      <c r="B69" t="n">
-        <v>9</v>
-      </c>
-      <c r="C69" t="n">
-        <v>1277.64</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>44781</v>
-      </c>
-      <c r="B70" t="n">
-        <v>9</v>
-      </c>
-      <c r="C70" t="n">
-        <v>1092.6</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>44782</v>
-      </c>
-      <c r="B71" t="n">
-        <v>8</v>
-      </c>
-      <c r="C71" t="n">
-        <v>647.52</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>44783</v>
-      </c>
-      <c r="B72" t="n">
-        <v>11</v>
-      </c>
-      <c r="C72" t="n">
-        <v>1506.12</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>44784</v>
-      </c>
-      <c r="B73" t="n">
-        <v>5</v>
-      </c>
-      <c r="C73" t="n">
-        <v>970.5500000000001</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>44785</v>
-      </c>
-      <c r="B74" t="n">
-        <v>6</v>
-      </c>
-      <c r="C74" t="n">
-        <v>639.1800000000001</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>44786</v>
-      </c>
-      <c r="B75" t="n">
-        <v>13</v>
-      </c>
-      <c r="C75" t="n">
-        <v>1440.27</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>44787</v>
-      </c>
-      <c r="B76" t="n">
-        <v>9</v>
-      </c>
-      <c r="C76" t="n">
-        <v>1057.68</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>44788</v>
-      </c>
-      <c r="B77" t="n">
-        <v>7</v>
-      </c>
-      <c r="C77" t="n">
-        <v>792.1900000000001</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>44789</v>
-      </c>
-      <c r="B78" t="n">
-        <v>5</v>
-      </c>
-      <c r="C78" t="n">
-        <v>446.2</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>44790</v>
-      </c>
-      <c r="B79" t="n">
-        <v>8</v>
-      </c>
-      <c r="C79" t="n">
-        <v>964.5599999999999</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>44791</v>
-      </c>
-      <c r="B80" t="n">
-        <v>1</v>
-      </c>
-      <c r="C80" t="n">
-        <v>152.5</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>44792</v>
-      </c>
-      <c r="B81" t="n">
-        <v>4</v>
-      </c>
-      <c r="C81" t="n">
-        <v>287.04</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>44793</v>
-      </c>
-      <c r="B82" t="n">
-        <v>5</v>
-      </c>
-      <c r="C82" t="n">
-        <v>500.6</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>44794</v>
-      </c>
-      <c r="B83" t="n">
-        <v>3</v>
-      </c>
-      <c r="C83" t="n">
-        <v>531.78</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>44795</v>
-      </c>
-      <c r="B84" t="n">
-        <v>14</v>
-      </c>
-      <c r="C84" t="n">
-        <v>2113.58</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>44796</v>
-      </c>
-      <c r="B85" t="n">
-        <v>10</v>
-      </c>
-      <c r="C85" t="n">
-        <v>1603.6</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>44797</v>
-      </c>
-      <c r="B86" t="n">
-        <v>15</v>
-      </c>
-      <c r="C86" t="n">
-        <v>2318.55</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>44798</v>
-      </c>
-      <c r="B87" t="n">
-        <v>11</v>
-      </c>
-      <c r="C87" t="n">
-        <v>1853.61</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>44799</v>
-      </c>
-      <c r="B88" t="n">
-        <v>6</v>
-      </c>
-      <c r="C88" t="n">
-        <v>597.42</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>44800</v>
-      </c>
-      <c r="B89" t="n">
-        <v>3</v>
-      </c>
-      <c r="C89" t="n">
-        <v>334.83</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>44801</v>
-      </c>
-      <c r="B90" t="n">
-        <v>2</v>
-      </c>
-      <c r="C90" t="n">
-        <v>243.44</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>44802</v>
-      </c>
-      <c r="B91" t="n">
-        <v>3</v>
-      </c>
-      <c r="C91" t="n">
-        <v>235.23</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>44803</v>
-      </c>
-      <c r="B92" t="n">
-        <v>4</v>
-      </c>
-      <c r="C92" t="n">
-        <v>333.08</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>44804</v>
-      </c>
-      <c r="B93" t="n">
-        <v>7</v>
-      </c>
-      <c r="C93" t="n">
-        <v>889.0700000000001</v>
       </c>
     </row>
   </sheetData>

--- a/NameFile.xlsx
+++ b/NameFile.xlsx
@@ -524,90 +524,90 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45170</v>
+        <v>44805</v>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>17</v>
+      </c>
+      <c r="E2" t="n">
+        <v>24344.68</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1257</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
         <v>8</v>
       </c>
-      <c r="C2" t="n">
-        <v>1187</v>
-      </c>
-      <c r="D2" t="n">
+      <c r="K2" t="n">
+        <v>9496</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>1</v>
       </c>
-      <c r="E2" t="n">
-        <v>1257</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>17</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1432.04</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>1</v>
-      </c>
-      <c r="O2" t="n">
+      <c r="Q2" t="n">
         <v>304.7</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>45171</v>
+        <v>44806</v>
       </c>
       <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>27</v>
+      </c>
+      <c r="E3" t="n">
+        <v>45334.62</v>
+      </c>
+      <c r="F3" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3" t="n">
+        <v>2514</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
         <v>8</v>
       </c>
-      <c r="C3" t="n">
-        <v>1194.26</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2</v>
-      </c>
-      <c r="E3" t="n">
-        <v>1257</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>27</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1679.06</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>9554.08</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -616,51 +616,51 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>1</v>
       </c>
-      <c r="O3" t="n">
+      <c r="Q3" t="n">
         <v>332.17</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>45172</v>
+        <v>44807</v>
       </c>
       <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>38</v>
+      </c>
+      <c r="E4" t="n">
+        <v>55926.12</v>
+      </c>
+      <c r="F4" t="n">
+        <v>2</v>
+      </c>
+      <c r="G4" t="n">
+        <v>2514</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
         <v>8</v>
       </c>
-      <c r="C4" t="n">
-        <v>1187</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1257</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>38</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1471.74</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>9496</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -683,37 +683,37 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>45173</v>
+        <v>44808</v>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>17</v>
+      </c>
+      <c r="E5" t="n">
+        <v>25041</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
         <v>8</v>
       </c>
-      <c r="C5" t="n">
-        <v>946.4299999999999</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>17</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1473</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>7571.44</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -736,37 +736,37 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>45174</v>
+        <v>44809</v>
       </c>
       <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>18</v>
+      </c>
+      <c r="E6" t="n">
+        <v>26928</v>
+      </c>
+      <c r="F6" t="n">
+        <v>2</v>
+      </c>
+      <c r="G6" t="n">
+        <v>2514</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
         <v>5</v>
       </c>
-      <c r="C6" t="n">
-        <v>1194.26</v>
-      </c>
-      <c r="D6" t="n">
-        <v>2</v>
-      </c>
-      <c r="E6" t="n">
-        <v>1257</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>18</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1496</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>5971.3</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -789,49 +789,49 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>45175</v>
+        <v>44810</v>
       </c>
       <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>18</v>
+      </c>
+      <c r="E7" t="n">
+        <v>25218</v>
+      </c>
+      <c r="F7" t="n">
+        <v>2</v>
+      </c>
+      <c r="G7" t="n">
+        <v>2514</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
         <v>6</v>
       </c>
-      <c r="C7" t="n">
-        <v>961.65</v>
-      </c>
-      <c r="D7" t="n">
-        <v>2</v>
-      </c>
-      <c r="E7" t="n">
-        <v>1257</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>18</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1401</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>5769.9</v>
       </c>
       <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
         <v>3</v>
       </c>
-      <c r="M7" t="n">
-        <v>1824.01</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>5472.03</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -842,49 +842,49 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>45176</v>
+        <v>44811</v>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>19</v>
+      </c>
+      <c r="E8" t="n">
+        <v>26619</v>
+      </c>
+      <c r="F8" t="n">
+        <v>2</v>
+      </c>
+      <c r="G8" t="n">
+        <v>2514</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
         <v>5</v>
       </c>
-      <c r="C8" t="n">
-        <v>989.13</v>
-      </c>
-      <c r="D8" t="n">
-        <v>2</v>
-      </c>
-      <c r="E8" t="n">
-        <v>1257</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>19</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1401</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>4945.65</v>
       </c>
       <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
         <v>3</v>
       </c>
-      <c r="M8" t="n">
-        <v>1824.01</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>5472.03</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -895,49 +895,49 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>45177</v>
+        <v>44812</v>
       </c>
       <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>17</v>
+      </c>
+      <c r="E9" t="n">
+        <v>23100.96</v>
+      </c>
+      <c r="F9" t="n">
+        <v>2</v>
+      </c>
+      <c r="G9" t="n">
+        <v>2514</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
         <v>8</v>
       </c>
-      <c r="C9" t="n">
-        <v>1188.17</v>
-      </c>
-      <c r="D9" t="n">
-        <v>2</v>
-      </c>
-      <c r="E9" t="n">
-        <v>1257</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>17</v>
-      </c>
-      <c r="I9" t="n">
-        <v>1358.88</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>9505.360000000001</v>
       </c>
       <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
         <v>3</v>
       </c>
-      <c r="M9" t="n">
-        <v>1824.01</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>5472.03</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -948,37 +948,37 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>45178</v>
+        <v>44813</v>
       </c>
       <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>25</v>
+      </c>
+      <c r="E10" t="n">
+        <v>30773.25</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1257</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
         <v>8</v>
       </c>
-      <c r="C10" t="n">
-        <v>1187</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" t="n">
-        <v>1257</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>25</v>
-      </c>
-      <c r="I10" t="n">
-        <v>1230.93</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>9496</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1001,37 +1001,37 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>45179</v>
+        <v>44814</v>
       </c>
       <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>36</v>
+      </c>
+      <c r="E11" t="n">
+        <v>38586.24</v>
+      </c>
+      <c r="F11" t="n">
+        <v>2</v>
+      </c>
+      <c r="G11" t="n">
+        <v>2514</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
         <v>9</v>
       </c>
-      <c r="C11" t="n">
-        <v>1187</v>
-      </c>
-      <c r="D11" t="n">
-        <v>2</v>
-      </c>
-      <c r="E11" t="n">
-        <v>1257</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>36</v>
-      </c>
-      <c r="I11" t="n">
-        <v>1071.84</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>10683</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -1054,37 +1054,37 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>45180</v>
+        <v>44815</v>
       </c>
       <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>19</v>
+      </c>
+      <c r="E12" t="n">
+        <v>32827.06</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
         <v>8</v>
       </c>
-      <c r="C12" t="n">
-        <v>1187</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>19</v>
-      </c>
-      <c r="I12" t="n">
-        <v>1727.74</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>9496</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -1107,49 +1107,49 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>45181</v>
+        <v>44816</v>
       </c>
       <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>29</v>
+      </c>
+      <c r="E13" t="n">
+        <v>39764.51</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
         <v>8</v>
       </c>
-      <c r="C13" t="n">
-        <v>946</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>29</v>
-      </c>
-      <c r="I13" t="n">
-        <v>1371.19</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>7568</v>
       </c>
       <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
         <v>10</v>
       </c>
-      <c r="M13" t="n">
-        <v>1734</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>17340</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -1160,49 +1160,49 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>45182</v>
+        <v>44817</v>
       </c>
       <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>22</v>
+      </c>
+      <c r="E14" t="n">
+        <v>28996</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
         <v>11</v>
       </c>
-      <c r="C14" t="n">
-        <v>1398.43</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>22</v>
-      </c>
-      <c r="I14" t="n">
-        <v>1318</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>15382.73</v>
       </c>
       <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
         <v>10</v>
       </c>
-      <c r="M14" t="n">
-        <v>1734</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>17340</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -1213,37 +1213,37 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>45183</v>
+        <v>44818</v>
       </c>
       <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>23</v>
+      </c>
+      <c r="E15" t="n">
+        <v>31924</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+      <c r="I15" t="n">
+        <v>12589.12</v>
+      </c>
+      <c r="J15" t="n">
         <v>10</v>
       </c>
-      <c r="C15" t="n">
-        <v>1365.33</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>23</v>
-      </c>
-      <c r="I15" t="n">
-        <v>1388</v>
-      </c>
-      <c r="J15" t="n">
-        <v>8</v>
-      </c>
       <c r="K15" t="n">
-        <v>1573.64</v>
+        <v>13653.3</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -1266,37 +1266,37 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>45184</v>
+        <v>44819</v>
       </c>
       <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>20</v>
+      </c>
+      <c r="E16" t="n">
+        <v>27730.4</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+      <c r="I16" t="n">
+        <v>12589.12</v>
+      </c>
+      <c r="J16" t="n">
         <v>10</v>
       </c>
-      <c r="C16" t="n">
-        <v>1421.14</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>20</v>
-      </c>
-      <c r="I16" t="n">
-        <v>1386.52</v>
-      </c>
-      <c r="J16" t="n">
-        <v>8</v>
-      </c>
       <c r="K16" t="n">
-        <v>1573.64</v>
+        <v>14211.4</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1319,37 +1319,37 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>45185</v>
+        <v>44820</v>
       </c>
       <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>31</v>
+      </c>
+      <c r="E17" t="n">
+        <v>45618.67</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1257</v>
+      </c>
+      <c r="H17" t="n">
+        <v>11</v>
+      </c>
+      <c r="I17" t="n">
+        <v>11334.73</v>
+      </c>
+      <c r="J17" t="n">
         <v>10</v>
       </c>
-      <c r="C17" t="n">
-        <v>992.83</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1</v>
-      </c>
-      <c r="E17" t="n">
-        <v>1257</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>31</v>
-      </c>
-      <c r="I17" t="n">
-        <v>1471.57</v>
-      </c>
-      <c r="J17" t="n">
-        <v>11</v>
-      </c>
       <c r="K17" t="n">
-        <v>1030.43</v>
+        <v>9928.300000000001</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -1372,37 +1372,37 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>45186</v>
+        <v>44821</v>
       </c>
       <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>35</v>
+      </c>
+      <c r="E18" t="n">
+        <v>43825.95</v>
+      </c>
+      <c r="F18" t="n">
+        <v>2</v>
+      </c>
+      <c r="G18" t="n">
+        <v>2514</v>
+      </c>
+      <c r="H18" t="n">
+        <v>11</v>
+      </c>
+      <c r="I18" t="n">
+        <v>11334.73</v>
+      </c>
+      <c r="J18" t="n">
         <v>13</v>
       </c>
-      <c r="C18" t="n">
-        <v>1216.97</v>
-      </c>
-      <c r="D18" t="n">
-        <v>2</v>
-      </c>
-      <c r="E18" t="n">
-        <v>1257</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>35</v>
-      </c>
-      <c r="I18" t="n">
-        <v>1252.17</v>
-      </c>
-      <c r="J18" t="n">
-        <v>11</v>
-      </c>
       <c r="K18" t="n">
-        <v>1030.43</v>
+        <v>15820.61</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -1425,37 +1425,37 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>45187</v>
+        <v>44822</v>
       </c>
       <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>27</v>
+      </c>
+      <c r="E19" t="n">
+        <v>35662.41</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
         <v>11</v>
       </c>
-      <c r="C19" t="n">
-        <v>1174.82</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>27</v>
-      </c>
       <c r="I19" t="n">
-        <v>1320.83</v>
+        <v>11334.73</v>
       </c>
       <c r="J19" t="n">
         <v>11</v>
       </c>
       <c r="K19" t="n">
-        <v>1030.43</v>
+        <v>12923.02</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -1478,49 +1478,49 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>45188</v>
+        <v>44823</v>
       </c>
       <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>27</v>
+      </c>
+      <c r="E20" t="n">
+        <v>36733.5</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>11</v>
+      </c>
+      <c r="I20" t="n">
+        <v>11334.73</v>
+      </c>
+      <c r="J20" t="n">
         <v>12</v>
       </c>
-      <c r="C20" t="n">
-        <v>963.37</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>27</v>
-      </c>
-      <c r="I20" t="n">
-        <v>1360.5</v>
-      </c>
-      <c r="J20" t="n">
-        <v>11</v>
-      </c>
       <c r="K20" t="n">
-        <v>1030.43</v>
+        <v>11560.44</v>
       </c>
       <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
         <v>10</v>
       </c>
-      <c r="M20" t="n">
-        <v>1734</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>17340</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -1531,49 +1531,49 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>45189</v>
+        <v>44824</v>
       </c>
       <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>27</v>
+      </c>
+      <c r="E21" t="n">
+        <v>32460.75</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
         <v>10</v>
       </c>
-      <c r="C21" t="n">
-        <v>958.71</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>27</v>
-      </c>
-      <c r="I21" t="n">
-        <v>1202.25</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>9587.1</v>
       </c>
       <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
         <v>10</v>
       </c>
-      <c r="M21" t="n">
-        <v>1734</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>17340</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -1584,49 +1584,49 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>45190</v>
+        <v>44825</v>
       </c>
       <c r="B22" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>28</v>
+      </c>
+      <c r="E22" t="n">
+        <v>32087.72</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
         <v>8</v>
       </c>
-      <c r="C22" t="n">
-        <v>966.74</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>28</v>
-      </c>
-      <c r="I22" t="n">
-        <v>1145.99</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>7733.92</v>
       </c>
       <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
         <v>10</v>
       </c>
-      <c r="M22" t="n">
-        <v>1734</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>17340</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -1637,43 +1637,43 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>45191</v>
+        <v>44826</v>
       </c>
       <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>25</v>
+      </c>
+      <c r="E23" t="n">
+        <v>28650</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
         <v>9</v>
       </c>
-      <c r="C23" t="n">
-        <v>957.12</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>25</v>
-      </c>
-      <c r="I23" t="n">
-        <v>1146</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>8614.08</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>50184</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -1682,51 +1682,51 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>1476</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>45192</v>
+        <v>44827</v>
       </c>
       <c r="B24" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>25</v>
+      </c>
+      <c r="E24" t="n">
+        <v>28484.5</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>11</v>
+      </c>
+      <c r="I24" t="n">
+        <v>11334.73</v>
+      </c>
+      <c r="J24" t="n">
         <v>8</v>
       </c>
-      <c r="C24" t="n">
-        <v>1349.07</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" t="n">
-        <v>25</v>
-      </c>
-      <c r="I24" t="n">
-        <v>1139.38</v>
-      </c>
-      <c r="J24" t="n">
-        <v>11</v>
-      </c>
       <c r="K24" t="n">
-        <v>1030.43</v>
+        <v>10792.56</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>50184</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -1735,51 +1735,51 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>1476</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>45193</v>
+        <v>44828</v>
       </c>
       <c r="B25" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>19</v>
+      </c>
+      <c r="E25" t="n">
+        <v>22787.27</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
         <v>11</v>
       </c>
-      <c r="C25" t="n">
-        <v>1415.59</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>19</v>
-      </c>
       <c r="I25" t="n">
-        <v>1199.33</v>
+        <v>11334.73</v>
       </c>
       <c r="J25" t="n">
         <v>11</v>
       </c>
       <c r="K25" t="n">
-        <v>1030.43</v>
+        <v>15571.49</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>50184</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -1788,45 +1788,45 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>1476</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>45194</v>
+        <v>44829</v>
       </c>
       <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>27</v>
+      </c>
+      <c r="E26" t="n">
+        <v>30532.41</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>11</v>
+      </c>
+      <c r="I26" t="n">
+        <v>11334.73</v>
+      </c>
+      <c r="J26" t="n">
         <v>8</v>
       </c>
-      <c r="C26" t="n">
-        <v>1285.87</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>27</v>
-      </c>
-      <c r="I26" t="n">
-        <v>1130.83</v>
-      </c>
-      <c r="J26" t="n">
-        <v>11</v>
-      </c>
       <c r="K26" t="n">
-        <v>1030.43</v>
+        <v>10286.96</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -1849,49 +1849,49 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>45195</v>
+        <v>44830</v>
       </c>
       <c r="B27" t="n">
+        <v>0</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>30</v>
+      </c>
+      <c r="E27" t="n">
+        <v>37274.4</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1</v>
+      </c>
+      <c r="G27" t="n">
+        <v>1216.43</v>
+      </c>
+      <c r="H27" t="n">
+        <v>11</v>
+      </c>
+      <c r="I27" t="n">
+        <v>11334.73</v>
+      </c>
+      <c r="J27" t="n">
         <v>6</v>
       </c>
-      <c r="C27" t="n">
-        <v>1187</v>
-      </c>
-      <c r="D27" t="n">
-        <v>1</v>
-      </c>
-      <c r="E27" t="n">
-        <v>1216.43</v>
-      </c>
-      <c r="F27" t="n">
-        <v>0</v>
-      </c>
-      <c r="G27" t="n">
-        <v>0</v>
-      </c>
-      <c r="H27" t="n">
-        <v>30</v>
-      </c>
-      <c r="I27" t="n">
-        <v>1242.48</v>
-      </c>
-      <c r="J27" t="n">
-        <v>11</v>
-      </c>
       <c r="K27" t="n">
-        <v>1030.43</v>
+        <v>7122</v>
       </c>
       <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
         <v>10</v>
       </c>
-      <c r="M27" t="n">
-        <v>1734</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>17340</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -1902,49 +1902,49 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>45196</v>
+        <v>44831</v>
       </c>
       <c r="B28" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>29</v>
+      </c>
+      <c r="E28" t="n">
+        <v>35612.87</v>
+      </c>
+      <c r="F28" t="n">
+        <v>1</v>
+      </c>
+      <c r="G28" t="n">
+        <v>1243.91</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
         <v>7</v>
       </c>
-      <c r="C28" t="n">
-        <v>1187</v>
-      </c>
-      <c r="D28" t="n">
-        <v>1</v>
-      </c>
-      <c r="E28" t="n">
-        <v>1243.91</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>29</v>
-      </c>
-      <c r="I28" t="n">
-        <v>1228.03</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>8309</v>
       </c>
       <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
         <v>10</v>
       </c>
-      <c r="M28" t="n">
-        <v>1734</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>17340</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
@@ -1955,49 +1955,49 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>45197</v>
+        <v>44832</v>
       </c>
       <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="n">
+        <v>32608.24</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
         <v>7</v>
       </c>
-      <c r="C29" t="n">
-        <v>946.4299999999999</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>28</v>
-      </c>
-      <c r="I29" t="n">
-        <v>1164.58</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>6625.009999999999</v>
       </c>
       <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
         <v>10</v>
       </c>
-      <c r="M29" t="n">
-        <v>1734</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>17340</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -2008,37 +2008,37 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>45198</v>
+        <v>44833</v>
       </c>
       <c r="B30" t="n">
+        <v>0</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>27</v>
+      </c>
+      <c r="E30" t="n">
+        <v>28593.81</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
         <v>7</v>
       </c>
-      <c r="C30" t="n">
-        <v>1187</v>
-      </c>
-      <c r="D30" t="n">
-        <v>0</v>
-      </c>
-      <c r="E30" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" t="n">
-        <v>0</v>
-      </c>
-      <c r="G30" t="n">
-        <v>0</v>
-      </c>
-      <c r="H30" t="n">
-        <v>27</v>
-      </c>
-      <c r="I30" t="n">
-        <v>1059.03</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>8309</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -2061,37 +2061,37 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>45199</v>
+        <v>44834</v>
       </c>
       <c r="B31" t="n">
+        <v>0</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>27</v>
+      </c>
+      <c r="E31" t="n">
+        <v>28593</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>11</v>
+      </c>
+      <c r="I31" t="n">
+        <v>11490.93</v>
+      </c>
+      <c r="J31" t="n">
         <v>3</v>
       </c>
-      <c r="C31" t="n">
-        <v>1187</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" t="n">
-        <v>0</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>27</v>
-      </c>
-      <c r="I31" t="n">
-        <v>1059</v>
-      </c>
-      <c r="J31" t="n">
-        <v>11</v>
-      </c>
       <c r="K31" t="n">
-        <v>1044.63</v>
+        <v>3561</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>

--- a/NameFile.xlsx
+++ b/NameFile.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S31"/>
+  <dimension ref="A1:AE91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,116 +433,176 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>INDIVIDUAL_DIRECT_RN</t>
+          <t>RETAIL_RN</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>INDIVIDUAL_DIRECT_REV</t>
+          <t>RETAIL_REV</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>INDIVIDUAL_PACKAGES_RN</t>
+          <t>PACKAGES_AND_PROMOTIONS_RN</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>INDIVIDUAL_PACKAGES_REV</t>
+          <t>PACKAGES_AND_PROMOTIONS_REV</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>GROUP_CORPRATE_RN</t>
+          <t>OTHER_DISCOUNTS_RN</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>GROUP_CORPRATE_REV</t>
+          <t>OTHER_DISCOUNTS_REV</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>INDIVIDUAL_STO_RN</t>
+          <t>STAFF_M_T_INTERNAL_DISCOUNT_RN</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>INDIVIDUAL_STO_REV</t>
+          <t>STAFF_M_T_INTERNAL_DISCOUNT_REV</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>GROUP_AFFLIATES_RN</t>
+          <t>FIT_WHOLESALE_RN</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>GROUP_AFFLIATES_REV</t>
+          <t>FIT_WHOLESALE_REV</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t>GROUP_LEISURE_RN</t>
+          <t>CORPORATE_FIXED_RN</t>
         </is>
       </c>
       <c r="M1" t="inlineStr">
         <is>
-          <t>GROUP_LEISURE_REV</t>
+          <t>CORPORATE_FIXED_REV</t>
         </is>
       </c>
       <c r="N1" t="inlineStr">
         <is>
-          <t>GROUP_STO_RN</t>
+          <t>CORPORATE_VARIABLE_RN</t>
         </is>
       </c>
       <c r="O1" t="inlineStr">
         <is>
-          <t>GROUP_STO_REV</t>
+          <t>CORPORATE_VARIABLE_REV</t>
         </is>
       </c>
       <c r="P1" t="inlineStr">
+        <is>
+          <t>CORPORATE GROUP_RN</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>CORPORATE GROUP_REV</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>CONVENTION_OFF_SITE_ASSOCIATION_RN</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>CONVENTION_OFF_SITE_ASSOCIATION_REV</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>MICE_GROUP_C_E_RN</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>MICE_GROUP_C_E_REV</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>GROUP_AND_TOUR_SERIES_RN</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>GROUP_AND_TOUR_SERIES_REV</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>LEISURE_GROUPS_AD_HOC_RN</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>LEISURE_GROUPS_AD_HOC_REV</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>CREW_RN</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>CREW_REV</t>
+        </is>
+      </c>
+      <c r="AB1" t="inlineStr">
         <is>
           <t>COMPLIMENTARY_RN</t>
         </is>
       </c>
-      <c r="Q1" t="inlineStr">
+      <c r="AC1" t="inlineStr">
         <is>
           <t>COMPLIMENTARY_REV</t>
         </is>
       </c>
-      <c r="R1" t="inlineStr">
+      <c r="AD1" t="inlineStr">
         <is>
-          <t>HOUSE_USE_RN</t>
+          <t>HOUSE USE_RN</t>
         </is>
       </c>
-      <c r="S1" t="inlineStr">
+      <c r="AE1" t="inlineStr">
         <is>
-          <t>HOUSE_USE_REV</t>
+          <t>HOUSE USE_REV</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>44805</v>
+        <v>44927</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>3132</v>
       </c>
       <c r="D2" t="n">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="E2" t="n">
-        <v>24344.68</v>
+        <v>3192.32</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="G2" t="n">
-        <v>1257</v>
+        <v>1183.2</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -551,51 +611,93 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="K2" t="n">
-        <v>9496</v>
+        <v>1485</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>370</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>738</v>
       </c>
       <c r="P2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>304.7</v>
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>2</v>
+      </c>
+      <c r="U2" t="n">
+        <v>184</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>168</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>60</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>3780</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>44806</v>
+        <v>44928</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>3132</v>
       </c>
       <c r="D3" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E3" t="n">
-        <v>45334.62</v>
+        <v>3192.32</v>
       </c>
       <c r="F3" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="G3" t="n">
-        <v>2514</v>
+        <v>1183.2</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -604,51 +706,93 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="K3" t="n">
-        <v>9554.08</v>
+        <v>1485</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>370</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>738</v>
       </c>
       <c r="P3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>332.17</v>
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>2</v>
+      </c>
+      <c r="U3" t="n">
+        <v>184</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>168</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>61</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>3843</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>44807</v>
+        <v>44929</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>3132</v>
       </c>
       <c r="D4" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E4" t="n">
-        <v>55926.12</v>
+        <v>3192.32</v>
       </c>
       <c r="F4" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="G4" t="n">
-        <v>2514</v>
+        <v>1183.2</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -657,51 +801,93 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="K4" t="n">
-        <v>9496</v>
+        <v>1485</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>444</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>738</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
       </c>
       <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>2</v>
+      </c>
+      <c r="U4" t="n">
+        <v>184</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>168</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>61</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>3843</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>44808</v>
+        <v>44930</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>3132</v>
       </c>
       <c r="D5" t="n">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="E5" t="n">
-        <v>25041</v>
+        <v>3192.32</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>1183.2</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -710,51 +896,93 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="K5" t="n">
-        <v>7571.44</v>
+        <v>1485</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>444</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>738</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
       </c>
       <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>2</v>
+      </c>
+      <c r="U5" t="n">
+        <v>184</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>168</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>61</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>3843</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>44809</v>
+        <v>44931</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>3132</v>
       </c>
       <c r="D6" t="n">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="E6" t="n">
-        <v>26928</v>
+        <v>3192.32</v>
       </c>
       <c r="F6" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="G6" t="n">
-        <v>2514</v>
+        <v>1183.2</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -763,51 +991,93 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
+        <v>15</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1485</v>
+      </c>
+      <c r="L6" t="n">
         <v>5</v>
       </c>
-      <c r="K6" t="n">
-        <v>5971.3</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>370</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>738</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2</v>
+      </c>
+      <c r="U6" t="n">
+        <v>184</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>168</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>61</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>3843</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>44810</v>
+        <v>44932</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>3132</v>
       </c>
       <c r="D7" t="n">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="E7" t="n">
-        <v>25218</v>
+        <v>3192.32</v>
       </c>
       <c r="F7" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="G7" t="n">
-        <v>2514</v>
+        <v>1183.2</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -816,10 +1086,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="K7" t="n">
-        <v>5769.9</v>
+        <v>1485</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -828,39 +1098,81 @@
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O7" t="n">
-        <v>5472.03</v>
+        <v>164</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
       </c>
       <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>2</v>
+      </c>
+      <c r="U7" t="n">
+        <v>184</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>168</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>61</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>3843</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>44811</v>
+        <v>44933</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>3132</v>
       </c>
       <c r="D8" t="n">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="E8" t="n">
-        <v>26619</v>
+        <v>3192.32</v>
       </c>
       <c r="F8" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="G8" t="n">
-        <v>2514</v>
+        <v>1183.2</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -869,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="K8" t="n">
-        <v>4945.65</v>
+        <v>1485</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -881,39 +1193,81 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O8" t="n">
-        <v>5472.03</v>
+        <v>164</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
       </c>
       <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>2</v>
+      </c>
+      <c r="U8" t="n">
+        <v>184</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>168</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>61</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>3843</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>44812</v>
+        <v>44934</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>3132</v>
       </c>
       <c r="D9" t="n">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="E9" t="n">
-        <v>23100.96</v>
+        <v>3192.32</v>
       </c>
       <c r="F9" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="G9" t="n">
-        <v>2514</v>
+        <v>1183.2</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -922,51 +1276,93 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="K9" t="n">
-        <v>9505.360000000001</v>
+        <v>1485</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>370</v>
       </c>
       <c r="N9" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="O9" t="n">
-        <v>5472.03</v>
+        <v>738</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>2</v>
+      </c>
+      <c r="U9" t="n">
+        <v>184</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>168</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>61</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>3843</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>44813</v>
+        <v>44935</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>3132</v>
       </c>
       <c r="D10" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E10" t="n">
-        <v>30773.25</v>
+        <v>3192.32</v>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="G10" t="n">
-        <v>1257</v>
+        <v>1183.2</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -975,51 +1371,93 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="K10" t="n">
-        <v>9496</v>
+        <v>1485</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>370</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>738</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
       </c>
       <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>2</v>
+      </c>
+      <c r="U10" t="n">
+        <v>184</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>168</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>61</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>3843</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE10" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>44814</v>
+        <v>44936</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>3132</v>
       </c>
       <c r="D11" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E11" t="n">
-        <v>38586.24</v>
+        <v>3192.32</v>
       </c>
       <c r="F11" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="G11" t="n">
-        <v>2514</v>
+        <v>1183.2</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1028,51 +1466,93 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
+        <v>15</v>
+      </c>
+      <c r="K11" t="n">
+        <v>1485</v>
+      </c>
+      <c r="L11" t="n">
+        <v>6</v>
+      </c>
+      <c r="M11" t="n">
+        <v>444</v>
+      </c>
+      <c r="N11" t="n">
         <v>9</v>
       </c>
-      <c r="K11" t="n">
-        <v>10683</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>738</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>2</v>
+      </c>
+      <c r="U11" t="n">
+        <v>184</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>168</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>61</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>3843</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>44815</v>
+        <v>44937</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>3132</v>
       </c>
       <c r="D12" t="n">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="E12" t="n">
-        <v>32827.06</v>
+        <v>3192.32</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>1183.2</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1081,51 +1561,93 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="K12" t="n">
-        <v>9496</v>
+        <v>1485</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>444</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>738</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" t="n">
+        <v>2</v>
+      </c>
+      <c r="U12" t="n">
+        <v>184</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0</v>
+      </c>
+      <c r="X12" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>168</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>61</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>3843</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE12" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>44816</v>
+        <v>44938</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>3132</v>
       </c>
       <c r="D13" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E13" t="n">
-        <v>39764.51</v>
+        <v>3192.32</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>1183.2</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1134,51 +1656,93 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="K13" t="n">
-        <v>7568</v>
+        <v>1485</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>370</v>
       </c>
       <c r="N13" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O13" t="n">
-        <v>17340</v>
+        <v>738</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
       </c>
       <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="T13" t="n">
+        <v>2</v>
+      </c>
+      <c r="U13" t="n">
+        <v>184</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0</v>
+      </c>
+      <c r="X13" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>168</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>61</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>3843</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>44817</v>
+        <v>44939</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>3132</v>
       </c>
       <c r="D14" t="n">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="E14" t="n">
-        <v>28996</v>
+        <v>3192.32</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>1183.2</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1187,10 +1751,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="K14" t="n">
-        <v>15382.73</v>
+        <v>1485</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -1199,51 +1763,93 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="O14" t="n">
-        <v>17340</v>
+        <v>164</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
       </c>
       <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>2</v>
+      </c>
+      <c r="U14" t="n">
+        <v>184</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>168</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>61</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>3843</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE14" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>44818</v>
+        <v>44940</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>3132</v>
       </c>
       <c r="D15" t="n">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="E15" t="n">
-        <v>31924</v>
+        <v>3192.32</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>1183.2</v>
       </c>
       <c r="H15" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>12589.12</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K15" t="n">
-        <v>13653.3</v>
+        <v>1485</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -1252,304 +1858,556 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>164</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="T15" t="n">
+        <v>2</v>
+      </c>
+      <c r="U15" t="n">
+        <v>184</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0</v>
+      </c>
+      <c r="X15" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>168</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>61</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>3843</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE15" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>44819</v>
+        <v>44941</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>3132</v>
       </c>
       <c r="D16" t="n">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E16" t="n">
-        <v>27730.4</v>
+        <v>3192.32</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>1183.2</v>
       </c>
       <c r="H16" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>12589.12</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
+        <v>15</v>
+      </c>
+      <c r="K16" t="n">
+        <v>1485</v>
+      </c>
+      <c r="L16" t="n">
+        <v>5</v>
+      </c>
+      <c r="M16" t="n">
+        <v>370</v>
+      </c>
+      <c r="N16" t="n">
         <v>10</v>
       </c>
-      <c r="K16" t="n">
-        <v>14211.4</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>820</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
       </c>
       <c r="Q16" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="T16" t="n">
+        <v>2</v>
+      </c>
+      <c r="U16" t="n">
+        <v>184</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0</v>
+      </c>
+      <c r="X16" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>168</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>61</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>3843</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE16" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>44820</v>
+        <v>44942</v>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>3132</v>
       </c>
       <c r="D17" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E17" t="n">
-        <v>45618.67</v>
+        <v>3192.32</v>
       </c>
       <c r="F17" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="G17" t="n">
-        <v>1257</v>
+        <v>1183.2</v>
       </c>
       <c r="H17" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>11334.73</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
+        <v>15</v>
+      </c>
+      <c r="K17" t="n">
+        <v>1485</v>
+      </c>
+      <c r="L17" t="n">
+        <v>5</v>
+      </c>
+      <c r="M17" t="n">
+        <v>370</v>
+      </c>
+      <c r="N17" t="n">
         <v>10</v>
       </c>
-      <c r="K17" t="n">
-        <v>9928.300000000001</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>820</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>2</v>
+      </c>
+      <c r="U17" t="n">
+        <v>184</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>168</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>61</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>3843</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE17" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>44821</v>
+        <v>44943</v>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>3132</v>
       </c>
       <c r="D18" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E18" t="n">
-        <v>43825.95</v>
+        <v>3192.32</v>
       </c>
       <c r="F18" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="G18" t="n">
-        <v>2514</v>
+        <v>1183.2</v>
       </c>
       <c r="H18" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>11334.73</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K18" t="n">
-        <v>15820.61</v>
+        <v>1485</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>444</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>820</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0</v>
+      </c>
+      <c r="T18" t="n">
+        <v>2</v>
+      </c>
+      <c r="U18" t="n">
+        <v>184</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0</v>
+      </c>
+      <c r="X18" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>168</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>61</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>3843</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE18" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>44822</v>
+        <v>44944</v>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>3132</v>
       </c>
       <c r="D19" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E19" t="n">
-        <v>35662.41</v>
+        <v>3192.32</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>1183.2</v>
       </c>
       <c r="H19" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>11334.73</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="K19" t="n">
-        <v>12923.02</v>
+        <v>1485</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>444</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>820</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
       </c>
       <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>2</v>
+      </c>
+      <c r="U19" t="n">
+        <v>184</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0</v>
+      </c>
+      <c r="X19" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>168</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>61</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>3843</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE19" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>44823</v>
+        <v>44945</v>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>3132</v>
       </c>
       <c r="D20" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E20" t="n">
-        <v>36733.5</v>
+        <v>3192.32</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>1183.2</v>
       </c>
       <c r="H20" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>11334.73</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="K20" t="n">
-        <v>11560.44</v>
+        <v>1485</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>370</v>
       </c>
       <c r="N20" t="n">
         <v>10</v>
       </c>
       <c r="O20" t="n">
-        <v>17340</v>
+        <v>820</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
       </c>
       <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>2</v>
+      </c>
+      <c r="U20" t="n">
+        <v>184</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>168</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>61</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>3843</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE20" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>44824</v>
+        <v>44946</v>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>3132</v>
       </c>
       <c r="D21" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E21" t="n">
-        <v>32460.75</v>
+        <v>3192.32</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>1183.2</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1558,10 +2416,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K21" t="n">
-        <v>9587.1</v>
+        <v>1485</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -1570,39 +2428,81 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="O21" t="n">
-        <v>17340</v>
+        <v>164</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
+        <v>0</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0</v>
+      </c>
+      <c r="T21" t="n">
+        <v>2</v>
+      </c>
+      <c r="U21" t="n">
+        <v>184</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0</v>
+      </c>
+      <c r="X21" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>168</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>61</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>3843</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE21" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>44825</v>
+        <v>44947</v>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>3132</v>
       </c>
       <c r="D22" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E22" t="n">
-        <v>32087.72</v>
+        <v>3192.32</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>1183.2</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1611,10 +2511,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="K22" t="n">
-        <v>7733.92</v>
+        <v>1485</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -1623,39 +2523,81 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="O22" t="n">
-        <v>17340</v>
+        <v>164</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
       </c>
       <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>2</v>
+      </c>
+      <c r="U22" t="n">
+        <v>184</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0</v>
+      </c>
+      <c r="X22" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>168</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>61</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>3843</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE22" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>44826</v>
+        <v>44948</v>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>3132</v>
       </c>
       <c r="D23" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E23" t="n">
-        <v>28650</v>
+        <v>3192.32</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>1183.2</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1664,263 +2606,473 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="K23" t="n">
-        <v>8614.08</v>
+        <v>1485</v>
       </c>
       <c r="L23" t="n">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="M23" t="n">
-        <v>50184</v>
+        <v>370</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>820</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>2</v>
+      </c>
+      <c r="U23" t="n">
+        <v>184</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>168</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>61</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>3843</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE23" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>44827</v>
+        <v>44949</v>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>3132</v>
       </c>
       <c r="D24" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E24" t="n">
-        <v>28484.5</v>
+        <v>3192.32</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>1183.2</v>
       </c>
       <c r="H24" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>11334.73</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="K24" t="n">
-        <v>10792.56</v>
+        <v>1485</v>
       </c>
       <c r="L24" t="n">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="M24" t="n">
-        <v>50184</v>
+        <v>370</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>820</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
+        <v>0</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0</v>
+      </c>
+      <c r="T24" t="n">
+        <v>2</v>
+      </c>
+      <c r="U24" t="n">
+        <v>184</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="n">
+        <v>0</v>
+      </c>
+      <c r="X24" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>168</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>61</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>3843</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE24" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>44828</v>
+        <v>44950</v>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>3132</v>
       </c>
       <c r="D25" t="n">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="E25" t="n">
-        <v>22787.27</v>
+        <v>3192.32</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>1183.2</v>
       </c>
       <c r="H25" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>11334.73</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="K25" t="n">
-        <v>15571.49</v>
+        <v>1485</v>
       </c>
       <c r="L25" t="n">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="M25" t="n">
-        <v>50184</v>
+        <v>444</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>820</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
       </c>
       <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>2</v>
+      </c>
+      <c r="U25" t="n">
+        <v>184</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0</v>
+      </c>
+      <c r="X25" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>168</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>61</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>3843</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE25" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>44829</v>
+        <v>44951</v>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>3132</v>
       </c>
       <c r="D26" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E26" t="n">
-        <v>30532.41</v>
+        <v>3192.32</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>1183.2</v>
       </c>
       <c r="H26" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>11334.73</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="K26" t="n">
-        <v>10286.96</v>
+        <v>1485</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>444</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>820</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
       </c>
       <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>2</v>
+      </c>
+      <c r="U26" t="n">
+        <v>184</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>168</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>61</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>3843</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE26" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>44830</v>
+        <v>44952</v>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>3132</v>
       </c>
       <c r="D27" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E27" t="n">
-        <v>37274.4</v>
+        <v>3192.32</v>
       </c>
       <c r="F27" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="G27" t="n">
-        <v>1216.43</v>
+        <v>1183.2</v>
       </c>
       <c r="H27" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>11334.73</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="K27" t="n">
-        <v>7122</v>
+        <v>1485</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>370</v>
       </c>
       <c r="N27" t="n">
         <v>10</v>
       </c>
       <c r="O27" t="n">
-        <v>17340</v>
+        <v>820</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
+        <v>0</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0</v>
+      </c>
+      <c r="T27" t="n">
+        <v>2</v>
+      </c>
+      <c r="U27" t="n">
+        <v>184</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="n">
+        <v>0</v>
+      </c>
+      <c r="X27" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>168</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>61</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>3843</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE27" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>44831</v>
+        <v>44953</v>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>3132</v>
       </c>
       <c r="D28" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E28" t="n">
-        <v>35612.87</v>
+        <v>3192.32</v>
       </c>
       <c r="F28" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="G28" t="n">
-        <v>1243.91</v>
+        <v>1183.2</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1929,10 +3081,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="K28" t="n">
-        <v>8309</v>
+        <v>1485</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -1941,39 +3093,81 @@
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="O28" t="n">
-        <v>17340</v>
+        <v>164</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
       </c>
       <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>2</v>
+      </c>
+      <c r="U28" t="n">
+        <v>184</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="n">
+        <v>0</v>
+      </c>
+      <c r="X28" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>168</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>61</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>3843</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE28" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>44832</v>
+        <v>44954</v>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>3132</v>
       </c>
       <c r="D29" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E29" t="n">
-        <v>32608.24</v>
+        <v>3192.32</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>1183.2</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1982,10 +3176,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="K29" t="n">
-        <v>6625.009999999999</v>
+        <v>1485</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -1994,39 +3188,81 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="O29" t="n">
-        <v>17340</v>
+        <v>164</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
       <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>2</v>
+      </c>
+      <c r="U29" t="n">
+        <v>184</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0</v>
+      </c>
+      <c r="X29" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>168</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>61</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>3843</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE29" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>44833</v>
+        <v>44955</v>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>3132</v>
       </c>
       <c r="D30" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E30" t="n">
-        <v>28593.81</v>
+        <v>3192.32</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>1183.2</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2035,80 +3271,5864 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="K30" t="n">
-        <v>8309</v>
+        <v>1485</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>370</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>820</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
+        <v>0</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0</v>
+      </c>
+      <c r="T30" t="n">
+        <v>2</v>
+      </c>
+      <c r="U30" t="n">
+        <v>184</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="n">
+        <v>0</v>
+      </c>
+      <c r="X30" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>168</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>61</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>3843</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE30" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>44834</v>
+        <v>44956</v>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>3132</v>
       </c>
       <c r="D31" t="n">
+        <v>32</v>
+      </c>
+      <c r="E31" t="n">
+        <v>3192.32</v>
+      </c>
+      <c r="F31" t="n">
+        <v>15</v>
+      </c>
+      <c r="G31" t="n">
+        <v>1183.2</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>15</v>
+      </c>
+      <c r="K31" t="n">
+        <v>1485</v>
+      </c>
+      <c r="L31" t="n">
+        <v>5</v>
+      </c>
+      <c r="M31" t="n">
+        <v>370</v>
+      </c>
+      <c r="N31" t="n">
+        <v>10</v>
+      </c>
+      <c r="O31" t="n">
+        <v>820</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
+        <v>2</v>
+      </c>
+      <c r="U31" t="n">
+        <v>184</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="n">
+        <v>0</v>
+      </c>
+      <c r="X31" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>168</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>61</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>3843</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>44957</v>
+      </c>
+      <c r="B32" t="n">
         <v>27</v>
       </c>
-      <c r="E31" t="n">
-        <v>28593</v>
-      </c>
-      <c r="F31" t="n">
-        <v>0</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>11</v>
-      </c>
-      <c r="I31" t="n">
-        <v>11490.93</v>
-      </c>
-      <c r="J31" t="n">
-        <v>3</v>
-      </c>
-      <c r="K31" t="n">
-        <v>3561</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" t="n">
-        <v>0</v>
-      </c>
-      <c r="P31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q31" t="n">
+      <c r="C32" t="n">
+        <v>3132</v>
+      </c>
+      <c r="D32" t="n">
+        <v>32</v>
+      </c>
+      <c r="E32" t="n">
+        <v>3192.32</v>
+      </c>
+      <c r="F32" t="n">
+        <v>15</v>
+      </c>
+      <c r="G32" t="n">
+        <v>1183.2</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>15</v>
+      </c>
+      <c r="K32" t="n">
+        <v>1485</v>
+      </c>
+      <c r="L32" t="n">
+        <v>6</v>
+      </c>
+      <c r="M32" t="n">
+        <v>444</v>
+      </c>
+      <c r="N32" t="n">
+        <v>10</v>
+      </c>
+      <c r="O32" t="n">
+        <v>820</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>2</v>
+      </c>
+      <c r="U32" t="n">
+        <v>184</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0</v>
+      </c>
+      <c r="X32" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>168</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>61</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>3843</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>44958</v>
+      </c>
+      <c r="B33" t="n">
+        <v>27</v>
+      </c>
+      <c r="C33" t="n">
+        <v>3537</v>
+      </c>
+      <c r="D33" t="n">
+        <v>33</v>
+      </c>
+      <c r="E33" t="n">
+        <v>4150.08</v>
+      </c>
+      <c r="F33" t="n">
+        <v>19</v>
+      </c>
+      <c r="G33" t="n">
+        <v>1841.86</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>14</v>
+      </c>
+      <c r="K33" t="n">
+        <v>1386</v>
+      </c>
+      <c r="L33" t="n">
+        <v>10</v>
+      </c>
+      <c r="M33" t="n">
+        <v>800</v>
+      </c>
+      <c r="N33" t="n">
+        <v>18</v>
+      </c>
+      <c r="O33" t="n">
+        <v>1602</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0</v>
+      </c>
+      <c r="R33" t="n">
+        <v>0</v>
+      </c>
+      <c r="S33" t="n">
+        <v>0</v>
+      </c>
+      <c r="T33" t="n">
+        <v>4</v>
+      </c>
+      <c r="U33" t="n">
+        <v>416</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="n">
+        <v>0</v>
+      </c>
+      <c r="X33" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>188</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>64</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>4096</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>44959</v>
+      </c>
+      <c r="B34" t="n">
+        <v>27</v>
+      </c>
+      <c r="C34" t="n">
+        <v>3537</v>
+      </c>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="n">
+        <v>4150.08</v>
+      </c>
+      <c r="F34" t="n">
+        <v>19</v>
+      </c>
+      <c r="G34" t="n">
+        <v>1841.86</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>14</v>
+      </c>
+      <c r="K34" t="n">
+        <v>1386</v>
+      </c>
+      <c r="L34" t="n">
+        <v>8</v>
+      </c>
+      <c r="M34" t="n">
+        <v>640</v>
+      </c>
+      <c r="N34" t="n">
+        <v>15</v>
+      </c>
+      <c r="O34" t="n">
+        <v>1335</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>4</v>
+      </c>
+      <c r="U34" t="n">
+        <v>416</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="n">
+        <v>0</v>
+      </c>
+      <c r="X34" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>188</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>64</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>4096</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>44960</v>
+      </c>
+      <c r="B35" t="n">
+        <v>27</v>
+      </c>
+      <c r="C35" t="n">
+        <v>3537</v>
+      </c>
+      <c r="D35" t="n">
+        <v>33</v>
+      </c>
+      <c r="E35" t="n">
+        <v>4150.08</v>
+      </c>
+      <c r="F35" t="n">
+        <v>19</v>
+      </c>
+      <c r="G35" t="n">
+        <v>1841.86</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>14</v>
+      </c>
+      <c r="K35" t="n">
+        <v>1386</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>4</v>
+      </c>
+      <c r="U35" t="n">
+        <v>416</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>188</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>64</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>4096</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>44961</v>
+      </c>
+      <c r="B36" t="n">
+        <v>27</v>
+      </c>
+      <c r="C36" t="n">
+        <v>3537</v>
+      </c>
+      <c r="D36" t="n">
+        <v>33</v>
+      </c>
+      <c r="E36" t="n">
+        <v>4150.08</v>
+      </c>
+      <c r="F36" t="n">
+        <v>19</v>
+      </c>
+      <c r="G36" t="n">
+        <v>1841.86</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>14</v>
+      </c>
+      <c r="K36" t="n">
+        <v>1386</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0</v>
+      </c>
+      <c r="R36" t="n">
+        <v>0</v>
+      </c>
+      <c r="S36" t="n">
+        <v>0</v>
+      </c>
+      <c r="T36" t="n">
+        <v>4</v>
+      </c>
+      <c r="U36" t="n">
+        <v>416</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="n">
+        <v>0</v>
+      </c>
+      <c r="X36" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>188</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>64</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>4096</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>44962</v>
+      </c>
+      <c r="B37" t="n">
+        <v>27</v>
+      </c>
+      <c r="C37" t="n">
+        <v>3537</v>
+      </c>
+      <c r="D37" t="n">
+        <v>33</v>
+      </c>
+      <c r="E37" t="n">
+        <v>4150.08</v>
+      </c>
+      <c r="F37" t="n">
+        <v>19</v>
+      </c>
+      <c r="G37" t="n">
+        <v>1841.86</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>14</v>
+      </c>
+      <c r="K37" t="n">
+        <v>1386</v>
+      </c>
+      <c r="L37" t="n">
+        <v>4</v>
+      </c>
+      <c r="M37" t="n">
+        <v>320</v>
+      </c>
+      <c r="N37" t="n">
+        <v>9</v>
+      </c>
+      <c r="O37" t="n">
+        <v>801</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
+        <v>4</v>
+      </c>
+      <c r="U37" t="n">
+        <v>416</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="n">
+        <v>0</v>
+      </c>
+      <c r="X37" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>188</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>64</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>4096</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>44963</v>
+      </c>
+      <c r="B38" t="n">
+        <v>27</v>
+      </c>
+      <c r="C38" t="n">
+        <v>3537</v>
+      </c>
+      <c r="D38" t="n">
+        <v>33</v>
+      </c>
+      <c r="E38" t="n">
+        <v>4150.08</v>
+      </c>
+      <c r="F38" t="n">
+        <v>19</v>
+      </c>
+      <c r="G38" t="n">
+        <v>1841.86</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>14</v>
+      </c>
+      <c r="K38" t="n">
+        <v>1386</v>
+      </c>
+      <c r="L38" t="n">
+        <v>8</v>
+      </c>
+      <c r="M38" t="n">
+        <v>640</v>
+      </c>
+      <c r="N38" t="n">
+        <v>16</v>
+      </c>
+      <c r="O38" t="n">
+        <v>1424</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0</v>
+      </c>
+      <c r="T38" t="n">
+        <v>4</v>
+      </c>
+      <c r="U38" t="n">
+        <v>416</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0</v>
+      </c>
+      <c r="X38" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>188</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>64</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>4096</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>44964</v>
+      </c>
+      <c r="B39" t="n">
+        <v>27</v>
+      </c>
+      <c r="C39" t="n">
+        <v>3537</v>
+      </c>
+      <c r="D39" t="n">
+        <v>33</v>
+      </c>
+      <c r="E39" t="n">
+        <v>4150.08</v>
+      </c>
+      <c r="F39" t="n">
+        <v>19</v>
+      </c>
+      <c r="G39" t="n">
+        <v>1841.86</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>14</v>
+      </c>
+      <c r="K39" t="n">
+        <v>1386</v>
+      </c>
+      <c r="L39" t="n">
+        <v>10</v>
+      </c>
+      <c r="M39" t="n">
+        <v>800</v>
+      </c>
+      <c r="N39" t="n">
+        <v>18</v>
+      </c>
+      <c r="O39" t="n">
+        <v>1602</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0</v>
+      </c>
+      <c r="R39" t="n">
+        <v>0</v>
+      </c>
+      <c r="S39" t="n">
+        <v>0</v>
+      </c>
+      <c r="T39" t="n">
+        <v>4</v>
+      </c>
+      <c r="U39" t="n">
+        <v>416</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="n">
+        <v>0</v>
+      </c>
+      <c r="X39" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>188</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>64</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>4096</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>44965</v>
+      </c>
+      <c r="B40" t="n">
+        <v>27</v>
+      </c>
+      <c r="C40" t="n">
+        <v>3537</v>
+      </c>
+      <c r="D40" t="n">
+        <v>33</v>
+      </c>
+      <c r="E40" t="n">
+        <v>4150.08</v>
+      </c>
+      <c r="F40" t="n">
+        <v>19</v>
+      </c>
+      <c r="G40" t="n">
+        <v>1841.86</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>14</v>
+      </c>
+      <c r="K40" t="n">
+        <v>1386</v>
+      </c>
+      <c r="L40" t="n">
+        <v>10</v>
+      </c>
+      <c r="M40" t="n">
+        <v>800</v>
+      </c>
+      <c r="N40" t="n">
+        <v>18</v>
+      </c>
+      <c r="O40" t="n">
+        <v>1602</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
+        <v>4</v>
+      </c>
+      <c r="U40" t="n">
+        <v>416</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="n">
+        <v>0</v>
+      </c>
+      <c r="X40" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>188</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>64</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>4096</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>44966</v>
+      </c>
+      <c r="B41" t="n">
+        <v>27</v>
+      </c>
+      <c r="C41" t="n">
+        <v>3537</v>
+      </c>
+      <c r="D41" t="n">
+        <v>33</v>
+      </c>
+      <c r="E41" t="n">
+        <v>4150.08</v>
+      </c>
+      <c r="F41" t="n">
+        <v>19</v>
+      </c>
+      <c r="G41" t="n">
+        <v>1841.86</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>14</v>
+      </c>
+      <c r="K41" t="n">
+        <v>1386</v>
+      </c>
+      <c r="L41" t="n">
+        <v>8</v>
+      </c>
+      <c r="M41" t="n">
+        <v>640</v>
+      </c>
+      <c r="N41" t="n">
+        <v>16</v>
+      </c>
+      <c r="O41" t="n">
+        <v>1424</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
+        <v>4</v>
+      </c>
+      <c r="U41" t="n">
+        <v>416</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="n">
+        <v>0</v>
+      </c>
+      <c r="X41" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>188</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>64</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>4096</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>44967</v>
+      </c>
+      <c r="B42" t="n">
+        <v>27</v>
+      </c>
+      <c r="C42" t="n">
+        <v>3537</v>
+      </c>
+      <c r="D42" t="n">
+        <v>33</v>
+      </c>
+      <c r="E42" t="n">
+        <v>4150.08</v>
+      </c>
+      <c r="F42" t="n">
+        <v>19</v>
+      </c>
+      <c r="G42" t="n">
+        <v>1841.86</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>14</v>
+      </c>
+      <c r="K42" t="n">
+        <v>1386</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>0</v>
+      </c>
+      <c r="R42" t="n">
+        <v>0</v>
+      </c>
+      <c r="S42" t="n">
+        <v>0</v>
+      </c>
+      <c r="T42" t="n">
+        <v>4</v>
+      </c>
+      <c r="U42" t="n">
+        <v>416</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="n">
+        <v>0</v>
+      </c>
+      <c r="X42" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>188</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>64</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>4096</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>44968</v>
+      </c>
+      <c r="B43" t="n">
+        <v>27</v>
+      </c>
+      <c r="C43" t="n">
+        <v>3537</v>
+      </c>
+      <c r="D43" t="n">
+        <v>33</v>
+      </c>
+      <c r="E43" t="n">
+        <v>4150.08</v>
+      </c>
+      <c r="F43" t="n">
+        <v>19</v>
+      </c>
+      <c r="G43" t="n">
+        <v>1841.86</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>14</v>
+      </c>
+      <c r="K43" t="n">
+        <v>1386</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
+        <v>4</v>
+      </c>
+      <c r="U43" t="n">
+        <v>416</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="n">
+        <v>0</v>
+      </c>
+      <c r="X43" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>188</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>64</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>4096</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>44969</v>
+      </c>
+      <c r="B44" t="n">
+        <v>27</v>
+      </c>
+      <c r="C44" t="n">
+        <v>3537</v>
+      </c>
+      <c r="D44" t="n">
+        <v>33</v>
+      </c>
+      <c r="E44" t="n">
+        <v>4150.08</v>
+      </c>
+      <c r="F44" t="n">
+        <v>19</v>
+      </c>
+      <c r="G44" t="n">
+        <v>1841.86</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>14</v>
+      </c>
+      <c r="K44" t="n">
+        <v>1386</v>
+      </c>
+      <c r="L44" t="n">
+        <v>4</v>
+      </c>
+      <c r="M44" t="n">
+        <v>320</v>
+      </c>
+      <c r="N44" t="n">
+        <v>9</v>
+      </c>
+      <c r="O44" t="n">
+        <v>801</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0</v>
+      </c>
+      <c r="T44" t="n">
+        <v>4</v>
+      </c>
+      <c r="U44" t="n">
+        <v>416</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="n">
+        <v>0</v>
+      </c>
+      <c r="X44" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>188</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>64</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>4096</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>44970</v>
+      </c>
+      <c r="B45" t="n">
+        <v>27</v>
+      </c>
+      <c r="C45" t="n">
+        <v>3537</v>
+      </c>
+      <c r="D45" t="n">
+        <v>33</v>
+      </c>
+      <c r="E45" t="n">
+        <v>4150.08</v>
+      </c>
+      <c r="F45" t="n">
+        <v>19</v>
+      </c>
+      <c r="G45" t="n">
+        <v>1841.86</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>14</v>
+      </c>
+      <c r="K45" t="n">
+        <v>1386</v>
+      </c>
+      <c r="L45" t="n">
+        <v>8</v>
+      </c>
+      <c r="M45" t="n">
+        <v>640</v>
+      </c>
+      <c r="N45" t="n">
+        <v>16</v>
+      </c>
+      <c r="O45" t="n">
+        <v>1424</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>0</v>
+      </c>
+      <c r="R45" t="n">
+        <v>0</v>
+      </c>
+      <c r="S45" t="n">
+        <v>0</v>
+      </c>
+      <c r="T45" t="n">
+        <v>4</v>
+      </c>
+      <c r="U45" t="n">
+        <v>416</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="n">
+        <v>0</v>
+      </c>
+      <c r="X45" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>188</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>64</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>4096</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE45" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44971</v>
+      </c>
+      <c r="B46" t="n">
+        <v>27</v>
+      </c>
+      <c r="C46" t="n">
+        <v>3537</v>
+      </c>
+      <c r="D46" t="n">
+        <v>33</v>
+      </c>
+      <c r="E46" t="n">
+        <v>4150.08</v>
+      </c>
+      <c r="F46" t="n">
+        <v>19</v>
+      </c>
+      <c r="G46" t="n">
+        <v>1841.86</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>14</v>
+      </c>
+      <c r="K46" t="n">
+        <v>1386</v>
+      </c>
+      <c r="L46" t="n">
+        <v>10</v>
+      </c>
+      <c r="M46" t="n">
+        <v>800</v>
+      </c>
+      <c r="N46" t="n">
+        <v>18</v>
+      </c>
+      <c r="O46" t="n">
+        <v>1602</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0</v>
+      </c>
+      <c r="T46" t="n">
+        <v>4</v>
+      </c>
+      <c r="U46" t="n">
+        <v>416</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="n">
+        <v>0</v>
+      </c>
+      <c r="X46" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>188</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>64</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>4096</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>44972</v>
+      </c>
+      <c r="B47" t="n">
+        <v>27</v>
+      </c>
+      <c r="C47" t="n">
+        <v>3537</v>
+      </c>
+      <c r="D47" t="n">
+        <v>33</v>
+      </c>
+      <c r="E47" t="n">
+        <v>4150.08</v>
+      </c>
+      <c r="F47" t="n">
+        <v>19</v>
+      </c>
+      <c r="G47" t="n">
+        <v>1841.86</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="n">
+        <v>14</v>
+      </c>
+      <c r="K47" t="n">
+        <v>1386</v>
+      </c>
+      <c r="L47" t="n">
+        <v>10</v>
+      </c>
+      <c r="M47" t="n">
+        <v>800</v>
+      </c>
+      <c r="N47" t="n">
+        <v>18</v>
+      </c>
+      <c r="O47" t="n">
+        <v>1602</v>
+      </c>
+      <c r="P47" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>0</v>
+      </c>
+      <c r="R47" t="n">
+        <v>0</v>
+      </c>
+      <c r="S47" t="n">
+        <v>0</v>
+      </c>
+      <c r="T47" t="n">
+        <v>4</v>
+      </c>
+      <c r="U47" t="n">
+        <v>416</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="n">
+        <v>0</v>
+      </c>
+      <c r="X47" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>188</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>64</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>4096</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>44973</v>
+      </c>
+      <c r="B48" t="n">
+        <v>27</v>
+      </c>
+      <c r="C48" t="n">
+        <v>3537</v>
+      </c>
+      <c r="D48" t="n">
+        <v>33</v>
+      </c>
+      <c r="E48" t="n">
+        <v>4150.08</v>
+      </c>
+      <c r="F48" t="n">
+        <v>19</v>
+      </c>
+      <c r="G48" t="n">
+        <v>1841.86</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" t="n">
+        <v>14</v>
+      </c>
+      <c r="K48" t="n">
+        <v>1386</v>
+      </c>
+      <c r="L48" t="n">
+        <v>8</v>
+      </c>
+      <c r="M48" t="n">
+        <v>640</v>
+      </c>
+      <c r="N48" t="n">
+        <v>16</v>
+      </c>
+      <c r="O48" t="n">
+        <v>1424</v>
+      </c>
+      <c r="P48" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>0</v>
+      </c>
+      <c r="R48" t="n">
+        <v>0</v>
+      </c>
+      <c r="S48" t="n">
+        <v>0</v>
+      </c>
+      <c r="T48" t="n">
+        <v>4</v>
+      </c>
+      <c r="U48" t="n">
+        <v>416</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="n">
+        <v>0</v>
+      </c>
+      <c r="X48" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>188</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>64</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>4096</v>
+      </c>
+      <c r="AB48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>44974</v>
+      </c>
+      <c r="B49" t="n">
+        <v>27</v>
+      </c>
+      <c r="C49" t="n">
+        <v>3537</v>
+      </c>
+      <c r="D49" t="n">
+        <v>33</v>
+      </c>
+      <c r="E49" t="n">
+        <v>4150.08</v>
+      </c>
+      <c r="F49" t="n">
+        <v>19</v>
+      </c>
+      <c r="G49" t="n">
+        <v>1841.86</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>14</v>
+      </c>
+      <c r="K49" t="n">
+        <v>1386</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0</v>
+      </c>
+      <c r="O49" t="n">
+        <v>0</v>
+      </c>
+      <c r="P49" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>0</v>
+      </c>
+      <c r="R49" t="n">
+        <v>0</v>
+      </c>
+      <c r="S49" t="n">
+        <v>0</v>
+      </c>
+      <c r="T49" t="n">
+        <v>4</v>
+      </c>
+      <c r="U49" t="n">
+        <v>416</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="n">
+        <v>0</v>
+      </c>
+      <c r="X49" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>188</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>64</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>4096</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE49" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>44975</v>
+      </c>
+      <c r="B50" t="n">
+        <v>27</v>
+      </c>
+      <c r="C50" t="n">
+        <v>3537</v>
+      </c>
+      <c r="D50" t="n">
+        <v>33</v>
+      </c>
+      <c r="E50" t="n">
+        <v>4150.08</v>
+      </c>
+      <c r="F50" t="n">
+        <v>19</v>
+      </c>
+      <c r="G50" t="n">
+        <v>1841.86</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" t="n">
+        <v>14</v>
+      </c>
+      <c r="K50" t="n">
+        <v>1386</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0</v>
+      </c>
+      <c r="O50" t="n">
+        <v>0</v>
+      </c>
+      <c r="P50" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>0</v>
+      </c>
+      <c r="R50" t="n">
+        <v>0</v>
+      </c>
+      <c r="S50" t="n">
+        <v>0</v>
+      </c>
+      <c r="T50" t="n">
+        <v>4</v>
+      </c>
+      <c r="U50" t="n">
+        <v>416</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="n">
+        <v>0</v>
+      </c>
+      <c r="X50" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>188</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>64</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>4096</v>
+      </c>
+      <c r="AB50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE50" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>44976</v>
+      </c>
+      <c r="B51" t="n">
+        <v>27</v>
+      </c>
+      <c r="C51" t="n">
+        <v>3537</v>
+      </c>
+      <c r="D51" t="n">
+        <v>33</v>
+      </c>
+      <c r="E51" t="n">
+        <v>4150.08</v>
+      </c>
+      <c r="F51" t="n">
+        <v>19</v>
+      </c>
+      <c r="G51" t="n">
+        <v>1841.86</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>14</v>
+      </c>
+      <c r="K51" t="n">
+        <v>1386</v>
+      </c>
+      <c r="L51" t="n">
+        <v>4</v>
+      </c>
+      <c r="M51" t="n">
+        <v>320</v>
+      </c>
+      <c r="N51" t="n">
+        <v>9</v>
+      </c>
+      <c r="O51" t="n">
+        <v>801</v>
+      </c>
+      <c r="P51" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>0</v>
+      </c>
+      <c r="R51" t="n">
+        <v>0</v>
+      </c>
+      <c r="S51" t="n">
+        <v>0</v>
+      </c>
+      <c r="T51" t="n">
+        <v>4</v>
+      </c>
+      <c r="U51" t="n">
+        <v>416</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="n">
+        <v>0</v>
+      </c>
+      <c r="X51" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>188</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>64</v>
+      </c>
+      <c r="AA51" t="n">
+        <v>4096</v>
+      </c>
+      <c r="AB51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE51" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>44977</v>
+      </c>
+      <c r="B52" t="n">
+        <v>27</v>
+      </c>
+      <c r="C52" t="n">
+        <v>3537</v>
+      </c>
+      <c r="D52" t="n">
+        <v>35</v>
+      </c>
+      <c r="E52" t="n">
+        <v>4401.599999999999</v>
+      </c>
+      <c r="F52" t="n">
+        <v>19</v>
+      </c>
+      <c r="G52" t="n">
+        <v>1841.86</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" t="n">
+        <v>18</v>
+      </c>
+      <c r="K52" t="n">
+        <v>1782</v>
+      </c>
+      <c r="L52" t="n">
+        <v>8</v>
+      </c>
+      <c r="M52" t="n">
+        <v>640</v>
+      </c>
+      <c r="N52" t="n">
+        <v>15</v>
+      </c>
+      <c r="O52" t="n">
+        <v>1335</v>
+      </c>
+      <c r="P52" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>0</v>
+      </c>
+      <c r="R52" t="n">
+        <v>0</v>
+      </c>
+      <c r="S52" t="n">
+        <v>0</v>
+      </c>
+      <c r="T52" t="n">
+        <v>4</v>
+      </c>
+      <c r="U52" t="n">
+        <v>416</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="n">
+        <v>0</v>
+      </c>
+      <c r="X52" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>188</v>
+      </c>
+      <c r="Z52" t="n">
+        <v>64</v>
+      </c>
+      <c r="AA52" t="n">
+        <v>4096</v>
+      </c>
+      <c r="AB52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE52" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>44978</v>
+      </c>
+      <c r="B53" t="n">
+        <v>27</v>
+      </c>
+      <c r="C53" t="n">
+        <v>3537</v>
+      </c>
+      <c r="D53" t="n">
+        <v>35</v>
+      </c>
+      <c r="E53" t="n">
+        <v>4401.599999999999</v>
+      </c>
+      <c r="F53" t="n">
+        <v>19</v>
+      </c>
+      <c r="G53" t="n">
+        <v>1841.86</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" t="n">
+        <v>18</v>
+      </c>
+      <c r="K53" t="n">
+        <v>1782</v>
+      </c>
+      <c r="L53" t="n">
+        <v>10</v>
+      </c>
+      <c r="M53" t="n">
+        <v>800</v>
+      </c>
+      <c r="N53" t="n">
+        <v>18</v>
+      </c>
+      <c r="O53" t="n">
+        <v>1602</v>
+      </c>
+      <c r="P53" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>0</v>
+      </c>
+      <c r="R53" t="n">
+        <v>0</v>
+      </c>
+      <c r="S53" t="n">
+        <v>0</v>
+      </c>
+      <c r="T53" t="n">
+        <v>4</v>
+      </c>
+      <c r="U53" t="n">
+        <v>416</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="n">
+        <v>0</v>
+      </c>
+      <c r="X53" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>188</v>
+      </c>
+      <c r="Z53" t="n">
+        <v>64</v>
+      </c>
+      <c r="AA53" t="n">
+        <v>4096</v>
+      </c>
+      <c r="AB53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE53" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>44979</v>
+      </c>
+      <c r="B54" t="n">
+        <v>27</v>
+      </c>
+      <c r="C54" t="n">
+        <v>3537</v>
+      </c>
+      <c r="D54" t="n">
+        <v>35</v>
+      </c>
+      <c r="E54" t="n">
+        <v>4401.599999999999</v>
+      </c>
+      <c r="F54" t="n">
+        <v>19</v>
+      </c>
+      <c r="G54" t="n">
+        <v>1841.86</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0</v>
+      </c>
+      <c r="J54" t="n">
+        <v>18</v>
+      </c>
+      <c r="K54" t="n">
+        <v>1782</v>
+      </c>
+      <c r="L54" t="n">
+        <v>10</v>
+      </c>
+      <c r="M54" t="n">
+        <v>800</v>
+      </c>
+      <c r="N54" t="n">
+        <v>18</v>
+      </c>
+      <c r="O54" t="n">
+        <v>1602</v>
+      </c>
+      <c r="P54" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>0</v>
+      </c>
+      <c r="R54" t="n">
+        <v>0</v>
+      </c>
+      <c r="S54" t="n">
+        <v>0</v>
+      </c>
+      <c r="T54" t="n">
+        <v>4</v>
+      </c>
+      <c r="U54" t="n">
+        <v>416</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="n">
+        <v>0</v>
+      </c>
+      <c r="X54" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>188</v>
+      </c>
+      <c r="Z54" t="n">
+        <v>64</v>
+      </c>
+      <c r="AA54" t="n">
+        <v>4096</v>
+      </c>
+      <c r="AB54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE54" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>44980</v>
+      </c>
+      <c r="B55" t="n">
+        <v>27</v>
+      </c>
+      <c r="C55" t="n">
+        <v>3537</v>
+      </c>
+      <c r="D55" t="n">
+        <v>35</v>
+      </c>
+      <c r="E55" t="n">
+        <v>4401.599999999999</v>
+      </c>
+      <c r="F55" t="n">
+        <v>19</v>
+      </c>
+      <c r="G55" t="n">
+        <v>1841.86</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0</v>
+      </c>
+      <c r="J55" t="n">
+        <v>18</v>
+      </c>
+      <c r="K55" t="n">
+        <v>1782</v>
+      </c>
+      <c r="L55" t="n">
+        <v>8</v>
+      </c>
+      <c r="M55" t="n">
+        <v>640</v>
+      </c>
+      <c r="N55" t="n">
+        <v>15</v>
+      </c>
+      <c r="O55" t="n">
+        <v>1335</v>
+      </c>
+      <c r="P55" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>0</v>
+      </c>
+      <c r="R55" t="n">
+        <v>0</v>
+      </c>
+      <c r="S55" t="n">
+        <v>0</v>
+      </c>
+      <c r="T55" t="n">
+        <v>4</v>
+      </c>
+      <c r="U55" t="n">
+        <v>416</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="n">
+        <v>0</v>
+      </c>
+      <c r="X55" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>188</v>
+      </c>
+      <c r="Z55" t="n">
+        <v>64</v>
+      </c>
+      <c r="AA55" t="n">
+        <v>4096</v>
+      </c>
+      <c r="AB55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE55" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>44981</v>
+      </c>
+      <c r="B56" t="n">
+        <v>27</v>
+      </c>
+      <c r="C56" t="n">
+        <v>3537</v>
+      </c>
+      <c r="D56" t="n">
+        <v>35</v>
+      </c>
+      <c r="E56" t="n">
+        <v>4401.599999999999</v>
+      </c>
+      <c r="F56" t="n">
+        <v>19</v>
+      </c>
+      <c r="G56" t="n">
+        <v>1841.86</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>18</v>
+      </c>
+      <c r="K56" t="n">
+        <v>1782</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0</v>
+      </c>
+      <c r="O56" t="n">
+        <v>0</v>
+      </c>
+      <c r="P56" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>0</v>
+      </c>
+      <c r="R56" t="n">
+        <v>0</v>
+      </c>
+      <c r="S56" t="n">
+        <v>0</v>
+      </c>
+      <c r="T56" t="n">
+        <v>4</v>
+      </c>
+      <c r="U56" t="n">
+        <v>416</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="n">
+        <v>0</v>
+      </c>
+      <c r="X56" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>188</v>
+      </c>
+      <c r="Z56" t="n">
+        <v>64</v>
+      </c>
+      <c r="AA56" t="n">
+        <v>4096</v>
+      </c>
+      <c r="AB56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE56" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>44982</v>
+      </c>
+      <c r="B57" t="n">
+        <v>27</v>
+      </c>
+      <c r="C57" t="n">
+        <v>3537</v>
+      </c>
+      <c r="D57" t="n">
+        <v>35</v>
+      </c>
+      <c r="E57" t="n">
+        <v>4401.599999999999</v>
+      </c>
+      <c r="F57" t="n">
+        <v>19</v>
+      </c>
+      <c r="G57" t="n">
+        <v>1841.86</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0</v>
+      </c>
+      <c r="J57" t="n">
+        <v>18</v>
+      </c>
+      <c r="K57" t="n">
+        <v>1782</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0</v>
+      </c>
+      <c r="O57" t="n">
+        <v>0</v>
+      </c>
+      <c r="P57" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>0</v>
+      </c>
+      <c r="R57" t="n">
+        <v>0</v>
+      </c>
+      <c r="S57" t="n">
+        <v>0</v>
+      </c>
+      <c r="T57" t="n">
+        <v>4</v>
+      </c>
+      <c r="U57" t="n">
+        <v>416</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="n">
+        <v>0</v>
+      </c>
+      <c r="X57" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>188</v>
+      </c>
+      <c r="Z57" t="n">
+        <v>64</v>
+      </c>
+      <c r="AA57" t="n">
+        <v>4096</v>
+      </c>
+      <c r="AB57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE57" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>44983</v>
+      </c>
+      <c r="B58" t="n">
+        <v>27</v>
+      </c>
+      <c r="C58" t="n">
+        <v>3537</v>
+      </c>
+      <c r="D58" t="n">
+        <v>35</v>
+      </c>
+      <c r="E58" t="n">
+        <v>4401.599999999999</v>
+      </c>
+      <c r="F58" t="n">
+        <v>19</v>
+      </c>
+      <c r="G58" t="n">
+        <v>1841.86</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>14</v>
+      </c>
+      <c r="K58" t="n">
+        <v>1386</v>
+      </c>
+      <c r="L58" t="n">
+        <v>4</v>
+      </c>
+      <c r="M58" t="n">
+        <v>320</v>
+      </c>
+      <c r="N58" t="n">
+        <v>9</v>
+      </c>
+      <c r="O58" t="n">
+        <v>801</v>
+      </c>
+      <c r="P58" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>0</v>
+      </c>
+      <c r="R58" t="n">
+        <v>0</v>
+      </c>
+      <c r="S58" t="n">
+        <v>0</v>
+      </c>
+      <c r="T58" t="n">
+        <v>4</v>
+      </c>
+      <c r="U58" t="n">
+        <v>416</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="n">
+        <v>0</v>
+      </c>
+      <c r="X58" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>188</v>
+      </c>
+      <c r="Z58" t="n">
+        <v>64</v>
+      </c>
+      <c r="AA58" t="n">
+        <v>4096</v>
+      </c>
+      <c r="AB58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE58" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>44984</v>
+      </c>
+      <c r="B59" t="n">
+        <v>27</v>
+      </c>
+      <c r="C59" t="n">
+        <v>3537</v>
+      </c>
+      <c r="D59" t="n">
+        <v>33</v>
+      </c>
+      <c r="E59" t="n">
+        <v>4150.08</v>
+      </c>
+      <c r="F59" t="n">
+        <v>17</v>
+      </c>
+      <c r="G59" t="n">
+        <v>1647.98</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0</v>
+      </c>
+      <c r="J59" t="n">
+        <v>14</v>
+      </c>
+      <c r="K59" t="n">
+        <v>1386</v>
+      </c>
+      <c r="L59" t="n">
+        <v>8</v>
+      </c>
+      <c r="M59" t="n">
+        <v>640</v>
+      </c>
+      <c r="N59" t="n">
+        <v>15</v>
+      </c>
+      <c r="O59" t="n">
+        <v>1335</v>
+      </c>
+      <c r="P59" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>0</v>
+      </c>
+      <c r="R59" t="n">
+        <v>0</v>
+      </c>
+      <c r="S59" t="n">
+        <v>0</v>
+      </c>
+      <c r="T59" t="n">
+        <v>4</v>
+      </c>
+      <c r="U59" t="n">
+        <v>416</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="n">
+        <v>0</v>
+      </c>
+      <c r="X59" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y59" t="n">
+        <v>188</v>
+      </c>
+      <c r="Z59" t="n">
+        <v>64</v>
+      </c>
+      <c r="AA59" t="n">
+        <v>4096</v>
+      </c>
+      <c r="AB59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE59" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>44985</v>
+      </c>
+      <c r="B60" t="n">
+        <v>27</v>
+      </c>
+      <c r="C60" t="n">
+        <v>3537</v>
+      </c>
+      <c r="D60" t="n">
+        <v>33</v>
+      </c>
+      <c r="E60" t="n">
+        <v>4150.08</v>
+      </c>
+      <c r="F60" t="n">
+        <v>17</v>
+      </c>
+      <c r="G60" t="n">
+        <v>1647.98</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0</v>
+      </c>
+      <c r="J60" t="n">
+        <v>14</v>
+      </c>
+      <c r="K60" t="n">
+        <v>1386</v>
+      </c>
+      <c r="L60" t="n">
+        <v>10</v>
+      </c>
+      <c r="M60" t="n">
+        <v>800</v>
+      </c>
+      <c r="N60" t="n">
+        <v>18</v>
+      </c>
+      <c r="O60" t="n">
+        <v>1602</v>
+      </c>
+      <c r="P60" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>0</v>
+      </c>
+      <c r="R60" t="n">
+        <v>0</v>
+      </c>
+      <c r="S60" t="n">
+        <v>0</v>
+      </c>
+      <c r="T60" t="n">
+        <v>4</v>
+      </c>
+      <c r="U60" t="n">
+        <v>416</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="n">
+        <v>0</v>
+      </c>
+      <c r="X60" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y60" t="n">
+        <v>188</v>
+      </c>
+      <c r="Z60" t="n">
+        <v>64</v>
+      </c>
+      <c r="AA60" t="n">
+        <v>4096</v>
+      </c>
+      <c r="AB60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE60" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>44986</v>
+      </c>
+      <c r="B61" t="n">
+        <v>32</v>
+      </c>
+      <c r="C61" t="n">
+        <v>4672</v>
+      </c>
+      <c r="D61" t="n">
+        <v>30</v>
+      </c>
+      <c r="E61" t="n">
+        <v>4292.4</v>
+      </c>
+      <c r="F61" t="n">
+        <v>22</v>
+      </c>
+      <c r="G61" t="n">
+        <v>2409</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>14</v>
+      </c>
+      <c r="K61" t="n">
+        <v>1386</v>
+      </c>
+      <c r="L61" t="n">
+        <v>14</v>
+      </c>
+      <c r="M61" t="n">
+        <v>1274</v>
+      </c>
+      <c r="N61" t="n">
+        <v>20</v>
+      </c>
+      <c r="O61" t="n">
+        <v>1980</v>
+      </c>
+      <c r="P61" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>0</v>
+      </c>
+      <c r="R61" t="n">
+        <v>0</v>
+      </c>
+      <c r="S61" t="n">
+        <v>0</v>
+      </c>
+      <c r="T61" t="n">
+        <v>14</v>
+      </c>
+      <c r="U61" t="n">
+        <v>1610</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="n">
+        <v>0</v>
+      </c>
+      <c r="X61" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y61" t="n">
+        <v>472</v>
+      </c>
+      <c r="Z61" t="n">
+        <v>64</v>
+      </c>
+      <c r="AA61" t="n">
+        <v>4224</v>
+      </c>
+      <c r="AB61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE61" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>44987</v>
+      </c>
+      <c r="B62" t="n">
+        <v>32</v>
+      </c>
+      <c r="C62" t="n">
+        <v>4672</v>
+      </c>
+      <c r="D62" t="n">
+        <v>30</v>
+      </c>
+      <c r="E62" t="n">
+        <v>4292.4</v>
+      </c>
+      <c r="F62" t="n">
+        <v>22</v>
+      </c>
+      <c r="G62" t="n">
+        <v>2409</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>14</v>
+      </c>
+      <c r="K62" t="n">
+        <v>1386</v>
+      </c>
+      <c r="L62" t="n">
+        <v>14</v>
+      </c>
+      <c r="M62" t="n">
+        <v>1274</v>
+      </c>
+      <c r="N62" t="n">
+        <v>20</v>
+      </c>
+      <c r="O62" t="n">
+        <v>1980</v>
+      </c>
+      <c r="P62" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>0</v>
+      </c>
+      <c r="R62" t="n">
+        <v>0</v>
+      </c>
+      <c r="S62" t="n">
+        <v>0</v>
+      </c>
+      <c r="T62" t="n">
+        <v>14</v>
+      </c>
+      <c r="U62" t="n">
+        <v>1610</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="n">
+        <v>0</v>
+      </c>
+      <c r="X62" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y62" t="n">
+        <v>472</v>
+      </c>
+      <c r="Z62" t="n">
+        <v>64</v>
+      </c>
+      <c r="AA62" t="n">
+        <v>4224</v>
+      </c>
+      <c r="AB62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE62" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>44988</v>
+      </c>
+      <c r="B63" t="n">
+        <v>32</v>
+      </c>
+      <c r="C63" t="n">
+        <v>4672</v>
+      </c>
+      <c r="D63" t="n">
+        <v>30</v>
+      </c>
+      <c r="E63" t="n">
+        <v>4292.4</v>
+      </c>
+      <c r="F63" t="n">
+        <v>22</v>
+      </c>
+      <c r="G63" t="n">
+        <v>2409</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0</v>
+      </c>
+      <c r="J63" t="n">
+        <v>14</v>
+      </c>
+      <c r="K63" t="n">
+        <v>1386</v>
+      </c>
+      <c r="L63" t="n">
+        <v>0</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0</v>
+      </c>
+      <c r="N63" t="n">
+        <v>2</v>
+      </c>
+      <c r="O63" t="n">
+        <v>198</v>
+      </c>
+      <c r="P63" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>0</v>
+      </c>
+      <c r="R63" t="n">
+        <v>0</v>
+      </c>
+      <c r="S63" t="n">
+        <v>0</v>
+      </c>
+      <c r="T63" t="n">
+        <v>14</v>
+      </c>
+      <c r="U63" t="n">
+        <v>1610</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="n">
+        <v>0</v>
+      </c>
+      <c r="X63" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y63" t="n">
+        <v>472</v>
+      </c>
+      <c r="Z63" t="n">
+        <v>64</v>
+      </c>
+      <c r="AA63" t="n">
+        <v>4224</v>
+      </c>
+      <c r="AB63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE63" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>44989</v>
+      </c>
+      <c r="B64" t="n">
+        <v>32</v>
+      </c>
+      <c r="C64" t="n">
+        <v>4672</v>
+      </c>
+      <c r="D64" t="n">
+        <v>30</v>
+      </c>
+      <c r="E64" t="n">
+        <v>4292.4</v>
+      </c>
+      <c r="F64" t="n">
+        <v>22</v>
+      </c>
+      <c r="G64" t="n">
+        <v>2409</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0</v>
+      </c>
+      <c r="J64" t="n">
+        <v>14</v>
+      </c>
+      <c r="K64" t="n">
+        <v>1386</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0</v>
+      </c>
+      <c r="N64" t="n">
+        <v>2</v>
+      </c>
+      <c r="O64" t="n">
+        <v>198</v>
+      </c>
+      <c r="P64" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>0</v>
+      </c>
+      <c r="R64" t="n">
+        <v>0</v>
+      </c>
+      <c r="S64" t="n">
+        <v>0</v>
+      </c>
+      <c r="T64" t="n">
+        <v>14</v>
+      </c>
+      <c r="U64" t="n">
+        <v>1610</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="n">
+        <v>0</v>
+      </c>
+      <c r="X64" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y64" t="n">
+        <v>472</v>
+      </c>
+      <c r="Z64" t="n">
+        <v>64</v>
+      </c>
+      <c r="AA64" t="n">
+        <v>4224</v>
+      </c>
+      <c r="AB64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE64" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>44990</v>
+      </c>
+      <c r="B65" t="n">
+        <v>32</v>
+      </c>
+      <c r="C65" t="n">
+        <v>4672</v>
+      </c>
+      <c r="D65" t="n">
+        <v>30</v>
+      </c>
+      <c r="E65" t="n">
+        <v>4292.4</v>
+      </c>
+      <c r="F65" t="n">
+        <v>22</v>
+      </c>
+      <c r="G65" t="n">
+        <v>2409</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0</v>
+      </c>
+      <c r="J65" t="n">
+        <v>14</v>
+      </c>
+      <c r="K65" t="n">
+        <v>1386</v>
+      </c>
+      <c r="L65" t="n">
+        <v>9</v>
+      </c>
+      <c r="M65" t="n">
+        <v>819</v>
+      </c>
+      <c r="N65" t="n">
+        <v>14</v>
+      </c>
+      <c r="O65" t="n">
+        <v>1386</v>
+      </c>
+      <c r="P65" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>0</v>
+      </c>
+      <c r="R65" t="n">
+        <v>0</v>
+      </c>
+      <c r="S65" t="n">
+        <v>0</v>
+      </c>
+      <c r="T65" t="n">
+        <v>14</v>
+      </c>
+      <c r="U65" t="n">
+        <v>1610</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="n">
+        <v>0</v>
+      </c>
+      <c r="X65" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y65" t="n">
+        <v>472</v>
+      </c>
+      <c r="Z65" t="n">
+        <v>64</v>
+      </c>
+      <c r="AA65" t="n">
+        <v>4224</v>
+      </c>
+      <c r="AB65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE65" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>44991</v>
+      </c>
+      <c r="B66" t="n">
+        <v>32</v>
+      </c>
+      <c r="C66" t="n">
+        <v>4672</v>
+      </c>
+      <c r="D66" t="n">
+        <v>30</v>
+      </c>
+      <c r="E66" t="n">
+        <v>4292.4</v>
+      </c>
+      <c r="F66" t="n">
+        <v>22</v>
+      </c>
+      <c r="G66" t="n">
+        <v>2409</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0</v>
+      </c>
+      <c r="J66" t="n">
+        <v>14</v>
+      </c>
+      <c r="K66" t="n">
+        <v>1386</v>
+      </c>
+      <c r="L66" t="n">
+        <v>14</v>
+      </c>
+      <c r="M66" t="n">
+        <v>1274</v>
+      </c>
+      <c r="N66" t="n">
+        <v>20</v>
+      </c>
+      <c r="O66" t="n">
+        <v>1980</v>
+      </c>
+      <c r="P66" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>0</v>
+      </c>
+      <c r="R66" t="n">
+        <v>0</v>
+      </c>
+      <c r="S66" t="n">
+        <v>0</v>
+      </c>
+      <c r="T66" t="n">
+        <v>14</v>
+      </c>
+      <c r="U66" t="n">
+        <v>1610</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="n">
+        <v>0</v>
+      </c>
+      <c r="X66" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y66" t="n">
+        <v>472</v>
+      </c>
+      <c r="Z66" t="n">
+        <v>64</v>
+      </c>
+      <c r="AA66" t="n">
+        <v>4224</v>
+      </c>
+      <c r="AB66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE66" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>44992</v>
+      </c>
+      <c r="B67" t="n">
+        <v>32</v>
+      </c>
+      <c r="C67" t="n">
+        <v>4672</v>
+      </c>
+      <c r="D67" t="n">
+        <v>30</v>
+      </c>
+      <c r="E67" t="n">
+        <v>4292.4</v>
+      </c>
+      <c r="F67" t="n">
+        <v>22</v>
+      </c>
+      <c r="G67" t="n">
+        <v>2409</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>14</v>
+      </c>
+      <c r="K67" t="n">
+        <v>1386</v>
+      </c>
+      <c r="L67" t="n">
+        <v>14</v>
+      </c>
+      <c r="M67" t="n">
+        <v>1274</v>
+      </c>
+      <c r="N67" t="n">
+        <v>20</v>
+      </c>
+      <c r="O67" t="n">
+        <v>1980</v>
+      </c>
+      <c r="P67" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>0</v>
+      </c>
+      <c r="R67" t="n">
+        <v>0</v>
+      </c>
+      <c r="S67" t="n">
+        <v>0</v>
+      </c>
+      <c r="T67" t="n">
+        <v>14</v>
+      </c>
+      <c r="U67" t="n">
+        <v>1610</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="n">
+        <v>0</v>
+      </c>
+      <c r="X67" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y67" t="n">
+        <v>472</v>
+      </c>
+      <c r="Z67" t="n">
+        <v>64</v>
+      </c>
+      <c r="AA67" t="n">
+        <v>4224</v>
+      </c>
+      <c r="AB67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE67" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>44993</v>
+      </c>
+      <c r="B68" t="n">
+        <v>32</v>
+      </c>
+      <c r="C68" t="n">
+        <v>4672</v>
+      </c>
+      <c r="D68" t="n">
+        <v>30</v>
+      </c>
+      <c r="E68" t="n">
+        <v>4292.4</v>
+      </c>
+      <c r="F68" t="n">
+        <v>22</v>
+      </c>
+      <c r="G68" t="n">
+        <v>2409</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0</v>
+      </c>
+      <c r="J68" t="n">
+        <v>14</v>
+      </c>
+      <c r="K68" t="n">
+        <v>1386</v>
+      </c>
+      <c r="L68" t="n">
+        <v>14</v>
+      </c>
+      <c r="M68" t="n">
+        <v>1274</v>
+      </c>
+      <c r="N68" t="n">
+        <v>20</v>
+      </c>
+      <c r="O68" t="n">
+        <v>1980</v>
+      </c>
+      <c r="P68" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>0</v>
+      </c>
+      <c r="R68" t="n">
+        <v>0</v>
+      </c>
+      <c r="S68" t="n">
+        <v>0</v>
+      </c>
+      <c r="T68" t="n">
+        <v>14</v>
+      </c>
+      <c r="U68" t="n">
+        <v>1610</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="n">
+        <v>0</v>
+      </c>
+      <c r="X68" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y68" t="n">
+        <v>472</v>
+      </c>
+      <c r="Z68" t="n">
+        <v>64</v>
+      </c>
+      <c r="AA68" t="n">
+        <v>4224</v>
+      </c>
+      <c r="AB68" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC68" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD68" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE68" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>44994</v>
+      </c>
+      <c r="B69" t="n">
+        <v>32</v>
+      </c>
+      <c r="C69" t="n">
+        <v>4672</v>
+      </c>
+      <c r="D69" t="n">
+        <v>30</v>
+      </c>
+      <c r="E69" t="n">
+        <v>4292.4</v>
+      </c>
+      <c r="F69" t="n">
+        <v>22</v>
+      </c>
+      <c r="G69" t="n">
+        <v>2409</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>14</v>
+      </c>
+      <c r="K69" t="n">
+        <v>1386</v>
+      </c>
+      <c r="L69" t="n">
+        <v>14</v>
+      </c>
+      <c r="M69" t="n">
+        <v>1274</v>
+      </c>
+      <c r="N69" t="n">
+        <v>20</v>
+      </c>
+      <c r="O69" t="n">
+        <v>1980</v>
+      </c>
+      <c r="P69" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>0</v>
+      </c>
+      <c r="R69" t="n">
+        <v>0</v>
+      </c>
+      <c r="S69" t="n">
+        <v>0</v>
+      </c>
+      <c r="T69" t="n">
+        <v>14</v>
+      </c>
+      <c r="U69" t="n">
+        <v>1610</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="n">
+        <v>0</v>
+      </c>
+      <c r="X69" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y69" t="n">
+        <v>472</v>
+      </c>
+      <c r="Z69" t="n">
+        <v>64</v>
+      </c>
+      <c r="AA69" t="n">
+        <v>4224</v>
+      </c>
+      <c r="AB69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE69" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>44995</v>
+      </c>
+      <c r="B70" t="n">
+        <v>32</v>
+      </c>
+      <c r="C70" t="n">
+        <v>4672</v>
+      </c>
+      <c r="D70" t="n">
+        <v>30</v>
+      </c>
+      <c r="E70" t="n">
+        <v>4292.4</v>
+      </c>
+      <c r="F70" t="n">
+        <v>22</v>
+      </c>
+      <c r="G70" t="n">
+        <v>2409</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0</v>
+      </c>
+      <c r="J70" t="n">
+        <v>14</v>
+      </c>
+      <c r="K70" t="n">
+        <v>1386</v>
+      </c>
+      <c r="L70" t="n">
+        <v>0</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0</v>
+      </c>
+      <c r="N70" t="n">
+        <v>2</v>
+      </c>
+      <c r="O70" t="n">
+        <v>198</v>
+      </c>
+      <c r="P70" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>0</v>
+      </c>
+      <c r="R70" t="n">
+        <v>0</v>
+      </c>
+      <c r="S70" t="n">
+        <v>0</v>
+      </c>
+      <c r="T70" t="n">
+        <v>14</v>
+      </c>
+      <c r="U70" t="n">
+        <v>1610</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="n">
+        <v>0</v>
+      </c>
+      <c r="X70" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y70" t="n">
+        <v>472</v>
+      </c>
+      <c r="Z70" t="n">
+        <v>64</v>
+      </c>
+      <c r="AA70" t="n">
+        <v>4224</v>
+      </c>
+      <c r="AB70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE70" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>44996</v>
+      </c>
+      <c r="B71" t="n">
+        <v>32</v>
+      </c>
+      <c r="C71" t="n">
+        <v>4672</v>
+      </c>
+      <c r="D71" t="n">
+        <v>30</v>
+      </c>
+      <c r="E71" t="n">
+        <v>4292.4</v>
+      </c>
+      <c r="F71" t="n">
+        <v>22</v>
+      </c>
+      <c r="G71" t="n">
+        <v>2409</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0</v>
+      </c>
+      <c r="J71" t="n">
+        <v>14</v>
+      </c>
+      <c r="K71" t="n">
+        <v>1386</v>
+      </c>
+      <c r="L71" t="n">
+        <v>0</v>
+      </c>
+      <c r="M71" t="n">
+        <v>0</v>
+      </c>
+      <c r="N71" t="n">
+        <v>2</v>
+      </c>
+      <c r="O71" t="n">
+        <v>198</v>
+      </c>
+      <c r="P71" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>0</v>
+      </c>
+      <c r="R71" t="n">
+        <v>0</v>
+      </c>
+      <c r="S71" t="n">
+        <v>0</v>
+      </c>
+      <c r="T71" t="n">
+        <v>14</v>
+      </c>
+      <c r="U71" t="n">
+        <v>1610</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="n">
+        <v>0</v>
+      </c>
+      <c r="X71" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y71" t="n">
+        <v>472</v>
+      </c>
+      <c r="Z71" t="n">
+        <v>64</v>
+      </c>
+      <c r="AA71" t="n">
+        <v>4224</v>
+      </c>
+      <c r="AB71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE71" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>44997</v>
+      </c>
+      <c r="B72" t="n">
+        <v>32</v>
+      </c>
+      <c r="C72" t="n">
+        <v>4672</v>
+      </c>
+      <c r="D72" t="n">
+        <v>30</v>
+      </c>
+      <c r="E72" t="n">
+        <v>4292.4</v>
+      </c>
+      <c r="F72" t="n">
+        <v>22</v>
+      </c>
+      <c r="G72" t="n">
+        <v>2409</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>14</v>
+      </c>
+      <c r="K72" t="n">
+        <v>1386</v>
+      </c>
+      <c r="L72" t="n">
+        <v>9</v>
+      </c>
+      <c r="M72" t="n">
+        <v>819</v>
+      </c>
+      <c r="N72" t="n">
+        <v>14</v>
+      </c>
+      <c r="O72" t="n">
+        <v>1386</v>
+      </c>
+      <c r="P72" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>0</v>
+      </c>
+      <c r="R72" t="n">
+        <v>0</v>
+      </c>
+      <c r="S72" t="n">
+        <v>0</v>
+      </c>
+      <c r="T72" t="n">
+        <v>14</v>
+      </c>
+      <c r="U72" t="n">
+        <v>1610</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="n">
+        <v>0</v>
+      </c>
+      <c r="X72" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y72" t="n">
+        <v>472</v>
+      </c>
+      <c r="Z72" t="n">
+        <v>64</v>
+      </c>
+      <c r="AA72" t="n">
+        <v>4224</v>
+      </c>
+      <c r="AB72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE72" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>44998</v>
+      </c>
+      <c r="B73" t="n">
+        <v>32</v>
+      </c>
+      <c r="C73" t="n">
+        <v>4672</v>
+      </c>
+      <c r="D73" t="n">
+        <v>30</v>
+      </c>
+      <c r="E73" t="n">
+        <v>4292.4</v>
+      </c>
+      <c r="F73" t="n">
+        <v>22</v>
+      </c>
+      <c r="G73" t="n">
+        <v>2409</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0</v>
+      </c>
+      <c r="J73" t="n">
+        <v>14</v>
+      </c>
+      <c r="K73" t="n">
+        <v>1386</v>
+      </c>
+      <c r="L73" t="n">
+        <v>14</v>
+      </c>
+      <c r="M73" t="n">
+        <v>1274</v>
+      </c>
+      <c r="N73" t="n">
+        <v>20</v>
+      </c>
+      <c r="O73" t="n">
+        <v>1980</v>
+      </c>
+      <c r="P73" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>0</v>
+      </c>
+      <c r="R73" t="n">
+        <v>0</v>
+      </c>
+      <c r="S73" t="n">
+        <v>0</v>
+      </c>
+      <c r="T73" t="n">
+        <v>14</v>
+      </c>
+      <c r="U73" t="n">
+        <v>1610</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="n">
+        <v>0</v>
+      </c>
+      <c r="X73" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y73" t="n">
+        <v>472</v>
+      </c>
+      <c r="Z73" t="n">
+        <v>64</v>
+      </c>
+      <c r="AA73" t="n">
+        <v>4224</v>
+      </c>
+      <c r="AB73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE73" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>44999</v>
+      </c>
+      <c r="B74" t="n">
+        <v>32</v>
+      </c>
+      <c r="C74" t="n">
+        <v>4672</v>
+      </c>
+      <c r="D74" t="n">
+        <v>30</v>
+      </c>
+      <c r="E74" t="n">
+        <v>4292.4</v>
+      </c>
+      <c r="F74" t="n">
+        <v>22</v>
+      </c>
+      <c r="G74" t="n">
+        <v>2409</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>0</v>
+      </c>
+      <c r="J74" t="n">
+        <v>14</v>
+      </c>
+      <c r="K74" t="n">
+        <v>1386</v>
+      </c>
+      <c r="L74" t="n">
+        <v>14</v>
+      </c>
+      <c r="M74" t="n">
+        <v>1274</v>
+      </c>
+      <c r="N74" t="n">
+        <v>20</v>
+      </c>
+      <c r="O74" t="n">
+        <v>1980</v>
+      </c>
+      <c r="P74" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>0</v>
+      </c>
+      <c r="R74" t="n">
+        <v>0</v>
+      </c>
+      <c r="S74" t="n">
+        <v>0</v>
+      </c>
+      <c r="T74" t="n">
+        <v>14</v>
+      </c>
+      <c r="U74" t="n">
+        <v>1610</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="n">
+        <v>0</v>
+      </c>
+      <c r="X74" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y74" t="n">
+        <v>472</v>
+      </c>
+      <c r="Z74" t="n">
+        <v>64</v>
+      </c>
+      <c r="AA74" t="n">
+        <v>4224</v>
+      </c>
+      <c r="AB74" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC74" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD74" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE74" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>45000</v>
+      </c>
+      <c r="B75" t="n">
+        <v>32</v>
+      </c>
+      <c r="C75" t="n">
+        <v>4672</v>
+      </c>
+      <c r="D75" t="n">
+        <v>30</v>
+      </c>
+      <c r="E75" t="n">
+        <v>4292.4</v>
+      </c>
+      <c r="F75" t="n">
+        <v>22</v>
+      </c>
+      <c r="G75" t="n">
+        <v>2409</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>14</v>
+      </c>
+      <c r="K75" t="n">
+        <v>1386</v>
+      </c>
+      <c r="L75" t="n">
+        <v>14</v>
+      </c>
+      <c r="M75" t="n">
+        <v>1274</v>
+      </c>
+      <c r="N75" t="n">
+        <v>20</v>
+      </c>
+      <c r="O75" t="n">
+        <v>1980</v>
+      </c>
+      <c r="P75" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>0</v>
+      </c>
+      <c r="R75" t="n">
+        <v>0</v>
+      </c>
+      <c r="S75" t="n">
+        <v>0</v>
+      </c>
+      <c r="T75" t="n">
+        <v>14</v>
+      </c>
+      <c r="U75" t="n">
+        <v>1610</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="n">
+        <v>0</v>
+      </c>
+      <c r="X75" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y75" t="n">
+        <v>472</v>
+      </c>
+      <c r="Z75" t="n">
+        <v>64</v>
+      </c>
+      <c r="AA75" t="n">
+        <v>4224</v>
+      </c>
+      <c r="AB75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE75" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>45001</v>
+      </c>
+      <c r="B76" t="n">
+        <v>32</v>
+      </c>
+      <c r="C76" t="n">
+        <v>4672</v>
+      </c>
+      <c r="D76" t="n">
+        <v>30</v>
+      </c>
+      <c r="E76" t="n">
+        <v>4292.4</v>
+      </c>
+      <c r="F76" t="n">
+        <v>22</v>
+      </c>
+      <c r="G76" t="n">
+        <v>2409</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>0</v>
+      </c>
+      <c r="J76" t="n">
+        <v>14</v>
+      </c>
+      <c r="K76" t="n">
+        <v>1386</v>
+      </c>
+      <c r="L76" t="n">
+        <v>14</v>
+      </c>
+      <c r="M76" t="n">
+        <v>1274</v>
+      </c>
+      <c r="N76" t="n">
+        <v>20</v>
+      </c>
+      <c r="O76" t="n">
+        <v>1980</v>
+      </c>
+      <c r="P76" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>0</v>
+      </c>
+      <c r="R76" t="n">
+        <v>0</v>
+      </c>
+      <c r="S76" t="n">
+        <v>0</v>
+      </c>
+      <c r="T76" t="n">
+        <v>14</v>
+      </c>
+      <c r="U76" t="n">
+        <v>1610</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="n">
+        <v>0</v>
+      </c>
+      <c r="X76" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y76" t="n">
+        <v>472</v>
+      </c>
+      <c r="Z76" t="n">
+        <v>64</v>
+      </c>
+      <c r="AA76" t="n">
+        <v>4224</v>
+      </c>
+      <c r="AB76" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC76" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD76" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE76" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>45002</v>
+      </c>
+      <c r="B77" t="n">
+        <v>32</v>
+      </c>
+      <c r="C77" t="n">
+        <v>4672</v>
+      </c>
+      <c r="D77" t="n">
+        <v>30</v>
+      </c>
+      <c r="E77" t="n">
+        <v>4292.4</v>
+      </c>
+      <c r="F77" t="n">
+        <v>22</v>
+      </c>
+      <c r="G77" t="n">
+        <v>2409</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>14</v>
+      </c>
+      <c r="K77" t="n">
+        <v>1386</v>
+      </c>
+      <c r="L77" t="n">
+        <v>0</v>
+      </c>
+      <c r="M77" t="n">
+        <v>0</v>
+      </c>
+      <c r="N77" t="n">
+        <v>2</v>
+      </c>
+      <c r="O77" t="n">
+        <v>198</v>
+      </c>
+      <c r="P77" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>0</v>
+      </c>
+      <c r="R77" t="n">
+        <v>0</v>
+      </c>
+      <c r="S77" t="n">
+        <v>0</v>
+      </c>
+      <c r="T77" t="n">
+        <v>14</v>
+      </c>
+      <c r="U77" t="n">
+        <v>1610</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="n">
+        <v>0</v>
+      </c>
+      <c r="X77" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y77" t="n">
+        <v>472</v>
+      </c>
+      <c r="Z77" t="n">
+        <v>64</v>
+      </c>
+      <c r="AA77" t="n">
+        <v>4224</v>
+      </c>
+      <c r="AB77" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC77" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD77" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE77" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>45003</v>
+      </c>
+      <c r="B78" t="n">
+        <v>32</v>
+      </c>
+      <c r="C78" t="n">
+        <v>4672</v>
+      </c>
+      <c r="D78" t="n">
+        <v>30</v>
+      </c>
+      <c r="E78" t="n">
+        <v>4292.4</v>
+      </c>
+      <c r="F78" t="n">
+        <v>22</v>
+      </c>
+      <c r="G78" t="n">
+        <v>2409</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>0</v>
+      </c>
+      <c r="J78" t="n">
+        <v>14</v>
+      </c>
+      <c r="K78" t="n">
+        <v>1386</v>
+      </c>
+      <c r="L78" t="n">
+        <v>0</v>
+      </c>
+      <c r="M78" t="n">
+        <v>0</v>
+      </c>
+      <c r="N78" t="n">
+        <v>2</v>
+      </c>
+      <c r="O78" t="n">
+        <v>198</v>
+      </c>
+      <c r="P78" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>0</v>
+      </c>
+      <c r="R78" t="n">
+        <v>0</v>
+      </c>
+      <c r="S78" t="n">
+        <v>0</v>
+      </c>
+      <c r="T78" t="n">
+        <v>14</v>
+      </c>
+      <c r="U78" t="n">
+        <v>1610</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="n">
+        <v>0</v>
+      </c>
+      <c r="X78" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y78" t="n">
+        <v>472</v>
+      </c>
+      <c r="Z78" t="n">
+        <v>64</v>
+      </c>
+      <c r="AA78" t="n">
+        <v>4224</v>
+      </c>
+      <c r="AB78" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC78" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD78" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE78" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>45004</v>
+      </c>
+      <c r="B79" t="n">
+        <v>32</v>
+      </c>
+      <c r="C79" t="n">
+        <v>4672</v>
+      </c>
+      <c r="D79" t="n">
+        <v>30</v>
+      </c>
+      <c r="E79" t="n">
+        <v>4292.4</v>
+      </c>
+      <c r="F79" t="n">
+        <v>22</v>
+      </c>
+      <c r="G79" t="n">
+        <v>2409</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>14</v>
+      </c>
+      <c r="K79" t="n">
+        <v>1386</v>
+      </c>
+      <c r="L79" t="n">
+        <v>9</v>
+      </c>
+      <c r="M79" t="n">
+        <v>819</v>
+      </c>
+      <c r="N79" t="n">
+        <v>14</v>
+      </c>
+      <c r="O79" t="n">
+        <v>1386</v>
+      </c>
+      <c r="P79" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>0</v>
+      </c>
+      <c r="R79" t="n">
+        <v>0</v>
+      </c>
+      <c r="S79" t="n">
+        <v>0</v>
+      </c>
+      <c r="T79" t="n">
+        <v>14</v>
+      </c>
+      <c r="U79" t="n">
+        <v>1610</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="n">
+        <v>0</v>
+      </c>
+      <c r="X79" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y79" t="n">
+        <v>472</v>
+      </c>
+      <c r="Z79" t="n">
+        <v>64</v>
+      </c>
+      <c r="AA79" t="n">
+        <v>4224</v>
+      </c>
+      <c r="AB79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE79" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>45005</v>
+      </c>
+      <c r="B80" t="n">
+        <v>32</v>
+      </c>
+      <c r="C80" t="n">
+        <v>4672</v>
+      </c>
+      <c r="D80" t="n">
+        <v>30</v>
+      </c>
+      <c r="E80" t="n">
+        <v>4292.4</v>
+      </c>
+      <c r="F80" t="n">
+        <v>22</v>
+      </c>
+      <c r="G80" t="n">
+        <v>2409</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>0</v>
+      </c>
+      <c r="J80" t="n">
+        <v>14</v>
+      </c>
+      <c r="K80" t="n">
+        <v>1386</v>
+      </c>
+      <c r="L80" t="n">
+        <v>14</v>
+      </c>
+      <c r="M80" t="n">
+        <v>1274</v>
+      </c>
+      <c r="N80" t="n">
+        <v>20</v>
+      </c>
+      <c r="O80" t="n">
+        <v>1980</v>
+      </c>
+      <c r="P80" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>0</v>
+      </c>
+      <c r="R80" t="n">
+        <v>0</v>
+      </c>
+      <c r="S80" t="n">
+        <v>0</v>
+      </c>
+      <c r="T80" t="n">
+        <v>14</v>
+      </c>
+      <c r="U80" t="n">
+        <v>1610</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="n">
+        <v>0</v>
+      </c>
+      <c r="X80" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y80" t="n">
+        <v>472</v>
+      </c>
+      <c r="Z80" t="n">
+        <v>64</v>
+      </c>
+      <c r="AA80" t="n">
+        <v>4224</v>
+      </c>
+      <c r="AB80" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC80" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD80" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE80" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>45006</v>
+      </c>
+      <c r="B81" t="n">
+        <v>32</v>
+      </c>
+      <c r="C81" t="n">
+        <v>4672</v>
+      </c>
+      <c r="D81" t="n">
+        <v>30</v>
+      </c>
+      <c r="E81" t="n">
+        <v>4292.4</v>
+      </c>
+      <c r="F81" t="n">
+        <v>22</v>
+      </c>
+      <c r="G81" t="n">
+        <v>2409</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>0</v>
+      </c>
+      <c r="J81" t="n">
+        <v>14</v>
+      </c>
+      <c r="K81" t="n">
+        <v>1386</v>
+      </c>
+      <c r="L81" t="n">
+        <v>14</v>
+      </c>
+      <c r="M81" t="n">
+        <v>1274</v>
+      </c>
+      <c r="N81" t="n">
+        <v>20</v>
+      </c>
+      <c r="O81" t="n">
+        <v>1980</v>
+      </c>
+      <c r="P81" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>0</v>
+      </c>
+      <c r="R81" t="n">
+        <v>0</v>
+      </c>
+      <c r="S81" t="n">
+        <v>0</v>
+      </c>
+      <c r="T81" t="n">
+        <v>14</v>
+      </c>
+      <c r="U81" t="n">
+        <v>1610</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="n">
+        <v>0</v>
+      </c>
+      <c r="X81" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y81" t="n">
+        <v>472</v>
+      </c>
+      <c r="Z81" t="n">
+        <v>64</v>
+      </c>
+      <c r="AA81" t="n">
+        <v>4224</v>
+      </c>
+      <c r="AB81" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC81" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD81" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE81" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>45007</v>
+      </c>
+      <c r="B82" t="n">
+        <v>32</v>
+      </c>
+      <c r="C82" t="n">
+        <v>4672</v>
+      </c>
+      <c r="D82" t="n">
+        <v>30</v>
+      </c>
+      <c r="E82" t="n">
+        <v>4292.4</v>
+      </c>
+      <c r="F82" t="n">
+        <v>22</v>
+      </c>
+      <c r="G82" t="n">
+        <v>2409</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0</v>
+      </c>
+      <c r="J82" t="n">
+        <v>14</v>
+      </c>
+      <c r="K82" t="n">
+        <v>1386</v>
+      </c>
+      <c r="L82" t="n">
+        <v>14</v>
+      </c>
+      <c r="M82" t="n">
+        <v>1274</v>
+      </c>
+      <c r="N82" t="n">
+        <v>20</v>
+      </c>
+      <c r="O82" t="n">
+        <v>1980</v>
+      </c>
+      <c r="P82" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>0</v>
+      </c>
+      <c r="R82" t="n">
+        <v>0</v>
+      </c>
+      <c r="S82" t="n">
+        <v>0</v>
+      </c>
+      <c r="T82" t="n">
+        <v>14</v>
+      </c>
+      <c r="U82" t="n">
+        <v>1610</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="n">
+        <v>0</v>
+      </c>
+      <c r="X82" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y82" t="n">
+        <v>472</v>
+      </c>
+      <c r="Z82" t="n">
+        <v>64</v>
+      </c>
+      <c r="AA82" t="n">
+        <v>4224</v>
+      </c>
+      <c r="AB82" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC82" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD82" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE82" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>45008</v>
+      </c>
+      <c r="B83" t="n">
+        <v>32</v>
+      </c>
+      <c r="C83" t="n">
+        <v>4672</v>
+      </c>
+      <c r="D83" t="n">
+        <v>30</v>
+      </c>
+      <c r="E83" t="n">
+        <v>4292.4</v>
+      </c>
+      <c r="F83" t="n">
+        <v>22</v>
+      </c>
+      <c r="G83" t="n">
+        <v>2409</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>14</v>
+      </c>
+      <c r="K83" t="n">
+        <v>1386</v>
+      </c>
+      <c r="L83" t="n">
+        <v>14</v>
+      </c>
+      <c r="M83" t="n">
+        <v>1274</v>
+      </c>
+      <c r="N83" t="n">
+        <v>20</v>
+      </c>
+      <c r="O83" t="n">
+        <v>1980</v>
+      </c>
+      <c r="P83" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>0</v>
+      </c>
+      <c r="R83" t="n">
+        <v>0</v>
+      </c>
+      <c r="S83" t="n">
+        <v>0</v>
+      </c>
+      <c r="T83" t="n">
+        <v>14</v>
+      </c>
+      <c r="U83" t="n">
+        <v>1610</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="n">
+        <v>0</v>
+      </c>
+      <c r="X83" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y83" t="n">
+        <v>472</v>
+      </c>
+      <c r="Z83" t="n">
+        <v>64</v>
+      </c>
+      <c r="AA83" t="n">
+        <v>4224</v>
+      </c>
+      <c r="AB83" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC83" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD83" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE83" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>45009</v>
+      </c>
+      <c r="B84" t="n">
+        <v>32</v>
+      </c>
+      <c r="C84" t="n">
+        <v>4672</v>
+      </c>
+      <c r="D84" t="n">
+        <v>30</v>
+      </c>
+      <c r="E84" t="n">
+        <v>4292.4</v>
+      </c>
+      <c r="F84" t="n">
+        <v>22</v>
+      </c>
+      <c r="G84" t="n">
+        <v>2409</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>14</v>
+      </c>
+      <c r="K84" t="n">
+        <v>1386</v>
+      </c>
+      <c r="L84" t="n">
+        <v>0</v>
+      </c>
+      <c r="M84" t="n">
+        <v>0</v>
+      </c>
+      <c r="N84" t="n">
+        <v>2</v>
+      </c>
+      <c r="O84" t="n">
+        <v>198</v>
+      </c>
+      <c r="P84" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>0</v>
+      </c>
+      <c r="R84" t="n">
+        <v>0</v>
+      </c>
+      <c r="S84" t="n">
+        <v>0</v>
+      </c>
+      <c r="T84" t="n">
+        <v>14</v>
+      </c>
+      <c r="U84" t="n">
+        <v>1610</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="n">
+        <v>0</v>
+      </c>
+      <c r="X84" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y84" t="n">
+        <v>472</v>
+      </c>
+      <c r="Z84" t="n">
+        <v>64</v>
+      </c>
+      <c r="AA84" t="n">
+        <v>4224</v>
+      </c>
+      <c r="AB84" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC84" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD84" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE84" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>45010</v>
+      </c>
+      <c r="B85" t="n">
+        <v>32</v>
+      </c>
+      <c r="C85" t="n">
+        <v>4672</v>
+      </c>
+      <c r="D85" t="n">
+        <v>30</v>
+      </c>
+      <c r="E85" t="n">
+        <v>4292.4</v>
+      </c>
+      <c r="F85" t="n">
+        <v>22</v>
+      </c>
+      <c r="G85" t="n">
+        <v>2409</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
+        <v>0</v>
+      </c>
+      <c r="J85" t="n">
+        <v>14</v>
+      </c>
+      <c r="K85" t="n">
+        <v>1386</v>
+      </c>
+      <c r="L85" t="n">
+        <v>0</v>
+      </c>
+      <c r="M85" t="n">
+        <v>0</v>
+      </c>
+      <c r="N85" t="n">
+        <v>2</v>
+      </c>
+      <c r="O85" t="n">
+        <v>198</v>
+      </c>
+      <c r="P85" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>0</v>
+      </c>
+      <c r="R85" t="n">
+        <v>0</v>
+      </c>
+      <c r="S85" t="n">
+        <v>0</v>
+      </c>
+      <c r="T85" t="n">
+        <v>14</v>
+      </c>
+      <c r="U85" t="n">
+        <v>1610</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="n">
+        <v>0</v>
+      </c>
+      <c r="X85" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y85" t="n">
+        <v>472</v>
+      </c>
+      <c r="Z85" t="n">
+        <v>64</v>
+      </c>
+      <c r="AA85" t="n">
+        <v>4224</v>
+      </c>
+      <c r="AB85" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC85" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD85" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE85" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>45011</v>
+      </c>
+      <c r="B86" t="n">
+        <v>32</v>
+      </c>
+      <c r="C86" t="n">
+        <v>4672</v>
+      </c>
+      <c r="D86" t="n">
+        <v>30</v>
+      </c>
+      <c r="E86" t="n">
+        <v>4292.4</v>
+      </c>
+      <c r="F86" t="n">
+        <v>22</v>
+      </c>
+      <c r="G86" t="n">
+        <v>2409</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>14</v>
+      </c>
+      <c r="K86" t="n">
+        <v>1386</v>
+      </c>
+      <c r="L86" t="n">
+        <v>9</v>
+      </c>
+      <c r="M86" t="n">
+        <v>819</v>
+      </c>
+      <c r="N86" t="n">
+        <v>14</v>
+      </c>
+      <c r="O86" t="n">
+        <v>1386</v>
+      </c>
+      <c r="P86" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>0</v>
+      </c>
+      <c r="R86" t="n">
+        <v>0</v>
+      </c>
+      <c r="S86" t="n">
+        <v>0</v>
+      </c>
+      <c r="T86" t="n">
+        <v>14</v>
+      </c>
+      <c r="U86" t="n">
+        <v>1610</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="n">
+        <v>0</v>
+      </c>
+      <c r="X86" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y86" t="n">
+        <v>472</v>
+      </c>
+      <c r="Z86" t="n">
+        <v>64</v>
+      </c>
+      <c r="AA86" t="n">
+        <v>4224</v>
+      </c>
+      <c r="AB86" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC86" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD86" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE86" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>45012</v>
+      </c>
+      <c r="B87" t="n">
+        <v>32</v>
+      </c>
+      <c r="C87" t="n">
+        <v>4672</v>
+      </c>
+      <c r="D87" t="n">
+        <v>30</v>
+      </c>
+      <c r="E87" t="n">
+        <v>4292.4</v>
+      </c>
+      <c r="F87" t="n">
+        <v>22</v>
+      </c>
+      <c r="G87" t="n">
+        <v>2409</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>14</v>
+      </c>
+      <c r="K87" t="n">
+        <v>1386</v>
+      </c>
+      <c r="L87" t="n">
+        <v>14</v>
+      </c>
+      <c r="M87" t="n">
+        <v>1274</v>
+      </c>
+      <c r="N87" t="n">
+        <v>20</v>
+      </c>
+      <c r="O87" t="n">
+        <v>1980</v>
+      </c>
+      <c r="P87" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>0</v>
+      </c>
+      <c r="R87" t="n">
+        <v>0</v>
+      </c>
+      <c r="S87" t="n">
+        <v>0</v>
+      </c>
+      <c r="T87" t="n">
+        <v>14</v>
+      </c>
+      <c r="U87" t="n">
+        <v>1610</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="n">
+        <v>0</v>
+      </c>
+      <c r="X87" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y87" t="n">
+        <v>472</v>
+      </c>
+      <c r="Z87" t="n">
+        <v>64</v>
+      </c>
+      <c r="AA87" t="n">
+        <v>4224</v>
+      </c>
+      <c r="AB87" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC87" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD87" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE87" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>45013</v>
+      </c>
+      <c r="B88" t="n">
+        <v>32</v>
+      </c>
+      <c r="C88" t="n">
+        <v>4672</v>
+      </c>
+      <c r="D88" t="n">
+        <v>30</v>
+      </c>
+      <c r="E88" t="n">
+        <v>4292.4</v>
+      </c>
+      <c r="F88" t="n">
+        <v>22</v>
+      </c>
+      <c r="G88" t="n">
+        <v>2409</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
+        <v>0</v>
+      </c>
+      <c r="J88" t="n">
+        <v>14</v>
+      </c>
+      <c r="K88" t="n">
+        <v>1386</v>
+      </c>
+      <c r="L88" t="n">
+        <v>14</v>
+      </c>
+      <c r="M88" t="n">
+        <v>1274</v>
+      </c>
+      <c r="N88" t="n">
+        <v>20</v>
+      </c>
+      <c r="O88" t="n">
+        <v>1980</v>
+      </c>
+      <c r="P88" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>0</v>
+      </c>
+      <c r="R88" t="n">
+        <v>0</v>
+      </c>
+      <c r="S88" t="n">
+        <v>0</v>
+      </c>
+      <c r="T88" t="n">
+        <v>14</v>
+      </c>
+      <c r="U88" t="n">
+        <v>1610</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="n">
+        <v>0</v>
+      </c>
+      <c r="X88" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y88" t="n">
+        <v>472</v>
+      </c>
+      <c r="Z88" t="n">
+        <v>64</v>
+      </c>
+      <c r="AA88" t="n">
+        <v>4224</v>
+      </c>
+      <c r="AB88" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC88" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD88" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE88" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>45014</v>
+      </c>
+      <c r="B89" t="n">
+        <v>32</v>
+      </c>
+      <c r="C89" t="n">
+        <v>4672</v>
+      </c>
+      <c r="D89" t="n">
+        <v>30</v>
+      </c>
+      <c r="E89" t="n">
+        <v>4292.4</v>
+      </c>
+      <c r="F89" t="n">
+        <v>22</v>
+      </c>
+      <c r="G89" t="n">
+        <v>2409</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
+        <v>0</v>
+      </c>
+      <c r="J89" t="n">
+        <v>14</v>
+      </c>
+      <c r="K89" t="n">
+        <v>1386</v>
+      </c>
+      <c r="L89" t="n">
+        <v>14</v>
+      </c>
+      <c r="M89" t="n">
+        <v>1274</v>
+      </c>
+      <c r="N89" t="n">
+        <v>20</v>
+      </c>
+      <c r="O89" t="n">
+        <v>1980</v>
+      </c>
+      <c r="P89" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>0</v>
+      </c>
+      <c r="R89" t="n">
+        <v>0</v>
+      </c>
+      <c r="S89" t="n">
+        <v>0</v>
+      </c>
+      <c r="T89" t="n">
+        <v>14</v>
+      </c>
+      <c r="U89" t="n">
+        <v>1610</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="n">
+        <v>0</v>
+      </c>
+      <c r="X89" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y89" t="n">
+        <v>472</v>
+      </c>
+      <c r="Z89" t="n">
+        <v>64</v>
+      </c>
+      <c r="AA89" t="n">
+        <v>4224</v>
+      </c>
+      <c r="AB89" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC89" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD89" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE89" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>45015</v>
+      </c>
+      <c r="B90" t="n">
+        <v>32</v>
+      </c>
+      <c r="C90" t="n">
+        <v>4672</v>
+      </c>
+      <c r="D90" t="n">
+        <v>30</v>
+      </c>
+      <c r="E90" t="n">
+        <v>4292.4</v>
+      </c>
+      <c r="F90" t="n">
+        <v>22</v>
+      </c>
+      <c r="G90" t="n">
+        <v>2409</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>14</v>
+      </c>
+      <c r="K90" t="n">
+        <v>1386</v>
+      </c>
+      <c r="L90" t="n">
+        <v>14</v>
+      </c>
+      <c r="M90" t="n">
+        <v>1274</v>
+      </c>
+      <c r="N90" t="n">
+        <v>20</v>
+      </c>
+      <c r="O90" t="n">
+        <v>1980</v>
+      </c>
+      <c r="P90" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>0</v>
+      </c>
+      <c r="R90" t="n">
+        <v>0</v>
+      </c>
+      <c r="S90" t="n">
+        <v>0</v>
+      </c>
+      <c r="T90" t="n">
+        <v>14</v>
+      </c>
+      <c r="U90" t="n">
+        <v>1610</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="n">
+        <v>0</v>
+      </c>
+      <c r="X90" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y90" t="n">
+        <v>472</v>
+      </c>
+      <c r="Z90" t="n">
+        <v>64</v>
+      </c>
+      <c r="AA90" t="n">
+        <v>4224</v>
+      </c>
+      <c r="AB90" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC90" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD90" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE90" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>45016</v>
+      </c>
+      <c r="B91" t="n">
+        <v>32</v>
+      </c>
+      <c r="C91" t="n">
+        <v>4672</v>
+      </c>
+      <c r="D91" t="n">
+        <v>30</v>
+      </c>
+      <c r="E91" t="n">
+        <v>4292.4</v>
+      </c>
+      <c r="F91" t="n">
+        <v>22</v>
+      </c>
+      <c r="G91" t="n">
+        <v>2409</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>14</v>
+      </c>
+      <c r="K91" t="n">
+        <v>1386</v>
+      </c>
+      <c r="L91" t="n">
+        <v>0</v>
+      </c>
+      <c r="M91" t="n">
+        <v>0</v>
+      </c>
+      <c r="N91" t="n">
+        <v>2</v>
+      </c>
+      <c r="O91" t="n">
+        <v>198</v>
+      </c>
+      <c r="P91" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>0</v>
+      </c>
+      <c r="R91" t="n">
+        <v>0</v>
+      </c>
+      <c r="S91" t="n">
+        <v>0</v>
+      </c>
+      <c r="T91" t="n">
+        <v>14</v>
+      </c>
+      <c r="U91" t="n">
+        <v>1610</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="n">
+        <v>0</v>
+      </c>
+      <c r="X91" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y91" t="n">
+        <v>472</v>
+      </c>
+      <c r="Z91" t="n">
+        <v>64</v>
+      </c>
+      <c r="AA91" t="n">
+        <v>4224</v>
+      </c>
+      <c r="AB91" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC91" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD91" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE91" t="n">
         <v>0</v>
       </c>
     </row>

--- a/NameFile.xlsx
+++ b/NameFile.xlsx
@@ -3944,76 +3944,76 @@
         <v>44958</v>
       </c>
       <c r="B33" t="n">
-        <v>85</v>
+        <v>4</v>
       </c>
       <c r="C33" t="n">
-        <v>145690</v>
+        <v>8768</v>
       </c>
       <c r="D33" t="n">
-        <v>264</v>
+        <v>5</v>
       </c>
       <c r="E33" t="n">
-        <v>434016</v>
+        <v>6305</v>
       </c>
       <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>12</v>
+      </c>
+      <c r="I33" t="n">
+        <v>19212</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>2</v>
+      </c>
+      <c r="O33" t="n">
+        <v>3542</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0</v>
+      </c>
+      <c r="R33" t="n">
+        <v>9</v>
+      </c>
+      <c r="S33" t="n">
+        <v>4959</v>
+      </c>
+      <c r="T33" t="n">
         <v>21</v>
       </c>
-      <c r="G33" t="n">
-        <v>35049</v>
-      </c>
-      <c r="H33" t="n">
-        <v>264</v>
-      </c>
-      <c r="I33" t="n">
-        <v>378312</v>
-      </c>
-      <c r="J33" t="n">
-        <v>27</v>
-      </c>
-      <c r="K33" t="n">
-        <v>68580</v>
-      </c>
-      <c r="N33" t="n">
-        <v>104</v>
-      </c>
-      <c r="O33" t="n">
-        <v>134784</v>
-      </c>
-      <c r="P33" t="n">
-        <v>30</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>61860</v>
-      </c>
-      <c r="R33" t="n">
-        <v>175</v>
-      </c>
-      <c r="S33" t="n">
-        <v>109725</v>
-      </c>
-      <c r="T33" t="n">
-        <v>361</v>
-      </c>
       <c r="U33" t="n">
-        <v>175446</v>
+        <v>8232</v>
       </c>
       <c r="V33" t="n">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="W33" t="n">
-        <v>43865</v>
+        <v>1714</v>
       </c>
       <c r="X33" t="n">
-        <v>367</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>284058</v>
+        <v>0</v>
       </c>
       <c r="Z33" t="n">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="AA33" t="n">
-        <v>71535</v>
+        <v>0</v>
       </c>
       <c r="AB33" t="n">
         <v>0</v>
@@ -4028,16 +4028,16 @@
         <v>0</v>
       </c>
       <c r="AF33" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AG33" t="n">
-        <v>18300</v>
+        <v>0</v>
       </c>
       <c r="AH33" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AI33" t="n">
-        <v>4360</v>
+        <v>545</v>
       </c>
       <c r="AJ33" t="n">
         <v>0</v>
@@ -4051,16 +4051,16 @@
         <v>44959</v>
       </c>
       <c r="B34" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>8768</v>
+        <v>6918</v>
       </c>
       <c r="D34" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E34" t="n">
-        <v>6305</v>
+        <v>6552</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -4069,10 +4069,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I34" t="n">
-        <v>19212</v>
+        <v>17030</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -4093,22 +4093,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="S34" t="n">
-        <v>4959</v>
+        <v>1749</v>
       </c>
       <c r="T34" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="U34" t="n">
-        <v>8232</v>
+        <v>5550</v>
       </c>
       <c r="V34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W34" t="n">
-        <v>1714</v>
+        <v>1056</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -4158,58 +4158,58 @@
         <v>44960</v>
       </c>
       <c r="B35" t="n">
+        <v>2</v>
+      </c>
+      <c r="C35" t="n">
+        <v>3660</v>
+      </c>
+      <c r="D35" t="n">
+        <v>8</v>
+      </c>
+      <c r="E35" t="n">
+        <v>7952</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>12</v>
+      </c>
+      <c r="I35" t="n">
+        <v>17712</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
         <v>3</v>
       </c>
-      <c r="C35" t="n">
-        <v>6918</v>
-      </c>
-      <c r="D35" t="n">
-        <v>6</v>
-      </c>
-      <c r="E35" t="n">
-        <v>6552</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>13</v>
-      </c>
-      <c r="I35" t="n">
-        <v>17030</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
+      <c r="O35" t="n">
+        <v>5073</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
         <v>2</v>
       </c>
-      <c r="O35" t="n">
-        <v>3542</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>3</v>
-      </c>
       <c r="S35" t="n">
-        <v>1749</v>
+        <v>1022</v>
       </c>
       <c r="T35" t="n">
         <v>15</v>
       </c>
       <c r="U35" t="n">
-        <v>5550</v>
+        <v>5610</v>
       </c>
       <c r="V35" t="n">
         <v>1</v>
@@ -4248,10 +4248,10 @@
         <v>0</v>
       </c>
       <c r="AH35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI35" t="n">
-        <v>545</v>
+        <v>0</v>
       </c>
       <c r="AJ35" t="n">
         <v>0</v>
@@ -6940,64 +6940,64 @@
         <v>44986</v>
       </c>
       <c r="B61" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="C61" t="n">
-        <v>32589</v>
+        <v>1681</v>
       </c>
       <c r="D61" t="n">
-        <v>133</v>
+        <v>4</v>
       </c>
       <c r="E61" t="n">
-        <v>163191</v>
+        <v>5876</v>
       </c>
       <c r="F61" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G61" t="n">
-        <v>12649</v>
+        <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>185</v>
+        <v>3</v>
       </c>
       <c r="I61" t="n">
-        <v>277130</v>
+        <v>5226</v>
       </c>
       <c r="J61" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="K61" t="n">
-        <v>30842</v>
+        <v>0</v>
       </c>
       <c r="N61" t="n">
-        <v>59</v>
+        <v>1</v>
       </c>
       <c r="O61" t="n">
-        <v>77939</v>
+        <v>1345</v>
       </c>
       <c r="P61" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="Q61" t="n">
-        <v>30396</v>
+        <v>2550</v>
       </c>
       <c r="R61" t="n">
-        <v>62</v>
+        <v>3</v>
       </c>
       <c r="S61" t="n">
-        <v>36456</v>
+        <v>1881</v>
       </c>
       <c r="T61" t="n">
-        <v>319</v>
+        <v>16</v>
       </c>
       <c r="U61" t="n">
-        <v>132066</v>
+        <v>9600</v>
       </c>
       <c r="V61" t="n">
-        <v>69</v>
+        <v>1</v>
       </c>
       <c r="W61" t="n">
-        <v>63756</v>
+        <v>817</v>
       </c>
       <c r="X61" t="n">
         <v>0</v>
@@ -7018,10 +7018,10 @@
         <v>0</v>
       </c>
       <c r="AD61" t="n">
-        <v>189</v>
+        <v>0</v>
       </c>
       <c r="AE61" t="n">
-        <v>88452</v>
+        <v>0</v>
       </c>
       <c r="AF61" t="n">
         <v>0</v>
@@ -7030,10 +7030,10 @@
         <v>0</v>
       </c>
       <c r="AH61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI61" t="n">
-        <v>1090</v>
+        <v>0</v>
       </c>
       <c r="AJ61" t="n">
         <v>0</v>
@@ -7047,16 +7047,16 @@
         <v>44987</v>
       </c>
       <c r="B62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C62" t="n">
-        <v>1681</v>
+        <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E62" t="n">
-        <v>5876</v>
+        <v>9365</v>
       </c>
       <c r="F62" t="n">
         <v>0</v>
@@ -7065,10 +7065,10 @@
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I62" t="n">
-        <v>5226</v>
+        <v>10458</v>
       </c>
       <c r="J62" t="n">
         <v>0</v>
@@ -7077,16 +7077,16 @@
         <v>0</v>
       </c>
       <c r="N62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O62" t="n">
-        <v>1345</v>
+        <v>4072</v>
       </c>
       <c r="P62" t="n">
         <v>1</v>
       </c>
       <c r="Q62" t="n">
-        <v>2550</v>
+        <v>2545</v>
       </c>
       <c r="R62" t="n">
         <v>3</v>
@@ -7095,10 +7095,10 @@
         <v>1881</v>
       </c>
       <c r="T62" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="U62" t="n">
-        <v>9600</v>
+        <v>4482</v>
       </c>
       <c r="V62" t="n">
         <v>1</v>
@@ -7143,10 +7143,10 @@
         <v>0</v>
       </c>
       <c r="AJ62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK62" t="n">
-        <v>0</v>
+        <v>740</v>
       </c>
     </row>
     <row r="63">
@@ -7160,10 +7160,10 @@
         <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E63" t="n">
-        <v>9365</v>
+        <v>5344</v>
       </c>
       <c r="F63" t="n">
         <v>0</v>
@@ -7175,7 +7175,7 @@
         <v>6</v>
       </c>
       <c r="I63" t="n">
-        <v>10458</v>
+        <v>6156</v>
       </c>
       <c r="J63" t="n">
         <v>0</v>
@@ -7184,16 +7184,16 @@
         <v>0</v>
       </c>
       <c r="N63" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O63" t="n">
-        <v>4072</v>
+        <v>5562</v>
       </c>
       <c r="P63" t="n">
         <v>1</v>
       </c>
       <c r="Q63" t="n">
-        <v>2545</v>
+        <v>2604</v>
       </c>
       <c r="R63" t="n">
         <v>3</v>
@@ -7202,16 +7202,16 @@
         <v>1881</v>
       </c>
       <c r="T63" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="U63" t="n">
-        <v>4482</v>
+        <v>4032</v>
       </c>
       <c r="V63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W63" t="n">
-        <v>817</v>
+        <v>0</v>
       </c>
       <c r="X63" t="n">
         <v>0</v>
@@ -7261,16 +7261,16 @@
         <v>44989</v>
       </c>
       <c r="B64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C64" t="n">
-        <v>0</v>
+        <v>1727</v>
       </c>
       <c r="D64" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E64" t="n">
-        <v>5344</v>
+        <v>13342</v>
       </c>
       <c r="F64" t="n">
         <v>0</v>
@@ -7279,10 +7279,10 @@
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I64" t="n">
-        <v>6156</v>
+        <v>5412</v>
       </c>
       <c r="J64" t="n">
         <v>0</v>
@@ -7300,7 +7300,7 @@
         <v>1</v>
       </c>
       <c r="Q64" t="n">
-        <v>2604</v>
+        <v>2559</v>
       </c>
       <c r="R64" t="n">
         <v>3</v>
@@ -7309,10 +7309,10 @@
         <v>1881</v>
       </c>
       <c r="T64" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="U64" t="n">
-        <v>4032</v>
+        <v>1785</v>
       </c>
       <c r="V64" t="n">
         <v>0</v>
@@ -7371,13 +7371,13 @@
         <v>1</v>
       </c>
       <c r="C65" t="n">
-        <v>1727</v>
+        <v>1681</v>
       </c>
       <c r="D65" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E65" t="n">
-        <v>13342</v>
+        <v>2232</v>
       </c>
       <c r="F65" t="n">
         <v>0</v>
@@ -7386,10 +7386,10 @@
         <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I65" t="n">
-        <v>5412</v>
+        <v>1818</v>
       </c>
       <c r="J65" t="n">
         <v>0</v>
@@ -7398,16 +7398,16 @@
         <v>0</v>
       </c>
       <c r="N65" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O65" t="n">
-        <v>5562</v>
+        <v>0</v>
       </c>
       <c r="P65" t="n">
         <v>1</v>
       </c>
       <c r="Q65" t="n">
-        <v>2559</v>
+        <v>2509</v>
       </c>
       <c r="R65" t="n">
         <v>3</v>
@@ -7416,16 +7416,16 @@
         <v>1881</v>
       </c>
       <c r="T65" t="n">
+        <v>4</v>
+      </c>
+      <c r="U65" t="n">
+        <v>2224</v>
+      </c>
+      <c r="V65" t="n">
         <v>3</v>
       </c>
-      <c r="U65" t="n">
-        <v>1785</v>
-      </c>
-      <c r="V65" t="n">
-        <v>0</v>
-      </c>
       <c r="W65" t="n">
-        <v>0</v>
+        <v>3600</v>
       </c>
       <c r="X65" t="n">
         <v>0</v>
@@ -10257,16 +10257,16 @@
         <v>45017</v>
       </c>
       <c r="B92" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C92" t="n">
-        <v>12984</v>
+        <v>0</v>
       </c>
       <c r="D92" t="n">
-        <v>204</v>
+        <v>19</v>
       </c>
       <c r="E92" t="n">
-        <v>319872</v>
+        <v>30172</v>
       </c>
       <c r="F92" t="n">
         <v>0</v>
@@ -10275,46 +10275,46 @@
         <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>87</v>
+        <v>4</v>
       </c>
       <c r="I92" t="n">
-        <v>131718</v>
+        <v>5536</v>
       </c>
       <c r="J92" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="K92" t="n">
-        <v>18854</v>
+        <v>4008</v>
       </c>
       <c r="N92" t="n">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="O92" t="n">
-        <v>54368</v>
+        <v>4425</v>
       </c>
       <c r="P92" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q92" t="n">
-        <v>12765</v>
+        <v>1963</v>
       </c>
       <c r="R92" t="n">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="S92" t="n">
-        <v>28811</v>
+        <v>0</v>
       </c>
       <c r="T92" t="n">
-        <v>205</v>
+        <v>1</v>
       </c>
       <c r="U92" t="n">
-        <v>81180</v>
+        <v>354</v>
       </c>
       <c r="V92" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="W92" t="n">
-        <v>18128</v>
+        <v>0</v>
       </c>
       <c r="X92" t="n">
         <v>0</v>
@@ -10323,10 +10323,10 @@
         <v>0</v>
       </c>
       <c r="Z92" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AA92" t="n">
-        <v>2225</v>
+        <v>0</v>
       </c>
       <c r="AB92" t="n">
         <v>0</v>
@@ -10353,10 +10353,10 @@
         <v>0</v>
       </c>
       <c r="AJ92" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AK92" t="n">
-        <v>8466</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -10370,10 +10370,10 @@
         <v>0</v>
       </c>
       <c r="D93" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E93" t="n">
-        <v>30172</v>
+        <v>28782</v>
       </c>
       <c r="F93" t="n">
         <v>0</v>
@@ -10382,28 +10382,28 @@
         <v>0</v>
       </c>
       <c r="H93" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I93" t="n">
-        <v>5536</v>
+        <v>954</v>
       </c>
       <c r="J93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K93" t="n">
-        <v>4008</v>
+        <v>0</v>
       </c>
       <c r="N93" t="n">
         <v>3</v>
       </c>
       <c r="O93" t="n">
-        <v>4425</v>
+        <v>5832</v>
       </c>
       <c r="P93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q93" t="n">
-        <v>1963</v>
+        <v>0</v>
       </c>
       <c r="R93" t="n">
         <v>0</v>
@@ -10477,10 +10477,10 @@
         <v>0</v>
       </c>
       <c r="D94" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E94" t="n">
-        <v>28782</v>
+        <v>18174</v>
       </c>
       <c r="F94" t="n">
         <v>0</v>
@@ -10489,7 +10489,7 @@
         <v>0</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I94" t="n">
         <v>954</v>
@@ -10501,10 +10501,10 @@
         <v>0</v>
       </c>
       <c r="N94" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O94" t="n">
-        <v>5832</v>
+        <v>2495</v>
       </c>
       <c r="P94" t="n">
         <v>0</v>
@@ -10519,10 +10519,10 @@
         <v>0</v>
       </c>
       <c r="T94" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U94" t="n">
-        <v>354</v>
+        <v>708</v>
       </c>
       <c r="V94" t="n">
         <v>0</v>
@@ -10584,10 +10584,10 @@
         <v>0</v>
       </c>
       <c r="D95" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E95" t="n">
-        <v>18174</v>
+        <v>23716</v>
       </c>
       <c r="F95" t="n">
         <v>0</v>
@@ -10611,7 +10611,7 @@
         <v>1</v>
       </c>
       <c r="O95" t="n">
-        <v>2495</v>
+        <v>2545</v>
       </c>
       <c r="P95" t="n">
         <v>0</v>
@@ -10620,16 +10620,16 @@
         <v>0</v>
       </c>
       <c r="R95" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S95" t="n">
-        <v>0</v>
+        <v>2452</v>
       </c>
       <c r="T95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U95" t="n">
-        <v>708</v>
+        <v>354</v>
       </c>
       <c r="V95" t="n">
         <v>0</v>
@@ -10685,16 +10685,16 @@
         <v>45021</v>
       </c>
       <c r="B96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C96" t="n">
-        <v>0</v>
+        <v>3180</v>
       </c>
       <c r="D96" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E96" t="n">
-        <v>23716</v>
+        <v>28368</v>
       </c>
       <c r="F96" t="n">
         <v>0</v>
@@ -10703,10 +10703,10 @@
         <v>0</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I96" t="n">
-        <v>954</v>
+        <v>5748</v>
       </c>
       <c r="J96" t="n">
         <v>0</v>
@@ -10727,16 +10727,16 @@
         <v>0</v>
       </c>
       <c r="R96" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S96" t="n">
-        <v>2452</v>
+        <v>3180</v>
       </c>
       <c r="T96" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U96" t="n">
-        <v>354</v>
+        <v>762</v>
       </c>
       <c r="V96" t="n">
         <v>0</v>
@@ -10798,10 +10798,10 @@
         <v>3180</v>
       </c>
       <c r="D97" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E97" t="n">
-        <v>28368</v>
+        <v>24990</v>
       </c>
       <c r="F97" t="n">
         <v>0</v>
@@ -10813,7 +10813,7 @@
         <v>4</v>
       </c>
       <c r="I97" t="n">
-        <v>5748</v>
+        <v>5832</v>
       </c>
       <c r="J97" t="n">
         <v>0</v>
@@ -10825,7 +10825,7 @@
         <v>1</v>
       </c>
       <c r="O97" t="n">
-        <v>2545</v>
+        <v>0</v>
       </c>
       <c r="P97" t="n">
         <v>0</v>
@@ -10905,10 +10905,10 @@
         <v>3180</v>
       </c>
       <c r="D98" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E98" t="n">
-        <v>24990</v>
+        <v>19050</v>
       </c>
       <c r="F98" t="n">
         <v>0</v>
@@ -10917,10 +10917,10 @@
         <v>0</v>
       </c>
       <c r="H98" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I98" t="n">
-        <v>5832</v>
+        <v>7405</v>
       </c>
       <c r="J98" t="n">
         <v>0</v>
@@ -10929,7 +10929,7 @@
         <v>0</v>
       </c>
       <c r="N98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O98" t="n">
         <v>0</v>
@@ -10941,10 +10941,10 @@
         <v>0</v>
       </c>
       <c r="R98" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S98" t="n">
-        <v>3180</v>
+        <v>2793</v>
       </c>
       <c r="T98" t="n">
         <v>2</v>
@@ -13467,16 +13467,16 @@
         <v>45047</v>
       </c>
       <c r="B122" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C122" t="n">
-        <v>19613</v>
+        <v>0</v>
       </c>
       <c r="D122" t="n">
-        <v>271</v>
+        <v>0</v>
       </c>
       <c r="E122" t="n">
-        <v>449047</v>
+        <v>0</v>
       </c>
       <c r="F122" t="n">
         <v>0</v>
@@ -13485,46 +13485,46 @@
         <v>0</v>
       </c>
       <c r="H122" t="n">
-        <v>118</v>
+        <v>4</v>
       </c>
       <c r="I122" t="n">
-        <v>145494</v>
+        <v>4852</v>
       </c>
       <c r="J122" t="n">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="K122" t="n">
-        <v>48114</v>
+        <v>4734</v>
       </c>
       <c r="N122" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="O122" t="n">
-        <v>39900</v>
+        <v>0</v>
       </c>
       <c r="P122" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="Q122" t="n">
-        <v>50088</v>
+        <v>0</v>
       </c>
       <c r="R122" t="n">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="S122" t="n">
-        <v>61740</v>
+        <v>2272</v>
       </c>
       <c r="T122" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="U122" t="n">
-        <v>8786</v>
+        <v>0</v>
       </c>
       <c r="V122" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="W122" t="n">
-        <v>5792</v>
+        <v>0</v>
       </c>
       <c r="X122" t="n">
         <v>0</v>
@@ -13563,10 +13563,10 @@
         <v>0</v>
       </c>
       <c r="AJ122" t="n">
-        <v>164</v>
+        <v>0</v>
       </c>
       <c r="AK122" t="n">
-        <v>179088</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123">
@@ -13580,10 +13580,10 @@
         <v>0</v>
       </c>
       <c r="D123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E123" t="n">
-        <v>0</v>
+        <v>1730</v>
       </c>
       <c r="F123" t="n">
         <v>0</v>
@@ -13595,7 +13595,7 @@
         <v>4</v>
       </c>
       <c r="I123" t="n">
-        <v>4852</v>
+        <v>4856</v>
       </c>
       <c r="J123" t="n">
         <v>2</v>
@@ -13690,7 +13690,7 @@
         <v>1</v>
       </c>
       <c r="E124" t="n">
-        <v>1730</v>
+        <v>1671</v>
       </c>
       <c r="F124" t="n">
         <v>0</v>
@@ -13705,10 +13705,10 @@
         <v>4856</v>
       </c>
       <c r="J124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K124" t="n">
-        <v>4734</v>
+        <v>0</v>
       </c>
       <c r="N124" t="n">
         <v>0</v>
@@ -13729,16 +13729,16 @@
         <v>2272</v>
       </c>
       <c r="T124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U124" t="n">
-        <v>0</v>
+        <v>318</v>
       </c>
       <c r="V124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W124" t="n">
-        <v>0</v>
+        <v>3242</v>
       </c>
       <c r="X124" t="n">
         <v>0</v>
@@ -13797,7 +13797,7 @@
         <v>1</v>
       </c>
       <c r="E125" t="n">
-        <v>1671</v>
+        <v>1749</v>
       </c>
       <c r="F125" t="n">
         <v>0</v>
@@ -13806,10 +13806,10 @@
         <v>0</v>
       </c>
       <c r="H125" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I125" t="n">
-        <v>4856</v>
+        <v>3774</v>
       </c>
       <c r="J125" t="n">
         <v>0</v>
@@ -13842,10 +13842,10 @@
         <v>318</v>
       </c>
       <c r="V125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W125" t="n">
-        <v>3242</v>
+        <v>0</v>
       </c>
       <c r="X125" t="n">
         <v>0</v>
@@ -13904,7 +13904,7 @@
         <v>1</v>
       </c>
       <c r="E126" t="n">
-        <v>1749</v>
+        <v>1826</v>
       </c>
       <c r="F126" t="n">
         <v>0</v>
@@ -13916,7 +13916,7 @@
         <v>3</v>
       </c>
       <c r="I126" t="n">
-        <v>3774</v>
+        <v>3393</v>
       </c>
       <c r="J126" t="n">
         <v>0</v>
@@ -13943,10 +13943,10 @@
         <v>2272</v>
       </c>
       <c r="T126" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U126" t="n">
-        <v>318</v>
+        <v>940</v>
       </c>
       <c r="V126" t="n">
         <v>0</v>
@@ -13961,10 +13961,10 @@
         <v>0</v>
       </c>
       <c r="Z126" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AA126" t="n">
-        <v>18792</v>
+        <v>19470</v>
       </c>
       <c r="AB126" t="n">
         <v>0</v>
@@ -14011,7 +14011,7 @@
         <v>1</v>
       </c>
       <c r="E127" t="n">
-        <v>1826</v>
+        <v>1576</v>
       </c>
       <c r="F127" t="n">
         <v>0</v>
@@ -14020,10 +14020,10 @@
         <v>0</v>
       </c>
       <c r="H127" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I127" t="n">
-        <v>3393</v>
+        <v>4576</v>
       </c>
       <c r="J127" t="n">
         <v>0</v>
@@ -14050,10 +14050,10 @@
         <v>2272</v>
       </c>
       <c r="T127" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U127" t="n">
-        <v>940</v>
+        <v>622</v>
       </c>
       <c r="V127" t="n">
         <v>0</v>
@@ -14068,10 +14068,10 @@
         <v>0</v>
       </c>
       <c r="Z127" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AA127" t="n">
-        <v>19470</v>
+        <v>0</v>
       </c>
       <c r="AB127" t="n">
         <v>0</v>
@@ -14115,10 +14115,10 @@
         <v>0</v>
       </c>
       <c r="D128" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E128" t="n">
-        <v>1576</v>
+        <v>3864</v>
       </c>
       <c r="F128" t="n">
         <v>0</v>
@@ -14130,7 +14130,7 @@
         <v>4</v>
       </c>
       <c r="I128" t="n">
-        <v>4576</v>
+        <v>4556</v>
       </c>
       <c r="J128" t="n">
         <v>0</v>
@@ -14151,16 +14151,16 @@
         <v>0</v>
       </c>
       <c r="R128" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S128" t="n">
-        <v>2272</v>
+        <v>2886</v>
       </c>
       <c r="T128" t="n">
         <v>1</v>
       </c>
       <c r="U128" t="n">
-        <v>622</v>
+        <v>301</v>
       </c>
       <c r="V128" t="n">
         <v>0</v>
@@ -14216,16 +14216,16 @@
         <v>45054</v>
       </c>
       <c r="B129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C129" t="n">
-        <v>0</v>
+        <v>2318</v>
       </c>
       <c r="D129" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E129" t="n">
-        <v>3864</v>
+        <v>5148</v>
       </c>
       <c r="F129" t="n">
         <v>0</v>
@@ -14234,10 +14234,10 @@
         <v>0</v>
       </c>
       <c r="H129" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I129" t="n">
-        <v>4556</v>
+        <v>6850</v>
       </c>
       <c r="J129" t="n">
         <v>0</v>
@@ -14329,10 +14329,10 @@
         <v>2318</v>
       </c>
       <c r="D130" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E130" t="n">
-        <v>5148</v>
+        <v>4383</v>
       </c>
       <c r="F130" t="n">
         <v>0</v>
@@ -14344,7 +14344,7 @@
         <v>5</v>
       </c>
       <c r="I130" t="n">
-        <v>6850</v>
+        <v>6920</v>
       </c>
       <c r="J130" t="n">
         <v>0</v>
@@ -14365,10 +14365,10 @@
         <v>0</v>
       </c>
       <c r="R130" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S130" t="n">
-        <v>2886</v>
+        <v>2272</v>
       </c>
       <c r="T130" t="n">
         <v>1</v>
@@ -16784,16 +16784,16 @@
         <v>45078</v>
       </c>
       <c r="B153" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="C153" t="n">
-        <v>37544</v>
+        <v>1954</v>
       </c>
       <c r="D153" t="n">
-        <v>105</v>
+        <v>8</v>
       </c>
       <c r="E153" t="n">
-        <v>196035</v>
+        <v>16464</v>
       </c>
       <c r="F153" t="n">
         <v>0</v>
@@ -16802,58 +16802,58 @@
         <v>0</v>
       </c>
       <c r="H153" t="n">
-        <v>143</v>
+        <v>3</v>
       </c>
       <c r="I153" t="n">
-        <v>163163</v>
+        <v>4479</v>
       </c>
       <c r="J153" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="K153" t="n">
-        <v>38928</v>
+        <v>0</v>
       </c>
       <c r="N153" t="n">
+        <v>0</v>
+      </c>
+      <c r="O153" t="n">
+        <v>0</v>
+      </c>
+      <c r="P153" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q153" t="n">
+        <v>0</v>
+      </c>
+      <c r="R153" t="n">
+        <v>2</v>
+      </c>
+      <c r="S153" t="n">
+        <v>3204</v>
+      </c>
+      <c r="T153" t="n">
         <v>5</v>
       </c>
-      <c r="O153" t="n">
-        <v>7190</v>
-      </c>
-      <c r="P153" t="n">
-        <v>24</v>
-      </c>
-      <c r="Q153" t="n">
-        <v>58728</v>
-      </c>
-      <c r="R153" t="n">
-        <v>43</v>
-      </c>
-      <c r="S153" t="n">
-        <v>80582</v>
-      </c>
-      <c r="T153" t="n">
-        <v>33</v>
-      </c>
       <c r="U153" t="n">
-        <v>13134</v>
+        <v>1950</v>
       </c>
       <c r="V153" t="n">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="W153" t="n">
-        <v>28462</v>
+        <v>2876</v>
       </c>
       <c r="X153" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="Y153" t="n">
-        <v>81900</v>
+        <v>0</v>
       </c>
       <c r="Z153" t="n">
-        <v>146</v>
+        <v>0</v>
       </c>
       <c r="AA153" t="n">
-        <v>94608</v>
+        <v>0</v>
       </c>
       <c r="AB153" t="n">
         <v>0</v>
@@ -16891,16 +16891,16 @@
         <v>45079</v>
       </c>
       <c r="B154" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C154" t="n">
-        <v>1954</v>
+        <v>4136</v>
       </c>
       <c r="D154" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E154" t="n">
-        <v>16464</v>
+        <v>18360</v>
       </c>
       <c r="F154" t="n">
         <v>0</v>
@@ -16909,10 +16909,10 @@
         <v>0</v>
       </c>
       <c r="H154" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I154" t="n">
-        <v>4479</v>
+        <v>3524</v>
       </c>
       <c r="J154" t="n">
         <v>0</v>
@@ -16942,13 +16942,13 @@
         <v>5</v>
       </c>
       <c r="U154" t="n">
-        <v>1950</v>
+        <v>1675</v>
       </c>
       <c r="V154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W154" t="n">
-        <v>2876</v>
+        <v>0</v>
       </c>
       <c r="X154" t="n">
         <v>0</v>
@@ -16998,16 +16998,16 @@
         <v>45080</v>
       </c>
       <c r="B155" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C155" t="n">
-        <v>4136</v>
+        <v>2136</v>
       </c>
       <c r="D155" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E155" t="n">
-        <v>18360</v>
+        <v>14259</v>
       </c>
       <c r="F155" t="n">
         <v>0</v>
@@ -17016,16 +17016,16 @@
         <v>0</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="n">
-        <v>3524</v>
+        <v>0</v>
       </c>
       <c r="J155" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K155" t="n">
-        <v>0</v>
+        <v>9414</v>
       </c>
       <c r="N155" t="n">
         <v>0</v>
@@ -17111,10 +17111,10 @@
         <v>2136</v>
       </c>
       <c r="D156" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E156" t="n">
-        <v>14259</v>
+        <v>6303</v>
       </c>
       <c r="F156" t="n">
         <v>0</v>
@@ -17123,16 +17123,16 @@
         <v>0</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I156" t="n">
-        <v>0</v>
+        <v>1689</v>
       </c>
       <c r="J156" t="n">
         <v>3</v>
       </c>
       <c r="K156" t="n">
-        <v>9414</v>
+        <v>9420</v>
       </c>
       <c r="N156" t="n">
         <v>0</v>
@@ -17230,16 +17230,16 @@
         <v>0</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I157" t="n">
-        <v>1689</v>
+        <v>4824</v>
       </c>
       <c r="J157" t="n">
         <v>3</v>
       </c>
       <c r="K157" t="n">
-        <v>9420</v>
+        <v>9411</v>
       </c>
       <c r="N157" t="n">
         <v>0</v>
@@ -17319,16 +17319,16 @@
         <v>45083</v>
       </c>
       <c r="B158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C158" t="n">
-        <v>2136</v>
+        <v>0</v>
       </c>
       <c r="D158" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E158" t="n">
-        <v>6303</v>
+        <v>8308</v>
       </c>
       <c r="F158" t="n">
         <v>0</v>
@@ -17343,10 +17343,10 @@
         <v>4824</v>
       </c>
       <c r="J158" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K158" t="n">
-        <v>9411</v>
+        <v>0</v>
       </c>
       <c r="N158" t="n">
         <v>0</v>
@@ -17367,16 +17367,16 @@
         <v>3204</v>
       </c>
       <c r="T158" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U158" t="n">
-        <v>1675</v>
+        <v>2022</v>
       </c>
       <c r="V158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W158" t="n">
-        <v>0</v>
+        <v>1265</v>
       </c>
       <c r="X158" t="n">
         <v>0</v>
@@ -17432,10 +17432,10 @@
         <v>0</v>
       </c>
       <c r="D159" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E159" t="n">
-        <v>8308</v>
+        <v>11472</v>
       </c>
       <c r="F159" t="n">
         <v>0</v>
@@ -17447,7 +17447,7 @@
         <v>3</v>
       </c>
       <c r="I159" t="n">
-        <v>4824</v>
+        <v>6288</v>
       </c>
       <c r="J159" t="n">
         <v>0</v>
@@ -17468,10 +17468,10 @@
         <v>0</v>
       </c>
       <c r="R159" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S159" t="n">
-        <v>3204</v>
+        <v>3930</v>
       </c>
       <c r="T159" t="n">
         <v>6</v>
@@ -17492,10 +17492,10 @@
         <v>0</v>
       </c>
       <c r="Z159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA159" t="n">
-        <v>0</v>
+        <v>2726</v>
       </c>
       <c r="AB159" t="n">
         <v>0</v>
@@ -17539,10 +17539,10 @@
         <v>0</v>
       </c>
       <c r="D160" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E160" t="n">
-        <v>11472</v>
+        <v>12698</v>
       </c>
       <c r="F160" t="n">
         <v>0</v>
@@ -17569,16 +17569,16 @@
         <v>0</v>
       </c>
       <c r="P160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q160" t="n">
-        <v>0</v>
+        <v>1681</v>
       </c>
       <c r="R160" t="n">
         <v>3</v>
       </c>
       <c r="S160" t="n">
-        <v>3930</v>
+        <v>4467</v>
       </c>
       <c r="T160" t="n">
         <v>6</v>
@@ -17617,10 +17617,10 @@
         <v>0</v>
       </c>
       <c r="AF160" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AG160" t="n">
-        <v>0</v>
+        <v>10593</v>
       </c>
       <c r="AH160" t="n">
         <v>0</v>
@@ -17646,10 +17646,10 @@
         <v>0</v>
       </c>
       <c r="D161" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E161" t="n">
-        <v>12698</v>
+        <v>8615</v>
       </c>
       <c r="F161" t="n">
         <v>0</v>
@@ -17661,7 +17661,7 @@
         <v>3</v>
       </c>
       <c r="I161" t="n">
-        <v>6288</v>
+        <v>5346</v>
       </c>
       <c r="J161" t="n">
         <v>0</v>
@@ -17679,19 +17679,19 @@
         <v>1</v>
       </c>
       <c r="Q161" t="n">
-        <v>1681</v>
+        <v>1727</v>
       </c>
       <c r="R161" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S161" t="n">
-        <v>4467</v>
+        <v>6285</v>
       </c>
       <c r="T161" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="U161" t="n">
-        <v>2022</v>
+        <v>1000</v>
       </c>
       <c r="V161" t="n">
         <v>1</v>
@@ -17736,10 +17736,10 @@
         <v>0</v>
       </c>
       <c r="AJ161" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AK161" t="n">
-        <v>0</v>
+        <v>65835</v>
       </c>
     </row>
     <row r="162">
@@ -17753,10 +17753,10 @@
         <v>0</v>
       </c>
       <c r="D162" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E162" t="n">
-        <v>8615</v>
+        <v>6652</v>
       </c>
       <c r="F162" t="n">
         <v>0</v>
@@ -17792,7 +17792,7 @@
         <v>5</v>
       </c>
       <c r="S162" t="n">
-        <v>6285</v>
+        <v>6740</v>
       </c>
       <c r="T162" t="n">
         <v>1</v>
@@ -17801,10 +17801,10 @@
         <v>1000</v>
       </c>
       <c r="V162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W162" t="n">
-        <v>1265</v>
+        <v>0</v>
       </c>
       <c r="X162" t="n">
         <v>0</v>
@@ -17843,10 +17843,10 @@
         <v>0</v>
       </c>
       <c r="AJ162" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="AK162" t="n">
-        <v>65835</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163">
@@ -17860,22 +17860,22 @@
         <v>0</v>
       </c>
       <c r="D163" t="n">
+        <v>3</v>
+      </c>
+      <c r="E163" t="n">
+        <v>6264</v>
+      </c>
+      <c r="F163" t="n">
+        <v>0</v>
+      </c>
+      <c r="G163" t="n">
+        <v>0</v>
+      </c>
+      <c r="H163" t="n">
         <v>4</v>
       </c>
-      <c r="E163" t="n">
-        <v>6652</v>
-      </c>
-      <c r="F163" t="n">
-        <v>0</v>
-      </c>
-      <c r="G163" t="n">
-        <v>0</v>
-      </c>
-      <c r="H163" t="n">
-        <v>3</v>
-      </c>
       <c r="I163" t="n">
-        <v>5346</v>
+        <v>6628</v>
       </c>
       <c r="J163" t="n">
         <v>0</v>
@@ -17893,19 +17893,19 @@
         <v>1</v>
       </c>
       <c r="Q163" t="n">
-        <v>1727</v>
+        <v>1681</v>
       </c>
       <c r="R163" t="n">
+        <v>2</v>
+      </c>
+      <c r="S163" t="n">
+        <v>3740</v>
+      </c>
+      <c r="T163" t="n">
         <v>5</v>
       </c>
-      <c r="S163" t="n">
-        <v>6740</v>
-      </c>
-      <c r="T163" t="n">
-        <v>1</v>
-      </c>
       <c r="U163" t="n">
-        <v>1000</v>
+        <v>1770</v>
       </c>
       <c r="V163" t="n">
         <v>0</v>
@@ -19994,16 +19994,16 @@
         <v>45108</v>
       </c>
       <c r="B183" t="n">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="C183" t="n">
-        <v>63858</v>
+        <v>1772</v>
       </c>
       <c r="D183" t="n">
-        <v>164</v>
+        <v>5</v>
       </c>
       <c r="E183" t="n">
-        <v>305532</v>
+        <v>8840</v>
       </c>
       <c r="F183" t="n">
         <v>0</v>
@@ -20012,16 +20012,16 @@
         <v>0</v>
       </c>
       <c r="H183" t="n">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="I183" t="n">
-        <v>124916</v>
+        <v>0</v>
       </c>
       <c r="J183" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="K183" t="n">
-        <v>65140</v>
+        <v>3094</v>
       </c>
       <c r="N183" t="n">
         <v>0</v>
@@ -20030,28 +20030,28 @@
         <v>0</v>
       </c>
       <c r="P183" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="Q183" t="n">
-        <v>19000</v>
+        <v>2727</v>
       </c>
       <c r="R183" t="n">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="S183" t="n">
-        <v>80622</v>
+        <v>0</v>
       </c>
       <c r="T183" t="n">
-        <v>140</v>
+        <v>2</v>
       </c>
       <c r="U183" t="n">
-        <v>58520</v>
+        <v>1030</v>
       </c>
       <c r="V183" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="W183" t="n">
-        <v>13257</v>
+        <v>0</v>
       </c>
       <c r="X183" t="n">
         <v>0</v>
@@ -20060,10 +20060,10 @@
         <v>0</v>
       </c>
       <c r="Z183" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AA183" t="n">
-        <v>13630</v>
+        <v>0</v>
       </c>
       <c r="AB183" t="n">
         <v>0</v>
@@ -20078,10 +20078,10 @@
         <v>0</v>
       </c>
       <c r="AF183" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="AG183" t="n">
-        <v>52965</v>
+        <v>0</v>
       </c>
       <c r="AH183" t="n">
         <v>0</v>
@@ -20090,10 +20090,10 @@
         <v>0</v>
       </c>
       <c r="AJ183" t="n">
-        <v>215</v>
+        <v>0</v>
       </c>
       <c r="AK183" t="n">
-        <v>286165</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184">
@@ -20101,16 +20101,16 @@
         <v>45109</v>
       </c>
       <c r="B184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C184" t="n">
-        <v>1772</v>
+        <v>0</v>
       </c>
       <c r="D184" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E184" t="n">
-        <v>8840</v>
+        <v>5433</v>
       </c>
       <c r="F184" t="n">
         <v>0</v>
@@ -20125,10 +20125,10 @@
         <v>0</v>
       </c>
       <c r="J184" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K184" t="n">
-        <v>3094</v>
+        <v>6208</v>
       </c>
       <c r="N184" t="n">
         <v>0</v>
@@ -20137,10 +20137,10 @@
         <v>0</v>
       </c>
       <c r="P184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q184" t="n">
-        <v>2727</v>
+        <v>0</v>
       </c>
       <c r="R184" t="n">
         <v>0</v>
@@ -20149,10 +20149,10 @@
         <v>0</v>
       </c>
       <c r="T184" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U184" t="n">
-        <v>1030</v>
+        <v>622</v>
       </c>
       <c r="V184" t="n">
         <v>0</v>
@@ -20217,7 +20217,7 @@
         <v>3</v>
       </c>
       <c r="E185" t="n">
-        <v>5433</v>
+        <v>5568</v>
       </c>
       <c r="F185" t="n">
         <v>0</v>
@@ -20256,10 +20256,10 @@
         <v>0</v>
       </c>
       <c r="T185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U185" t="n">
-        <v>622</v>
+        <v>0</v>
       </c>
       <c r="V185" t="n">
         <v>0</v>
@@ -20315,16 +20315,16 @@
         <v>45111</v>
       </c>
       <c r="B186" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C186" t="n">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="D186" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E186" t="n">
-        <v>5568</v>
+        <v>8600</v>
       </c>
       <c r="F186" t="n">
         <v>0</v>
@@ -20339,10 +20339,10 @@
         <v>0</v>
       </c>
       <c r="J186" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K186" t="n">
-        <v>6208</v>
+        <v>3112</v>
       </c>
       <c r="N186" t="n">
         <v>0</v>
@@ -20428,10 +20428,10 @@
         <v>2500</v>
       </c>
       <c r="D187" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E187" t="n">
-        <v>8600</v>
+        <v>4692</v>
       </c>
       <c r="F187" t="n">
         <v>0</v>
@@ -20440,10 +20440,10 @@
         <v>0</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I187" t="n">
-        <v>0</v>
+        <v>2093</v>
       </c>
       <c r="J187" t="n">
         <v>2</v>
@@ -20529,16 +20529,16 @@
         <v>45113</v>
       </c>
       <c r="B188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C188" t="n">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="D188" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E188" t="n">
-        <v>4692</v>
+        <v>11718</v>
       </c>
       <c r="F188" t="n">
         <v>0</v>
@@ -20553,10 +20553,10 @@
         <v>2093</v>
       </c>
       <c r="J188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K188" t="n">
-        <v>3112</v>
+        <v>0</v>
       </c>
       <c r="N188" t="n">
         <v>0</v>
@@ -20645,7 +20645,7 @@
         <v>6</v>
       </c>
       <c r="E189" t="n">
-        <v>11718</v>
+        <v>10872</v>
       </c>
       <c r="F189" t="n">
         <v>0</v>
@@ -20761,10 +20761,10 @@
         <v>0</v>
       </c>
       <c r="H190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I190" t="n">
-        <v>2093</v>
+        <v>0</v>
       </c>
       <c r="J190" t="n">
         <v>0</v>
@@ -20859,7 +20859,7 @@
         <v>6</v>
       </c>
       <c r="E191" t="n">
-        <v>10872</v>
+        <v>12852</v>
       </c>
       <c r="F191" t="n">
         <v>0</v>
@@ -20963,10 +20963,10 @@
         <v>0</v>
       </c>
       <c r="D192" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E192" t="n">
-        <v>12852</v>
+        <v>6552</v>
       </c>
       <c r="F192" t="n">
         <v>0</v>
@@ -21070,10 +21070,10 @@
         <v>0</v>
       </c>
       <c r="D193" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E193" t="n">
-        <v>6552</v>
+        <v>1526</v>
       </c>
       <c r="F193" t="n">
         <v>0</v>
@@ -21177,10 +21177,10 @@
         <v>0</v>
       </c>
       <c r="D194" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E194" t="n">
-        <v>1526</v>
+        <v>3866</v>
       </c>
       <c r="F194" t="n">
         <v>0</v>
@@ -21284,28 +21284,28 @@
         <v>0</v>
       </c>
       <c r="D195" t="n">
+        <v>5</v>
+      </c>
+      <c r="E195" t="n">
+        <v>11040</v>
+      </c>
+      <c r="F195" t="n">
+        <v>0</v>
+      </c>
+      <c r="G195" t="n">
+        <v>0</v>
+      </c>
+      <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="n">
+        <v>0</v>
+      </c>
+      <c r="J195" t="n">
         <v>2</v>
       </c>
-      <c r="E195" t="n">
-        <v>3866</v>
-      </c>
-      <c r="F195" t="n">
-        <v>0</v>
-      </c>
-      <c r="G195" t="n">
-        <v>0</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
-      <c r="J195" t="n">
-        <v>0</v>
-      </c>
       <c r="K195" t="n">
-        <v>0</v>
+        <v>3134</v>
       </c>
       <c r="N195" t="n">
         <v>0</v>
@@ -23311,16 +23311,16 @@
         <v>45139</v>
       </c>
       <c r="B214" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C214" t="n">
-        <v>6771</v>
+        <v>1645</v>
       </c>
       <c r="D214" t="n">
-        <v>96</v>
+        <v>2</v>
       </c>
       <c r="E214" t="n">
-        <v>179136</v>
+        <v>2680</v>
       </c>
       <c r="F214" t="n">
         <v>0</v>
@@ -23329,16 +23329,16 @@
         <v>0</v>
       </c>
       <c r="H214" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="I214" t="n">
-        <v>20493</v>
+        <v>0</v>
       </c>
       <c r="J214" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="K214" t="n">
-        <v>37392</v>
+        <v>0</v>
       </c>
       <c r="N214" t="n">
         <v>0</v>
@@ -23347,10 +23347,10 @@
         <v>0</v>
       </c>
       <c r="P214" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="Q214" t="n">
-        <v>18088</v>
+        <v>0</v>
       </c>
       <c r="R214" t="n">
         <v>0</v>
@@ -23359,10 +23359,10 @@
         <v>0</v>
       </c>
       <c r="T214" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="U214" t="n">
-        <v>2290</v>
+        <v>0</v>
       </c>
       <c r="V214" t="n">
         <v>0</v>
@@ -23421,13 +23421,13 @@
         <v>1</v>
       </c>
       <c r="C215" t="n">
-        <v>1645</v>
+        <v>1622</v>
       </c>
       <c r="D215" t="n">
         <v>2</v>
       </c>
       <c r="E215" t="n">
-        <v>2680</v>
+        <v>2508</v>
       </c>
       <c r="F215" t="n">
         <v>0</v>
@@ -23442,10 +23442,10 @@
         <v>0</v>
       </c>
       <c r="J215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K215" t="n">
-        <v>0</v>
+        <v>2970</v>
       </c>
       <c r="N215" t="n">
         <v>0</v>
@@ -23528,13 +23528,13 @@
         <v>1</v>
       </c>
       <c r="C216" t="n">
-        <v>1622</v>
+        <v>1640</v>
       </c>
       <c r="D216" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E216" t="n">
-        <v>2508</v>
+        <v>0</v>
       </c>
       <c r="F216" t="n">
         <v>0</v>
@@ -23635,7 +23635,7 @@
         <v>1</v>
       </c>
       <c r="C217" t="n">
-        <v>1640</v>
+        <v>1690</v>
       </c>
       <c r="D217" t="n">
         <v>0</v>
@@ -23650,16 +23650,16 @@
         <v>0</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I217" t="n">
-        <v>0</v>
+        <v>1512</v>
       </c>
       <c r="J217" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K217" t="n">
-        <v>2970</v>
+        <v>0</v>
       </c>
       <c r="N217" t="n">
         <v>0</v>
@@ -23739,10 +23739,10 @@
         <v>45143</v>
       </c>
       <c r="B218" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C218" t="n">
-        <v>1690</v>
+        <v>0</v>
       </c>
       <c r="D218" t="n">
         <v>0</v>
@@ -23760,7 +23760,7 @@
         <v>1</v>
       </c>
       <c r="I218" t="n">
-        <v>1512</v>
+        <v>1440</v>
       </c>
       <c r="J218" t="n">
         <v>0</v>
@@ -23781,10 +23781,10 @@
         <v>0</v>
       </c>
       <c r="R218" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S218" t="n">
-        <v>0</v>
+        <v>2272</v>
       </c>
       <c r="T218" t="n">
         <v>0</v>
@@ -23867,7 +23867,7 @@
         <v>1</v>
       </c>
       <c r="I219" t="n">
-        <v>1440</v>
+        <v>1490</v>
       </c>
       <c r="J219" t="n">
         <v>0</v>
@@ -24173,10 +24173,10 @@
         <v>0</v>
       </c>
       <c r="D222" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E222" t="n">
-        <v>0</v>
+        <v>2167</v>
       </c>
       <c r="F222" t="n">
         <v>0</v>
@@ -24188,7 +24188,7 @@
         <v>1</v>
       </c>
       <c r="I222" t="n">
-        <v>1490</v>
+        <v>1421</v>
       </c>
       <c r="J222" t="n">
         <v>0</v>
@@ -24280,10 +24280,10 @@
         <v>0</v>
       </c>
       <c r="D223" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E223" t="n">
-        <v>2167</v>
+        <v>6520</v>
       </c>
       <c r="F223" t="n">
         <v>0</v>
@@ -24295,7 +24295,7 @@
         <v>1</v>
       </c>
       <c r="I223" t="n">
-        <v>1421</v>
+        <v>1490</v>
       </c>
       <c r="J223" t="n">
         <v>0</v>
@@ -24387,10 +24387,10 @@
         <v>0</v>
       </c>
       <c r="D224" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E224" t="n">
-        <v>6520</v>
+        <v>8590</v>
       </c>
       <c r="F224" t="n">
         <v>0</v>
@@ -24402,7 +24402,7 @@
         <v>1</v>
       </c>
       <c r="I224" t="n">
-        <v>1490</v>
+        <v>1505</v>
       </c>
       <c r="J224" t="n">
         <v>0</v>
@@ -24435,10 +24435,10 @@
         <v>0</v>
       </c>
       <c r="V224" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W224" t="n">
-        <v>0</v>
+        <v>2564</v>
       </c>
       <c r="X224" t="n">
         <v>0</v>
@@ -24497,7 +24497,7 @@
         <v>5</v>
       </c>
       <c r="E225" t="n">
-        <v>8590</v>
+        <v>8295</v>
       </c>
       <c r="F225" t="n">
         <v>0</v>
@@ -24506,10 +24506,10 @@
         <v>0</v>
       </c>
       <c r="H225" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I225" t="n">
-        <v>1505</v>
+        <v>0</v>
       </c>
       <c r="J225" t="n">
         <v>0</v>
@@ -24601,10 +24601,10 @@
         <v>0</v>
       </c>
       <c r="D226" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E226" t="n">
-        <v>8295</v>
+        <v>0</v>
       </c>
       <c r="F226" t="n">
         <v>0</v>
@@ -24652,7 +24652,7 @@
         <v>1</v>
       </c>
       <c r="W226" t="n">
-        <v>2564</v>
+        <v>2520</v>
       </c>
       <c r="X226" t="n">
         <v>0</v>
@@ -24708,10 +24708,10 @@
         <v>0</v>
       </c>
       <c r="D227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E227" t="n">
-        <v>0</v>
+        <v>3186</v>
       </c>
       <c r="F227" t="n">
         <v>0</v>
@@ -24759,7 +24759,7 @@
         <v>1</v>
       </c>
       <c r="W227" t="n">
-        <v>2520</v>
+        <v>2513</v>
       </c>
       <c r="X227" t="n">
         <v>0</v>
@@ -24863,10 +24863,10 @@
         <v>0</v>
       </c>
       <c r="V228" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W228" t="n">
-        <v>2513</v>
+        <v>0</v>
       </c>
       <c r="X228" t="n">
         <v>0</v>
@@ -26628,16 +26628,16 @@
         <v>45170</v>
       </c>
       <c r="B245" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C245" t="n">
-        <v>6600</v>
+        <v>0</v>
       </c>
       <c r="D245" t="n">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="E245" t="n">
-        <v>45108</v>
+        <v>1699</v>
       </c>
       <c r="F245" t="n">
         <v>0</v>
@@ -26646,16 +26646,16 @@
         <v>0</v>
       </c>
       <c r="H245" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I245" t="n">
-        <v>11840</v>
+        <v>0</v>
       </c>
       <c r="J245" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="K245" t="n">
-        <v>24145</v>
+        <v>2794</v>
       </c>
       <c r="N245" t="n">
         <v>0</v>
@@ -26670,10 +26670,10 @@
         <v>0</v>
       </c>
       <c r="R245" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="S245" t="n">
-        <v>45440</v>
+        <v>0</v>
       </c>
       <c r="T245" t="n">
         <v>0</v>
@@ -26682,10 +26682,10 @@
         <v>0</v>
       </c>
       <c r="V245" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="W245" t="n">
-        <v>15085</v>
+        <v>0</v>
       </c>
       <c r="X245" t="n">
         <v>0</v>
@@ -26762,7 +26762,7 @@
         <v>1</v>
       </c>
       <c r="K246" t="n">
-        <v>2794</v>
+        <v>2840</v>
       </c>
       <c r="N246" t="n">
         <v>0</v>
@@ -26848,10 +26848,10 @@
         <v>0</v>
       </c>
       <c r="D247" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E247" t="n">
-        <v>1699</v>
+        <v>3278</v>
       </c>
       <c r="F247" t="n">
         <v>0</v>
@@ -26866,10 +26866,10 @@
         <v>0</v>
       </c>
       <c r="J247" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K247" t="n">
-        <v>2840</v>
+        <v>0</v>
       </c>
       <c r="N247" t="n">
         <v>0</v>
@@ -27169,10 +27169,10 @@
         <v>0</v>
       </c>
       <c r="D250" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E250" t="n">
-        <v>3278</v>
+        <v>1991</v>
       </c>
       <c r="F250" t="n">
         <v>0</v>
@@ -27276,10 +27276,10 @@
         <v>0</v>
       </c>
       <c r="D251" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E251" t="n">
-        <v>1991</v>
+        <v>4166</v>
       </c>
       <c r="F251" t="n">
         <v>0</v>
@@ -27288,10 +27288,10 @@
         <v>0</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I251" t="n">
-        <v>0</v>
+        <v>1210</v>
       </c>
       <c r="J251" t="n">
         <v>0</v>
@@ -27306,10 +27306,10 @@
         <v>0</v>
       </c>
       <c r="P251" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q251" t="n">
-        <v>0</v>
+        <v>1768</v>
       </c>
       <c r="R251" t="n">
         <v>0</v>
@@ -27383,10 +27383,10 @@
         <v>0</v>
       </c>
       <c r="D252" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E252" t="n">
-        <v>4166</v>
+        <v>7820</v>
       </c>
       <c r="F252" t="n">
         <v>0</v>
@@ -27398,7 +27398,7 @@
         <v>1</v>
       </c>
       <c r="I252" t="n">
-        <v>1210</v>
+        <v>1357</v>
       </c>
       <c r="J252" t="n">
         <v>0</v>
@@ -27416,7 +27416,7 @@
         <v>1</v>
       </c>
       <c r="Q252" t="n">
-        <v>1768</v>
+        <v>1863</v>
       </c>
       <c r="R252" t="n">
         <v>0</v>
@@ -27490,10 +27490,10 @@
         <v>0</v>
       </c>
       <c r="D253" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E253" t="n">
-        <v>7820</v>
+        <v>5844</v>
       </c>
       <c r="F253" t="n">
         <v>0</v>
@@ -27505,7 +27505,7 @@
         <v>1</v>
       </c>
       <c r="I253" t="n">
-        <v>1357</v>
+        <v>1253</v>
       </c>
       <c r="J253" t="n">
         <v>0</v>
@@ -27523,7 +27523,7 @@
         <v>1</v>
       </c>
       <c r="Q253" t="n">
-        <v>1863</v>
+        <v>1886</v>
       </c>
       <c r="R253" t="n">
         <v>0</v>
@@ -27600,7 +27600,7 @@
         <v>3</v>
       </c>
       <c r="E254" t="n">
-        <v>5844</v>
+        <v>5532</v>
       </c>
       <c r="F254" t="n">
         <v>0</v>
@@ -27609,10 +27609,10 @@
         <v>0</v>
       </c>
       <c r="H254" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I254" t="n">
-        <v>1253</v>
+        <v>0</v>
       </c>
       <c r="J254" t="n">
         <v>0</v>
@@ -27627,10 +27627,10 @@
         <v>0</v>
       </c>
       <c r="P254" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q254" t="n">
-        <v>1886</v>
+        <v>0</v>
       </c>
       <c r="R254" t="n">
         <v>0</v>
@@ -27704,10 +27704,10 @@
         <v>0</v>
       </c>
       <c r="D255" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E255" t="n">
-        <v>5532</v>
+        <v>3648</v>
       </c>
       <c r="F255" t="n">
         <v>0</v>
@@ -27918,10 +27918,10 @@
         <v>0</v>
       </c>
       <c r="D257" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E257" t="n">
-        <v>3648</v>
+        <v>0</v>
       </c>
       <c r="F257" t="n">
         <v>0</v>
@@ -28132,10 +28132,10 @@
         <v>0</v>
       </c>
       <c r="D259" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E259" t="n">
-        <v>0</v>
+        <v>1485</v>
       </c>
       <c r="F259" t="n">
         <v>0</v>
@@ -29838,16 +29838,16 @@
         <v>45200</v>
       </c>
       <c r="B275" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="C275" t="n">
-        <v>65340</v>
+        <v>0</v>
       </c>
       <c r="D275" t="n">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="E275" t="n">
-        <v>73186</v>
+        <v>2930</v>
       </c>
       <c r="F275" t="n">
         <v>0</v>
@@ -29856,16 +29856,16 @@
         <v>0</v>
       </c>
       <c r="H275" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I275" t="n">
-        <v>3819</v>
+        <v>0</v>
       </c>
       <c r="J275" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K275" t="n">
-        <v>5634</v>
+        <v>0</v>
       </c>
       <c r="N275" t="n">
         <v>0</v>
@@ -29874,22 +29874,22 @@
         <v>0</v>
       </c>
       <c r="P275" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q275" t="n">
-        <v>5517</v>
+        <v>0</v>
       </c>
       <c r="R275" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S275" t="n">
-        <v>0</v>
+        <v>2272</v>
       </c>
       <c r="T275" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="U275" t="n">
-        <v>2736</v>
+        <v>0</v>
       </c>
       <c r="V275" t="n">
         <v>0</v>
@@ -29954,7 +29954,7 @@
         <v>1</v>
       </c>
       <c r="E276" t="n">
-        <v>2930</v>
+        <v>2921</v>
       </c>
       <c r="F276" t="n">
         <v>0</v>
@@ -30061,7 +30061,7 @@
         <v>1</v>
       </c>
       <c r="E277" t="n">
-        <v>2921</v>
+        <v>2249</v>
       </c>
       <c r="F277" t="n">
         <v>0</v>
@@ -30382,7 +30382,7 @@
         <v>1</v>
       </c>
       <c r="E280" t="n">
-        <v>2249</v>
+        <v>2294</v>
       </c>
       <c r="F280" t="n">
         <v>0</v>
@@ -30415,10 +30415,10 @@
         <v>0</v>
       </c>
       <c r="R280" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S280" t="n">
-        <v>2272</v>
+        <v>0</v>
       </c>
       <c r="T280" t="n">
         <v>0</v>
@@ -30596,7 +30596,7 @@
         <v>1</v>
       </c>
       <c r="E282" t="n">
-        <v>2294</v>
+        <v>2249</v>
       </c>
       <c r="F282" t="n">
         <v>0</v>
@@ -31131,7 +31131,7 @@
         <v>1</v>
       </c>
       <c r="E287" t="n">
-        <v>2249</v>
+        <v>2294</v>
       </c>
       <c r="F287" t="n">
         <v>0</v>
@@ -31247,10 +31247,10 @@
         <v>0</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I288" t="n">
-        <v>0</v>
+        <v>4197</v>
       </c>
       <c r="J288" t="n">
         <v>0</v>
@@ -31342,10 +31342,10 @@
         <v>0</v>
       </c>
       <c r="D289" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E289" t="n">
-        <v>2294</v>
+        <v>0</v>
       </c>
       <c r="F289" t="n">
         <v>0</v>
@@ -31461,10 +31461,10 @@
         <v>0</v>
       </c>
       <c r="H290" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I290" t="n">
-        <v>4197</v>
+        <v>0</v>
       </c>
       <c r="J290" t="n">
         <v>0</v>
@@ -31663,10 +31663,10 @@
         <v>0</v>
       </c>
       <c r="D292" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E292" t="n">
-        <v>0</v>
+        <v>1870</v>
       </c>
       <c r="F292" t="n">
         <v>0</v>
@@ -31773,7 +31773,7 @@
         <v>1</v>
       </c>
       <c r="E293" t="n">
-        <v>1870</v>
+        <v>1874</v>
       </c>
       <c r="F293" t="n">
         <v>0</v>
@@ -31824,10 +31824,10 @@
         <v>0</v>
       </c>
       <c r="X293" t="n">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="Y293" t="n">
-        <v>0</v>
+        <v>37692</v>
       </c>
       <c r="Z293" t="n">
         <v>0</v>
@@ -33155,16 +33155,16 @@
         <v>45231</v>
       </c>
       <c r="B306" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="C306" t="n">
-        <v>29632</v>
+        <v>0</v>
       </c>
       <c r="D306" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="E306" t="n">
-        <v>72765</v>
+        <v>0</v>
       </c>
       <c r="F306" t="n">
         <v>0</v>
@@ -33173,10 +33173,10 @@
         <v>0</v>
       </c>
       <c r="H306" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="I306" t="n">
-        <v>18060</v>
+        <v>0</v>
       </c>
       <c r="J306" t="n">
         <v>0</v>
@@ -33191,16 +33191,16 @@
         <v>0</v>
       </c>
       <c r="P306" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q306" t="n">
-        <v>9860</v>
+        <v>1954</v>
       </c>
       <c r="R306" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S306" t="n">
-        <v>11360</v>
+        <v>0</v>
       </c>
       <c r="T306" t="n">
         <v>0</v>
@@ -33209,16 +33209,16 @@
         <v>0</v>
       </c>
       <c r="V306" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="W306" t="n">
-        <v>7636</v>
+        <v>0</v>
       </c>
       <c r="X306" t="n">
-        <v>324</v>
+        <v>0</v>
       </c>
       <c r="Y306" t="n">
-        <v>228420</v>
+        <v>0</v>
       </c>
       <c r="Z306" t="n">
         <v>0</v>
@@ -33301,7 +33301,7 @@
         <v>1</v>
       </c>
       <c r="Q307" t="n">
-        <v>1954</v>
+        <v>1950</v>
       </c>
       <c r="R307" t="n">
         <v>0</v>
@@ -33405,10 +33405,10 @@
         <v>0</v>
       </c>
       <c r="P308" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q308" t="n">
-        <v>1950</v>
+        <v>0</v>
       </c>
       <c r="R308" t="n">
         <v>0</v>
@@ -34136,10 +34136,10 @@
         <v>0</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I315" t="n">
-        <v>0</v>
+        <v>1840</v>
       </c>
       <c r="J315" t="n">
         <v>0</v>
@@ -34564,10 +34564,10 @@
         <v>0</v>
       </c>
       <c r="H319" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I319" t="n">
-        <v>1840</v>
+        <v>0</v>
       </c>
       <c r="J319" t="n">
         <v>0</v>
@@ -34867,10 +34867,10 @@
         <v>45247</v>
       </c>
       <c r="B322" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C322" t="n">
-        <v>0</v>
+        <v>1640</v>
       </c>
       <c r="D322" t="n">
         <v>0</v>
@@ -34977,7 +34977,7 @@
         <v>1</v>
       </c>
       <c r="C323" t="n">
-        <v>1640</v>
+        <v>1700</v>
       </c>
       <c r="D323" t="n">
         <v>0</v>
@@ -35081,10 +35081,10 @@
         <v>45249</v>
       </c>
       <c r="B324" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C324" t="n">
-        <v>1700</v>
+        <v>0</v>
       </c>
       <c r="D324" t="n">
         <v>0</v>
@@ -36365,10 +36365,10 @@
         <v>45261</v>
       </c>
       <c r="B336" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C336" t="n">
-        <v>3340</v>
+        <v>0</v>
       </c>
       <c r="D336" t="n">
         <v>0</v>
@@ -36383,10 +36383,10 @@
         <v>0</v>
       </c>
       <c r="H336" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I336" t="n">
-        <v>7360</v>
+        <v>1545</v>
       </c>
       <c r="J336" t="n">
         <v>0</v>
@@ -36401,10 +36401,10 @@
         <v>0</v>
       </c>
       <c r="P336" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q336" t="n">
-        <v>3904</v>
+        <v>0</v>
       </c>
       <c r="R336" t="n">
         <v>0</v>
@@ -36996,10 +36996,10 @@
         <v>0</v>
       </c>
       <c r="AJ341" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AK341" t="n">
-        <v>0</v>
+        <v>6945</v>
       </c>
     </row>
     <row r="342">
@@ -37210,10 +37210,10 @@
         <v>0</v>
       </c>
       <c r="AJ343" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AK343" t="n">
-        <v>6945</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344">
@@ -37560,10 +37560,10 @@
         <v>0</v>
       </c>
       <c r="H347" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I347" t="n">
-        <v>1545</v>
+        <v>0</v>
       </c>
       <c r="J347" t="n">
         <v>0</v>

--- a/NameFile.xlsx
+++ b/NameFile.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AM366"/>
+  <dimension ref="A1:AK366"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,140 +483,130 @@
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t>OTA_RN</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>OTA_REV</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
           <t>CORPORATE_RN</t>
         </is>
       </c>
-      <c r="O1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>CORPORATE_REV</t>
         </is>
       </c>
-      <c r="P1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>OTA_BAR_RN</t>
         </is>
       </c>
-      <c r="Q1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>OTA_BAR_REV</t>
         </is>
       </c>
-      <c r="R1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>OTA_DISCOUNT_RN</t>
         </is>
       </c>
-      <c r="S1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>OTA_DISCOUNT_REV</t>
         </is>
       </c>
-      <c r="T1" t="inlineStr">
+      <c r="R1" t="inlineStr">
         <is>
           <t>LRA_CORPORATE_RN</t>
         </is>
       </c>
-      <c r="U1" t="inlineStr">
+      <c r="S1" t="inlineStr">
         <is>
           <t>LRA_CORPORATE_REV</t>
         </is>
       </c>
-      <c r="V1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>WHOLESALE_RN</t>
         </is>
       </c>
-      <c r="W1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>WHOLESALE_REV</t>
         </is>
       </c>
-      <c r="X1" t="inlineStr">
+      <c r="V1" t="inlineStr">
         <is>
           <t>GROUP_CORPORATE_RN</t>
         </is>
       </c>
-      <c r="Y1" t="inlineStr">
+      <c r="W1" t="inlineStr">
         <is>
           <t>GROUP_CORPORATE_REV</t>
         </is>
       </c>
-      <c r="Z1" t="inlineStr">
+      <c r="X1" t="inlineStr">
         <is>
           <t>GROUP_INCENTIVE_RN</t>
         </is>
       </c>
-      <c r="AA1" t="inlineStr">
+      <c r="Y1" t="inlineStr">
         <is>
           <t>GROUP_INCENTIVE_REV</t>
         </is>
       </c>
-      <c r="AB1" t="inlineStr">
+      <c r="Z1" t="inlineStr">
         <is>
           <t>GROUP_LEISURE_RN</t>
         </is>
       </c>
-      <c r="AC1" t="inlineStr">
+      <c r="AA1" t="inlineStr">
         <is>
           <t>GROUP_LEISURE_REV</t>
         </is>
       </c>
-      <c r="AD1" t="inlineStr">
+      <c r="AB1" t="inlineStr">
         <is>
           <t>GROUP_RESIDENTIAL_RN</t>
         </is>
       </c>
-      <c r="AE1" t="inlineStr">
+      <c r="AC1" t="inlineStr">
         <is>
           <t>GROUP_RESIDENTIAL_REV</t>
         </is>
       </c>
-      <c r="AF1" t="inlineStr">
+      <c r="AD1" t="inlineStr">
         <is>
           <t>GROUP_ENTERTAINMENT_RN</t>
         </is>
       </c>
-      <c r="AG1" t="inlineStr">
+      <c r="AE1" t="inlineStr">
         <is>
           <t>GROUP_ENTERTAINMENT_REV</t>
         </is>
       </c>
-      <c r="AH1" t="inlineStr">
+      <c r="AF1" t="inlineStr">
         <is>
           <t>GROUP_MIDDLE_EAST_RN</t>
         </is>
       </c>
-      <c r="AI1" t="inlineStr">
+      <c r="AG1" t="inlineStr">
         <is>
           <t>GROUP_MIDDLE_EAST_REV</t>
         </is>
       </c>
-      <c r="AJ1" t="inlineStr">
+      <c r="AH1" t="inlineStr">
         <is>
           <t>GROUP_GOVERNMENT_RN</t>
         </is>
       </c>
-      <c r="AK1" t="inlineStr">
+      <c r="AI1" t="inlineStr">
         <is>
           <t>GROUP_GOVERNMENT_REV</t>
         </is>
       </c>
-      <c r="AL1" t="inlineStr">
+      <c r="AJ1" t="inlineStr">
         <is>
           <t>COMPLIMENTARY_RN</t>
         </is>
       </c>
-      <c r="AM1" t="inlineStr">
+      <c r="AK1" t="inlineStr">
         <is>
           <t>COMPLIMENTARY_REV</t>
         </is>
